--- a/api/files/prices.xlsx
+++ b/api/files/prices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mamustin\Desktop\api_precios\api\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B568C91-364F-47A6-BCFC-104DC810EF68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5698A9C0-427A-475A-95E8-1C13383E106F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3885" yWindow="3510" windowWidth="22875" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -408,9 +408,6 @@
     <t>F76</t>
   </si>
   <si>
-    <t>F68 / F42</t>
-  </si>
-  <si>
     <t>F43</t>
   </si>
   <si>
@@ -523,6 +520,9 @@
   </si>
   <si>
     <t>F89</t>
+  </si>
+  <si>
+    <t>F42</t>
   </si>
 </sst>
 </file>
@@ -1200,11 +1200,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B778"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B778"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="A186" sqref="A186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
@@ -7120,7 +7123,7 @@
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A740" s="24" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="B740" s="54">
         <v>249100</v>
@@ -7128,7 +7131,7 @@
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A741" s="24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B741" s="54">
         <v>318300</v>
@@ -7136,7 +7139,7 @@
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A742" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B742" s="54">
         <v>210600</v>
@@ -7144,7 +7147,7 @@
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A743" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B743" s="54">
         <v>205600</v>
@@ -7152,7 +7155,7 @@
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A744" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B744" s="54">
         <v>310700</v>
@@ -7160,7 +7163,7 @@
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A745" s="57" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B745" s="58">
         <v>368700</v>
@@ -7168,7 +7171,7 @@
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A746" s="57" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B746" s="58">
         <v>576700</v>
@@ -7176,7 +7179,7 @@
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A747" s="57" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B747" s="58">
         <v>851200</v>
@@ -7184,7 +7187,7 @@
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A748" s="57" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B748" s="58">
         <v>1064500</v>
@@ -7192,7 +7195,7 @@
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A749" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B749" s="53">
         <v>678800</v>
@@ -7200,7 +7203,7 @@
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A750" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B750" s="54">
         <v>737000</v>
@@ -7208,7 +7211,7 @@
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A751" s="24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B751" s="54">
         <v>768400</v>
@@ -7216,7 +7219,7 @@
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A752" s="24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B752" s="54">
         <v>791500</v>
@@ -7224,7 +7227,7 @@
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A753" s="24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B753" s="54">
         <v>900700</v>
@@ -7232,7 +7235,7 @@
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A754" s="24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B754" s="54">
         <v>948000</v>
@@ -7240,7 +7243,7 @@
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A755" s="24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B755" s="54">
         <v>948000</v>
@@ -7248,7 +7251,7 @@
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A756" s="24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B756" s="54">
         <v>1391200</v>
@@ -7256,7 +7259,7 @@
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A757" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B757" s="54">
         <v>1504500</v>
@@ -7264,7 +7267,7 @@
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A758" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B758" s="54">
         <v>1819000</v>
@@ -7272,7 +7275,7 @@
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A759" s="57" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B759" s="58">
         <v>1934700</v>
@@ -7280,7 +7283,7 @@
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A760" s="36" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B760" s="59">
         <v>3521000</v>
@@ -7288,7 +7291,7 @@
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A761" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B761" s="53">
         <v>126500</v>
@@ -7296,7 +7299,7 @@
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A762" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B762" s="54">
         <v>127700</v>
@@ -7304,7 +7307,7 @@
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A763" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B763" s="56">
         <v>114900</v>
@@ -7312,7 +7315,7 @@
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A764" s="24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B764" s="54">
         <v>198400</v>
@@ -7320,7 +7323,7 @@
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A765" s="24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B765" s="54">
         <v>195300</v>
@@ -7328,7 +7331,7 @@
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A766" s="24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B766" s="54">
         <v>187100</v>
@@ -7336,7 +7339,7 @@
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A767" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B767" s="54">
         <v>232500</v>
@@ -7344,7 +7347,7 @@
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A768" s="24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B768" s="54">
         <v>242600</v>
@@ -7352,7 +7355,7 @@
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A769" s="57" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B769" s="58">
         <v>421700</v>
@@ -7360,7 +7363,7 @@
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A770" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B770" s="60">
         <v>31000</v>
@@ -7368,7 +7371,7 @@
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A771" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B771" s="56">
         <v>54400</v>
@@ -7376,7 +7379,7 @@
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A772" s="33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B772" s="56">
         <v>50700</v>
@@ -7384,7 +7387,7 @@
     </row>
     <row r="773" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A773" s="30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B773" s="60">
         <v>56900</v>
@@ -7392,7 +7395,7 @@
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A774" s="30" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B774" s="56">
         <v>73000</v>
@@ -7400,7 +7403,7 @@
     </row>
     <row r="775" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A775" s="30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B775" s="56">
         <v>94800</v>
@@ -7408,7 +7411,7 @@
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A776" s="30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B776" s="56">
         <v>73000</v>
@@ -7416,7 +7419,7 @@
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A777" s="30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B777" s="56">
         <v>120200</v>
@@ -7424,7 +7427,7 @@
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A778" s="30" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B778" s="56">
         <v>90500</v>

--- a/api/files/prices.xlsx
+++ b/api/files/prices.xlsx
@@ -1,26 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29221"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mamustin\Desktop\api_precios\api\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\la union\Desktop\la_union_api_prices\api\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{064BA655-DAB8-477F-8DE0-C57E810AACE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87353B6-2F8F-4537-847C-AC4E9703F2D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="166">
   <si>
     <r>
       <rPr>
@@ -48,25 +53,6 @@
         <rFont val="Calibri"/>
         <family val="1"/>
       </rPr>
-      <t>$ 699.200</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
       <t>17525L2</t>
     </r>
   </si>
@@ -277,25 +263,6 @@
         <rFont val="Calibri"/>
         <family val="1"/>
       </rPr>
-      <t>$ 61.000</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
       <t>RK764H1</t>
     </r>
   </si>
@@ -806,25 +773,6 @@
         <rFont val="Calibri"/>
         <family val="1"/>
       </rPr>
-      <t>$ 149.000</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
       <t>1V9E9Y001</t>
     </r>
   </si>
@@ -875,25 +823,6 @@
         <rFont val="Calibri"/>
         <family val="1"/>
       </rPr>
-      <t>$ 1.059.900</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
       <t>1I1P0W001</t>
     </r>
   </si>
@@ -1445,25 +1374,6 @@
         <family val="1"/>
       </rPr>
       <t>F71</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>$ 876.700</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>1</t>
     </r>
   </si>
   <si>
@@ -1781,10 +1691,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;\ #,##0;[Red]\-&quot;$&quot;\ #,##0"/>
     <numFmt numFmtId="164" formatCode="\$\ #,##0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1803,12 +1714,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="1"/>
     </font>
@@ -1944,9 +1849,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
@@ -1967,6 +1869,9 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2332,18 +2237,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B781"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F682" sqref="F682"/>
+    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
+      <selection activeCell="B210" sqref="B210"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>110375</v>
       </c>
@@ -2351,7 +2256,7 @@
         <v>94600</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>117809</v>
       </c>
@@ -2359,7 +2264,7 @@
         <v>88700</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>110371</v>
       </c>
@@ -2367,7 +2272,7 @@
         <v>95100</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>117808</v>
       </c>
@@ -2375,7 +2280,7 @@
         <v>88700</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>110540</v>
       </c>
@@ -2383,7 +2288,7 @@
         <v>105200</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>110376</v>
       </c>
@@ -2391,7 +2296,7 @@
         <v>98800</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>110372</v>
       </c>
@@ -2399,7 +2304,7 @@
         <v>98300</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>118299</v>
       </c>
@@ -2407,7 +2312,7 @@
         <v>93500</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>109747</v>
       </c>
@@ -2415,7 +2320,7 @@
         <v>114400</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>110373</v>
       </c>
@@ -2423,7 +2328,7 @@
         <v>103300</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>117820</v>
       </c>
@@ -2431,7 +2336,7 @@
         <v>95100</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>110529</v>
       </c>
@@ -2439,7 +2344,7 @@
         <v>112400</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>117822</v>
       </c>
@@ -2447,7 +2352,7 @@
         <v>101500</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>110325</v>
       </c>
@@ -2455,7 +2360,7 @@
         <v>112800</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>110374</v>
       </c>
@@ -2463,7 +2368,7 @@
         <v>105200</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>107830</v>
       </c>
@@ -2471,7 +2376,7 @@
         <v>117300</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>140921</v>
       </c>
@@ -2479,7 +2384,7 @@
         <v>101100</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>117833</v>
       </c>
@@ -2487,7 +2392,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>108794</v>
       </c>
@@ -2495,7 +2400,7 @@
         <v>128400</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>111463</v>
       </c>
@@ -2503,7 +2408,7 @@
         <v>121000</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>141823</v>
       </c>
@@ -2511,7 +2416,7 @@
         <v>128100</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>111466</v>
       </c>
@@ -2519,7 +2424,7 @@
         <v>121800</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>106855</v>
       </c>
@@ -2527,7 +2432,7 @@
         <v>116600</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>118330</v>
       </c>
@@ -2535,7 +2440,7 @@
         <v>124200</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>108711</v>
       </c>
@@ -2543,7 +2448,7 @@
         <v>130800</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>111462</v>
       </c>
@@ -2551,7 +2456,7 @@
         <v>126100</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>117831</v>
       </c>
@@ -2559,7 +2464,7 @@
         <v>113500</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>107236</v>
       </c>
@@ -2567,7 +2472,7 @@
         <v>144200</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>117821</v>
       </c>
@@ -2575,7 +2480,7 @@
         <v>122600</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>110787</v>
       </c>
@@ -2583,7 +2488,7 @@
         <v>147700</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>111469</v>
       </c>
@@ -2591,7 +2496,7 @@
         <v>134300</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>118140</v>
       </c>
@@ -2599,7 +2504,7 @@
         <v>153500</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>111468</v>
       </c>
@@ -2607,7 +2512,7 @@
         <v>184800</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>105333</v>
       </c>
@@ -2615,7 +2520,7 @@
         <v>222000</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>117787</v>
       </c>
@@ -2623,7 +2528,7 @@
         <v>168200</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>111743</v>
       </c>
@@ -2631,7 +2536,7 @@
         <v>209600</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>111172</v>
       </c>
@@ -2639,7 +2544,7 @@
         <v>212900</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>108795</v>
       </c>
@@ -2647,7 +2552,7 @@
         <v>174700</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>111418</v>
       </c>
@@ -2655,7 +2560,7 @@
         <v>156700</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>117785</v>
       </c>
@@ -2663,7 +2568,7 @@
         <v>148500</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>105894</v>
       </c>
@@ -2671,7 +2576,7 @@
         <v>204100</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>108303</v>
       </c>
@@ -2679,7 +2584,7 @@
         <v>246700</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>107263</v>
       </c>
@@ -2687,7 +2592,7 @@
         <v>231700</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>106698</v>
       </c>
@@ -2695,7 +2600,7 @@
         <v>267900</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>118298</v>
       </c>
@@ -2703,7 +2608,7 @@
         <v>166500</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>118337</v>
       </c>
@@ -2711,7 +2616,7 @@
         <v>234900</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>118403</v>
       </c>
@@ -2719,7 +2624,7 @@
         <v>213500</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>110733</v>
       </c>
@@ -2727,7 +2632,7 @@
         <v>233300</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>118338</v>
       </c>
@@ -2735,7 +2640,7 @@
         <v>241900</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>108701</v>
       </c>
@@ -2743,7 +2648,7 @@
         <v>254400</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>117706</v>
       </c>
@@ -2751,7 +2656,7 @@
         <v>267100</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>117862</v>
       </c>
@@ -2759,7 +2664,7 @@
         <v>187900</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>118094</v>
       </c>
@@ -2767,7 +2672,7 @@
         <v>209200</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>107629</v>
       </c>
@@ -2775,7 +2680,7 @@
         <v>214000</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>117861</v>
       </c>
@@ -2783,7 +2688,7 @@
         <v>192200</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>117786</v>
       </c>
@@ -2791,7 +2696,7 @@
         <v>178700</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>111467</v>
       </c>
@@ -2799,7 +2704,7 @@
         <v>247000</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>108583</v>
       </c>
@@ -2807,7 +2712,7 @@
         <v>258400</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>110581</v>
       </c>
@@ -2815,7 +2720,7 @@
         <v>401700</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>110711</v>
       </c>
@@ -2823,7 +2728,7 @@
         <v>306800</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>118381</v>
       </c>
@@ -2831,7 +2736,7 @@
         <v>269300</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>106565</v>
       </c>
@@ -2839,7 +2744,7 @@
         <v>258900</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>108361</v>
       </c>
@@ -2847,7 +2752,7 @@
         <v>278100</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>118286</v>
       </c>
@@ -2855,7 +2760,7 @@
         <v>292000</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>107495</v>
       </c>
@@ -2863,7 +2768,7 @@
         <v>262800</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>110233</v>
       </c>
@@ -2871,7 +2776,7 @@
         <v>319900</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>109493</v>
       </c>
@@ -2879,7 +2784,7 @@
         <v>290800</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>110580</v>
       </c>
@@ -2887,7 +2792,7 @@
         <v>464600</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>110193</v>
       </c>
@@ -2895,7 +2800,7 @@
         <v>309900</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>118379</v>
       </c>
@@ -2903,7 +2808,7 @@
         <v>316100</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>118392</v>
       </c>
@@ -2911,7 +2816,7 @@
         <v>319200</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>117948</v>
       </c>
@@ -2919,7 +2824,7 @@
         <v>316300</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>118383</v>
       </c>
@@ -2927,7 +2832,7 @@
         <v>322600</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>118376</v>
       </c>
@@ -2935,7 +2840,7 @@
         <v>326000</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>117859</v>
       </c>
@@ -2943,7 +2848,7 @@
         <v>335800</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>118391</v>
       </c>
@@ -2951,7 +2856,7 @@
         <v>370300</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>118319</v>
       </c>
@@ -2959,7 +2864,7 @@
         <v>342400</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>118320</v>
       </c>
@@ -2967,7 +2872,7 @@
         <v>352600</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>117789</v>
       </c>
@@ -2975,7 +2880,7 @@
         <v>342900</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>141565</v>
       </c>
@@ -2983,7 +2888,7 @@
         <v>580900</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>117840</v>
       </c>
@@ -2991,7 +2896,7 @@
         <v>125300</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>111442</v>
       </c>
@@ -2999,7 +2904,7 @@
         <v>169400</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>110745</v>
       </c>
@@ -3007,7 +2912,7 @@
         <v>166100</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>110751</v>
       </c>
@@ -3015,7 +2920,7 @@
         <v>174000</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>111434</v>
       </c>
@@ -3023,7 +2928,7 @@
         <v>208700</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>111381</v>
       </c>
@@ -3031,7 +2936,7 @@
         <v>215500</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>116241</v>
       </c>
@@ -3039,7 +2944,7 @@
         <v>331600</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>109338</v>
       </c>
@@ -3047,7 +2952,7 @@
         <v>245700</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>140922</v>
       </c>
@@ -3055,7 +2960,7 @@
         <v>223400</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>108022</v>
       </c>
@@ -3063,7 +2968,7 @@
         <v>223600</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>111532</v>
       </c>
@@ -3071,7 +2976,7 @@
         <v>261300</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>111383</v>
       </c>
@@ -3079,7 +2984,7 @@
         <v>284800</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>117854</v>
       </c>
@@ -3087,7 +2992,7 @@
         <v>213400</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>111443</v>
       </c>
@@ -3095,7 +3000,7 @@
         <v>217700</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>117315</v>
       </c>
@@ -3103,7 +3008,7 @@
         <v>205200</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>110740</v>
       </c>
@@ -3111,7 +3016,7 @@
         <v>205200</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>110762</v>
       </c>
@@ -3119,7 +3024,7 @@
         <v>242900</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>100761</v>
       </c>
@@ -3127,7 +3032,7 @@
         <v>266500</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>111435</v>
       </c>
@@ -3135,7 +3040,7 @@
         <v>243300</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>117841</v>
       </c>
@@ -3143,7 +3048,7 @@
         <v>211500</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>110743</v>
       </c>
@@ -3151,7 +3056,7 @@
         <v>246900</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>117838</v>
       </c>
@@ -3159,7 +3064,7 @@
         <v>227100</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>111433</v>
       </c>
@@ -3167,7 +3072,7 @@
         <v>271400</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>111430</v>
       </c>
@@ -3175,7 +3080,7 @@
         <v>291100</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>117834</v>
       </c>
@@ -3183,7 +3088,7 @@
         <v>262000</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>117289</v>
       </c>
@@ -3191,7 +3096,7 @@
         <v>324500</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>116527</v>
       </c>
@@ -3199,7 +3104,7 @@
         <v>274800</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>107472</v>
       </c>
@@ -3207,7 +3112,7 @@
         <v>273400</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>110746</v>
       </c>
@@ -3215,7 +3120,7 @@
         <v>260900</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>111569</v>
       </c>
@@ -3223,7 +3128,7 @@
         <v>291400</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>110742</v>
       </c>
@@ -3231,7 +3136,7 @@
         <v>266600</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>118306</v>
       </c>
@@ -3239,7 +3144,7 @@
         <v>239900</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>107474</v>
       </c>
@@ -3247,7 +3152,7 @@
         <v>343900</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>111598</v>
       </c>
@@ -3255,7 +3160,7 @@
         <v>284000</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>110515</v>
       </c>
@@ -3263,7 +3168,7 @@
         <v>263900</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>111530</v>
       </c>
@@ -3271,7 +3176,7 @@
         <v>312400</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>110752</v>
       </c>
@@ -3279,7 +3184,7 @@
         <v>332400</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>107890</v>
       </c>
@@ -3287,7 +3192,7 @@
         <v>290900</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>117087</v>
       </c>
@@ -3295,7 +3200,7 @@
         <v>268800</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>111439</v>
       </c>
@@ -3303,7 +3208,7 @@
         <v>279200</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>110756</v>
       </c>
@@ -3311,7 +3216,7 @@
         <v>371900</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>107886</v>
       </c>
@@ -3319,7 +3224,7 @@
         <v>326500</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>110753</v>
       </c>
@@ -3327,7 +3232,7 @@
         <v>300100</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>110750</v>
       </c>
@@ -3335,7 +3240,7 @@
         <v>302900</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>111879</v>
       </c>
@@ -3343,7 +3248,7 @@
         <v>301100</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>111437</v>
       </c>
@@ -3351,7 +3256,7 @@
         <v>278000</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>110749</v>
       </c>
@@ -3359,7 +3264,7 @@
         <v>271500</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>111447</v>
       </c>
@@ -3367,7 +3272,7 @@
         <v>312500</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>107532</v>
       </c>
@@ -3375,7 +3280,7 @@
         <v>312700</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>109933</v>
       </c>
@@ -3383,7 +3288,7 @@
         <v>290000</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>111655</v>
       </c>
@@ -3391,7 +3296,7 @@
         <v>303200</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>111438</v>
       </c>
@@ -3399,7 +3304,7 @@
         <v>279700</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>110747</v>
       </c>
@@ -3407,7 +3312,7 @@
         <v>267100</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>111445</v>
       </c>
@@ -3415,7 +3320,7 @@
         <v>344100</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>106955</v>
       </c>
@@ -3423,7 +3328,7 @@
         <v>452600</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>110313</v>
       </c>
@@ -3431,7 +3336,7 @@
         <v>292000</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>117853</v>
       </c>
@@ -3439,7 +3344,7 @@
         <v>281600</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>110339</v>
       </c>
@@ -3447,7 +3352,7 @@
         <v>303600</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>117856</v>
       </c>
@@ -3455,7 +3360,7 @@
         <v>305900</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>117855</v>
       </c>
@@ -3463,7 +3368,7 @@
         <v>274000</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>108772</v>
       </c>
@@ -3471,7 +3376,7 @@
         <v>318800</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>108592</v>
       </c>
@@ -3479,7 +3384,7 @@
         <v>380400</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>118183</v>
       </c>
@@ -3487,7 +3392,7 @@
         <v>319200</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>110741</v>
       </c>
@@ -3495,7 +3400,7 @@
         <v>290100</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>107888</v>
       </c>
@@ -3503,7 +3408,7 @@
         <v>329000</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>111436</v>
       </c>
@@ -3511,7 +3416,7 @@
         <v>312600</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>111660</v>
       </c>
@@ -3519,7 +3424,7 @@
         <v>339100</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>111441</v>
       </c>
@@ -3527,7 +3432,7 @@
         <v>288500</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>118222</v>
       </c>
@@ -3535,7 +3440,7 @@
         <v>318700</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>110755</v>
       </c>
@@ -3543,7 +3448,7 @@
         <v>315200</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>107109</v>
       </c>
@@ -3551,7 +3456,7 @@
         <v>431800</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>110895</v>
       </c>
@@ -3559,7 +3464,7 @@
         <v>363200</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>111850</v>
       </c>
@@ -3567,7 +3472,7 @@
         <v>470700</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>108770</v>
       </c>
@@ -3575,7 +3480,7 @@
         <v>383800</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>107892</v>
       </c>
@@ -3583,7 +3488,7 @@
         <v>400600</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>111440</v>
       </c>
@@ -3591,7 +3496,7 @@
         <v>425600</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>111690</v>
       </c>
@@ -3599,7 +3504,7 @@
         <v>621900</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>107537</v>
       </c>
@@ -3607,7 +3512,7 @@
         <v>527000</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>109646</v>
       </c>
@@ -3615,7 +3520,7 @@
         <v>288500</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>109645</v>
       </c>
@@ -3623,7 +3528,7 @@
         <v>301600</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>109647</v>
       </c>
@@ -3631,7 +3536,7 @@
         <v>323200</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>105111</v>
       </c>
@@ -3639,7 +3544,7 @@
         <v>302500</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>111182</v>
       </c>
@@ -3647,7 +3552,7 @@
         <v>230600</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>109641</v>
       </c>
@@ -3655,7 +3560,7 @@
         <v>260300</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>105705</v>
       </c>
@@ -3663,7 +3568,7 @@
         <v>324600</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>109640</v>
       </c>
@@ -3671,7 +3576,7 @@
         <v>279500</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>111330</v>
       </c>
@@ -3679,7 +3584,7 @@
         <v>341400</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>118166</v>
       </c>
@@ -3687,7 +3592,7 @@
         <v>302800</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>118168</v>
       </c>
@@ -3695,7 +3600,7 @@
         <v>318000</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>118171</v>
       </c>
@@ -3703,7 +3608,7 @@
         <v>485900</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>118169</v>
       </c>
@@ -3711,7 +3616,7 @@
         <v>363500</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>111813</v>
       </c>
@@ -3719,7 +3624,7 @@
         <v>443400</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>118226</v>
       </c>
@@ -3727,7 +3632,7 @@
         <v>458700</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>111812</v>
       </c>
@@ -3735,7 +3640,7 @@
         <v>451200</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>140991</v>
       </c>
@@ -3743,7 +3648,7 @@
         <v>488800</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>118257</v>
       </c>
@@ -3751,7 +3656,7 @@
         <v>486000</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>118119</v>
       </c>
@@ -3759,7 +3664,7 @@
         <v>522500</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>118187</v>
       </c>
@@ -3767,7 +3672,7 @@
         <v>507800</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>118229</v>
       </c>
@@ -3775,7 +3680,7 @@
         <v>571100</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>118419</v>
       </c>
@@ -3783,7 +3688,7 @@
         <v>528100</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>118333</v>
       </c>
@@ -3791,7 +3696,7 @@
         <v>567200</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>118205</v>
       </c>
@@ -3799,7 +3704,7 @@
         <v>604500</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>118113</v>
       </c>
@@ -3807,7 +3712,7 @@
         <v>616800</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>118530</v>
       </c>
@@ -3815,7 +3720,7 @@
         <v>646800</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>118528</v>
       </c>
@@ -3823,7 +3728,7 @@
         <v>660000</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="6">
         <v>118200</v>
       </c>
@@ -3831,7 +3736,7 @@
         <v>610200</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="8" t="s">
         <v>0</v>
       </c>
@@ -3839,7 +3744,7 @@
         <v>353000</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>111357</v>
       </c>
@@ -3847,7 +3752,7 @@
         <v>342400</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>108961</v>
       </c>
@@ -3855,7 +3760,7 @@
         <v>379700</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>105470</v>
       </c>
@@ -3863,7 +3768,7 @@
         <v>477000</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>110063</v>
       </c>
@@ -3871,7 +3776,7 @@
         <v>524900</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>105368</v>
       </c>
@@ -3879,7 +3784,7 @@
         <v>486500</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>118215</v>
       </c>
@@ -3887,7 +3792,7 @@
         <v>521200</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>110841</v>
       </c>
@@ -3895,7 +3800,7 @@
         <v>568600</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>110563</v>
       </c>
@@ -3903,7 +3808,7 @@
         <v>679500</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>120002</v>
       </c>
@@ -3911,7 +3816,7 @@
         <v>397700</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>120003</v>
       </c>
@@ -3919,7 +3824,7 @@
         <v>401700</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>120050</v>
       </c>
@@ -3927,7 +3832,7 @@
         <v>189700</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>120098</v>
       </c>
@@ -3935,7 +3840,7 @@
         <v>327700</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>122968</v>
       </c>
@@ -3943,7 +3848,7 @@
         <v>714500</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>122967</v>
       </c>
@@ -3951,7 +3856,7 @@
         <v>796900</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>123492</v>
       </c>
@@ -3959,7 +3864,7 @@
         <v>715300</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>123345</v>
       </c>
@@ -3967,7 +3872,7 @@
         <v>411800</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>123343</v>
       </c>
@@ -3975,7 +3880,7 @@
         <v>490200</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>123822</v>
       </c>
@@ -3983,7 +3888,7 @@
         <v>646300</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>123909</v>
       </c>
@@ -3991,7 +3896,7 @@
         <v>647900</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>124486</v>
       </c>
@@ -3999,7 +3904,7 @@
         <v>714500</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>121304</v>
       </c>
@@ -4007,7 +3912,7 @@
         <v>802100</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>122673</v>
       </c>
@@ -4015,7 +3920,7 @@
         <v>647900</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>122647</v>
       </c>
@@ -4023,7 +3928,7 @@
         <v>714500</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>123313</v>
       </c>
@@ -4031,7 +3936,7 @@
         <v>437900</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>120286</v>
       </c>
@@ -4039,7 +3944,7 @@
         <v>663200</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>122671</v>
       </c>
@@ -4047,7 +3952,7 @@
         <v>736900</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>120285</v>
       </c>
@@ -4055,7 +3960,7 @@
         <v>720800</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>122962</v>
       </c>
@@ -4063,7 +3968,7 @@
         <v>796900</v>
       </c>
     </row>
-    <row r="216" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>121307</v>
       </c>
@@ -4071,7 +3976,7 @@
         <v>882400</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>123284</v>
       </c>
@@ -4079,7 +3984,7 @@
         <v>611300</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>120389</v>
       </c>
@@ -4087,7 +3992,7 @@
         <v>563700</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>120028</v>
       </c>
@@ -4095,7 +4000,7 @@
         <v>655100</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>120008</v>
       </c>
@@ -4103,7 +4008,7 @@
         <v>934000</v>
       </c>
     </row>
-    <row r="221" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>123153</v>
       </c>
@@ -4111,7 +4016,7 @@
         <v>647900</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>122985</v>
       </c>
@@ -4119,7 +4024,7 @@
         <v>346579</v>
       </c>
     </row>
-    <row r="223" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>124594</v>
       </c>
@@ -4127,7 +4032,7 @@
         <v>412555</v>
       </c>
     </row>
-    <row r="224" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>122188</v>
       </c>
@@ -4135,7 +4040,7 @@
         <v>714663</v>
       </c>
     </row>
-    <row r="225" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>123084</v>
       </c>
@@ -4143,7 +4048,7 @@
         <v>699696</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>124247</v>
       </c>
@@ -4151,7 +4056,7 @@
         <v>554875</v>
       </c>
     </row>
-    <row r="227" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>120339</v>
       </c>
@@ -4159,7 +4064,7 @@
         <v>504999</v>
       </c>
     </row>
-    <row r="228" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>124248</v>
       </c>
@@ -4167,7 +4072,7 @@
         <v>612567</v>
       </c>
     </row>
-    <row r="229" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>123911</v>
       </c>
@@ -4175,7 +4080,7 @@
         <v>551311</v>
       </c>
     </row>
-    <row r="230" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>123445</v>
       </c>
@@ -4183,7 +4088,7 @@
         <v>796337</v>
       </c>
     </row>
-    <row r="231" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>122195</v>
       </c>
@@ -4191,7 +4096,7 @@
         <v>794964</v>
       </c>
     </row>
-    <row r="232" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>122983</v>
       </c>
@@ -4199,7 +4104,7 @@
         <v>601882</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>122984</v>
       </c>
@@ -4207,7 +4112,7 @@
         <v>665355</v>
       </c>
     </row>
-    <row r="234" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>123862</v>
       </c>
@@ -4215,7 +4120,7 @@
         <v>1035743</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>124433</v>
       </c>
@@ -4223,7 +4128,7 @@
         <v>1230600</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>120995</v>
       </c>
@@ -4231,7 +4136,7 @@
         <v>982500</v>
       </c>
     </row>
-    <row r="237" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>123222</v>
       </c>
@@ -4239,7 +4144,7 @@
         <v>1279800</v>
       </c>
     </row>
-    <row r="238" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>120240</v>
       </c>
@@ -4247,7 +4152,7 @@
         <v>598700</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>123833</v>
       </c>
@@ -4255,7 +4160,7 @@
         <v>688100</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>123344</v>
       </c>
@@ -4263,7 +4168,7 @@
         <v>299500</v>
       </c>
     </row>
-    <row r="241" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>124477</v>
       </c>
@@ -4271,7 +4176,7 @@
         <v>329400</v>
       </c>
     </row>
-    <row r="242" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>123560</v>
       </c>
@@ -4279,7 +4184,7 @@
         <v>599600</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>124370</v>
       </c>
@@ -4287,7 +4192,7 @@
         <v>587500</v>
       </c>
     </row>
-    <row r="244" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>121760</v>
       </c>
@@ -4295,7 +4200,7 @@
         <v>480000</v>
       </c>
     </row>
-    <row r="245" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>124475</v>
       </c>
@@ -4303,7 +4208,7 @@
         <v>531300</v>
       </c>
     </row>
-    <row r="246" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>124476</v>
       </c>
@@ -4311,7 +4216,7 @@
         <v>604200</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>121651</v>
       </c>
@@ -4319,7 +4224,7 @@
         <v>526700</v>
       </c>
     </row>
-    <row r="248" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>123561</v>
       </c>
@@ -4327,7 +4232,7 @@
         <v>656200</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>124371</v>
       </c>
@@ -4335,7 +4240,7 @@
         <v>646200</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>122703</v>
       </c>
@@ -4343,7 +4248,7 @@
         <v>587400</v>
       </c>
     </row>
-    <row r="251" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>160052</v>
       </c>
@@ -4351,7 +4256,7 @@
         <v>100400</v>
       </c>
     </row>
-    <row r="252" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>160054</v>
       </c>
@@ -4359,7 +4264,7 @@
         <v>159100</v>
       </c>
     </row>
-    <row r="253" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>160051</v>
       </c>
@@ -4367,7 +4272,7 @@
         <v>177300</v>
       </c>
     </row>
-    <row r="254" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>160055</v>
       </c>
@@ -4375,7 +4280,7 @@
         <v>269000</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>1100000</v>
       </c>
@@ -4383,7 +4288,7 @@
         <v>285000</v>
       </c>
     </row>
-    <row r="256" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>1100403</v>
       </c>
@@ -4391,7 +4296,7 @@
         <v>235000</v>
       </c>
     </row>
-    <row r="257" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>1100401</v>
       </c>
@@ -4399,7 +4304,7 @@
         <v>309000</v>
       </c>
     </row>
-    <row r="258" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>1100402</v>
       </c>
@@ -4407,7 +4312,7 @@
         <v>334000</v>
       </c>
     </row>
-    <row r="259" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>1181019</v>
       </c>
@@ -4415,7 +4320,7 @@
         <v>5024000</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>1701510</v>
       </c>
@@ -4423,7 +4328,7 @@
         <v>478000</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>1101350</v>
       </c>
@@ -4431,7 +4336,7 @@
         <v>382000</v>
       </c>
     </row>
-    <row r="262" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>1120001</v>
       </c>
@@ -4439,7 +4344,7 @@
         <v>392000</v>
       </c>
     </row>
-    <row r="263" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>1100051</v>
       </c>
@@ -4447,7 +4352,7 @@
         <v>397000</v>
       </c>
     </row>
-    <row r="264" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>1100050</v>
       </c>
@@ -4455,7 +4360,7 @@
         <v>409000</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>1600050</v>
       </c>
@@ -4463,7 +4368,7 @@
         <v>971000</v>
       </c>
     </row>
-    <row r="266" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>1150005</v>
       </c>
@@ -4471,7 +4376,7 @@
         <v>416000</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="3">
         <v>1150000</v>
       </c>
@@ -4479,7 +4384,7 @@
         <v>448000</v>
       </c>
     </row>
-    <row r="268" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>1150003</v>
       </c>
@@ -4487,7 +4392,7 @@
         <v>473000</v>
       </c>
     </row>
-    <row r="269" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>1182040</v>
       </c>
@@ -4495,7 +4400,7 @@
         <v>7473000</v>
       </c>
     </row>
-    <row r="270" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>1103003</v>
       </c>
@@ -4503,7 +4408,7 @@
         <v>205000</v>
       </c>
     </row>
-    <row r="271" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>1103002</v>
       </c>
@@ -4511,7 +4416,7 @@
         <v>220000</v>
       </c>
     </row>
-    <row r="272" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>1103001</v>
       </c>
@@ -4519,7 +4424,7 @@
         <v>272000</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>1101150</v>
       </c>
@@ -4527,7 +4432,7 @@
         <v>269000</v>
       </c>
     </row>
-    <row r="274" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>1101160</v>
       </c>
@@ -4535,7 +4440,7 @@
         <v>310000</v>
       </c>
     </row>
-    <row r="275" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>1101202</v>
       </c>
@@ -4543,7 +4448,7 @@
         <v>293000</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>1101201</v>
       </c>
@@ -4551,7 +4456,7 @@
         <v>333000</v>
       </c>
     </row>
-    <row r="277" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>1602023</v>
       </c>
@@ -4559,7 +4464,7 @@
         <v>2001000</v>
       </c>
     </row>
-    <row r="278" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>1150014</v>
       </c>
@@ -4567,7 +4472,7 @@
         <v>464000</v>
       </c>
     </row>
-    <row r="279" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>1150015</v>
       </c>
@@ -4575,7 +4480,7 @@
         <v>766000</v>
       </c>
     </row>
-    <row r="280" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>1159305</v>
       </c>
@@ -4583,7 +4488,7 @@
         <v>502000</v>
       </c>
     </row>
-    <row r="281" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>1159211</v>
       </c>
@@ -4591,7 +4496,7 @@
         <v>545000</v>
       </c>
     </row>
-    <row r="282" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>1159320</v>
       </c>
@@ -4599,7 +4504,7 @@
         <v>482000</v>
       </c>
     </row>
-    <row r="283" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>1159210</v>
       </c>
@@ -4607,7 +4512,7 @@
         <v>431000</v>
       </c>
     </row>
-    <row r="284" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>1159324</v>
       </c>
@@ -4615,7 +4520,7 @@
         <v>424000</v>
       </c>
     </row>
-    <row r="285" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>1150315</v>
       </c>
@@ -4623,7 +4528,7 @@
         <v>414000</v>
       </c>
     </row>
-    <row r="286" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>1150020</v>
       </c>
@@ -4631,7 +4536,7 @@
         <v>517000</v>
       </c>
     </row>
-    <row r="287" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>1150124</v>
       </c>
@@ -4639,7 +4544,7 @@
         <v>737000</v>
       </c>
     </row>
-    <row r="288" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>1150032</v>
       </c>
@@ -4647,7 +4552,7 @@
         <v>688000</v>
       </c>
     </row>
-    <row r="289" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>1150030</v>
       </c>
@@ -4655,7 +4560,7 @@
         <v>594000</v>
       </c>
     </row>
-    <row r="290" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>1150900</v>
       </c>
@@ -4663,7 +4568,7 @@
         <v>727000</v>
       </c>
     </row>
-    <row r="291" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>1101800</v>
       </c>
@@ -4671,7 +4576,7 @@
         <v>446000</v>
       </c>
     </row>
-    <row r="292" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>1101410</v>
       </c>
@@ -4679,7 +4584,7 @@
         <v>469000</v>
       </c>
     </row>
-    <row r="293" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>1101422</v>
       </c>
@@ -4687,7 +4592,7 @@
         <v>522000</v>
       </c>
     </row>
-    <row r="294" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>1103005</v>
       </c>
@@ -4695,7 +4600,7 @@
         <v>263000</v>
       </c>
     </row>
-    <row r="295" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>1103004</v>
       </c>
@@ -4703,7 +4608,7 @@
         <v>245000</v>
       </c>
     </row>
-    <row r="296" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>1103006</v>
       </c>
@@ -4711,7 +4616,7 @@
         <v>304000</v>
       </c>
     </row>
-    <row r="297" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>1101250</v>
       </c>
@@ -4719,7 +4624,7 @@
         <v>415000</v>
       </c>
     </row>
-    <row r="298" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>1701515</v>
       </c>
@@ -4727,7 +4632,7 @@
         <v>559000</v>
       </c>
     </row>
-    <row r="299" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>1601002</v>
       </c>
@@ -4735,7 +4640,7 @@
         <v>874000</v>
       </c>
     </row>
-    <row r="300" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>1601003</v>
       </c>
@@ -4743,7 +4648,7 @@
         <v>918000</v>
       </c>
     </row>
-    <row r="301" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>1601004</v>
       </c>
@@ -4751,7 +4656,7 @@
         <v>848000</v>
       </c>
     </row>
-    <row r="302" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>1601005</v>
       </c>
@@ -4759,7 +4664,7 @@
         <v>1022000</v>
       </c>
     </row>
-    <row r="303" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>1150022</v>
       </c>
@@ -4767,7 +4672,7 @@
         <v>625000</v>
       </c>
     </row>
-    <row r="304" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>1159330</v>
       </c>
@@ -4775,7 +4680,7 @@
         <v>681000</v>
       </c>
     </row>
-    <row r="305" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>1150201</v>
       </c>
@@ -4783,7 +4688,7 @@
         <v>927000</v>
       </c>
     </row>
-    <row r="306" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>1150200</v>
       </c>
@@ -4791,7 +4696,7 @@
         <v>792000</v>
       </c>
     </row>
-    <row r="307" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>1602025</v>
       </c>
@@ -4799,7 +4704,7 @@
         <v>2839000</v>
       </c>
     </row>
-    <row r="308" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>1606094</v>
       </c>
@@ -4807,7 +4712,7 @@
         <v>967000</v>
       </c>
     </row>
-    <row r="309" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>1606095</v>
       </c>
@@ -4815,7 +4720,7 @@
         <v>922000</v>
       </c>
     </row>
-    <row r="310" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>1606097</v>
       </c>
@@ -4823,7 +4728,7 @@
         <v>1085000</v>
       </c>
     </row>
-    <row r="311" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>1606096</v>
       </c>
@@ -4831,7 +4736,7 @@
         <v>1026000</v>
       </c>
     </row>
-    <row r="312" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>1150041</v>
       </c>
@@ -4839,7 +4744,7 @@
         <v>661000</v>
       </c>
     </row>
-    <row r="313" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>1150043</v>
       </c>
@@ -4847,7 +4752,7 @@
         <v>991000</v>
       </c>
     </row>
-    <row r="314" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>1150411</v>
       </c>
@@ -4855,7 +4760,7 @@
         <v>760000</v>
       </c>
     </row>
-    <row r="315" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>1159230</v>
       </c>
@@ -4863,7 +4768,7 @@
         <v>697000</v>
       </c>
     </row>
-    <row r="316" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>1159201</v>
       </c>
@@ -4871,7 +4776,7 @@
         <v>664000</v>
       </c>
     </row>
-    <row r="317" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>1159200</v>
       </c>
@@ -4879,7 +4784,7 @@
         <v>584000</v>
       </c>
     </row>
-    <row r="318" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>1159220</v>
       </c>
@@ -4887,7 +4792,7 @@
         <v>695000</v>
       </c>
     </row>
-    <row r="319" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>1159323</v>
       </c>
@@ -4895,7 +4800,7 @@
         <v>651000</v>
       </c>
     </row>
-    <row r="320" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>1150320</v>
       </c>
@@ -4903,7 +4808,7 @@
         <v>596000</v>
       </c>
     </row>
-    <row r="321" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>1150300</v>
       </c>
@@ -4911,7 +4816,7 @@
         <v>514000</v>
       </c>
     </row>
-    <row r="322" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>1150050</v>
       </c>
@@ -4919,7 +4824,7 @@
         <v>737000</v>
       </c>
     </row>
-    <row r="323" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>1150060</v>
       </c>
@@ -4927,7 +4832,7 @@
         <v>720000</v>
       </c>
     </row>
-    <row r="324" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>1150062</v>
       </c>
@@ -4935,7 +4840,7 @@
         <v>804000</v>
       </c>
     </row>
-    <row r="325" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>1150061</v>
       </c>
@@ -4943,7 +4848,7 @@
         <v>756000</v>
       </c>
     </row>
-    <row r="326" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>1150211</v>
       </c>
@@ -4951,7 +4856,7 @@
         <v>780000</v>
       </c>
     </row>
-    <row r="327" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>1150415</v>
       </c>
@@ -4959,7 +4864,7 @@
         <v>901000</v>
       </c>
     </row>
-    <row r="328" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>1159325</v>
       </c>
@@ -4967,7 +4872,7 @@
         <v>731000</v>
       </c>
     </row>
-    <row r="329" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>1101414</v>
       </c>
@@ -4975,7 +4880,7 @@
         <v>554000</v>
       </c>
     </row>
-    <row r="330" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>1101415</v>
       </c>
@@ -4983,7 +4888,7 @@
         <v>628000</v>
       </c>
     </row>
-    <row r="331" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>1608000</v>
       </c>
@@ -4991,7 +4896,7 @@
         <v>1056000</v>
       </c>
     </row>
-    <row r="332" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>1150192</v>
       </c>
@@ -4999,7 +4904,7 @@
         <v>919000</v>
       </c>
     </row>
-    <row r="333" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>1101300</v>
       </c>
@@ -5007,7 +4912,7 @@
         <v>729000</v>
       </c>
     </row>
-    <row r="334" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>1102600</v>
       </c>
@@ -5015,7 +4920,7 @@
         <v>815000</v>
       </c>
     </row>
-    <row r="335" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>1151004</v>
       </c>
@@ -5023,7 +4928,7 @@
         <v>864000</v>
       </c>
     </row>
-    <row r="336" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>1151003</v>
       </c>
@@ -5031,7 +4936,7 @@
         <v>1108000</v>
       </c>
     </row>
-    <row r="337" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>1151002</v>
       </c>
@@ -5039,7 +4944,7 @@
         <v>778000</v>
       </c>
     </row>
-    <row r="338" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>1159215</v>
       </c>
@@ -5047,7 +4952,7 @@
         <v>937000</v>
       </c>
     </row>
-    <row r="339" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>1150221</v>
       </c>
@@ -5055,7 +4960,7 @@
         <v>977000</v>
       </c>
     </row>
-    <row r="340" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>1151102</v>
       </c>
@@ -5063,7 +4968,7 @@
         <v>1083000</v>
       </c>
     </row>
-    <row r="341" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>1150095</v>
       </c>
@@ -5071,7 +4976,7 @@
         <v>949000</v>
       </c>
     </row>
-    <row r="342" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>1150080</v>
       </c>
@@ -5079,7 +4984,7 @@
         <v>943000</v>
       </c>
     </row>
-    <row r="343" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>1150417</v>
       </c>
@@ -5087,7 +4992,7 @@
         <v>1352000</v>
       </c>
     </row>
-    <row r="344" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>1606072</v>
       </c>
@@ -5095,7 +5000,7 @@
         <v>1380000</v>
       </c>
     </row>
-    <row r="345" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>1603001</v>
       </c>
@@ -5103,7 +5008,7 @@
         <v>3398000</v>
       </c>
     </row>
-    <row r="346" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>1606098</v>
       </c>
@@ -5111,7 +5016,7 @@
         <v>1147000</v>
       </c>
     </row>
-    <row r="347" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>1606099</v>
       </c>
@@ -5119,7 +5024,7 @@
         <v>1159000</v>
       </c>
     </row>
-    <row r="348" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>1650010</v>
       </c>
@@ -5127,7 +5032,7 @@
         <v>2192000</v>
       </c>
     </row>
-    <row r="349" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>1606011</v>
       </c>
@@ -5135,7 +5040,7 @@
         <v>5690000</v>
       </c>
     </row>
-    <row r="350" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>1606010</v>
       </c>
@@ -5143,7 +5048,7 @@
         <v>5687000</v>
       </c>
     </row>
-    <row r="351" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>1150233</v>
       </c>
@@ -5151,7 +5056,7 @@
         <v>1156000</v>
       </c>
     </row>
-    <row r="352" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>1150420</v>
       </c>
@@ -5159,7 +5064,7 @@
         <v>1329000</v>
       </c>
     </row>
-    <row r="353" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>1150240</v>
       </c>
@@ -5167,7 +5072,7 @@
         <v>1071000</v>
       </c>
     </row>
-    <row r="354" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>1150242</v>
       </c>
@@ -5175,7 +5080,7 @@
         <v>1150000</v>
       </c>
     </row>
-    <row r="355" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>1150100</v>
       </c>
@@ -5183,7 +5088,7 @@
         <v>1625000</v>
       </c>
     </row>
-    <row r="356" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>1150413</v>
       </c>
@@ -5191,7 +5096,7 @@
         <v>1535000</v>
       </c>
     </row>
-    <row r="357" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>1159101</v>
       </c>
@@ -5199,7 +5104,7 @@
         <v>1039000</v>
       </c>
     </row>
-    <row r="358" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>1159091</v>
       </c>
@@ -5207,7 +5112,7 @@
         <v>1143000</v>
       </c>
     </row>
-    <row r="359" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>1150101</v>
       </c>
@@ -5215,7 +5120,7 @@
         <v>1315000</v>
       </c>
     </row>
-    <row r="360" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>1150106</v>
       </c>
@@ -5223,7 +5128,7 @@
         <v>1718000</v>
       </c>
     </row>
-    <row r="361" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>1150414</v>
       </c>
@@ -5231,7 +5136,7 @@
         <v>1625000</v>
       </c>
     </row>
-    <row r="362" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>1159111</v>
       </c>
@@ -5239,7 +5144,7 @@
         <v>1186000</v>
       </c>
     </row>
-    <row r="363" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>1159102</v>
       </c>
@@ -5247,7 +5152,7 @@
         <v>1228000</v>
       </c>
     </row>
-    <row r="364" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>1159213</v>
       </c>
@@ -5255,7 +5160,7 @@
         <v>1392000</v>
       </c>
     </row>
-    <row r="365" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>1159212</v>
       </c>
@@ -5263,7 +5168,7 @@
         <v>1347000</v>
       </c>
     </row>
-    <row r="366" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>1159214</v>
       </c>
@@ -5271,7 +5176,7 @@
         <v>1436000</v>
       </c>
     </row>
-    <row r="367" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>1151800</v>
       </c>
@@ -5279,7 +5184,7 @@
         <v>999000</v>
       </c>
     </row>
-    <row r="368" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>1151801</v>
       </c>
@@ -5287,7 +5192,7 @@
         <v>1070000</v>
       </c>
     </row>
-    <row r="369" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>1602003</v>
       </c>
@@ -5295,7 +5200,7 @@
         <v>1872000</v>
       </c>
     </row>
-    <row r="370" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>1606075</v>
       </c>
@@ -5303,7 +5208,7 @@
         <v>1978000</v>
       </c>
     </row>
-    <row r="371" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>1606080</v>
       </c>
@@ -5311,7 +5216,7 @@
         <v>2669000</v>
       </c>
     </row>
-    <row r="372" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>1656085</v>
       </c>
@@ -5319,7 +5224,7 @@
         <v>3246000</v>
       </c>
     </row>
-    <row r="373" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>1150422</v>
       </c>
@@ -5327,7 +5232,7 @@
         <v>2235000</v>
       </c>
     </row>
-    <row r="374" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>1150423</v>
       </c>
@@ -5335,7 +5240,7 @@
         <v>2357000</v>
       </c>
     </row>
-    <row r="375" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>1159309</v>
       </c>
@@ -5343,7 +5248,7 @@
         <v>1561000</v>
       </c>
     </row>
-    <row r="376" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>1159308</v>
       </c>
@@ -5351,7 +5256,7 @@
         <v>1806000</v>
       </c>
     </row>
-    <row r="377" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>1154902</v>
       </c>
@@ -5359,7 +5264,7 @@
         <v>2185000</v>
       </c>
     </row>
-    <row r="378" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>1150425</v>
       </c>
@@ -5367,7 +5272,7 @@
         <v>2238000</v>
       </c>
     </row>
-    <row r="379" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>1152800</v>
       </c>
@@ -5375,7 +5280,7 @@
         <v>1222000</v>
       </c>
     </row>
-    <row r="380" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>1153812</v>
       </c>
@@ -5383,7 +5288,7 @@
         <v>1389000</v>
       </c>
     </row>
-    <row r="381" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>1153814</v>
       </c>
@@ -5391,7 +5296,7 @@
         <v>1908000</v>
       </c>
     </row>
-    <row r="382" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>1150153</v>
       </c>
@@ -5399,7 +5304,7 @@
         <v>1805000</v>
       </c>
     </row>
-    <row r="383" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>1150155</v>
       </c>
@@ -5407,7 +5312,7 @@
         <v>2017000</v>
       </c>
     </row>
-    <row r="384" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>1150401</v>
       </c>
@@ -5415,7 +5320,7 @@
         <v>1814000</v>
       </c>
     </row>
-    <row r="385" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>1159010</v>
       </c>
@@ -5423,7 +5328,7 @@
         <v>2282000</v>
       </c>
     </row>
-    <row r="386" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>1153810</v>
       </c>
@@ -5431,7 +5336,7 @@
         <v>1804000</v>
       </c>
     </row>
-    <row r="387" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>1150130</v>
       </c>
@@ -5439,7 +5344,7 @@
         <v>1954000</v>
       </c>
     </row>
-    <row r="388" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>1150131</v>
       </c>
@@ -5447,7 +5352,7 @@
         <v>1698000</v>
       </c>
     </row>
-    <row r="389" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>1150132</v>
       </c>
@@ -5455,7 +5360,7 @@
         <v>1662000</v>
       </c>
     </row>
-    <row r="390" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>1150412</v>
       </c>
@@ -5463,7 +5368,7 @@
         <v>2123000</v>
       </c>
     </row>
-    <row r="391" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>1150410</v>
       </c>
@@ -5471,7 +5376,7 @@
         <v>2249000</v>
       </c>
     </row>
-    <row r="392" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>1606074</v>
       </c>
@@ -5479,7 +5384,7 @@
         <v>2473000</v>
       </c>
     </row>
-    <row r="393" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>1656095</v>
       </c>
@@ -5487,7 +5392,7 @@
         <v>4044000</v>
       </c>
     </row>
-    <row r="394" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>1153813</v>
       </c>
@@ -5495,7 +5400,7 @@
         <v>2118000</v>
       </c>
     </row>
-    <row r="395" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>1150142</v>
       </c>
@@ -5503,7 +5408,7 @@
         <v>2063000</v>
       </c>
     </row>
-    <row r="396" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>1155196</v>
       </c>
@@ -5511,7 +5416,7 @@
         <v>2655000</v>
       </c>
     </row>
-    <row r="397" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>1159327</v>
       </c>
@@ -5519,7 +5424,7 @@
         <v>314000</v>
       </c>
     </row>
-    <row r="398" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>1656096</v>
       </c>
@@ -5527,7 +5432,7 @@
         <v>7820000</v>
       </c>
     </row>
-    <row r="399" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>1650100</v>
       </c>
@@ -5535,7 +5440,7 @@
         <v>5670000</v>
       </c>
     </row>
-    <row r="400" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>1150161</v>
       </c>
@@ -5543,7 +5448,7 @@
         <v>2136000</v>
       </c>
     </row>
-    <row r="401" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>1150163</v>
       </c>
@@ -5551,7 +5456,7 @@
         <v>2292000</v>
       </c>
     </row>
-    <row r="402" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>1606090</v>
       </c>
@@ -5559,7 +5464,7 @@
         <v>5477000</v>
       </c>
     </row>
-    <row r="403" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>1606092</v>
       </c>
@@ -5567,7 +5472,7 @@
         <v>5555000</v>
       </c>
     </row>
-    <row r="404" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>1150172</v>
       </c>
@@ -5575,7 +5480,7 @@
         <v>2529000</v>
       </c>
     </row>
-    <row r="405" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>1150173</v>
       </c>
@@ -5583,7 +5488,7 @@
         <v>2686000</v>
       </c>
     </row>
-    <row r="406" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>1155000</v>
       </c>
@@ -5591,7 +5496,7 @@
         <v>762000</v>
       </c>
     </row>
-    <row r="407" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>1163740</v>
       </c>
@@ -5599,7 +5504,7 @@
         <v>1252000</v>
       </c>
     </row>
-    <row r="408" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>1163410</v>
       </c>
@@ -5607,7 +5512,7 @@
         <v>1637000</v>
       </c>
     </row>
-    <row r="409" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>1168020</v>
       </c>
@@ -5615,7 +5520,7 @@
         <v>1693000</v>
       </c>
     </row>
-    <row r="410" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>1163620</v>
       </c>
@@ -5623,7 +5528,7 @@
         <v>1709000</v>
       </c>
     </row>
-    <row r="411" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>1163530</v>
       </c>
@@ -5631,7 +5536,7 @@
         <v>1514000</v>
       </c>
     </row>
-    <row r="412" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>1168025</v>
       </c>
@@ -5639,7 +5544,7 @@
         <v>1695000</v>
       </c>
     </row>
-    <row r="413" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>1163850</v>
       </c>
@@ -5647,7 +5552,7 @@
         <v>1579000</v>
       </c>
     </row>
-    <row r="414" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>1155010</v>
       </c>
@@ -5655,7 +5560,7 @@
         <v>1076000</v>
       </c>
     </row>
-    <row r="415" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>1167010</v>
       </c>
@@ -5663,7 +5568,7 @@
         <v>2110000</v>
       </c>
     </row>
-    <row r="416" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>1168010</v>
       </c>
@@ -5671,7 +5576,7 @@
         <v>2283000</v>
       </c>
     </row>
-    <row r="417" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>1111120</v>
       </c>
@@ -5679,7 +5584,7 @@
         <v>811000</v>
       </c>
     </row>
-    <row r="418" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>1111080</v>
       </c>
@@ -5687,7 +5592,7 @@
         <v>424000</v>
       </c>
     </row>
-    <row r="419" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>1111050</v>
       </c>
@@ -5695,7 +5600,7 @@
         <v>470000</v>
       </c>
     </row>
-    <row r="420" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>1111060</v>
       </c>
@@ -5703,7 +5608,7 @@
         <v>463000</v>
       </c>
     </row>
-    <row r="421" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>1166060</v>
       </c>
@@ -5711,7 +5616,7 @@
         <v>1476000</v>
       </c>
     </row>
-    <row r="422" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>1155035</v>
       </c>
@@ -5719,7 +5624,7 @@
         <v>1794000</v>
       </c>
     </row>
-    <row r="423" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>1155020</v>
       </c>
@@ -5727,7 +5632,7 @@
         <v>1738000</v>
       </c>
     </row>
-    <row r="424" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>1155030</v>
       </c>
@@ -5735,7 +5640,7 @@
         <v>1748000</v>
       </c>
     </row>
-    <row r="425" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>1168013</v>
       </c>
@@ -5743,7 +5648,7 @@
         <v>1900000</v>
       </c>
     </row>
-    <row r="426" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>1102800</v>
       </c>
@@ -5751,7 +5656,7 @@
         <v>116000</v>
       </c>
     </row>
-    <row r="427" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>1100600</v>
       </c>
@@ -5759,7 +5664,7 @@
         <v>117000</v>
       </c>
     </row>
-    <row r="428" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>1701433</v>
       </c>
@@ -5767,7 +5672,7 @@
         <v>107000</v>
       </c>
     </row>
-    <row r="429" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>1111110</v>
       </c>
@@ -5775,7 +5680,7 @@
         <v>901000</v>
       </c>
     </row>
-    <row r="430" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>1111010</v>
       </c>
@@ -5783,7 +5688,7 @@
         <v>1194000</v>
       </c>
     </row>
-    <row r="431" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>1166020</v>
       </c>
@@ -5791,7 +5696,7 @@
         <v>2126000</v>
       </c>
     </row>
-    <row r="432" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>1166030</v>
       </c>
@@ -5799,7 +5704,7 @@
         <v>2403000</v>
       </c>
     </row>
-    <row r="433" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>1166040</v>
       </c>
@@ -5807,7 +5712,7 @@
         <v>2842000</v>
       </c>
     </row>
-    <row r="434" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>1166044</v>
       </c>
@@ -5815,7 +5720,7 @@
         <v>2743000</v>
       </c>
     </row>
-    <row r="435" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>1166042</v>
       </c>
@@ -5823,7 +5728,7 @@
         <v>3123000</v>
       </c>
     </row>
-    <row r="436" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>1111090</v>
       </c>
@@ -5831,7 +5736,7 @@
         <v>945000</v>
       </c>
     </row>
-    <row r="437" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>1153815</v>
       </c>
@@ -5839,7 +5744,7 @@
         <v>1963000</v>
       </c>
     </row>
-    <row r="438" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>1101600</v>
       </c>
@@ -5847,7 +5752,7 @@
         <v>145000</v>
       </c>
     </row>
-    <row r="439" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>1101601</v>
       </c>
@@ -5855,7 +5760,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="440" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>1100205</v>
       </c>
@@ -5863,7 +5768,7 @@
         <v>136000</v>
       </c>
     </row>
-    <row r="441" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>1102400</v>
       </c>
@@ -5871,7 +5776,7 @@
         <v>165000</v>
       </c>
     </row>
-    <row r="442" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>1103200</v>
       </c>
@@ -5879,7 +5784,7 @@
         <v>167000</v>
       </c>
     </row>
-    <row r="443" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>1103261</v>
       </c>
@@ -5887,7 +5792,7 @@
         <v>220000</v>
       </c>
     </row>
-    <row r="444" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>1111123</v>
       </c>
@@ -5895,7 +5800,7 @@
         <v>1185000</v>
       </c>
     </row>
-    <row r="445" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>1111100</v>
       </c>
@@ -5903,7 +5808,7 @@
         <v>1229000</v>
       </c>
     </row>
-    <row r="446" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>1161070</v>
       </c>
@@ -5911,7 +5816,7 @@
         <v>1914000</v>
       </c>
     </row>
-    <row r="447" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>1181015</v>
       </c>
@@ -5919,7 +5824,7 @@
         <v>3111000</v>
       </c>
     </row>
-    <row r="448" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>1153244</v>
       </c>
@@ -5927,7 +5832,7 @@
         <v>2121000</v>
       </c>
     </row>
-    <row r="449" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>1153242</v>
       </c>
@@ -5935,7 +5840,7 @@
         <v>2399000</v>
       </c>
     </row>
-    <row r="450" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>1310002</v>
       </c>
@@ -5943,7 +5848,7 @@
         <v>1911000</v>
       </c>
     </row>
-    <row r="451" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>1163250</v>
       </c>
@@ -5951,7 +5856,7 @@
         <v>2434000</v>
       </c>
     </row>
-    <row r="452" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>1157041</v>
       </c>
@@ -5959,7 +5864,7 @@
         <v>2758000</v>
       </c>
     </row>
-    <row r="453" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>1155037</v>
       </c>
@@ -5967,7 +5872,7 @@
         <v>3615000</v>
       </c>
     </row>
-    <row r="454" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>1155036</v>
       </c>
@@ -5975,7 +5880,7 @@
         <v>3511000</v>
       </c>
     </row>
-    <row r="455" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>1181017</v>
       </c>
@@ -5983,7 +5888,7 @@
         <v>4970000</v>
       </c>
     </row>
-    <row r="456" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>1153282</v>
       </c>
@@ -5991,7 +5896,7 @@
         <v>3048000</v>
       </c>
     </row>
-    <row r="457" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>1155040</v>
       </c>
@@ -5999,7 +5904,7 @@
         <v>3810000</v>
       </c>
     </row>
-    <row r="458" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>1157040</v>
       </c>
@@ -6007,7 +5912,7 @@
         <v>4292000</v>
       </c>
     </row>
-    <row r="459" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>1102500</v>
       </c>
@@ -6015,7 +5920,7 @@
         <v>181000</v>
       </c>
     </row>
-    <row r="460" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>1103250</v>
       </c>
@@ -6023,7 +5928,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="461" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>1600010</v>
       </c>
@@ -6031,7 +5936,7 @@
         <v>348000</v>
       </c>
     </row>
-    <row r="462" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>1103255</v>
       </c>
@@ -6039,7 +5944,7 @@
         <v>221000</v>
       </c>
     </row>
-    <row r="463" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>1103257</v>
       </c>
@@ -6047,7 +5952,7 @@
         <v>259000</v>
       </c>
     </row>
-    <row r="464" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>1100811</v>
       </c>
@@ -6055,7 +5960,7 @@
         <v>176000</v>
       </c>
     </row>
-    <row r="465" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>1100215</v>
       </c>
@@ -6063,7 +5968,7 @@
         <v>189000</v>
       </c>
     </row>
-    <row r="466" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>1100040</v>
       </c>
@@ -6071,7 +5976,7 @@
         <v>224000</v>
       </c>
     </row>
-    <row r="467" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>1100844</v>
       </c>
@@ -6079,7 +5984,7 @@
         <v>260000</v>
       </c>
     </row>
-    <row r="468" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>1100225</v>
       </c>
@@ -6087,7 +5992,7 @@
         <v>195000</v>
       </c>
     </row>
-    <row r="469" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>1100030</v>
       </c>
@@ -6095,7 +6000,7 @@
         <v>244000</v>
       </c>
     </row>
-    <row r="470" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>1111122</v>
       </c>
@@ -6103,7 +6008,7 @@
         <v>1421000</v>
       </c>
     </row>
-    <row r="471" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>1168012</v>
       </c>
@@ -6111,7 +6016,7 @@
         <v>4408000</v>
       </c>
     </row>
-    <row r="472" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>1310001</v>
       </c>
@@ -6119,7 +6024,7 @@
         <v>3808000</v>
       </c>
     </row>
-    <row r="473" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>1168011</v>
       </c>
@@ -6127,7 +6032,7 @@
         <v>4283000</v>
       </c>
     </row>
-    <row r="474" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>1181040</v>
       </c>
@@ -6135,7 +6040,7 @@
         <v>3845000</v>
       </c>
     </row>
-    <row r="475" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>1157030</v>
       </c>
@@ -6143,7 +6048,7 @@
         <v>3416000</v>
       </c>
     </row>
-    <row r="476" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>1159300</v>
       </c>
@@ -6151,7 +6056,7 @@
         <v>217000</v>
       </c>
     </row>
-    <row r="477" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>1157032</v>
       </c>
@@ -6159,7 +6064,7 @@
         <v>3655000</v>
       </c>
     </row>
-    <row r="478" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>1154065</v>
       </c>
@@ -6167,7 +6072,7 @@
         <v>4059000</v>
       </c>
     </row>
-    <row r="479" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>1320002</v>
       </c>
@@ -6175,7 +6080,7 @@
         <v>3970000</v>
       </c>
     </row>
-    <row r="480" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>1156010</v>
       </c>
@@ -6183,7 +6088,7 @@
         <v>5622000</v>
       </c>
     </row>
-    <row r="481" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>1152018</v>
       </c>
@@ -6191,7 +6096,7 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="482" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>1100235</v>
       </c>
@@ -6199,7 +6104,7 @@
         <v>245000</v>
       </c>
     </row>
-    <row r="483" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>1159332</v>
       </c>
@@ -6207,7 +6112,7 @@
         <v>325000</v>
       </c>
     </row>
-    <row r="484" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>1703003</v>
       </c>
@@ -6215,7 +6120,7 @@
         <v>198000</v>
       </c>
     </row>
-    <row r="485" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>1157700</v>
       </c>
@@ -6223,7 +6128,7 @@
         <v>4727000</v>
       </c>
     </row>
-    <row r="486" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>6009</v>
       </c>
@@ -6231,7 +6136,7 @@
         <v>130300</v>
       </c>
     </row>
-    <row r="487" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
         <v>70012</v>
       </c>
@@ -6239,7 +6144,7 @@
         <v>204400</v>
       </c>
     </row>
-    <row r="488" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <v>1016</v>
       </c>
@@ -6247,7 +6152,7 @@
         <v>201200</v>
       </c>
     </row>
-    <row r="489" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
         <v>65016</v>
       </c>
@@ -6255,7 +6160,7 @@
         <v>278000</v>
       </c>
     </row>
-    <row r="490" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
         <v>70016</v>
       </c>
@@ -6263,7 +6168,7 @@
         <v>302400</v>
       </c>
     </row>
-    <row r="491" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <v>14175</v>
       </c>
@@ -6271,7 +6176,7 @@
         <v>434400</v>
       </c>
     </row>
-    <row r="492" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="8" t="s">
         <v>1</v>
       </c>
@@ -6279,15 +6184,15 @@
         <v>986400</v>
       </c>
     </row>
-    <row r="493" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <v>130024</v>
       </c>
-      <c r="B493" s="10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="494" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B493" s="17">
+        <v>699200</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <v>19524</v>
       </c>
@@ -6295,15 +6200,15 @@
         <v>791500</v>
       </c>
     </row>
-    <row r="495" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B495" s="2">
         <v>946700</v>
       </c>
     </row>
-    <row r="496" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
         <v>13188</v>
       </c>
@@ -6311,87 +6216,87 @@
         <v>5246100</v>
       </c>
     </row>
-    <row r="497" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B497" s="2">
         <v>1549600</v>
       </c>
     </row>
-    <row r="498" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B498" s="2">
         <v>1432900</v>
       </c>
     </row>
-    <row r="499" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B499" s="2">
         <v>2795900</v>
       </c>
     </row>
-    <row r="500" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B500" s="2">
         <v>1992700</v>
       </c>
     </row>
-    <row r="501" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B501" s="2">
         <v>2487700</v>
       </c>
     </row>
-    <row r="502" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B502" s="2">
         <v>3147400</v>
       </c>
     </row>
-    <row r="503" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B503" s="2">
         <v>3886900</v>
       </c>
     </row>
-    <row r="504" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B504" s="2">
         <v>3521400</v>
       </c>
     </row>
-    <row r="505" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B505" s="2">
         <v>3919900</v>
       </c>
     </row>
-    <row r="506" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B506" s="2">
         <v>7377800</v>
       </c>
     </row>
-    <row r="507" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
         <v>29525</v>
       </c>
@@ -6399,7 +6304,7 @@
         <v>7763900</v>
       </c>
     </row>
-    <row r="508" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
         <v>29529</v>
       </c>
@@ -6407,7 +6312,7 @@
         <v>5673200</v>
       </c>
     </row>
-    <row r="509" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
         <v>7500412</v>
       </c>
@@ -6415,7 +6320,7 @@
         <v>235700</v>
       </c>
     </row>
-    <row r="510" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
         <v>7500413</v>
       </c>
@@ -6423,7 +6328,7 @@
         <v>247100</v>
       </c>
     </row>
-    <row r="511" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
         <v>7500476</v>
       </c>
@@ -6431,7 +6336,7 @@
         <v>577600</v>
       </c>
     </row>
-    <row r="512" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
         <v>8004516</v>
       </c>
@@ -6439,7 +6344,7 @@
         <v>606500</v>
       </c>
     </row>
-    <row r="513" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
         <v>8004858</v>
       </c>
@@ -6447,7 +6352,7 @@
         <v>697400</v>
       </c>
     </row>
-    <row r="514" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
         <v>7516056</v>
       </c>
@@ -6455,7 +6360,7 @@
         <v>691300</v>
       </c>
     </row>
-    <row r="515" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
         <v>8004674</v>
       </c>
@@ -6463,7 +6368,7 @@
         <v>754900</v>
       </c>
     </row>
-    <row r="516" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
         <v>7516006</v>
       </c>
@@ -6471,7 +6376,7 @@
         <v>748600</v>
       </c>
     </row>
-    <row r="517" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
         <v>7500178</v>
       </c>
@@ -6479,7 +6384,7 @@
         <v>360500</v>
       </c>
     </row>
-    <row r="518" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
         <v>7500584</v>
       </c>
@@ -6487,7 +6392,7 @@
         <v>399500</v>
       </c>
     </row>
-    <row r="519" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
         <v>7500589</v>
       </c>
@@ -6495,7 +6400,7 @@
         <v>432200</v>
       </c>
     </row>
-    <row r="520" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
         <v>7500151</v>
       </c>
@@ -6503,7 +6408,7 @@
         <v>417300</v>
       </c>
     </row>
-    <row r="521" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
         <v>7500149</v>
       </c>
@@ -6511,7 +6416,7 @@
         <v>409900</v>
       </c>
     </row>
-    <row r="522" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
         <v>7500148</v>
       </c>
@@ -6519,7 +6424,7 @@
         <v>447000</v>
       </c>
     </row>
-    <row r="523" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
         <v>7500150</v>
       </c>
@@ -6527,7 +6432,7 @@
         <v>508400</v>
       </c>
     </row>
-    <row r="524" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
         <v>8004903</v>
       </c>
@@ -6535,7 +6440,7 @@
         <v>627700</v>
       </c>
     </row>
-    <row r="525" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
         <v>3166</v>
       </c>
@@ -6543,15 +6448,15 @@
         <v>269500</v>
       </c>
     </row>
-    <row r="526" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A526" s="11">
+    <row r="526" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A526" s="10">
         <v>3205</v>
       </c>
-      <c r="B526" s="12">
+      <c r="B526" s="11">
         <v>410700</v>
       </c>
     </row>
-    <row r="527" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
         <v>3147</v>
       </c>
@@ -6559,15 +6464,15 @@
         <v>393000</v>
       </c>
     </row>
-    <row r="528" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A528" s="11">
+    <row r="528" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A528" s="10">
         <v>104058</v>
       </c>
-      <c r="B528" s="12">
+      <c r="B528" s="11">
         <v>572500</v>
       </c>
     </row>
-    <row r="529" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
         <v>3148</v>
       </c>
@@ -6575,527 +6480,527 @@
         <v>423300</v>
       </c>
     </row>
-    <row r="530" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A530" s="11">
+    <row r="530" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A530" s="10">
         <v>4214</v>
       </c>
-      <c r="B530" s="12">
+      <c r="B530" s="11">
         <v>396400</v>
       </c>
     </row>
-    <row r="531" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A531" s="11">
+    <row r="531" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A531" s="10">
         <v>103269</v>
       </c>
-      <c r="B531" s="12">
+      <c r="B531" s="11">
         <v>602200</v>
       </c>
     </row>
-    <row r="532" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A532" s="11">
+    <row r="532" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A532" s="10">
         <v>2802</v>
       </c>
-      <c r="B532" s="12">
+      <c r="B532" s="11">
         <v>389800</v>
       </c>
     </row>
-    <row r="533" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A533" s="11">
+    <row r="533" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A533" s="10">
         <v>2800</v>
       </c>
-      <c r="B533" s="12">
+      <c r="B533" s="11">
         <v>404000</v>
       </c>
     </row>
-    <row r="534" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A534" s="13" t="s">
+    <row r="534" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A534" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B534" s="11">
+        <v>202100</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A535" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B534" s="12">
-        <v>202100</v>
-      </c>
-    </row>
-    <row r="535" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A535" s="13" t="s">
+      <c r="B535" s="11">
+        <v>256800</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A536" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B535" s="12">
-        <v>256800</v>
-      </c>
-    </row>
-    <row r="536" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A536" s="13" t="s">
+      <c r="B536" s="11">
+        <v>391600</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A537" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B536" s="12">
+      <c r="B537" s="11">
         <v>391600</v>
       </c>
     </row>
-    <row r="537" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A537" s="13" t="s">
+    <row r="538" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A538" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B537" s="12">
-        <v>391600</v>
-      </c>
-    </row>
-    <row r="538" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A538" s="13" t="s">
+      <c r="B538" s="13">
+        <v>393000</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A539" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B538" s="14">
-        <v>393000</v>
-      </c>
-    </row>
-    <row r="539" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A539" s="13" t="s">
+      <c r="B539" s="13">
+        <v>422800</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A540" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B539" s="14">
-        <v>422800</v>
-      </c>
-    </row>
-    <row r="540" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A540" s="13" t="s">
+      <c r="B540" s="11">
+        <v>437900</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A541" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="B540" s="12">
-        <v>437900</v>
-      </c>
-    </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A541" s="8" t="s">
-        <v>21</v>
       </c>
       <c r="B541" s="2">
         <v>62200</v>
       </c>
     </row>
-    <row r="542" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B542" s="2">
         <v>59700</v>
       </c>
     </row>
-    <row r="543" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B543" s="17">
+        <v>61000</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A544" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="B543" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="544" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A544" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="B544" s="2">
         <v>70900</v>
       </c>
     </row>
-    <row r="545" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B545" s="2">
         <v>74600</v>
       </c>
     </row>
-    <row r="546" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B546" s="2">
         <v>73900</v>
       </c>
     </row>
-    <row r="547" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B547" s="2">
         <v>76700</v>
       </c>
     </row>
-    <row r="548" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B548" s="2">
         <v>77300</v>
       </c>
     </row>
-    <row r="549" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B549" s="2">
         <v>89700</v>
       </c>
     </row>
-    <row r="550" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B550" s="2">
         <v>83700</v>
       </c>
     </row>
-    <row r="551" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B551" s="2">
         <v>79500</v>
       </c>
     </row>
-    <row r="552" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B552" s="2">
         <v>88200</v>
       </c>
     </row>
-    <row r="553" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B553" s="2">
         <v>62200</v>
       </c>
     </row>
-    <row r="554" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B554" s="2">
         <v>67500</v>
       </c>
     </row>
-    <row r="555" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B555" s="2">
         <v>67500</v>
       </c>
     </row>
-    <row r="556" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B556" s="2">
         <v>62700</v>
       </c>
     </row>
-    <row r="557" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B557" s="2">
         <v>71300</v>
       </c>
     </row>
-    <row r="558" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B558" s="2">
         <v>73000</v>
       </c>
     </row>
-    <row r="559" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B559" s="2">
         <v>77200</v>
       </c>
     </row>
-    <row r="560" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B560" s="2">
         <v>70900</v>
       </c>
     </row>
-    <row r="561" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B561" s="2">
         <v>74600</v>
       </c>
     </row>
-    <row r="562" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B562" s="2">
         <v>73900</v>
       </c>
     </row>
-    <row r="563" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B563" s="2">
         <v>76700</v>
       </c>
     </row>
-    <row r="564" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B564" s="2">
         <v>88700</v>
       </c>
     </row>
-    <row r="565" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B565" s="2">
         <v>87200</v>
       </c>
     </row>
-    <row r="566" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B566" s="2">
         <v>88900</v>
       </c>
     </row>
-    <row r="567" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B567" s="2">
         <v>85900</v>
       </c>
     </row>
-    <row r="568" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B568" s="2">
         <v>94500</v>
       </c>
     </row>
-    <row r="569" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B569" s="2">
         <v>118200</v>
       </c>
     </row>
-    <row r="570" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B570" s="2">
         <v>77200</v>
       </c>
     </row>
-    <row r="571" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B571" s="2">
         <v>79500</v>
       </c>
     </row>
-    <row r="572" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B572" s="2">
         <v>102600</v>
       </c>
     </row>
-    <row r="573" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B573" s="2">
         <v>148800</v>
       </c>
     </row>
-    <row r="574" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B574" s="2">
         <v>193300</v>
       </c>
     </row>
-    <row r="575" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B575" s="2">
         <v>154900</v>
       </c>
     </row>
-    <row r="576" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B576" s="2">
         <v>165000</v>
       </c>
     </row>
-    <row r="577" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B577" s="2">
         <v>181600</v>
       </c>
     </row>
-    <row r="578" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B578" s="2">
         <v>190300</v>
       </c>
     </row>
-    <row r="579" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B579" s="2">
         <v>134900</v>
       </c>
     </row>
-    <row r="580" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B580" s="2">
         <v>180800</v>
       </c>
     </row>
-    <row r="581" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B581" s="2">
         <v>223100</v>
       </c>
     </row>
-    <row r="582" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B582" s="2">
         <v>125500</v>
       </c>
     </row>
-    <row r="583" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B583" s="2">
         <v>180500</v>
       </c>
     </row>
-    <row r="584" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B584" s="2">
         <v>174100</v>
       </c>
     </row>
-    <row r="585" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B585" s="2">
         <v>249400</v>
       </c>
     </row>
-    <row r="586" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B586" s="2">
         <v>190300</v>
       </c>
     </row>
-    <row r="587" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B587" s="2">
         <v>193300</v>
       </c>
     </row>
-    <row r="588" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B588" s="2">
         <v>193300</v>
       </c>
     </row>
-    <row r="589" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B589" s="2">
         <v>223100</v>
       </c>
     </row>
-    <row r="590" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B590" s="2">
         <v>223100</v>
       </c>
     </row>
-    <row r="591" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B591" s="2">
         <v>238100</v>
       </c>
     </row>
-    <row r="592" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B592" s="2">
         <v>77000</v>
       </c>
     </row>
-    <row r="593" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B593" s="2">
         <v>129300</v>
       </c>
     </row>
-    <row r="594" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B594" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="595" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+      <c r="B594" s="17">
+        <v>149000</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
         <v>6053</v>
       </c>
@@ -7103,7 +7008,7 @@
         <v>59700</v>
       </c>
     </row>
-    <row r="596" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="1">
         <v>6056</v>
       </c>
@@ -7111,7 +7016,7 @@
         <v>61000</v>
       </c>
     </row>
-    <row r="597" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="1">
         <v>6059</v>
       </c>
@@ -7119,7 +7024,7 @@
         <v>62700</v>
       </c>
     </row>
-    <row r="598" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="1">
         <v>6062</v>
       </c>
@@ -7127,7 +7032,7 @@
         <v>70900</v>
       </c>
     </row>
-    <row r="599" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="1">
         <v>6065</v>
       </c>
@@ -7135,7 +7040,7 @@
         <v>74600</v>
       </c>
     </row>
-    <row r="600" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
         <v>6071</v>
       </c>
@@ -7143,7 +7048,7 @@
         <v>73900</v>
       </c>
     </row>
-    <row r="601" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="1">
         <v>6074</v>
       </c>
@@ -7151,7 +7056,7 @@
         <v>76700</v>
       </c>
     </row>
-    <row r="602" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="1">
         <v>6077</v>
       </c>
@@ -7159,7 +7064,7 @@
         <v>77300</v>
       </c>
     </row>
-    <row r="603" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="1">
         <v>6080</v>
       </c>
@@ -7167,7 +7072,7 @@
         <v>83700</v>
       </c>
     </row>
-    <row r="604" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="1">
         <v>6083</v>
       </c>
@@ -7175,7 +7080,7 @@
         <v>80600</v>
       </c>
     </row>
-    <row r="605" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="1">
         <v>6086</v>
       </c>
@@ -7183,7 +7088,7 @@
         <v>79500</v>
       </c>
     </row>
-    <row r="606" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="1">
         <v>6089</v>
       </c>
@@ -7191,7 +7096,7 @@
         <v>88200</v>
       </c>
     </row>
-    <row r="607" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="1">
         <v>6098</v>
       </c>
@@ -7199,7 +7104,7 @@
         <v>95000</v>
       </c>
     </row>
-    <row r="608" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="1">
         <v>6101</v>
       </c>
@@ -7207,7 +7112,7 @@
         <v>101300</v>
       </c>
     </row>
-    <row r="609" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="1">
         <v>6107</v>
       </c>
@@ -7215,7 +7120,7 @@
         <v>102700</v>
       </c>
     </row>
-    <row r="610" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="1">
         <v>6535</v>
       </c>
@@ -7223,7 +7128,7 @@
         <v>62200</v>
       </c>
     </row>
-    <row r="611" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="1">
         <v>6555</v>
       </c>
@@ -7231,7 +7136,7 @@
         <v>67500</v>
       </c>
     </row>
-    <row r="612" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
         <v>6567</v>
       </c>
@@ -7239,7 +7144,7 @@
         <v>71300</v>
       </c>
     </row>
-    <row r="613" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="1">
         <v>6569</v>
       </c>
@@ -7247,7 +7152,7 @@
         <v>73000</v>
       </c>
     </row>
-    <row r="614" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="1">
         <v>6571</v>
       </c>
@@ -7255,7 +7160,7 @@
         <v>77200</v>
       </c>
     </row>
-    <row r="615" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="1">
         <v>6607</v>
       </c>
@@ -7263,7 +7168,7 @@
         <v>89700</v>
       </c>
     </row>
-    <row r="616" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="1">
         <v>6623</v>
       </c>
@@ -7271,7 +7176,7 @@
         <v>87200</v>
       </c>
     </row>
-    <row r="617" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="1">
         <v>6627</v>
       </c>
@@ -7279,7 +7184,7 @@
         <v>85900</v>
       </c>
     </row>
-    <row r="618" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="1">
         <v>6635</v>
       </c>
@@ -7287,31 +7192,31 @@
         <v>94500</v>
       </c>
     </row>
-    <row r="619" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A619" s="11">
+    <row r="619" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A619" s="10">
         <v>6731</v>
       </c>
-      <c r="B619" s="12">
+      <c r="B619" s="11">
         <v>107800</v>
       </c>
     </row>
-    <row r="620" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A620" s="11">
+    <row r="620" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A620" s="10">
         <v>6787</v>
       </c>
-      <c r="B620" s="12">
+      <c r="B620" s="11">
         <v>113900</v>
       </c>
     </row>
-    <row r="621" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A621" s="11">
+    <row r="621" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A621" s="10">
         <v>6819</v>
       </c>
-      <c r="B621" s="12">
+      <c r="B621" s="11">
         <v>125500</v>
       </c>
     </row>
-    <row r="622" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="1">
         <v>4892</v>
       </c>
@@ -7319,7 +7224,7 @@
         <v>88700</v>
       </c>
     </row>
-    <row r="623" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="1">
         <v>5029</v>
       </c>
@@ -7327,7 +7232,7 @@
         <v>105400</v>
       </c>
     </row>
-    <row r="624" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="1">
         <v>5050</v>
       </c>
@@ -7335,7 +7240,7 @@
         <v>110500</v>
       </c>
     </row>
-    <row r="625" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="1">
         <v>5030</v>
       </c>
@@ -7343,7 +7248,7 @@
         <v>100800</v>
       </c>
     </row>
-    <row r="626" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="1">
         <v>5031</v>
       </c>
@@ -7351,7 +7256,7 @@
         <v>112300</v>
       </c>
     </row>
-    <row r="627" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="1">
         <v>5035</v>
       </c>
@@ -7359,7 +7264,7 @@
         <v>102600</v>
       </c>
     </row>
-    <row r="628" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="1">
         <v>5041</v>
       </c>
@@ -7367,7 +7272,7 @@
         <v>115800</v>
       </c>
     </row>
-    <row r="629" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="1">
         <v>5048</v>
       </c>
@@ -7375,7 +7280,7 @@
         <v>123300</v>
       </c>
     </row>
-    <row r="630" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="1">
         <v>5045</v>
       </c>
@@ -7383,7 +7288,7 @@
         <v>129700</v>
       </c>
     </row>
-    <row r="631" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="1">
         <v>5034</v>
       </c>
@@ -7391,7 +7296,7 @@
         <v>111300</v>
       </c>
     </row>
-    <row r="632" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="1">
         <v>5036</v>
       </c>
@@ -7399,7 +7304,7 @@
         <v>116300</v>
       </c>
     </row>
-    <row r="633" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="1">
         <v>5042</v>
       </c>
@@ -7407,7 +7312,7 @@
         <v>129800</v>
       </c>
     </row>
-    <row r="634" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="1">
         <v>5047</v>
       </c>
@@ -7415,7 +7320,7 @@
         <v>127300</v>
       </c>
     </row>
-    <row r="635" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="1">
         <v>5049</v>
       </c>
@@ -7423,7 +7328,7 @@
         <v>128600</v>
       </c>
     </row>
-    <row r="636" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="1">
         <v>5005</v>
       </c>
@@ -7431,7 +7336,7 @@
         <v>130300</v>
       </c>
     </row>
-    <row r="637" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="1">
         <v>5015</v>
       </c>
@@ -7439,7 +7344,7 @@
         <v>136800</v>
       </c>
     </row>
-    <row r="638" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="1">
         <v>5007</v>
       </c>
@@ -7447,7 +7352,7 @@
         <v>138200</v>
       </c>
     </row>
-    <row r="639" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="1">
         <v>5008</v>
       </c>
@@ -7455,7 +7360,7 @@
         <v>151700</v>
       </c>
     </row>
-    <row r="640" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="1">
         <v>6241</v>
       </c>
@@ -7463,15 +7368,15 @@
         <v>289000</v>
       </c>
     </row>
-    <row r="641" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A641" s="11">
+    <row r="641" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A641" s="10">
         <v>6259</v>
       </c>
-      <c r="B641" s="12">
+      <c r="B641" s="11">
         <v>313500</v>
       </c>
     </row>
-    <row r="642" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="1">
         <v>6249</v>
       </c>
@@ -7479,23 +7384,23 @@
         <v>342600</v>
       </c>
     </row>
-    <row r="643" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A643" s="15">
+    <row r="643" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A643" s="14">
         <v>5555</v>
       </c>
-      <c r="B643" s="16">
+      <c r="B643" s="15">
         <v>129300</v>
       </c>
     </row>
-    <row r="644" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A644" s="11">
+    <row r="644" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A644" s="10">
         <v>5535</v>
       </c>
-      <c r="B644" s="12">
+      <c r="B644" s="11">
         <v>135800</v>
       </c>
     </row>
-    <row r="645" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="1">
         <v>5567</v>
       </c>
@@ -7503,15 +7408,15 @@
         <v>149000</v>
       </c>
     </row>
-    <row r="646" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A646" s="11">
+    <row r="646" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A646" s="10">
         <v>5527</v>
       </c>
-      <c r="B646" s="12">
+      <c r="B646" s="11">
         <v>152900</v>
       </c>
     </row>
-    <row r="647" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="1">
         <v>5563</v>
       </c>
@@ -7519,7 +7424,7 @@
         <v>179600</v>
       </c>
     </row>
-    <row r="648" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="1">
         <v>4452</v>
       </c>
@@ -7527,7 +7432,7 @@
         <v>118200</v>
       </c>
     </row>
-    <row r="649" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="1">
         <v>4359</v>
       </c>
@@ -7535,7 +7440,7 @@
         <v>120600</v>
       </c>
     </row>
-    <row r="650" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="1">
         <v>4360</v>
       </c>
@@ -7543,7 +7448,7 @@
         <v>132900</v>
       </c>
     </row>
-    <row r="651" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="1">
         <v>4361</v>
       </c>
@@ -7551,7 +7456,7 @@
         <v>134900</v>
       </c>
     </row>
-    <row r="652" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="1">
         <v>4362</v>
       </c>
@@ -7559,15 +7464,15 @@
         <v>148800</v>
       </c>
     </row>
-    <row r="653" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A653" s="11">
+    <row r="653" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A653" s="10">
         <v>4453</v>
       </c>
-      <c r="B653" s="12">
+      <c r="B653" s="11">
         <v>137400</v>
       </c>
     </row>
-    <row r="654" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="1">
         <v>4449</v>
       </c>
@@ -7575,15 +7480,15 @@
         <v>136100</v>
       </c>
     </row>
-    <row r="655" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A655" s="11">
+    <row r="655" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A655" s="10">
         <v>4363</v>
       </c>
-      <c r="B655" s="12">
+      <c r="B655" s="11">
         <v>142500</v>
       </c>
     </row>
-    <row r="656" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="1">
         <v>4364</v>
       </c>
@@ -7591,7 +7496,7 @@
         <v>159000</v>
       </c>
     </row>
-    <row r="657" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="1">
         <v>4610</v>
       </c>
@@ -7599,15 +7504,15 @@
         <v>160800</v>
       </c>
     </row>
-    <row r="658" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A658" s="11">
+    <row r="658" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A658" s="10">
         <v>4457</v>
       </c>
-      <c r="B658" s="12">
+      <c r="B658" s="11">
         <v>167800</v>
       </c>
     </row>
-    <row r="659" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="1">
         <v>4613</v>
       </c>
@@ -7615,7 +7520,7 @@
         <v>187700</v>
       </c>
     </row>
-    <row r="660" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="1">
         <v>3356</v>
       </c>
@@ -7623,7 +7528,7 @@
         <v>140200</v>
       </c>
     </row>
-    <row r="661" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="1">
         <v>3392</v>
       </c>
@@ -7631,15 +7536,15 @@
         <v>152700</v>
       </c>
     </row>
-    <row r="662" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A662" s="11">
+    <row r="662" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A662" s="10">
         <v>3445</v>
       </c>
-      <c r="B662" s="12">
+      <c r="B662" s="11">
         <v>174900</v>
       </c>
     </row>
-    <row r="663" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="1">
         <v>3355</v>
       </c>
@@ -7647,7 +7552,7 @@
         <v>149700</v>
       </c>
     </row>
-    <row r="664" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="1">
         <v>3453</v>
       </c>
@@ -7655,7 +7560,7 @@
         <v>193300</v>
       </c>
     </row>
-    <row r="665" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="1">
         <v>3286</v>
       </c>
@@ -7663,15 +7568,15 @@
         <v>128600</v>
       </c>
     </row>
-    <row r="666" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A666" s="11">
+    <row r="666" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A666" s="10">
         <v>3450</v>
       </c>
-      <c r="B666" s="12">
+      <c r="B666" s="11">
         <v>180500</v>
       </c>
     </row>
-    <row r="667" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="1">
         <v>3357</v>
       </c>
@@ -7679,7 +7584,7 @@
         <v>164200</v>
       </c>
     </row>
-    <row r="668" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="1">
         <v>3397</v>
       </c>
@@ -7687,7 +7592,7 @@
         <v>174100</v>
       </c>
     </row>
-    <row r="669" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="1">
         <v>3393</v>
       </c>
@@ -7695,7 +7600,7 @@
         <v>161800</v>
       </c>
     </row>
-    <row r="670" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="1">
         <v>3421</v>
       </c>
@@ -7703,7 +7608,7 @@
         <v>165000</v>
       </c>
     </row>
-    <row r="671" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="1">
         <v>3426</v>
       </c>
@@ -7711,7 +7616,7 @@
         <v>206100</v>
       </c>
     </row>
-    <row r="672" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="1">
         <v>3446</v>
       </c>
@@ -7719,15 +7624,15 @@
         <v>181600</v>
       </c>
     </row>
-    <row r="673" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A673" s="11">
+    <row r="673" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A673" s="10">
         <v>3458</v>
       </c>
-      <c r="B673" s="12">
+      <c r="B673" s="11">
         <v>190300</v>
       </c>
     </row>
-    <row r="674" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="1">
         <v>3464</v>
       </c>
@@ -7735,7 +7640,7 @@
         <v>223100</v>
       </c>
     </row>
-    <row r="675" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="1">
         <v>3478</v>
       </c>
@@ -7743,7 +7648,7 @@
         <v>254100</v>
       </c>
     </row>
-    <row r="676" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="1">
         <v>6662</v>
       </c>
@@ -7751,7 +7656,7 @@
         <v>184600</v>
       </c>
     </row>
-    <row r="677" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" s="1">
         <v>3461</v>
       </c>
@@ -7759,7 +7664,7 @@
         <v>223100</v>
       </c>
     </row>
-    <row r="678" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="1">
         <v>3477</v>
       </c>
@@ -7767,55 +7672,55 @@
         <v>261600</v>
       </c>
     </row>
-    <row r="679" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A679" s="11">
+    <row r="679" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A679" s="10">
         <v>3472</v>
       </c>
-      <c r="B679" s="12">
+      <c r="B679" s="11">
         <v>238100</v>
       </c>
     </row>
-    <row r="680" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A680" s="11">
+    <row r="680" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A680" s="10">
         <v>3176</v>
       </c>
-      <c r="B680" s="12">
+      <c r="B680" s="11">
         <v>93700</v>
       </c>
     </row>
-    <row r="681" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A681" s="11">
+    <row r="681" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A681" s="10">
         <v>3206</v>
       </c>
-      <c r="B681" s="12">
+      <c r="B681" s="11">
         <v>109200</v>
       </c>
     </row>
-    <row r="682" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A682" s="11">
+    <row r="682" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A682" s="10">
         <v>3239</v>
       </c>
-      <c r="B682" s="12">
+      <c r="B682" s="11">
         <v>117400</v>
       </c>
     </row>
-    <row r="683" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A683" s="11">
+    <row r="683" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A683" s="10">
         <v>3208</v>
       </c>
-      <c r="B683" s="12">
+      <c r="B683" s="11">
         <v>106600</v>
       </c>
     </row>
-    <row r="684" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A684" s="11">
+    <row r="684" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A684" s="10">
         <v>3241</v>
       </c>
-      <c r="B684" s="12">
+      <c r="B684" s="11">
         <v>115100</v>
       </c>
     </row>
-    <row r="685" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" s="1">
         <v>3237</v>
       </c>
@@ -7823,15 +7728,15 @@
         <v>116800</v>
       </c>
     </row>
-    <row r="686" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A686" s="11">
+    <row r="686" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A686" s="10">
         <v>3269</v>
       </c>
-      <c r="B686" s="12">
+      <c r="B686" s="11">
         <v>125000</v>
       </c>
     </row>
-    <row r="687" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" s="1">
         <v>3352</v>
       </c>
@@ -7839,7 +7744,7 @@
         <v>153700</v>
       </c>
     </row>
-    <row r="688" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="1">
         <v>3238</v>
       </c>
@@ -7847,7 +7752,7 @@
         <v>127100</v>
       </c>
     </row>
-    <row r="689" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" s="1">
         <v>3347</v>
       </c>
@@ -7855,739 +7760,739 @@
         <v>151000</v>
       </c>
     </row>
-    <row r="690" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B690" s="2">
         <v>621900</v>
       </c>
     </row>
-    <row r="691" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B691" s="2">
         <v>754300</v>
       </c>
     </row>
-    <row r="692" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B692" s="2">
         <v>2590800</v>
       </c>
     </row>
-    <row r="693" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B693" s="2">
         <v>914400</v>
       </c>
     </row>
-    <row r="694" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B694" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="695" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+      <c r="B694" s="17">
+        <v>1059900</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A695" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B695" s="2">
         <v>1097900</v>
       </c>
     </row>
-    <row r="696" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A696" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B696" s="2">
         <v>1256400</v>
       </c>
     </row>
-    <row r="697" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B697" s="2">
         <v>3574100</v>
       </c>
     </row>
-    <row r="698" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B698" s="2">
         <v>5454000</v>
       </c>
     </row>
-    <row r="699" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699" s="8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B699" s="2">
         <v>1185500</v>
       </c>
     </row>
-    <row r="700" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" s="8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B700" s="2">
         <v>1319500</v>
       </c>
     </row>
-    <row r="701" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B701" s="2">
         <v>733800</v>
       </c>
     </row>
-    <row r="702" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A702" s="8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B702" s="2">
         <v>1473000</v>
       </c>
     </row>
-    <row r="703" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A703" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B703" s="2">
         <v>2201300</v>
       </c>
     </row>
-    <row r="704" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A704" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B704" s="2">
         <v>3077500</v>
       </c>
     </row>
-    <row r="705" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A705" s="8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B705" s="2">
         <v>2420300</v>
       </c>
     </row>
-    <row r="706" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B706" s="2">
         <v>1184100</v>
       </c>
     </row>
-    <row r="707" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A707" s="8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B707" s="2">
         <v>1184100</v>
       </c>
     </row>
-    <row r="708" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B708" s="2">
         <v>1385500</v>
       </c>
     </row>
-    <row r="709" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709" s="8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B709" s="2">
         <v>309400</v>
       </c>
     </row>
-    <row r="710" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B710" s="2">
         <v>459100</v>
       </c>
     </row>
-    <row r="711" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A711" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B711" s="2">
         <v>447300</v>
       </c>
     </row>
-    <row r="712" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A712" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B712" s="2">
         <v>531300</v>
       </c>
     </row>
-    <row r="713" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A713" s="8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B713" s="2">
         <v>585000</v>
       </c>
     </row>
-    <row r="714" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A714" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B714" s="2">
         <v>515300</v>
       </c>
     </row>
-    <row r="715" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A715" s="8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B715" s="2">
         <v>817400</v>
       </c>
     </row>
-    <row r="716" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A716" s="8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B716" s="2">
         <v>982800</v>
       </c>
     </row>
-    <row r="717" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A717" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B717" s="2">
         <v>924400</v>
       </c>
     </row>
-    <row r="718" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A718" s="8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B718" s="2">
         <v>1082200</v>
       </c>
     </row>
-    <row r="719" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A719" s="8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B719" s="2">
         <v>1370800</v>
       </c>
     </row>
-    <row r="720" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A720" s="8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B720" s="2">
         <v>3066700</v>
       </c>
     </row>
-    <row r="721" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A721" s="8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B721" s="2">
         <v>772300</v>
       </c>
     </row>
-    <row r="722" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A722" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B722" s="2">
         <v>626500</v>
       </c>
     </row>
-    <row r="723" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A723" s="8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B723" s="2">
         <v>953100</v>
       </c>
     </row>
-    <row r="724" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A724" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B724" s="2">
         <v>865500</v>
       </c>
     </row>
-    <row r="725" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A725" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B725" s="2">
         <v>1033700</v>
       </c>
     </row>
-    <row r="726" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A726" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B726" s="2">
         <v>1557900</v>
       </c>
     </row>
-    <row r="727" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A727" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B727" s="2">
         <v>1985700</v>
       </c>
     </row>
-    <row r="728" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A728" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B728" s="2">
         <v>1862500</v>
       </c>
     </row>
-    <row r="729" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A729" s="8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B729" s="2">
         <v>2789700</v>
       </c>
     </row>
-    <row r="730" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A730" s="8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B730" s="2">
         <v>987500</v>
       </c>
     </row>
-    <row r="731" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A731" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B731" s="2">
         <v>1125200</v>
       </c>
     </row>
-    <row r="732" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A732" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="B732" s="12">
+    <row r="732" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A732" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B732" s="11">
         <v>1281900</v>
       </c>
     </row>
-    <row r="733" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A733" s="8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B733" s="2">
         <v>731300</v>
       </c>
     </row>
-    <row r="734" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A734" s="8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B734" s="2">
         <v>783400</v>
       </c>
     </row>
-    <row r="735" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A735" s="8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B735" s="2">
         <v>856500</v>
       </c>
     </row>
-    <row r="736" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A736" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B736" s="2">
         <v>885300</v>
       </c>
     </row>
-    <row r="737" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A737" s="8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B737" s="2">
         <v>1122800</v>
       </c>
     </row>
-    <row r="738" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A738" s="8" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B738" s="2">
         <v>1541600</v>
       </c>
     </row>
-    <row r="739" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A739" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="B739" s="12">
+    <row r="739" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A739" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B739" s="11">
         <v>1669400</v>
       </c>
     </row>
-    <row r="740" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A740" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B740" s="2">
         <v>347000</v>
       </c>
     </row>
-    <row r="741" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A741" s="8" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B741" s="2">
         <v>128500</v>
       </c>
     </row>
-    <row r="742" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A742" s="8" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B742" s="2">
         <v>155700</v>
       </c>
     </row>
-    <row r="743" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A743" s="8" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B743" s="2">
         <v>256600</v>
       </c>
     </row>
-    <row r="744" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A744" s="8" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B744" s="2">
         <v>327800</v>
       </c>
     </row>
-    <row r="745" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A745" s="8" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B745" s="2">
         <v>216900</v>
       </c>
     </row>
-    <row r="746" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A746" s="8" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B746" s="2">
         <v>211800</v>
       </c>
     </row>
-    <row r="747" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A747" s="8" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B747" s="2">
         <v>320000</v>
       </c>
     </row>
-    <row r="748" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A748" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="B748" s="17">
+        <v>132</v>
+      </c>
+      <c r="B748" s="16">
         <v>379800</v>
       </c>
     </row>
-    <row r="749" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A749" s="8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B749" s="2">
         <v>594000</v>
       </c>
     </row>
-    <row r="750" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A750" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B750" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="751" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+      <c r="B750" s="17">
+        <v>876700</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A751" s="8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B751" s="2">
         <v>1096400</v>
       </c>
     </row>
-    <row r="752" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A752" s="8" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B752" s="2">
         <v>699200</v>
       </c>
     </row>
-    <row r="753" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A753" s="8" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B753" s="2">
         <v>759100</v>
       </c>
     </row>
-    <row r="754" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A754" s="8" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B754" s="2">
         <v>791500</v>
       </c>
     </row>
-    <row r="755" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A755" s="8" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B755" s="2">
         <v>815200</v>
       </c>
     </row>
-    <row r="756" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A756" s="8" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B756" s="2">
         <v>927700</v>
       </c>
     </row>
-    <row r="757" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A757" s="8" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B757" s="2">
         <v>976400</v>
       </c>
     </row>
-    <row r="758" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A758" s="8" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B758" s="2">
         <v>976400</v>
       </c>
     </row>
-    <row r="759" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A759" s="8" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B759" s="2">
         <v>1432900</v>
       </c>
     </row>
-    <row r="760" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A760" s="8" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B760" s="2">
         <v>1549600</v>
       </c>
     </row>
-    <row r="761" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A761" s="8" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B761" s="2">
         <v>1873600</v>
       </c>
     </row>
-    <row r="762" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A762" s="8" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B762" s="2">
         <v>1992700</v>
       </c>
     </row>
-    <row r="763" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A763" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="B763" s="12">
+    <row r="763" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A763" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B763" s="11">
         <v>3626600</v>
       </c>
     </row>
-    <row r="764" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A764" s="8" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B764" s="2">
         <v>130300</v>
       </c>
     </row>
-    <row r="765" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A765" s="8" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B765" s="2">
         <v>131500</v>
       </c>
     </row>
-    <row r="766" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A766" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="B766" s="12">
+    <row r="766" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A766" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B766" s="11">
         <v>118300</v>
       </c>
     </row>
-    <row r="767" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A767" s="8" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B767" s="2">
         <v>204400</v>
       </c>
     </row>
-    <row r="768" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A768" s="8" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B768" s="2">
         <v>201200</v>
       </c>
     </row>
-    <row r="769" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A769" s="8" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B769" s="2">
         <v>192700</v>
       </c>
     </row>
-    <row r="770" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A770" s="8" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B770" s="2">
         <v>239500</v>
       </c>
     </row>
-    <row r="771" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A771" s="8" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B771" s="2">
         <v>249900</v>
       </c>
     </row>
-    <row r="772" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A772" s="8" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B772" s="2">
         <v>434400</v>
       </c>
     </row>
-    <row r="773" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A773" s="13" t="s">
+    <row r="773" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A773" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B773" s="11">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A774" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B774" s="11">
+        <v>54400</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A775" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="B775" s="11">
+        <v>50700</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A776" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="B776" s="11">
+        <v>56900</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A777" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B777" s="11">
+        <v>73000</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A778" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="B773" s="12">
-        <v>31000</v>
-      </c>
-    </row>
-    <row r="774" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A774" s="13" t="s">
+      <c r="B778" s="11">
+        <v>94800</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A779" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="B774" s="12">
-        <v>54400</v>
-      </c>
-    </row>
-    <row r="775" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A775" s="13" t="s">
+      <c r="B779" s="11">
+        <v>73000</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A780" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="B775" s="12">
-        <v>50700</v>
-      </c>
-    </row>
-    <row r="776" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A776" s="13" t="s">
+      <c r="B780" s="11">
+        <v>120200</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A781" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="B776" s="12">
-        <v>56900</v>
-      </c>
-    </row>
-    <row r="777" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A777" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="B777" s="12">
-        <v>73000</v>
-      </c>
-    </row>
-    <row r="778" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A778" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="B778" s="12">
-        <v>94800</v>
-      </c>
-    </row>
-    <row r="779" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A779" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="B779" s="12">
-        <v>73000</v>
-      </c>
-    </row>
-    <row r="780" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A780" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="B780" s="12">
-        <v>120200</v>
-      </c>
-    </row>
-    <row r="781" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A781" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="B781" s="12">
+      <c r="B781" s="11">
         <v>90500</v>
       </c>
     </row>

--- a/api/files/prices.xlsx
+++ b/api/files/prices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\la union\Desktop\la_union_api_prices\api\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87353B6-2F8F-4537-847C-AC4E9703F2D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849B4984-400A-4724-9800-45E342F67C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3312" yWindow="3312" windowWidth="17280" windowHeight="8928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -2237,8 +2237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B781"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
-      <selection activeCell="B210" sqref="B210"/>
+    <sheetView tabSelected="1" topLeftCell="A210" workbookViewId="0">
+      <selection activeCell="A210" sqref="A210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3922,7 +3922,7 @@
     </row>
     <row r="210" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
-        <v>122647</v>
+        <v>124486</v>
       </c>
       <c r="B210" s="2">
         <v>714500</v>

--- a/api/files/prices.xlsx
+++ b/api/files/prices.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mamustin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\la union\Desktop\la_union_api_prices\api\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EFB66E8-63AF-4DD3-97C4-CCE4A5484F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D169FD2-E0CD-4B81-8751-5B05BA68B051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6030" yWindow="945" windowWidth="22875" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -806,25 +811,6 @@
         <rFont val="Calibri"/>
         <family val="1"/>
       </rPr>
-      <t>USD 108</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
       <t>1V9E9Y001</t>
     </r>
   </si>
@@ -975,16 +961,6 @@
         <rFont val="Calibri"/>
         <family val="1"/>
       </rPr>
-      <t>1Q6P0K001</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
       <t>1Y7E900001</t>
     </r>
   </si>
@@ -1743,6 +1719,12 @@
   </si>
   <si>
     <t>F68</t>
+  </si>
+  <si>
+    <t>1Q6P0K001</t>
+  </si>
+  <si>
+    <t>USD 108</t>
   </si>
 </sst>
 </file>
@@ -2333,17 +2315,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B790"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A528" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B706" sqref="B706"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>110375</v>
       </c>
@@ -2351,7 +2333,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>117809</v>
       </c>
@@ -2359,7 +2341,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>110371</v>
       </c>
@@ -2367,7 +2349,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>117808</v>
       </c>
@@ -2375,7 +2357,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>110540</v>
       </c>
@@ -2383,7 +2365,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>110376</v>
       </c>
@@ -2391,7 +2373,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>110372</v>
       </c>
@@ -2399,7 +2381,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>118299</v>
       </c>
@@ -2407,7 +2389,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>109747</v>
       </c>
@@ -2415,7 +2397,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>110373</v>
       </c>
@@ -2423,7 +2405,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>117820</v>
       </c>
@@ -2431,7 +2413,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>110529</v>
       </c>
@@ -2439,7 +2421,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>117822</v>
       </c>
@@ -2447,7 +2429,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>110325</v>
       </c>
@@ -2455,7 +2437,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>110374</v>
       </c>
@@ -2463,7 +2445,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>107830</v>
       </c>
@@ -2471,7 +2453,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>140921</v>
       </c>
@@ -2479,7 +2461,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>117833</v>
       </c>
@@ -2487,7 +2469,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>141048</v>
       </c>
@@ -2495,7 +2477,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>108794</v>
       </c>
@@ -2503,7 +2485,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>111463</v>
       </c>
@@ -2511,7 +2493,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>141823</v>
       </c>
@@ -2519,7 +2501,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>111466</v>
       </c>
@@ -2527,7 +2509,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>106855</v>
       </c>
@@ -2535,7 +2517,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>118330</v>
       </c>
@@ -2543,7 +2525,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>108711</v>
       </c>
@@ -2551,7 +2533,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>111462</v>
       </c>
@@ -2559,7 +2541,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>117831</v>
       </c>
@@ -2567,7 +2549,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>107236</v>
       </c>
@@ -2575,7 +2557,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>117821</v>
       </c>
@@ -2583,7 +2565,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>110787</v>
       </c>
@@ -2591,7 +2573,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>111469</v>
       </c>
@@ -2599,7 +2581,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>118140</v>
       </c>
@@ -2607,7 +2589,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>111468</v>
       </c>
@@ -2615,7 +2597,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>105333</v>
       </c>
@@ -2623,7 +2605,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>117787</v>
       </c>
@@ -2631,7 +2613,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>111743</v>
       </c>
@@ -2639,7 +2621,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>111172</v>
       </c>
@@ -2647,7 +2629,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>108795</v>
       </c>
@@ -2655,7 +2637,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>111418</v>
       </c>
@@ -2663,7 +2645,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>117785</v>
       </c>
@@ -2671,7 +2653,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>105894</v>
       </c>
@@ -2679,7 +2661,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>108303</v>
       </c>
@@ -2687,7 +2669,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>107263</v>
       </c>
@@ -2695,7 +2677,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>106698</v>
       </c>
@@ -2703,7 +2685,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>118298</v>
       </c>
@@ -2711,7 +2693,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>118337</v>
       </c>
@@ -2719,7 +2701,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>118403</v>
       </c>
@@ -2727,7 +2709,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>110733</v>
       </c>
@@ -2735,7 +2717,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>118338</v>
       </c>
@@ -2743,7 +2725,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>108701</v>
       </c>
@@ -2751,7 +2733,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>117706</v>
       </c>
@@ -2759,7 +2741,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>117862</v>
       </c>
@@ -2767,7 +2749,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>118094</v>
       </c>
@@ -2775,7 +2757,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>107629</v>
       </c>
@@ -2783,7 +2765,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>117861</v>
       </c>
@@ -2791,7 +2773,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>117786</v>
       </c>
@@ -2799,7 +2781,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>111467</v>
       </c>
@@ -2807,7 +2789,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>108583</v>
       </c>
@@ -2815,7 +2797,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>110581</v>
       </c>
@@ -2823,7 +2805,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>110711</v>
       </c>
@@ -2831,7 +2813,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>117935</v>
       </c>
@@ -2839,7 +2821,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>118381</v>
       </c>
@@ -2847,7 +2829,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>106565</v>
       </c>
@@ -2855,7 +2837,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>108361</v>
       </c>
@@ -2863,7 +2845,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>118382</v>
       </c>
@@ -2871,7 +2853,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>118286</v>
       </c>
@@ -2879,7 +2861,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>107495</v>
       </c>
@@ -2887,7 +2869,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>110233</v>
       </c>
@@ -2895,7 +2877,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>109493</v>
       </c>
@@ -2903,7 +2885,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>110580</v>
       </c>
@@ -2911,7 +2893,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>110193</v>
       </c>
@@ -2919,7 +2901,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>118379</v>
       </c>
@@ -2927,7 +2909,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>118497</v>
       </c>
@@ -2935,7 +2917,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>118392</v>
       </c>
@@ -2943,7 +2925,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>117948</v>
       </c>
@@ -2951,7 +2933,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>118383</v>
       </c>
@@ -2959,7 +2941,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>118376</v>
       </c>
@@ -2967,7 +2949,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>117859</v>
       </c>
@@ -2975,7 +2957,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>118391</v>
       </c>
@@ -2983,7 +2965,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>118319</v>
       </c>
@@ -2991,7 +2973,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>118320</v>
       </c>
@@ -2999,7 +2981,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>117789</v>
       </c>
@@ -3007,7 +2989,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>141565</v>
       </c>
@@ -3015,7 +2997,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>117840</v>
       </c>
@@ -3023,7 +3005,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>111442</v>
       </c>
@@ -3031,7 +3013,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>110745</v>
       </c>
@@ -3039,7 +3021,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>110751</v>
       </c>
@@ -3047,7 +3029,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>111434</v>
       </c>
@@ -3055,7 +3037,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>111381</v>
       </c>
@@ -3063,7 +3045,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>108871</v>
       </c>
@@ -3071,7 +3053,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>116241</v>
       </c>
@@ -3079,7 +3061,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>109338</v>
       </c>
@@ -3087,7 +3069,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>140922</v>
       </c>
@@ -3095,7 +3077,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>108022</v>
       </c>
@@ -3103,7 +3085,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>111532</v>
       </c>
@@ -3111,7 +3093,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>111383</v>
       </c>
@@ -3119,7 +3101,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>117854</v>
       </c>
@@ -3127,7 +3109,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>111443</v>
       </c>
@@ -3135,7 +3117,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>117315</v>
       </c>
@@ -3143,7 +3125,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>110740</v>
       </c>
@@ -3151,7 +3133,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>110762</v>
       </c>
@@ -3159,7 +3141,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>100761</v>
       </c>
@@ -3167,7 +3149,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>111435</v>
       </c>
@@ -3175,7 +3157,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>117841</v>
       </c>
@@ -3183,7 +3165,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>110743</v>
       </c>
@@ -3191,7 +3173,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>117838</v>
       </c>
@@ -3199,7 +3181,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>111433</v>
       </c>
@@ -3207,7 +3189,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>111430</v>
       </c>
@@ -3215,7 +3197,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>117834</v>
       </c>
@@ -3223,7 +3205,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>117289</v>
       </c>
@@ -3231,7 +3213,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>116527</v>
       </c>
@@ -3239,7 +3221,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>107472</v>
       </c>
@@ -3247,7 +3229,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>110746</v>
       </c>
@@ -3255,7 +3237,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>111569</v>
       </c>
@@ -3263,7 +3245,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>110742</v>
       </c>
@@ -3271,7 +3253,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>118306</v>
       </c>
@@ -3279,7 +3261,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>107474</v>
       </c>
@@ -3287,7 +3269,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>111598</v>
       </c>
@@ -3295,7 +3277,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>110515</v>
       </c>
@@ -3303,7 +3285,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>111530</v>
       </c>
@@ -3311,7 +3293,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>110752</v>
       </c>
@@ -3319,7 +3301,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>107890</v>
       </c>
@@ -3327,7 +3309,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>117087</v>
       </c>
@@ -3335,7 +3317,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>111439</v>
       </c>
@@ -3343,7 +3325,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>110756</v>
       </c>
@@ -3351,7 +3333,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>107886</v>
       </c>
@@ -3359,7 +3341,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>110753</v>
       </c>
@@ -3367,7 +3349,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>110750</v>
       </c>
@@ -3375,7 +3357,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>111879</v>
       </c>
@@ -3383,7 +3365,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>111437</v>
       </c>
@@ -3391,7 +3373,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>110749</v>
       </c>
@@ -3399,7 +3381,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>111447</v>
       </c>
@@ -3407,7 +3389,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>107532</v>
       </c>
@@ -3415,7 +3397,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>109933</v>
       </c>
@@ -3423,7 +3405,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>111655</v>
       </c>
@@ -3431,7 +3413,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>111438</v>
       </c>
@@ -3439,7 +3421,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>110747</v>
       </c>
@@ -3447,7 +3429,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>111445</v>
       </c>
@@ -3455,7 +3437,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>106955</v>
       </c>
@@ -3463,7 +3445,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>110313</v>
       </c>
@@ -3471,7 +3453,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>117853</v>
       </c>
@@ -3479,7 +3461,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>110339</v>
       </c>
@@ -3487,7 +3469,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>117856</v>
       </c>
@@ -3495,7 +3477,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>117855</v>
       </c>
@@ -3503,7 +3485,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>108772</v>
       </c>
@@ -3511,7 +3493,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>108592</v>
       </c>
@@ -3519,7 +3501,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>118183</v>
       </c>
@@ -3527,7 +3509,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>110741</v>
       </c>
@@ -3535,7 +3517,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>107888</v>
       </c>
@@ -3543,7 +3525,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>111436</v>
       </c>
@@ -3551,7 +3533,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>111660</v>
       </c>
@@ -3559,7 +3541,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>111441</v>
       </c>
@@ -3567,7 +3549,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>118222</v>
       </c>
@@ -3575,7 +3557,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>110755</v>
       </c>
@@ -3583,7 +3565,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>107109</v>
       </c>
@@ -3591,7 +3573,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>118304</v>
       </c>
@@ -3599,7 +3581,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>110895</v>
       </c>
@@ -3607,7 +3589,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>111850</v>
       </c>
@@ -3615,7 +3597,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>108770</v>
       </c>
@@ -3623,7 +3605,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>107892</v>
       </c>
@@ -3631,7 +3613,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>111440</v>
       </c>
@@ -3639,7 +3621,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>111690</v>
       </c>
@@ -3647,7 +3629,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>107537</v>
       </c>
@@ -3655,7 +3637,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>109646</v>
       </c>
@@ -3663,7 +3645,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>109645</v>
       </c>
@@ -3671,7 +3653,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>109647</v>
       </c>
@@ -3679,7 +3661,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>105111</v>
       </c>
@@ -3687,7 +3669,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>111182</v>
       </c>
@@ -3695,7 +3677,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>109641</v>
       </c>
@@ -3703,7 +3685,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>105705</v>
       </c>
@@ -3711,7 +3693,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>109640</v>
       </c>
@@ -3719,7 +3701,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>111330</v>
       </c>
@@ -3727,7 +3709,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>118166</v>
       </c>
@@ -3735,7 +3717,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>118168</v>
       </c>
@@ -3743,7 +3725,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>118171</v>
       </c>
@@ -3751,7 +3733,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>118169</v>
       </c>
@@ -3759,7 +3741,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>111813</v>
       </c>
@@ -3767,7 +3749,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>118226</v>
       </c>
@@ -3775,7 +3757,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>111812</v>
       </c>
@@ -3783,7 +3765,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>140991</v>
       </c>
@@ -3791,7 +3773,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>118257</v>
       </c>
@@ -3799,7 +3781,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>118119</v>
       </c>
@@ -3807,7 +3789,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>118187</v>
       </c>
@@ -3815,7 +3797,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>118229</v>
       </c>
@@ -3823,7 +3805,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>118419</v>
       </c>
@@ -3831,7 +3813,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>118333</v>
       </c>
@@ -3839,7 +3821,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>118205</v>
       </c>
@@ -3847,7 +3829,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>118113</v>
       </c>
@@ -3855,7 +3837,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>118530</v>
       </c>
@@ -3863,7 +3845,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>118528</v>
       </c>
@@ -3871,7 +3853,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="6">
         <v>118200</v>
       </c>
@@ -3879,7 +3861,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="8" t="s">
         <v>0</v>
       </c>
@@ -3887,7 +3869,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>111357</v>
       </c>
@@ -3895,7 +3877,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>108961</v>
       </c>
@@ -3903,7 +3885,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>105470</v>
       </c>
@@ -3911,7 +3893,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>110063</v>
       </c>
@@ -3919,7 +3901,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>105368</v>
       </c>
@@ -3927,7 +3909,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>118215</v>
       </c>
@@ -3935,7 +3917,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>110841</v>
       </c>
@@ -3943,7 +3925,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>110563</v>
       </c>
@@ -3951,7 +3933,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>120002</v>
       </c>
@@ -3959,7 +3941,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>120003</v>
       </c>
@@ -3967,7 +3949,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>120050</v>
       </c>
@@ -3975,7 +3957,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>120098</v>
       </c>
@@ -3983,7 +3965,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>122968</v>
       </c>
@@ -3991,7 +3973,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>122967</v>
       </c>
@@ -3999,7 +3981,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>123492</v>
       </c>
@@ -4007,7 +3989,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>123345</v>
       </c>
@@ -4015,7 +3997,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>123343</v>
       </c>
@@ -4023,7 +4005,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>120389</v>
       </c>
@@ -4031,7 +4013,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>123822</v>
       </c>
@@ -4039,7 +4021,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>123909</v>
       </c>
@@ -4047,7 +4029,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>124486</v>
       </c>
@@ -4055,7 +4037,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
         <v>121304</v>
       </c>
@@ -4063,7 +4045,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="216" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>122673</v>
       </c>
@@ -4071,7 +4053,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>122647</v>
       </c>
@@ -4079,7 +4061,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>123313</v>
       </c>
@@ -4087,7 +4069,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>120286</v>
       </c>
@@ -4095,7 +4077,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>122671</v>
       </c>
@@ -4103,7 +4085,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="221" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>122962</v>
       </c>
@@ -4111,7 +4093,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>120285</v>
       </c>
@@ -4119,7 +4101,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="223" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>121307</v>
       </c>
@@ -4127,7 +4109,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="224" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>123284</v>
       </c>
@@ -4135,7 +4117,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="225" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>120028</v>
       </c>
@@ -4143,7 +4125,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>120008</v>
       </c>
@@ -4151,7 +4133,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="227" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>123153</v>
       </c>
@@ -4159,7 +4141,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="228" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>124624</v>
       </c>
@@ -4167,7 +4149,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="229" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>124594</v>
       </c>
@@ -4175,7 +4157,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="230" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>123084</v>
       </c>
@@ -4183,7 +4165,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="231" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>124247</v>
       </c>
@@ -4191,7 +4173,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="232" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>120339</v>
       </c>
@@ -4199,7 +4181,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>124248</v>
       </c>
@@ -4207,7 +4189,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="234" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>124548</v>
       </c>
@@ -4215,7 +4197,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>123445</v>
       </c>
@@ -4223,7 +4205,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>124246</v>
       </c>
@@ -4231,7 +4213,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="237" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>122188</v>
       </c>
@@ -4239,7 +4221,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="238" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>122195</v>
       </c>
@@ -4247,7 +4229,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>122983</v>
       </c>
@@ -4255,7 +4237,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>122984</v>
       </c>
@@ -4263,7 +4245,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="241" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>123862</v>
       </c>
@@ -4271,7 +4253,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="242" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>122650</v>
       </c>
@@ -4279,7 +4261,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>124433</v>
       </c>
@@ -4287,7 +4269,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="244" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>120995</v>
       </c>
@@ -4295,7 +4277,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="245" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>123222</v>
       </c>
@@ -4303,7 +4285,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="246" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>120240</v>
       </c>
@@ -4311,7 +4293,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>123833</v>
       </c>
@@ -4319,7 +4301,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="248" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>124477</v>
       </c>
@@ -4327,7 +4309,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>123344</v>
       </c>
@@ -4335,7 +4317,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>124475</v>
       </c>
@@ -4343,7 +4325,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="251" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>121760</v>
       </c>
@@ -4351,7 +4333,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="252" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>124476</v>
       </c>
@@ -4359,7 +4341,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="253" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>124370</v>
       </c>
@@ -4367,7 +4349,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="254" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>121651</v>
       </c>
@@ -4375,7 +4357,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>124371</v>
       </c>
@@ -4383,7 +4365,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="256" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>122703</v>
       </c>
@@ -4391,7 +4373,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="257" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>123560</v>
       </c>
@@ -4399,7 +4381,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="258" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>123561</v>
       </c>
@@ -4407,7 +4389,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="259" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>160052</v>
       </c>
@@ -4415,7 +4397,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>160054</v>
       </c>
@@ -4423,7 +4405,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>160051</v>
       </c>
@@ -4431,7 +4413,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="262" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>160055</v>
       </c>
@@ -4439,7 +4421,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="263" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>1100000</v>
       </c>
@@ -4447,7 +4429,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="264" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>1100403</v>
       </c>
@@ -4455,7 +4437,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>1100401</v>
       </c>
@@ -4463,7 +4445,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="266" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>1100402</v>
       </c>
@@ -4471,15 +4453,15 @@
         <v>245</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="3">
         <v>1181019</v>
       </c>
       <c r="B267" s="9">
-        <v>3.6819999999999999</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3682</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>1701510</v>
       </c>
@@ -4487,7 +4469,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="269" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>1101350</v>
       </c>
@@ -4495,7 +4477,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="270" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>1120001</v>
       </c>
@@ -4503,7 +4485,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="271" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>1100051</v>
       </c>
@@ -4511,7 +4493,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="272" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>1100050</v>
       </c>
@@ -4519,7 +4501,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>1600050</v>
       </c>
@@ -4527,7 +4509,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="274" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>1150005</v>
       </c>
@@ -4535,7 +4517,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="275" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>1150000</v>
       </c>
@@ -4543,7 +4525,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>1150003</v>
       </c>
@@ -4551,15 +4533,15 @@
         <v>347</v>
       </c>
     </row>
-    <row r="277" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>1182040</v>
       </c>
       <c r="B277" s="10">
-        <v>5.476</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>5476</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>1103003</v>
       </c>
@@ -4567,7 +4549,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="279" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>1103002</v>
       </c>
@@ -4575,7 +4557,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="280" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>1103001</v>
       </c>
@@ -4583,7 +4565,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="281" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>1101150</v>
       </c>
@@ -4591,7 +4573,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="282" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>1101160</v>
       </c>
@@ -4599,7 +4581,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="283" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>1101202</v>
       </c>
@@ -4607,7 +4589,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="284" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>1101201</v>
       </c>
@@ -4615,15 +4597,15 @@
         <v>244</v>
       </c>
     </row>
-    <row r="285" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>1602023</v>
       </c>
       <c r="B285" s="10">
-        <v>1.466</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>1150014</v>
       </c>
@@ -4631,7 +4613,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="287" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>1150015</v>
       </c>
@@ -4639,7 +4621,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="288" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>1159305</v>
       </c>
@@ -4647,7 +4629,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="289" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>1159211</v>
       </c>
@@ -4655,7 +4637,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="290" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>1159320</v>
       </c>
@@ -4663,7 +4645,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="291" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>1159210</v>
       </c>
@@ -4671,7 +4653,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="292" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>1159324</v>
       </c>
@@ -4679,7 +4661,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="293" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>1150315</v>
       </c>
@@ -4687,7 +4669,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="294" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>1150020</v>
       </c>
@@ -4695,7 +4677,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="295" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>1150124</v>
       </c>
@@ -4703,7 +4685,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="296" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>1150032</v>
       </c>
@@ -4711,7 +4693,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="297" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>1150030</v>
       </c>
@@ -4719,7 +4701,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="298" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>1150900</v>
       </c>
@@ -4727,7 +4709,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="299" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>1101800</v>
       </c>
@@ -4735,7 +4717,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="300" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>1101410</v>
       </c>
@@ -4743,7 +4725,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="301" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>1101422</v>
       </c>
@@ -4751,7 +4733,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="302" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>1103005</v>
       </c>
@@ -4759,7 +4741,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="303" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>1103004</v>
       </c>
@@ -4767,7 +4749,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="304" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>1103006</v>
       </c>
@@ -4775,7 +4757,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="305" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>1101250</v>
       </c>
@@ -4783,7 +4765,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="306" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>1701515</v>
       </c>
@@ -4791,7 +4773,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="307" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>1601002</v>
       </c>
@@ -4799,7 +4781,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="308" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>1601003</v>
       </c>
@@ -4807,7 +4789,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="309" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>1601004</v>
       </c>
@@ -4815,7 +4797,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="310" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>1601005</v>
       </c>
@@ -4823,7 +4805,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="311" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>1150022</v>
       </c>
@@ -4831,7 +4813,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="312" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>1159330</v>
       </c>
@@ -4839,7 +4821,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="313" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>1150201</v>
       </c>
@@ -4847,7 +4829,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="314" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>1150200</v>
       </c>
@@ -4855,15 +4837,15 @@
         <v>580</v>
       </c>
     </row>
-    <row r="315" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>1602025</v>
       </c>
       <c r="B315" s="10">
-        <v>2.08</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>1606094</v>
       </c>
@@ -4871,7 +4853,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="317" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>1606095</v>
       </c>
@@ -4879,7 +4861,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="318" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>1606097</v>
       </c>
@@ -4887,7 +4869,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="319" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>1606096</v>
       </c>
@@ -4895,7 +4877,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="320" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>1150041</v>
       </c>
@@ -4903,7 +4885,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="321" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>1150043</v>
       </c>
@@ -4911,7 +4893,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="322" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>1150411</v>
       </c>
@@ -4919,7 +4901,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="323" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>1159230</v>
       </c>
@@ -4927,7 +4909,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="324" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>1159201</v>
       </c>
@@ -4935,7 +4917,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="325" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>1159200</v>
       </c>
@@ -4943,7 +4925,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="326" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>1159220</v>
       </c>
@@ -4951,7 +4933,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="327" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>1159323</v>
       </c>
@@ -4959,7 +4941,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="328" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>1150320</v>
       </c>
@@ -4967,7 +4949,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="329" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>1150300</v>
       </c>
@@ -4975,7 +4957,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="330" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>1150050</v>
       </c>
@@ -4983,7 +4965,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="331" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>1150060</v>
       </c>
@@ -4991,7 +4973,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="332" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>1150062</v>
       </c>
@@ -4999,7 +4981,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="333" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>1150061</v>
       </c>
@@ -5007,7 +4989,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="334" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>1150211</v>
       </c>
@@ -5015,7 +4997,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="335" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>1150415</v>
       </c>
@@ -5023,7 +5005,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="336" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>1159325</v>
       </c>
@@ -5031,7 +5013,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="337" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>1101414</v>
       </c>
@@ -5039,7 +5021,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="338" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>1101415</v>
       </c>
@@ -5047,7 +5029,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="339" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>1608000</v>
       </c>
@@ -5055,7 +5037,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="340" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>1150192</v>
       </c>
@@ -5063,7 +5045,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="341" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>1101300</v>
       </c>
@@ -5071,7 +5053,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="342" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>1102600</v>
       </c>
@@ -5079,7 +5061,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="343" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>1151004</v>
       </c>
@@ -5087,7 +5069,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="344" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>1151003</v>
       </c>
@@ -5095,7 +5077,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="345" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>1151002</v>
       </c>
@@ -5103,7 +5085,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="346" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>1159215</v>
       </c>
@@ -5111,7 +5093,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="347" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>1150221</v>
       </c>
@@ -5119,7 +5101,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="348" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>1151102</v>
       </c>
@@ -5127,7 +5109,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="349" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>1150095</v>
       </c>
@@ -5135,7 +5117,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="350" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>1150080</v>
       </c>
@@ -5143,7 +5125,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="351" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>1150417</v>
       </c>
@@ -5151,23 +5133,23 @@
         <v>991</v>
       </c>
     </row>
-    <row r="352" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>1606072</v>
       </c>
       <c r="B352" s="10">
-        <v>1.0109999999999999</v>
-      </c>
-    </row>
-    <row r="353" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>1603001</v>
       </c>
       <c r="B353" s="10">
-        <v>2.4900000000000002</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>1606098</v>
       </c>
@@ -5175,7 +5157,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="355" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>1606099</v>
       </c>
@@ -5183,31 +5165,31 @@
         <v>850</v>
       </c>
     </row>
-    <row r="356" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>1650010</v>
       </c>
       <c r="B356" s="10">
-        <v>1.6060000000000001</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>1606011</v>
       </c>
       <c r="B357" s="10">
-        <v>4.1689999999999996</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>4169</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>1606010</v>
       </c>
       <c r="B358" s="10">
-        <v>4.1669999999999998</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>4167</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>1150233</v>
       </c>
@@ -5215,7 +5197,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="360" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>1150420</v>
       </c>
@@ -5223,7 +5205,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="361" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>1150240</v>
       </c>
@@ -5231,7 +5213,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="362" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>1150242</v>
       </c>
@@ -5239,23 +5221,23 @@
         <v>842</v>
       </c>
     </row>
-    <row r="363" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>1150100</v>
       </c>
       <c r="B363" s="10">
-        <v>1.1910000000000001</v>
-      </c>
-    </row>
-    <row r="364" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>1150413</v>
       </c>
       <c r="B364" s="10">
-        <v>1.125</v>
-      </c>
-    </row>
-    <row r="365" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>1159101</v>
       </c>
@@ -5263,7 +5245,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="366" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>1159091</v>
       </c>
@@ -5271,7 +5253,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="367" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>1150101</v>
       </c>
@@ -5279,23 +5261,23 @@
         <v>964</v>
       </c>
     </row>
-    <row r="368" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>1150106</v>
       </c>
       <c r="B368" s="10">
-        <v>1.258</v>
-      </c>
-    </row>
-    <row r="369" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>1150414</v>
       </c>
       <c r="B369" s="10">
-        <v>1.1910000000000001</v>
-      </c>
-    </row>
-    <row r="370" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>1159111</v>
       </c>
@@ -5303,7 +5285,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="371" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>1159102</v>
       </c>
@@ -5311,15 +5293,15 @@
         <v>900</v>
       </c>
     </row>
-    <row r="372" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>1159213</v>
       </c>
       <c r="B372" s="10">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="373" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>1159212</v>
       </c>
@@ -5327,15 +5309,15 @@
         <v>987</v>
       </c>
     </row>
-    <row r="374" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>1159214</v>
       </c>
       <c r="B374" s="10">
-        <v>1.052</v>
-      </c>
-    </row>
-    <row r="375" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>1151800</v>
       </c>
@@ -5343,7 +5325,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="376" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>1151801</v>
       </c>
@@ -5351,87 +5333,87 @@
         <v>784</v>
       </c>
     </row>
-    <row r="377" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>1602003</v>
       </c>
       <c r="B377" s="10">
-        <v>1.3720000000000001</v>
-      </c>
-    </row>
-    <row r="378" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>1606075</v>
       </c>
       <c r="B378" s="10">
-        <v>1.4490000000000001</v>
-      </c>
-    </row>
-    <row r="379" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>1606080</v>
       </c>
       <c r="B379" s="10">
-        <v>1.9550000000000001</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>1656085</v>
       </c>
       <c r="B380" s="10">
-        <v>2.3780000000000001</v>
-      </c>
-    </row>
-    <row r="381" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2378</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>1150422</v>
       </c>
       <c r="B381" s="10">
-        <v>1.637</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>1150423</v>
       </c>
       <c r="B382" s="10">
-        <v>1.7270000000000001</v>
-      </c>
-    </row>
-    <row r="383" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>1159309</v>
       </c>
       <c r="B383" s="10">
-        <v>1.1439999999999999</v>
-      </c>
-    </row>
-    <row r="384" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>1159308</v>
       </c>
       <c r="B384" s="10">
-        <v>1.323</v>
-      </c>
-    </row>
-    <row r="385" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>1154902</v>
       </c>
       <c r="B385" s="10">
-        <v>1.601</v>
-      </c>
-    </row>
-    <row r="386" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>1150425</v>
       </c>
       <c r="B386" s="10">
-        <v>1.64</v>
-      </c>
-    </row>
-    <row r="387" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>1152800</v>
       </c>
@@ -5439,143 +5421,143 @@
         <v>895</v>
       </c>
     </row>
-    <row r="388" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>1153812</v>
       </c>
       <c r="B388" s="10">
-        <v>1.018</v>
-      </c>
-    </row>
-    <row r="389" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>1153814</v>
       </c>
       <c r="B389" s="10">
-        <v>1.3979999999999999</v>
-      </c>
-    </row>
-    <row r="390" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>1150153</v>
       </c>
       <c r="B390" s="10">
-        <v>1.323</v>
-      </c>
-    </row>
-    <row r="391" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>1150155</v>
       </c>
       <c r="B391" s="10">
-        <v>1.478</v>
-      </c>
-    </row>
-    <row r="392" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>1150401</v>
       </c>
       <c r="B392" s="10">
-        <v>1.329</v>
-      </c>
-    </row>
-    <row r="393" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>1159010</v>
       </c>
       <c r="B393" s="10">
-        <v>1.6719999999999999</v>
-      </c>
-    </row>
-    <row r="394" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>1153810</v>
       </c>
       <c r="B394" s="10">
-        <v>1.3220000000000001</v>
-      </c>
-    </row>
-    <row r="395" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>1150130</v>
       </c>
       <c r="B395" s="10">
-        <v>1.4319999999999999</v>
-      </c>
-    </row>
-    <row r="396" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>1150131</v>
       </c>
       <c r="B396" s="10">
-        <v>1.244</v>
-      </c>
-    </row>
-    <row r="397" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>1150132</v>
       </c>
       <c r="B397" s="10">
-        <v>1.218</v>
-      </c>
-    </row>
-    <row r="398" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>1150412</v>
       </c>
       <c r="B398" s="10">
-        <v>1.5549999999999999</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>1150410</v>
       </c>
       <c r="B399" s="10">
-        <v>1.6479999999999999</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>1606074</v>
       </c>
       <c r="B400" s="10">
-        <v>1.8120000000000001</v>
-      </c>
-    </row>
-    <row r="401" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>1656095</v>
       </c>
       <c r="B401" s="10">
-        <v>2.9630000000000001</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2963</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>1153813</v>
       </c>
       <c r="B402" s="10">
-        <v>1.552</v>
-      </c>
-    </row>
-    <row r="403" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>1150142</v>
       </c>
       <c r="B403" s="10">
-        <v>1.5109999999999999</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>1155196</v>
       </c>
       <c r="B404" s="10">
-        <v>1.9450000000000001</v>
-      </c>
-    </row>
-    <row r="405" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>1159327</v>
       </c>
@@ -5583,71 +5565,71 @@
         <v>230</v>
       </c>
     </row>
-    <row r="406" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>1656096</v>
       </c>
       <c r="B406" s="10">
-        <v>5.73</v>
-      </c>
-    </row>
-    <row r="407" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>5730</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>1650100</v>
       </c>
       <c r="B407" s="10">
-        <v>4.1539999999999999</v>
-      </c>
-    </row>
-    <row r="408" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>4154</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>1150161</v>
       </c>
       <c r="B408" s="10">
-        <v>1.5649999999999999</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>1150163</v>
       </c>
       <c r="B409" s="10">
-        <v>1.679</v>
-      </c>
-    </row>
-    <row r="410" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>1606090</v>
       </c>
       <c r="B410" s="10">
-        <v>4.0129999999999999</v>
-      </c>
-    </row>
-    <row r="411" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>4013</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>1606092</v>
       </c>
       <c r="B411" s="10">
-        <v>4.07</v>
-      </c>
-    </row>
-    <row r="412" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>4070</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>1150172</v>
       </c>
       <c r="B412" s="10">
-        <v>1.853</v>
-      </c>
-    </row>
-    <row r="413" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>1150173</v>
       </c>
       <c r="B413" s="10">
-        <v>1.968</v>
-      </c>
-    </row>
-    <row r="414" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>1155000</v>
       </c>
@@ -5655,7 +5637,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="415" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>1163740</v>
       </c>
@@ -5663,55 +5645,55 @@
         <v>917</v>
       </c>
     </row>
-    <row r="416" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>1163410</v>
       </c>
       <c r="B416" s="10">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="417" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>1168020</v>
       </c>
       <c r="B417" s="10">
-        <v>1.24</v>
-      </c>
-    </row>
-    <row r="418" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>1163620</v>
       </c>
       <c r="B418" s="10">
-        <v>1.252</v>
-      </c>
-    </row>
-    <row r="419" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>1163530</v>
       </c>
       <c r="B419" s="10">
-        <v>1.109</v>
-      </c>
-    </row>
-    <row r="420" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>1168025</v>
       </c>
       <c r="B420" s="10">
-        <v>1.242</v>
-      </c>
-    </row>
-    <row r="421" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>1163850</v>
       </c>
       <c r="B421" s="10">
-        <v>1.157</v>
-      </c>
-    </row>
-    <row r="422" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>1155010</v>
       </c>
@@ -5719,23 +5701,23 @@
         <v>788</v>
       </c>
     </row>
-    <row r="423" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>1167010</v>
       </c>
       <c r="B423" s="10">
-        <v>1.546</v>
-      </c>
-    </row>
-    <row r="424" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>1168010</v>
       </c>
       <c r="B424" s="10">
-        <v>1.673</v>
-      </c>
-    </row>
-    <row r="425" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>1111120</v>
       </c>
@@ -5743,7 +5725,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="426" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>1111080</v>
       </c>
@@ -5751,7 +5733,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="427" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>1111050</v>
       </c>
@@ -5759,7 +5741,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="428" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>1111060</v>
       </c>
@@ -5767,47 +5749,47 @@
         <v>339</v>
       </c>
     </row>
-    <row r="429" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>1166060</v>
       </c>
       <c r="B429" s="10">
-        <v>1.081</v>
-      </c>
-    </row>
-    <row r="430" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>1155035</v>
       </c>
       <c r="B430" s="10">
-        <v>1.3140000000000001</v>
-      </c>
-    </row>
-    <row r="431" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>1155020</v>
       </c>
       <c r="B431" s="10">
-        <v>1.274</v>
-      </c>
-    </row>
-    <row r="432" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>1155030</v>
       </c>
       <c r="B432" s="10">
-        <v>1.2809999999999999</v>
-      </c>
-    </row>
-    <row r="433" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>1168013</v>
       </c>
       <c r="B433" s="10">
-        <v>1.3919999999999999</v>
-      </c>
-    </row>
-    <row r="434" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>1102800</v>
       </c>
@@ -5815,7 +5797,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="435" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>1100600</v>
       </c>
@@ -5823,7 +5805,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="436" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>1701433</v>
       </c>
@@ -5831,7 +5813,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="437" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>1111110</v>
       </c>
@@ -5839,7 +5821,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="438" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>1111010</v>
       </c>
@@ -5847,47 +5829,47 @@
         <v>875</v>
       </c>
     </row>
-    <row r="439" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>1166020</v>
       </c>
       <c r="B439" s="10">
-        <v>1.5569999999999999</v>
-      </c>
-    </row>
-    <row r="440" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>1166030</v>
       </c>
       <c r="B440" s="10">
-        <v>1.7609999999999999</v>
-      </c>
-    </row>
-    <row r="441" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>1166040</v>
       </c>
       <c r="B441" s="10">
-        <v>2.0819999999999999</v>
-      </c>
-    </row>
-    <row r="442" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>1166044</v>
       </c>
       <c r="B442" s="10">
-        <v>2.0099999999999998</v>
-      </c>
-    </row>
-    <row r="443" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>1166042</v>
       </c>
       <c r="B443" s="10">
-        <v>2.2890000000000001</v>
-      </c>
-    </row>
-    <row r="444" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>1111090</v>
       </c>
@@ -5895,15 +5877,15 @@
         <v>692</v>
       </c>
     </row>
-    <row r="445" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>1153815</v>
       </c>
       <c r="B445" s="10">
-        <v>1.4390000000000001</v>
-      </c>
-    </row>
-    <row r="446" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>1101600</v>
       </c>
@@ -5911,7 +5893,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="447" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>1101601</v>
       </c>
@@ -5919,7 +5901,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="448" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>1100205</v>
       </c>
@@ -5927,7 +5909,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="449" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>1102400</v>
       </c>
@@ -5935,7 +5917,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="450" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>1103200</v>
       </c>
@@ -5943,7 +5925,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="451" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>1103261</v>
       </c>
@@ -5951,7 +5933,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="452" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>1111123</v>
       </c>
@@ -5959,7 +5941,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="453" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>1111100</v>
       </c>
@@ -5967,111 +5949,111 @@
         <v>901</v>
       </c>
     </row>
-    <row r="454" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>1161070</v>
       </c>
       <c r="B454" s="10">
-        <v>1.403</v>
-      </c>
-    </row>
-    <row r="455" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>1181015</v>
       </c>
       <c r="B455" s="10">
-        <v>2.2789999999999999</v>
-      </c>
-    </row>
-    <row r="456" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>1153244</v>
       </c>
       <c r="B456" s="10">
-        <v>1.554</v>
-      </c>
-    </row>
-    <row r="457" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>1153242</v>
       </c>
       <c r="B457" s="10">
-        <v>1.758</v>
-      </c>
-    </row>
-    <row r="458" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>1310002</v>
       </c>
       <c r="B458" s="10">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="459" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>1163250</v>
       </c>
       <c r="B459" s="10">
-        <v>1.7829999999999999</v>
-      </c>
-    </row>
-    <row r="460" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>1157041</v>
       </c>
       <c r="B460" s="10">
-        <v>2.0209999999999999</v>
-      </c>
-    </row>
-    <row r="461" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>1155037</v>
       </c>
       <c r="B461" s="10">
-        <v>2.649</v>
-      </c>
-    </row>
-    <row r="462" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2649</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>1155036</v>
       </c>
       <c r="B462" s="10">
-        <v>2.5720000000000001</v>
-      </c>
-    </row>
-    <row r="463" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>1181017</v>
       </c>
       <c r="B463" s="10">
-        <v>3.641</v>
-      </c>
-    </row>
-    <row r="464" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3641</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>1153282</v>
       </c>
       <c r="B464" s="10">
-        <v>2.2330000000000001</v>
-      </c>
-    </row>
-    <row r="465" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>1155040</v>
       </c>
       <c r="B465" s="10">
-        <v>2.7909999999999999</v>
-      </c>
-    </row>
-    <row r="466" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2791</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>1157040</v>
       </c>
       <c r="B466" s="10">
-        <v>3.145</v>
-      </c>
-    </row>
-    <row r="467" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3145</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>1102500</v>
       </c>
@@ -6079,7 +6061,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="468" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>1103250</v>
       </c>
@@ -6087,7 +6069,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="469" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>1600010</v>
       </c>
@@ -6095,7 +6077,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="470" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>1103255</v>
       </c>
@@ -6103,7 +6085,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="471" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>1103257</v>
       </c>
@@ -6111,7 +6093,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="472" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>1100811</v>
       </c>
@@ -6119,7 +6101,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="473" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>1100215</v>
       </c>
@@ -6127,7 +6109,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="474" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>1100040</v>
       </c>
@@ -6135,7 +6117,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="475" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>1100844</v>
       </c>
@@ -6143,7 +6125,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="476" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>1100225</v>
       </c>
@@ -6151,7 +6133,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="477" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>1100030</v>
       </c>
@@ -6159,55 +6141,55 @@
         <v>179</v>
       </c>
     </row>
-    <row r="478" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>1111122</v>
       </c>
       <c r="B478" s="10">
-        <v>1.0409999999999999</v>
-      </c>
-    </row>
-    <row r="479" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>1168012</v>
       </c>
       <c r="B479" s="10">
-        <v>3.23</v>
-      </c>
-    </row>
-    <row r="480" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>1310001</v>
       </c>
       <c r="B480" s="10">
-        <v>2.79</v>
-      </c>
-    </row>
-    <row r="481" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>1168011</v>
       </c>
       <c r="B481" s="10">
-        <v>3.1379999999999999</v>
-      </c>
-    </row>
-    <row r="482" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3138</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>1181040</v>
       </c>
       <c r="B482" s="10">
-        <v>2.8170000000000002</v>
-      </c>
-    </row>
-    <row r="483" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2817</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>1157030</v>
       </c>
       <c r="B483" s="10">
-        <v>2.5030000000000001</v>
-      </c>
-    </row>
-    <row r="484" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2503</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>1159300</v>
       </c>
@@ -6215,39 +6197,39 @@
         <v>159</v>
       </c>
     </row>
-    <row r="485" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>1157032</v>
       </c>
       <c r="B485" s="10">
-        <v>2.6779999999999999</v>
-      </c>
-    </row>
-    <row r="486" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2678</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>1154065</v>
       </c>
       <c r="B486" s="10">
-        <v>2.9740000000000002</v>
-      </c>
-    </row>
-    <row r="487" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2974</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
         <v>1320002</v>
       </c>
       <c r="B487" s="10">
-        <v>2.9089999999999998</v>
-      </c>
-    </row>
-    <row r="488" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2909</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <v>1156010</v>
       </c>
       <c r="B488" s="10">
-        <v>4.1189999999999998</v>
-      </c>
-    </row>
-    <row r="489" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>4119</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
         <v>1152018</v>
       </c>
@@ -6255,7 +6237,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="490" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
         <v>1100235</v>
       </c>
@@ -6263,7 +6245,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="491" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <v>1159332</v>
       </c>
@@ -6271,7 +6253,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="492" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <v>1703003</v>
       </c>
@@ -6279,15 +6261,15 @@
         <v>145</v>
       </c>
     </row>
-    <row r="493" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <v>1157700</v>
       </c>
       <c r="B493" s="10">
-        <v>3.464</v>
-      </c>
-    </row>
-    <row r="494" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3464</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <v>6009</v>
       </c>
@@ -6295,7 +6277,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="495" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
         <v>70012</v>
       </c>
@@ -6303,7 +6285,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="496" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
         <v>1016</v>
       </c>
@@ -6311,7 +6293,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="497" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
         <v>65016</v>
       </c>
@@ -6319,7 +6301,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="498" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <v>70016</v>
       </c>
@@ -6327,7 +6309,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="499" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
         <v>14175</v>
       </c>
@@ -6335,7 +6317,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="500" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="8" t="s">
         <v>1</v>
       </c>
@@ -6343,7 +6325,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="501" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
         <v>130024</v>
       </c>
@@ -6351,7 +6333,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="502" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <v>19524</v>
       </c>
@@ -6359,7 +6341,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="503" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="8" t="s">
         <v>2</v>
       </c>
@@ -6367,111 +6349,111 @@
         <v>670</v>
       </c>
     </row>
-    <row r="504" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
         <v>13188</v>
       </c>
       <c r="B504" s="11">
-        <v>3.7320000000000002</v>
-      </c>
-    </row>
-    <row r="505" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3732</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B505" s="10">
-        <v>1.1200000000000001</v>
-      </c>
-    </row>
-    <row r="506" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B506" s="10">
-        <v>1.034</v>
-      </c>
-    </row>
-    <row r="507" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B507" s="11">
-        <v>1.9890000000000001</v>
-      </c>
-    </row>
-    <row r="508" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B508" s="10">
-        <v>1.44</v>
-      </c>
-    </row>
-    <row r="509" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B509" s="11">
-        <v>1.77</v>
-      </c>
-    </row>
-    <row r="510" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B510" s="11">
-        <v>2.2389999999999999</v>
-      </c>
-    </row>
-    <row r="511" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B511" s="10">
-        <v>2.5070000000000001</v>
-      </c>
-    </row>
-    <row r="512" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2507</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B512" s="11">
-        <v>2.5049999999999999</v>
-      </c>
-    </row>
-    <row r="513" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2505</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B513" s="11">
-        <v>2.7879999999999998</v>
-      </c>
-    </row>
-    <row r="514" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2788</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B514" s="11">
-        <v>5.2480000000000002</v>
-      </c>
-    </row>
-    <row r="515" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>5248</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
         <v>29525</v>
       </c>
       <c r="B515" s="11">
-        <v>5.5229999999999997</v>
-      </c>
-    </row>
-    <row r="516" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>5523</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
         <v>29529</v>
       </c>
       <c r="B516" s="11">
-        <v>4.0359999999999996</v>
-      </c>
-    </row>
-    <row r="517" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>4036</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
         <v>7500412</v>
       </c>
@@ -6479,7 +6461,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="518" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
         <v>7500413</v>
       </c>
@@ -6487,7 +6469,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="519" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
         <v>7500476</v>
       </c>
@@ -6495,7 +6477,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="520" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
         <v>8004516</v>
       </c>
@@ -6503,7 +6485,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="521" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
         <v>8004858</v>
       </c>
@@ -6511,7 +6493,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="522" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
         <v>7516056</v>
       </c>
@@ -6519,13 +6501,13 @@
         <v>510</v>
       </c>
     </row>
-    <row r="523" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
         <v>8004674</v>
       </c>
       <c r="B523" s="12"/>
     </row>
-    <row r="524" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
         <v>7516006</v>
       </c>
@@ -6533,7 +6515,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="525" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
         <v>7500178</v>
       </c>
@@ -6541,7 +6523,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="526" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
         <v>7500584</v>
       </c>
@@ -6549,7 +6531,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="527" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
         <v>7500589</v>
       </c>
@@ -6557,7 +6539,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="528" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
         <v>7500151</v>
       </c>
@@ -6565,7 +6547,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="529" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
         <v>7500149</v>
       </c>
@@ -6573,7 +6555,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="530" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
         <v>7500148</v>
       </c>
@@ -6581,7 +6563,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="531" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
         <v>7500150</v>
       </c>
@@ -6589,7 +6571,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="532" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
         <v>8004903</v>
       </c>
@@ -6597,7 +6579,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="533" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
         <v>3166</v>
       </c>
@@ -6605,7 +6587,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="534" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
         <v>3205</v>
       </c>
@@ -6613,7 +6595,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="535" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="13">
         <v>3147</v>
       </c>
@@ -6621,7 +6603,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="536" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
         <v>104058</v>
       </c>
@@ -6629,7 +6611,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="537" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="13">
         <v>3148</v>
       </c>
@@ -6637,13 +6619,13 @@
         <v>284</v>
       </c>
     </row>
-    <row r="538" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
         <v>4214</v>
       </c>
       <c r="B538" s="12"/>
     </row>
-    <row r="539" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
         <v>103269</v>
       </c>
@@ -6651,7 +6633,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="540" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
         <v>2802</v>
       </c>
@@ -6659,7 +6641,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="541" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
         <v>2800</v>
       </c>
@@ -6667,7 +6649,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="542" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="8" t="s">
         <v>13</v>
       </c>
@@ -6675,7 +6657,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="543" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="8" t="s">
         <v>14</v>
       </c>
@@ -6683,21 +6665,21 @@
         <v>183</v>
       </c>
     </row>
-    <row r="544" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B544" s="21" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="545" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B545" s="12"/>
     </row>
-    <row r="546" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="8" t="s">
         <v>17</v>
       </c>
@@ -6705,7 +6687,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="547" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="8" t="s">
         <v>18</v>
       </c>
@@ -6713,7 +6695,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="548" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="8" t="s">
         <v>19</v>
       </c>
@@ -6721,7 +6703,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="549" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="8" t="s">
         <v>20</v>
       </c>
@@ -6729,7 +6711,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="550" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="8" t="s">
         <v>21</v>
       </c>
@@ -6737,7 +6719,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="551" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="8" t="s">
         <v>22</v>
       </c>
@@ -6745,7 +6727,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="552" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="8" t="s">
         <v>23</v>
       </c>
@@ -6753,7 +6735,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="553" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="8" t="s">
         <v>24</v>
       </c>
@@ -6761,7 +6743,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="554" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="8" t="s">
         <v>25</v>
       </c>
@@ -6769,7 +6751,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="555" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="8" t="s">
         <v>26</v>
       </c>
@@ -6777,7 +6759,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="556" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="8" t="s">
         <v>27</v>
       </c>
@@ -6785,7 +6767,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="557" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="8" t="s">
         <v>28</v>
       </c>
@@ -6793,7 +6775,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="558" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="8" t="s">
         <v>29</v>
       </c>
@@ -6801,7 +6783,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="559" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="8" t="s">
         <v>30</v>
       </c>
@@ -6809,7 +6791,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="560" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="8" t="s">
         <v>31</v>
       </c>
@@ -6817,7 +6799,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="561" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="8" t="s">
         <v>32</v>
       </c>
@@ -6825,7 +6807,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="562" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="8" t="s">
         <v>33</v>
       </c>
@@ -6833,7 +6815,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="563" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="8" t="s">
         <v>34</v>
       </c>
@@ -6841,7 +6823,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="564" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="8" t="s">
         <v>35</v>
       </c>
@@ -6849,7 +6831,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="565" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="8" t="s">
         <v>36</v>
       </c>
@@ -6857,7 +6839,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="566" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="8" t="s">
         <v>37</v>
       </c>
@@ -6865,7 +6847,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="567" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="8" t="s">
         <v>38</v>
       </c>
@@ -6873,7 +6855,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="568" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="8" t="s">
         <v>39</v>
       </c>
@@ -6881,7 +6863,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="569" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="8" t="s">
         <v>40</v>
       </c>
@@ -6889,7 +6871,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="570" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="8" t="s">
         <v>41</v>
       </c>
@@ -6897,7 +6879,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="571" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="8" t="s">
         <v>42</v>
       </c>
@@ -6905,7 +6887,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="572" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="8" t="s">
         <v>43</v>
       </c>
@@ -6913,7 +6895,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="573" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="8" t="s">
         <v>44</v>
       </c>
@@ -6921,7 +6903,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="574" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="8" t="s">
         <v>45</v>
       </c>
@@ -6929,7 +6911,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="575" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="8" t="s">
         <v>46</v>
       </c>
@@ -6937,7 +6919,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="576" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="8" t="s">
         <v>47</v>
       </c>
@@ -6945,7 +6927,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="577" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="8" t="s">
         <v>48</v>
       </c>
@@ -6953,7 +6935,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="578" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="8" t="s">
         <v>49</v>
       </c>
@@ -6961,7 +6943,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="579" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="8" t="s">
         <v>50</v>
       </c>
@@ -6969,7 +6951,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="580" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="8" t="s">
         <v>51</v>
       </c>
@@ -6977,7 +6959,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="581" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="8" t="s">
         <v>52</v>
       </c>
@@ -6985,7 +6967,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="582" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="8" t="s">
         <v>53</v>
       </c>
@@ -6993,7 +6975,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="583" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="8" t="s">
         <v>54</v>
       </c>
@@ -7001,7 +6983,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="584" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="8" t="s">
         <v>55</v>
       </c>
@@ -7009,7 +6991,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="585" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="8" t="s">
         <v>56</v>
       </c>
@@ -7017,7 +6999,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="586" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="8" t="s">
         <v>57</v>
       </c>
@@ -7025,7 +7007,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="587" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="8" t="s">
         <v>58</v>
       </c>
@@ -7033,7 +7015,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="588" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="8" t="s">
         <v>59</v>
       </c>
@@ -7041,7 +7023,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="589" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="8" t="s">
         <v>60</v>
       </c>
@@ -7049,7 +7031,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="590" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="8" t="s">
         <v>61</v>
       </c>
@@ -7057,7 +7039,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="591" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="8" t="s">
         <v>62</v>
       </c>
@@ -7065,7 +7047,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="592" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="16" t="s">
         <v>63</v>
       </c>
@@ -7073,7 +7055,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="593" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="8" t="s">
         <v>64</v>
       </c>
@@ -7081,7 +7063,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="594" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="8" t="s">
         <v>66</v>
       </c>
@@ -7089,7 +7071,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="595" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="8" t="s">
         <v>67</v>
       </c>
@@ -7097,7 +7079,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="596" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="8" t="s">
         <v>68</v>
       </c>
@@ -7105,7 +7087,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="597" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="8" t="s">
         <v>69</v>
       </c>
@@ -7113,7 +7095,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="598" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="8" t="s">
         <v>70</v>
       </c>
@@ -7121,7 +7103,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="599" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="8" t="s">
         <v>71</v>
       </c>
@@ -7129,7 +7111,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="600" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="8" t="s">
         <v>72</v>
       </c>
@@ -7137,7 +7119,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="601" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="8" t="s">
         <v>73</v>
       </c>
@@ -7145,7 +7127,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="602" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="8" t="s">
         <v>74</v>
       </c>
@@ -7153,7 +7135,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="603" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="1">
         <v>6053</v>
       </c>
@@ -7161,7 +7143,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="604" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="1">
         <v>6056</v>
       </c>
@@ -7169,7 +7151,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="605" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="1">
         <v>6059</v>
       </c>
@@ -7177,7 +7159,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="606" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="1">
         <v>6062</v>
       </c>
@@ -7185,7 +7167,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="607" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="1">
         <v>6065</v>
       </c>
@@ -7193,7 +7175,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="608" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="1">
         <v>6071</v>
       </c>
@@ -7201,7 +7183,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="609" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="1">
         <v>6074</v>
       </c>
@@ -7209,7 +7191,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="610" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="1">
         <v>6077</v>
       </c>
@@ -7217,7 +7199,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="611" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="1">
         <v>6080</v>
       </c>
@@ -7225,7 +7207,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="612" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
         <v>6083</v>
       </c>
@@ -7233,7 +7215,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="613" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="1">
         <v>6086</v>
       </c>
@@ -7241,7 +7223,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="614" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="1">
         <v>6089</v>
       </c>
@@ -7249,7 +7231,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="615" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="1">
         <v>6098</v>
       </c>
@@ -7257,7 +7239,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="616" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="1">
         <v>6101</v>
       </c>
@@ -7265,7 +7247,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="617" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="1">
         <v>6107</v>
       </c>
@@ -7273,7 +7255,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="618" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="1">
         <v>6535</v>
       </c>
@@ -7281,7 +7263,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="619" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="1">
         <v>6555</v>
       </c>
@@ -7289,7 +7271,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="620" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="1">
         <v>6567</v>
       </c>
@@ -7297,7 +7279,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="621" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="1">
         <v>6569</v>
       </c>
@@ -7305,7 +7287,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="622" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="1">
         <v>6571</v>
       </c>
@@ -7313,7 +7295,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="623" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="1">
         <v>6607</v>
       </c>
@@ -7321,7 +7303,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="624" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="1">
         <v>6623</v>
       </c>
@@ -7329,7 +7311,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="625" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="1">
         <v>6627</v>
       </c>
@@ -7337,7 +7319,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="626" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="1">
         <v>6635</v>
       </c>
@@ -7345,7 +7327,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="627" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="1">
         <v>6731</v>
       </c>
@@ -7353,7 +7335,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="628" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="1">
         <v>6787</v>
       </c>
@@ -7361,7 +7343,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="629" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="1">
         <v>6819</v>
       </c>
@@ -7369,7 +7351,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="630" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="1">
         <v>4892</v>
       </c>
@@ -7377,7 +7359,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="631" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="1">
         <v>5029</v>
       </c>
@@ -7385,7 +7367,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="632" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="1">
         <v>5050</v>
       </c>
@@ -7393,7 +7375,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="633" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="1">
         <v>5030</v>
       </c>
@@ -7401,7 +7383,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="634" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="1">
         <v>5031</v>
       </c>
@@ -7409,7 +7391,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="635" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="1">
         <v>5035</v>
       </c>
@@ -7417,7 +7399,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="636" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="1">
         <v>5041</v>
       </c>
@@ -7425,7 +7407,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="637" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="1">
         <v>5048</v>
       </c>
@@ -7433,7 +7415,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="638" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="1">
         <v>5045</v>
       </c>
@@ -7441,7 +7423,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="639" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="1">
         <v>5034</v>
       </c>
@@ -7449,7 +7431,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="640" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="1">
         <v>5036</v>
       </c>
@@ -7457,7 +7439,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="641" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="1">
         <v>5042</v>
       </c>
@@ -7465,7 +7447,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="642" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="1">
         <v>5047</v>
       </c>
@@ -7473,7 +7455,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="643" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="1">
         <v>5049</v>
       </c>
@@ -7481,7 +7463,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="644" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="1">
         <v>5005</v>
       </c>
@@ -7489,7 +7471,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="645" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="1">
         <v>5015</v>
       </c>
@@ -7497,7 +7479,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="646" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="1">
         <v>5007</v>
       </c>
@@ -7505,7 +7487,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="647" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="1">
         <v>5008</v>
       </c>
@@ -7513,7 +7495,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="648" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="1">
         <v>6241</v>
       </c>
@@ -7521,7 +7503,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="649" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="1">
         <v>6259</v>
       </c>
@@ -7529,7 +7511,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="650" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="1">
         <v>6249</v>
       </c>
@@ -7537,7 +7519,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="651" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="1">
         <v>5555</v>
       </c>
@@ -7545,7 +7527,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="652" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="1">
         <v>5535</v>
       </c>
@@ -7553,7 +7535,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="653" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="1">
         <v>5567</v>
       </c>
@@ -7561,7 +7543,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="654" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="1">
         <v>5527</v>
       </c>
@@ -7569,7 +7551,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="655" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="1">
         <v>5563</v>
       </c>
@@ -7577,7 +7559,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="656" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="1">
         <v>4452</v>
       </c>
@@ -7585,7 +7567,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="657" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="1">
         <v>4359</v>
       </c>
@@ -7593,7 +7575,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="658" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="1">
         <v>4360</v>
       </c>
@@ -7601,7 +7583,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="659" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="1">
         <v>4361</v>
       </c>
@@ -7609,7 +7591,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="660" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="1">
         <v>4362</v>
       </c>
@@ -7617,7 +7599,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="661" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="1">
         <v>4453</v>
       </c>
@@ -7625,7 +7607,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="662" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="1">
         <v>4449</v>
       </c>
@@ -7633,7 +7615,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="663" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="1">
         <v>4363</v>
       </c>
@@ -7641,7 +7623,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="664" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="1">
         <v>4364</v>
       </c>
@@ -7649,7 +7631,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="665" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="1">
         <v>4610</v>
       </c>
@@ -7657,7 +7639,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="666" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="1">
         <v>4457</v>
       </c>
@@ -7665,7 +7647,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="667" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="1">
         <v>4613</v>
       </c>
@@ -7673,7 +7655,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="668" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="1">
         <v>3356</v>
       </c>
@@ -7681,7 +7663,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="669" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="1">
         <v>3392</v>
       </c>
@@ -7689,7 +7671,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="670" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="1">
         <v>3445</v>
       </c>
@@ -7697,7 +7679,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="671" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="1">
         <v>3355</v>
       </c>
@@ -7705,7 +7687,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="672" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="1">
         <v>3453</v>
       </c>
@@ -7713,7 +7695,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="673" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="1">
         <v>3286</v>
       </c>
@@ -7721,7 +7703,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="674" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="1">
         <v>3450</v>
       </c>
@@ -7729,7 +7711,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="675" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="1">
         <v>3357</v>
       </c>
@@ -7737,7 +7719,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="676" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="1">
         <v>3397</v>
       </c>
@@ -7745,7 +7727,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="677" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" s="1">
         <v>3393</v>
       </c>
@@ -7753,7 +7735,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="678" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="1">
         <v>3421</v>
       </c>
@@ -7761,7 +7743,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="679" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" s="1">
         <v>3426</v>
       </c>
@@ -7769,7 +7751,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="680" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="1">
         <v>3446</v>
       </c>
@@ -7777,7 +7759,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="681" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="1">
         <v>3458</v>
       </c>
@@ -7785,7 +7767,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="682" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="1">
         <v>3464</v>
       </c>
@@ -7793,7 +7775,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="683" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" s="1">
         <v>3478</v>
       </c>
@@ -7801,7 +7783,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="684" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684" s="1">
         <v>6662</v>
       </c>
@@ -7809,7 +7791,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="685" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" s="1">
         <v>3461</v>
       </c>
@@ -7817,7 +7799,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="686" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" s="1">
         <v>3477</v>
       </c>
@@ -7825,7 +7807,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="687" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" s="1">
         <v>3472</v>
       </c>
@@ -7833,7 +7815,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="688" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="1">
         <v>3176</v>
       </c>
@@ -7841,7 +7823,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="689" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" s="1">
         <v>3206</v>
       </c>
@@ -7849,7 +7831,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="690" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="1">
         <v>3239</v>
       </c>
@@ -7857,7 +7839,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="691" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="1">
         <v>3208</v>
       </c>
@@ -7865,7 +7847,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="692" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="1">
         <v>3241</v>
       </c>
@@ -7873,7 +7855,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="693" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693" s="1">
         <v>3237</v>
       </c>
@@ -7881,7 +7863,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="694" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694" s="3">
         <v>3269</v>
       </c>
@@ -7889,15 +7871,15 @@
         <v>87</v>
       </c>
     </row>
-    <row r="695" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A695" s="1">
         <v>3352</v>
       </c>
-      <c r="B695" s="15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="696" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B695" s="21" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A696" s="1">
         <v>3238</v>
       </c>
@@ -7905,7 +7887,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="697" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" s="1">
         <v>3347</v>
       </c>
@@ -7913,745 +7895,745 @@
         <v>106</v>
       </c>
     </row>
-    <row r="698" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B698" s="2">
         <v>521</v>
       </c>
     </row>
-    <row r="699" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B699" s="2">
         <v>632</v>
       </c>
     </row>
-    <row r="700" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B700" s="10">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A701" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="B700" s="10">
-        <v>2.1709999999999998</v>
-      </c>
-    </row>
-    <row r="701" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A701" s="8" t="s">
-        <v>80</v>
       </c>
       <c r="B701" s="2">
         <v>752</v>
       </c>
     </row>
-    <row r="702" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A702" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B702" s="2">
         <v>888</v>
       </c>
     </row>
-    <row r="703" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A703" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B703" s="2">
         <v>920</v>
       </c>
     </row>
-    <row r="704" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A704" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B704" s="10">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A705" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B704" s="10">
-        <v>1.165</v>
-      </c>
-    </row>
-    <row r="705" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A705" s="8" t="s">
+      <c r="B705" s="10">
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A706" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B705" s="10">
-        <v>2.94</v>
-      </c>
-    </row>
-    <row r="706" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A706" s="8" t="s">
+      <c r="B706" s="10">
+        <v>4486</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A707" s="8" t="s">
         <v>85</v>
-      </c>
-      <c r="B706" s="10">
-        <v>4.4859999999999998</v>
-      </c>
-    </row>
-    <row r="707" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A707" s="8" t="s">
-        <v>86</v>
       </c>
       <c r="B707" s="2">
         <v>974</v>
       </c>
     </row>
-    <row r="708" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B708" s="10">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A709" s="8" t="s">
         <v>87</v>
-      </c>
-      <c r="B708" s="10">
-        <v>1.0840000000000001</v>
-      </c>
-    </row>
-    <row r="709" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A709" s="8" t="s">
-        <v>88</v>
       </c>
       <c r="B709" s="2">
         <v>604</v>
       </c>
     </row>
-    <row r="710" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B710" s="10">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A711" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B710" s="10">
-        <v>1.212</v>
-      </c>
-    </row>
-    <row r="711" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A711" s="8" t="s">
+      <c r="B711" s="10">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A712" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B711" s="10">
-        <v>1.7689999999999999</v>
-      </c>
-    </row>
-    <row r="712" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A712" s="8" t="s">
+      <c r="B712" s="10">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A713" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="B713" s="10">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A714" s="8" t="s">
         <v>91</v>
-      </c>
-      <c r="B712" s="10">
-        <v>2.387</v>
-      </c>
-    </row>
-    <row r="713" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A713" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B713" s="10">
-        <v>2.0299999999999998</v>
-      </c>
-    </row>
-    <row r="714" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A714" s="8" t="s">
-        <v>93</v>
       </c>
       <c r="B714" s="2">
         <v>973</v>
       </c>
     </row>
-    <row r="715" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A715" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B715" s="2">
         <v>974</v>
       </c>
     </row>
-    <row r="716" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A716" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B716" s="10">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A717" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B717" s="10">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A718" s="8" t="s">
         <v>95</v>
-      </c>
-      <c r="B716" s="10">
-        <v>1.139</v>
-      </c>
-    </row>
-    <row r="717" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A717" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B717" s="10">
-        <v>1.488</v>
-      </c>
-    </row>
-    <row r="718" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A718" s="8" t="s">
-        <v>97</v>
       </c>
       <c r="B718" s="2">
         <v>201</v>
       </c>
     </row>
-    <row r="719" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A719" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B719" s="2">
         <v>327</v>
       </c>
     </row>
-    <row r="720" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A720" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B720" s="2">
         <v>291</v>
       </c>
     </row>
-    <row r="721" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A721" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B721" s="2">
         <v>378</v>
       </c>
     </row>
-    <row r="722" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A722" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B722" s="2">
         <v>418</v>
       </c>
     </row>
-    <row r="723" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A723" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B723" s="2">
         <v>374</v>
       </c>
     </row>
-    <row r="724" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A724" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B724" s="2">
         <v>557</v>
       </c>
     </row>
-    <row r="725" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A725" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B725" s="2">
         <v>640</v>
       </c>
     </row>
-    <row r="726" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A726" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B726" s="2">
         <v>660</v>
       </c>
     </row>
-    <row r="727" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A727" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B727" s="2">
         <v>704</v>
       </c>
     </row>
-    <row r="728" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A728" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B728" s="2">
         <v>978</v>
       </c>
     </row>
-    <row r="729" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A729" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B729" s="10">
-        <v>2.1840000000000002</v>
-      </c>
-    </row>
-    <row r="730" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A730" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B730" s="2">
         <v>551</v>
       </c>
     </row>
-    <row r="731" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A731" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B731" s="2">
         <v>447</v>
       </c>
     </row>
-    <row r="732" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A732" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B732" s="2">
         <v>679</v>
       </c>
     </row>
-    <row r="733" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A733" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B733" s="2">
         <v>561</v>
       </c>
     </row>
-    <row r="734" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A734" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B734" s="2">
         <v>738</v>
       </c>
     </row>
-    <row r="735" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A735" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B735" s="10">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A736" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B736" s="10">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A737" s="8" t="s">
         <v>114</v>
-      </c>
-      <c r="B735" s="10">
-        <v>1.127</v>
-      </c>
-    </row>
-    <row r="736" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A736" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B736" s="10">
-        <v>1.4019999999999999</v>
-      </c>
-    </row>
-    <row r="737" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A737" s="8" t="s">
-        <v>116</v>
       </c>
       <c r="B737" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A738" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B738" s="10">
-        <v>1.99</v>
-      </c>
-    </row>
-    <row r="739" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A739" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B739" s="2">
         <v>642</v>
       </c>
     </row>
-    <row r="740" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A740" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B740" s="2">
         <v>803</v>
       </c>
     </row>
-    <row r="741" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A741" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B741" s="2">
         <v>870</v>
       </c>
     </row>
-    <row r="742" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A742" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B742" s="2">
         <v>502</v>
       </c>
     </row>
-    <row r="743" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A743" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B743" s="2">
         <v>559</v>
       </c>
     </row>
-    <row r="744" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A744" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B744" s="2">
         <v>610</v>
       </c>
     </row>
-    <row r="745" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A745" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B745" s="2">
         <v>489</v>
       </c>
     </row>
-    <row r="746" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A746" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B746" s="2">
         <v>801</v>
       </c>
     </row>
-    <row r="747" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A747" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="B747" s="20">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A748" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B748" s="10">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A749" s="8" t="s">
         <v>126</v>
-      </c>
-      <c r="B747" s="20">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="748" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A748" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B748" s="10">
-        <v>1.133</v>
-      </c>
-    </row>
-    <row r="749" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A749" s="8" t="s">
-        <v>128</v>
       </c>
       <c r="B749" s="2">
         <v>243</v>
       </c>
     </row>
-    <row r="750" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A750" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B750" s="2">
         <v>91</v>
       </c>
     </row>
-    <row r="751" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A751" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B751" s="2">
         <v>114</v>
       </c>
     </row>
-    <row r="752" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A752" s="22" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B752" s="2">
         <v>191</v>
       </c>
     </row>
-    <row r="753" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A753" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B753" s="2">
         <v>241</v>
       </c>
     </row>
-    <row r="754" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A754" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B754" s="2">
         <v>152</v>
       </c>
     </row>
-    <row r="755" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A755" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B755" s="2">
         <v>143</v>
       </c>
     </row>
-    <row r="756" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A756" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B756" s="2">
         <v>225</v>
       </c>
     </row>
-    <row r="757" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A757" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B757" s="2">
         <v>266</v>
       </c>
     </row>
-    <row r="758" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A758" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B758" s="2">
         <v>423</v>
       </c>
     </row>
-    <row r="759" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A759" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B759" s="2">
         <v>624</v>
       </c>
     </row>
-    <row r="760" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A760" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B760" s="2">
         <v>780</v>
       </c>
     </row>
-    <row r="761" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A761" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B761" s="2">
         <v>505</v>
       </c>
     </row>
-    <row r="762" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A762" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B762" s="2">
         <v>548</v>
       </c>
     </row>
-    <row r="763" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A763" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B763" s="2">
         <v>571</v>
       </c>
     </row>
-    <row r="764" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A764" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B764" s="2">
         <v>598</v>
       </c>
     </row>
-    <row r="765" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A765" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B765" s="2">
         <v>670</v>
       </c>
     </row>
-    <row r="766" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A766" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B766" s="2">
         <v>786</v>
       </c>
     </row>
-    <row r="767" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A767" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B767" s="2">
         <v>706</v>
       </c>
     </row>
-    <row r="768" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A768" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B768" s="10">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A769" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B769" s="10">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A770" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="B768" s="10">
-        <v>1.034</v>
-      </c>
-    </row>
-    <row r="769" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A769" s="8" t="s">
+      <c r="B770" s="10">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A771" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B769" s="10">
-        <v>1.1200000000000001</v>
-      </c>
-    </row>
-    <row r="770" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A770" s="8" t="s">
+      <c r="B771" s="10">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A772" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="B770" s="10">
-        <v>1.3540000000000001</v>
-      </c>
-    </row>
-    <row r="771" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A771" s="8" t="s">
+      <c r="B772" s="10">
+        <v>2507</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A773" s="8" t="s">
         <v>149</v>
-      </c>
-      <c r="B771" s="10">
-        <v>1.44</v>
-      </c>
-    </row>
-    <row r="772" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A772" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="B772" s="10">
-        <v>2.5070000000000001</v>
-      </c>
-    </row>
-    <row r="773" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A773" s="8" t="s">
-        <v>151</v>
       </c>
       <c r="B773" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="774" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A774" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B774" s="2">
         <v>93</v>
       </c>
     </row>
-    <row r="775" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A775" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B775" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="776" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A776" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B776" s="2">
         <v>146</v>
       </c>
     </row>
-    <row r="777" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A777" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B777" s="2">
         <v>144</v>
       </c>
     </row>
-    <row r="778" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A778" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B778" s="2">
         <v>144</v>
       </c>
     </row>
-    <row r="779" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A779" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B779" s="2">
         <v>179</v>
       </c>
     </row>
-    <row r="780" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A780" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B780" s="2">
         <v>179</v>
       </c>
     </row>
-    <row r="781" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A781" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B781" s="2">
         <v>311</v>
       </c>
     </row>
-    <row r="782" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A782" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B782" s="2">
         <v>23</v>
       </c>
     </row>
-    <row r="783" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A783" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B783" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="784" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A784" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B784" s="2">
         <v>38</v>
       </c>
     </row>
-    <row r="785" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A785" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B785" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="786" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A786" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B786" s="2">
         <v>54</v>
       </c>
     </row>
-    <row r="787" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A787" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B787" s="2">
         <v>71</v>
       </c>
     </row>
-    <row r="788" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A788" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B788" s="2">
         <v>54</v>
       </c>
     </row>
-    <row r="789" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A789" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B789" s="2">
         <v>90</v>
       </c>
     </row>
-    <row r="790" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A790" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B790" s="2">
         <v>68</v>

--- a/api/files/prices.xlsx
+++ b/api/files/prices.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\la union\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mamustin\Desktop\api_precios\api\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84E2AF7-9525-4065-9558-5D64833968FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A53C315-05B9-4A8F-B740-F80FFF0A75C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -792,7 +787,557 @@
         <rFont val="Calibri"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">USD 20  </t>
+      <t>1V9E9Y001</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>1T0E9E001</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>1BBY12001</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>1I4E9C001</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>1I1E9D001</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>1I1P0W001</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>1P7P0A001</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>1P5E9P001</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>1BUY7O001</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>1T5E9T001</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>1Q1E9G001</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>1Z2E9E001</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>1Q2P0I001</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>1Q6E9N001</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>1O0E9S001</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>1Q6P0K001</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>1Y7E900001</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>1AGE900001</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>1I5E9L001</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>1I5E9L002</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>F74</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>F20</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>F63</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>F21</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>F22</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>F23</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>F24</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>F75</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>F25</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>F67</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>F26</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>F27</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>F28</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>F29</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>F30</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>F65</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>F31</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>F32</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>F33</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>F62</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>F34</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>F66</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>F35</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>F91</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>F36</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>F37</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>F38</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>F64</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>F39</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>F40</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>F92</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>F41</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>F73</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>F76</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>F68 / F42</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>USD 194</t>
     </r>
     <r>
       <rPr>
@@ -801,584 +1346,6 @@
         <rFont val="Calibri"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">13
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>6</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>1V9E9Y001</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>1T0E9E001</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>1BBY12001</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>1I4E9C001</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>1I1E9D001</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>1I1P0W001</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>1P7P0A001</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>1P5E9P001</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>1BUY7O001</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>1T5E9T001</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>1Q1E9G001</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>1Z2E9E001</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>1Q2P0I001</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>1Q6E9N001</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>1O0E9S001</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>1Q6P0K001</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>1Y7E900001</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>1AGE900001</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>1I5E9L001</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>1I5E9L002</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>F74</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>F20</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>F63</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>F21</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>F22</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>F23</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>F24</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>F75</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>F25</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>F67</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>F26</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>F27</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>F28</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>F29</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>F30</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>F65</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>F31</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>F32</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>F33</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>F62</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>F34</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>F66</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>F35</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>F91</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>F36</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>F37</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>F38</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>F64</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>F39</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>F40</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>F92</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>F41</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>F73</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>F76</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>F68 / F42</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>USD 194</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
       <t>1</t>
     </r>
   </si>
@@ -1761,6 +1728,9 @@
       </rPr>
       <t>F89</t>
     </r>
+  </si>
+  <si>
+    <t>USD 206</t>
   </si>
 </sst>
 </file>
@@ -1769,7 +1739,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$USD]\ 0"/>
-    <numFmt numFmtId="166" formatCode="[$USD]\ #,##0"/>
+    <numFmt numFmtId="165" formatCode="[$USD]\ #,##0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -1900,41 +1870,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1943,11 +1913,14 @@
     <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2320,17 +2293,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B785"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A170" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A634" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B643" sqref="B643"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>110375</v>
       </c>
@@ -2338,7 +2311,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>117809</v>
       </c>
@@ -2346,7 +2319,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>110371</v>
       </c>
@@ -2354,7 +2327,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>117808</v>
       </c>
@@ -2362,7 +2335,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>110540</v>
       </c>
@@ -2370,7 +2343,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>110376</v>
       </c>
@@ -2378,7 +2351,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>110372</v>
       </c>
@@ -2386,7 +2359,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>118299</v>
       </c>
@@ -2394,7 +2367,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>109747</v>
       </c>
@@ -2402,7 +2375,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>110373</v>
       </c>
@@ -2410,7 +2383,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>117820</v>
       </c>
@@ -2418,7 +2391,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>110529</v>
       </c>
@@ -2426,7 +2399,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>117822</v>
       </c>
@@ -2434,7 +2407,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>110325</v>
       </c>
@@ -2442,7 +2415,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>110374</v>
       </c>
@@ -2450,7 +2423,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>107830</v>
       </c>
@@ -2458,7 +2431,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>140921</v>
       </c>
@@ -2466,7 +2439,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>117833</v>
       </c>
@@ -2474,7 +2447,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>141048</v>
       </c>
@@ -2482,7 +2455,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>108794</v>
       </c>
@@ -2490,7 +2463,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>111463</v>
       </c>
@@ -2498,7 +2471,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>141823</v>
       </c>
@@ -2506,7 +2479,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>111466</v>
       </c>
@@ -2514,7 +2487,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>106855</v>
       </c>
@@ -2522,7 +2495,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>118330</v>
       </c>
@@ -2530,7 +2503,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>108711</v>
       </c>
@@ -2538,7 +2511,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>111462</v>
       </c>
@@ -2546,7 +2519,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>117831</v>
       </c>
@@ -2554,7 +2527,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>107236</v>
       </c>
@@ -2562,7 +2535,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>117821</v>
       </c>
@@ -2570,7 +2543,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>110787</v>
       </c>
@@ -2578,7 +2551,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>111469</v>
       </c>
@@ -2586,7 +2559,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>118140</v>
       </c>
@@ -2594,7 +2567,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>111468</v>
       </c>
@@ -2602,7 +2575,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>105333</v>
       </c>
@@ -2610,7 +2583,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>117787</v>
       </c>
@@ -2618,7 +2591,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>111743</v>
       </c>
@@ -2626,7 +2599,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>111172</v>
       </c>
@@ -2634,7 +2607,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>108795</v>
       </c>
@@ -2642,7 +2615,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>111418</v>
       </c>
@@ -2650,7 +2623,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>117785</v>
       </c>
@@ -2658,7 +2631,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>105894</v>
       </c>
@@ -2666,7 +2639,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>108303</v>
       </c>
@@ -2674,7 +2647,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>107263</v>
       </c>
@@ -2682,7 +2655,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>106698</v>
       </c>
@@ -2690,7 +2663,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>118298</v>
       </c>
@@ -2698,7 +2671,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>118337</v>
       </c>
@@ -2706,7 +2679,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>118403</v>
       </c>
@@ -2714,7 +2687,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>110733</v>
       </c>
@@ -2722,7 +2695,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>118338</v>
       </c>
@@ -2730,7 +2703,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>108701</v>
       </c>
@@ -2738,7 +2711,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>117706</v>
       </c>
@@ -2746,7 +2719,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>117862</v>
       </c>
@@ -2754,7 +2727,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>118094</v>
       </c>
@@ -2762,7 +2735,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>107629</v>
       </c>
@@ -2770,7 +2743,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>117861</v>
       </c>
@@ -2778,7 +2751,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>117786</v>
       </c>
@@ -2786,7 +2759,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>111467</v>
       </c>
@@ -2794,7 +2767,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>108583</v>
       </c>
@@ -2802,7 +2775,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>110581</v>
       </c>
@@ -2810,7 +2783,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>110711</v>
       </c>
@@ -2818,7 +2791,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>117935</v>
       </c>
@@ -2826,7 +2799,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>118381</v>
       </c>
@@ -2834,7 +2807,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>106565</v>
       </c>
@@ -2842,7 +2815,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>108361</v>
       </c>
@@ -2850,7 +2823,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>118382</v>
       </c>
@@ -2858,7 +2831,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>118286</v>
       </c>
@@ -2866,7 +2839,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>107495</v>
       </c>
@@ -2874,7 +2847,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>110233</v>
       </c>
@@ -2882,7 +2855,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>109493</v>
       </c>
@@ -2890,7 +2863,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>110580</v>
       </c>
@@ -2898,7 +2871,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>110193</v>
       </c>
@@ -2906,7 +2879,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>118379</v>
       </c>
@@ -2914,7 +2887,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>118497</v>
       </c>
@@ -2922,7 +2895,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>118392</v>
       </c>
@@ -2930,7 +2903,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>117948</v>
       </c>
@@ -2938,7 +2911,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>118383</v>
       </c>
@@ -2946,7 +2919,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>118376</v>
       </c>
@@ -2954,7 +2927,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>117859</v>
       </c>
@@ -2962,7 +2935,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>118391</v>
       </c>
@@ -2970,7 +2943,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>118319</v>
       </c>
@@ -2978,7 +2951,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>118320</v>
       </c>
@@ -2986,7 +2959,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>117789</v>
       </c>
@@ -2994,7 +2967,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>141565</v>
       </c>
@@ -3002,7 +2975,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>117840</v>
       </c>
@@ -3010,7 +2983,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>111442</v>
       </c>
@@ -3018,7 +2991,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>110745</v>
       </c>
@@ -3026,7 +2999,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>110751</v>
       </c>
@@ -3034,7 +3007,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>111434</v>
       </c>
@@ -3042,7 +3015,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>111381</v>
       </c>
@@ -3050,7 +3023,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>108871</v>
       </c>
@@ -3058,7 +3031,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>116241</v>
       </c>
@@ -3066,7 +3039,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>109338</v>
       </c>
@@ -3074,7 +3047,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>140922</v>
       </c>
@@ -3082,7 +3055,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>108022</v>
       </c>
@@ -3090,7 +3063,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>111532</v>
       </c>
@@ -3098,7 +3071,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>111383</v>
       </c>
@@ -3106,7 +3079,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>117854</v>
       </c>
@@ -3114,7 +3087,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>111443</v>
       </c>
@@ -3122,7 +3095,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>117315</v>
       </c>
@@ -3130,7 +3103,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>110740</v>
       </c>
@@ -3138,7 +3111,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>110762</v>
       </c>
@@ -3146,7 +3119,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>100761</v>
       </c>
@@ -3154,7 +3127,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>111435</v>
       </c>
@@ -3162,7 +3135,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>117841</v>
       </c>
@@ -3170,7 +3143,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>110743</v>
       </c>
@@ -3178,7 +3151,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
         <v>117838</v>
       </c>
@@ -3186,7 +3159,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>111433</v>
       </c>
@@ -3194,7 +3167,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>111430</v>
       </c>
@@ -3202,7 +3175,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>117834</v>
       </c>
@@ -3210,7 +3183,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>117289</v>
       </c>
@@ -3218,7 +3191,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>116527</v>
       </c>
@@ -3226,7 +3199,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>107472</v>
       </c>
@@ -3234,7 +3207,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>110746</v>
       </c>
@@ -3242,7 +3215,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>111569</v>
       </c>
@@ -3250,7 +3223,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>110742</v>
       </c>
@@ -3258,7 +3231,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>118306</v>
       </c>
@@ -3266,7 +3239,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>107474</v>
       </c>
@@ -3274,7 +3247,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>111598</v>
       </c>
@@ -3282,7 +3255,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>110515</v>
       </c>
@@ -3290,7 +3263,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>111530</v>
       </c>
@@ -3298,7 +3271,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>110752</v>
       </c>
@@ -3306,7 +3279,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>107890</v>
       </c>
@@ -3314,7 +3287,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>117087</v>
       </c>
@@ -3322,7 +3295,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>111439</v>
       </c>
@@ -3330,7 +3303,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>110756</v>
       </c>
@@ -3338,7 +3311,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>107886</v>
       </c>
@@ -3346,7 +3319,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>110753</v>
       </c>
@@ -3354,7 +3327,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>110750</v>
       </c>
@@ -3362,7 +3335,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>111879</v>
       </c>
@@ -3370,7 +3343,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>111437</v>
       </c>
@@ -3378,7 +3351,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>110749</v>
       </c>
@@ -3386,7 +3359,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>111447</v>
       </c>
@@ -3394,7 +3367,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>107532</v>
       </c>
@@ -3402,7 +3375,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>109933</v>
       </c>
@@ -3410,7 +3383,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>111655</v>
       </c>
@@ -3418,7 +3391,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>111438</v>
       </c>
@@ -3426,7 +3399,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>110747</v>
       </c>
@@ -3434,7 +3407,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>111445</v>
       </c>
@@ -3442,7 +3415,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>106955</v>
       </c>
@@ -3450,7 +3423,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>110313</v>
       </c>
@@ -3458,7 +3431,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>117853</v>
       </c>
@@ -3466,7 +3439,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>110339</v>
       </c>
@@ -3474,7 +3447,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>117856</v>
       </c>
@@ -3482,7 +3455,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>117855</v>
       </c>
@@ -3490,7 +3463,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>108772</v>
       </c>
@@ -3498,7 +3471,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>108592</v>
       </c>
@@ -3506,7 +3479,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>118183</v>
       </c>
@@ -3514,7 +3487,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>110741</v>
       </c>
@@ -3522,7 +3495,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>107888</v>
       </c>
@@ -3530,7 +3503,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>111436</v>
       </c>
@@ -3538,7 +3511,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>111660</v>
       </c>
@@ -3546,7 +3519,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>111441</v>
       </c>
@@ -3554,7 +3527,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>118222</v>
       </c>
@@ -3562,7 +3535,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>110755</v>
       </c>
@@ -3570,7 +3543,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>107109</v>
       </c>
@@ -3578,7 +3551,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>118304</v>
       </c>
@@ -3586,7 +3559,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>110895</v>
       </c>
@@ -3594,7 +3567,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>111850</v>
       </c>
@@ -3602,7 +3575,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>108770</v>
       </c>
@@ -3610,7 +3583,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>107892</v>
       </c>
@@ -3618,7 +3591,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>111440</v>
       </c>
@@ -3626,7 +3599,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>111690</v>
       </c>
@@ -3634,7 +3607,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>107537</v>
       </c>
@@ -3642,7 +3615,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>109646</v>
       </c>
@@ -3650,7 +3623,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>109645</v>
       </c>
@@ -3658,7 +3631,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>109647</v>
       </c>
@@ -3666,7 +3639,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>105111</v>
       </c>
@@ -3674,7 +3647,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>111182</v>
       </c>
@@ -3682,7 +3655,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>109641</v>
       </c>
@@ -3690,7 +3663,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>105705</v>
       </c>
@@ -3698,7 +3671,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>109640</v>
       </c>
@@ -3706,7 +3679,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>111330</v>
       </c>
@@ -3714,7 +3687,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>118166</v>
       </c>
@@ -3722,7 +3695,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>118168</v>
       </c>
@@ -3730,7 +3703,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>118171</v>
       </c>
@@ -3738,7 +3711,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>118169</v>
       </c>
@@ -3746,7 +3719,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>111813</v>
       </c>
@@ -3754,7 +3727,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>118226</v>
       </c>
@@ -3762,7 +3735,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>111812</v>
       </c>
@@ -3770,7 +3743,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>140991</v>
       </c>
@@ -3778,7 +3751,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>118257</v>
       </c>
@@ -3786,7 +3759,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>118119</v>
       </c>
@@ -3794,7 +3767,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>118187</v>
       </c>
@@ -3802,7 +3775,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>118229</v>
       </c>
@@ -3810,7 +3783,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>118419</v>
       </c>
@@ -3818,7 +3791,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>118333</v>
       </c>
@@ -3826,7 +3799,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>118205</v>
       </c>
@@ -3834,7 +3807,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>118113</v>
       </c>
@@ -3842,7 +3815,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>118530</v>
       </c>
@@ -3850,7 +3823,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>118528</v>
       </c>
@@ -3858,7 +3831,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="6">
         <v>118200</v>
       </c>
@@ -3866,7 +3839,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="8" t="s">
         <v>0</v>
       </c>
@@ -3874,7 +3847,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>111357</v>
       </c>
@@ -3882,7 +3855,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>108961</v>
       </c>
@@ -3890,7 +3863,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>105470</v>
       </c>
@@ -3898,7 +3871,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>110063</v>
       </c>
@@ -3906,7 +3879,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>105368</v>
       </c>
@@ -3914,7 +3887,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>118215</v>
       </c>
@@ -3922,7 +3895,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>110841</v>
       </c>
@@ -3930,7 +3903,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>110563</v>
       </c>
@@ -3938,7 +3911,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>120002</v>
       </c>
@@ -3946,7 +3919,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>120003</v>
       </c>
@@ -3954,7 +3927,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>120050</v>
       </c>
@@ -3962,7 +3935,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>120098</v>
       </c>
@@ -3970,7 +3943,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>122968</v>
       </c>
@@ -3978,7 +3951,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>122967</v>
       </c>
@@ -3986,7 +3959,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>123492</v>
       </c>
@@ -3994,7 +3967,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>123345</v>
       </c>
@@ -4002,7 +3975,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>123343</v>
       </c>
@@ -4010,7 +3983,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>120389</v>
       </c>
@@ -4018,7 +3991,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>123822</v>
       </c>
@@ -4026,7 +3999,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>123909</v>
       </c>
@@ -4034,7 +4007,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>124486</v>
       </c>
@@ -4042,7 +4015,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="3">
         <v>121304</v>
       </c>
@@ -4050,7 +4023,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="216" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>122673</v>
       </c>
@@ -4058,7 +4031,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>122647</v>
       </c>
@@ -4066,7 +4039,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>123313</v>
       </c>
@@ -4074,7 +4047,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>120286</v>
       </c>
@@ -4082,7 +4055,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>122671</v>
       </c>
@@ -4090,7 +4063,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="221" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>122962</v>
       </c>
@@ -4098,7 +4071,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>120285</v>
       </c>
@@ -4106,7 +4079,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="223" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>121307</v>
       </c>
@@ -4114,7 +4087,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="224" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>123284</v>
       </c>
@@ -4122,7 +4095,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="225" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>120028</v>
       </c>
@@ -4130,7 +4103,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>120008</v>
       </c>
@@ -4138,7 +4111,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="227" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>123153</v>
       </c>
@@ -4146,7 +4119,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="228" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>124624</v>
       </c>
@@ -4154,7 +4127,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="229" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>124594</v>
       </c>
@@ -4162,7 +4135,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="230" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>123084</v>
       </c>
@@ -4170,7 +4143,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="231" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>124247</v>
       </c>
@@ -4178,7 +4151,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="232" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>120339</v>
       </c>
@@ -4186,7 +4159,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>124248</v>
       </c>
@@ -4194,7 +4167,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="234" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>124548</v>
       </c>
@@ -4202,7 +4175,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>123445</v>
       </c>
@@ -4210,7 +4183,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>124246</v>
       </c>
@@ -4218,7 +4191,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="237" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>122188</v>
       </c>
@@ -4226,7 +4199,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="238" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>122195</v>
       </c>
@@ -4234,7 +4207,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>122983</v>
       </c>
@@ -4242,7 +4215,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>122984</v>
       </c>
@@ -4250,7 +4223,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="241" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>123862</v>
       </c>
@@ -4258,7 +4231,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="242" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>122650</v>
       </c>
@@ -4266,7 +4239,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>124433</v>
       </c>
@@ -4274,7 +4247,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="244" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>120995</v>
       </c>
@@ -4282,7 +4255,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="245" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>123222</v>
       </c>
@@ -4290,7 +4263,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="246" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>120240</v>
       </c>
@@ -4298,7 +4271,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>123833</v>
       </c>
@@ -4306,7 +4279,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="248" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>124477</v>
       </c>
@@ -4314,7 +4287,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>123344</v>
       </c>
@@ -4322,7 +4295,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>124475</v>
       </c>
@@ -4330,7 +4303,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="251" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>121760</v>
       </c>
@@ -4338,7 +4311,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="252" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>124476</v>
       </c>
@@ -4346,7 +4319,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="253" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>124370</v>
       </c>
@@ -4354,7 +4327,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="254" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>121651</v>
       </c>
@@ -4362,7 +4335,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>124371</v>
       </c>
@@ -4370,7 +4343,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="256" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>122703</v>
       </c>
@@ -4378,7 +4351,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="257" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>123560</v>
       </c>
@@ -4386,7 +4359,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="258" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>123561</v>
       </c>
@@ -4394,7 +4367,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="259" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>160052</v>
       </c>
@@ -4402,7 +4375,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>160054</v>
       </c>
@@ -4410,7 +4383,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>160051</v>
       </c>
@@ -4418,7 +4391,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="262" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>160055</v>
       </c>
@@ -4426,7 +4399,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="263" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>1152018</v>
       </c>
@@ -4434,7 +4407,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="264" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>1100000</v>
       </c>
@@ -4442,7 +4415,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>1100403</v>
       </c>
@@ -4450,7 +4423,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="266" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>1100401</v>
       </c>
@@ -4458,7 +4431,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="3">
         <v>1100402</v>
       </c>
@@ -4466,7 +4439,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="268" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>1181019</v>
       </c>
@@ -4474,7 +4447,7 @@
         <v>4229</v>
       </c>
     </row>
-    <row r="269" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>1101350</v>
       </c>
@@ -4482,7 +4455,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="270" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>1701535</v>
       </c>
@@ -4490,7 +4463,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="271" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>1701510</v>
       </c>
@@ -4498,7 +4471,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="272" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>1100051</v>
       </c>
@@ -4506,7 +4479,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>1100050</v>
       </c>
@@ -4514,7 +4487,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="274" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>1120001</v>
       </c>
@@ -4522,7 +4495,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="275" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>1600050</v>
       </c>
@@ -4530,7 +4503,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>1150005</v>
       </c>
@@ -4538,7 +4511,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="277" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>1150000</v>
       </c>
@@ -4546,7 +4519,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="278" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>1150003</v>
       </c>
@@ -4554,7 +4527,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="279" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>1182040</v>
       </c>
@@ -4562,7 +4535,7 @@
         <v>6297</v>
       </c>
     </row>
-    <row r="280" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>1103003</v>
       </c>
@@ -4570,7 +4543,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="281" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>1103002</v>
       </c>
@@ -4578,7 +4551,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="282" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>1103001</v>
       </c>
@@ -4586,7 +4559,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="283" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>1101150</v>
       </c>
@@ -4594,7 +4567,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="284" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>1101160</v>
       </c>
@@ -4602,7 +4575,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="285" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>1101202</v>
       </c>
@@ -4610,7 +4583,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="286" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>1101201</v>
       </c>
@@ -4618,7 +4591,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="287" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>1602023</v>
       </c>
@@ -4626,7 +4599,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="288" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>1150014</v>
       </c>
@@ -4634,7 +4607,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="289" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>1150015</v>
       </c>
@@ -4642,7 +4615,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="290" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>1159210</v>
       </c>
@@ -4650,7 +4623,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="291" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>1159305</v>
       </c>
@@ -4658,7 +4631,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="292" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>1159211</v>
       </c>
@@ -4666,7 +4639,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="293" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>1159320</v>
       </c>
@@ -4674,7 +4647,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="294" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>1159324</v>
       </c>
@@ -4682,7 +4655,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="295" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>1150315</v>
       </c>
@@ -4690,7 +4663,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="296" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>1150020</v>
       </c>
@@ -4698,7 +4671,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="297" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>1150030</v>
       </c>
@@ -4706,7 +4679,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="298" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>1150032</v>
       </c>
@@ -4714,7 +4687,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="299" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>1150124</v>
       </c>
@@ -4722,7 +4695,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="300" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>1150900</v>
       </c>
@@ -4730,7 +4703,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="301" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>1101800</v>
       </c>
@@ -4738,7 +4711,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="302" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>1101410</v>
       </c>
@@ -4746,7 +4719,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="303" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>1101422</v>
       </c>
@@ -4754,7 +4727,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="304" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>1103004</v>
       </c>
@@ -4762,7 +4735,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="305" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>1103005</v>
       </c>
@@ -4770,7 +4743,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="306" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>1103006</v>
       </c>
@@ -4778,7 +4751,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="307" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>1701530</v>
       </c>
@@ -4786,7 +4759,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="308" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>1101250</v>
       </c>
@@ -4794,7 +4767,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="309" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>1701515</v>
       </c>
@@ -4802,7 +4775,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="310" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>1601005</v>
       </c>
@@ -4810,7 +4783,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="311" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>1601004</v>
       </c>
@@ -4818,7 +4791,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="312" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>1601002</v>
       </c>
@@ -4826,7 +4799,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="313" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>1601003</v>
       </c>
@@ -4834,7 +4807,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="314" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>1150022</v>
       </c>
@@ -4842,7 +4815,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="315" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>1159330</v>
       </c>
@@ -4850,7 +4823,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="316" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>1150201</v>
       </c>
@@ -4858,7 +4831,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="317" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>1150200</v>
       </c>
@@ -4866,7 +4839,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="318" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>1606094</v>
       </c>
@@ -4874,7 +4847,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="319" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>1606096</v>
       </c>
@@ -4882,7 +4855,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="320" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>1606097</v>
       </c>
@@ -4890,7 +4863,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="321" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>1606095</v>
       </c>
@@ -4898,7 +4871,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="322" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>1150041</v>
       </c>
@@ -4906,7 +4879,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="323" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>1150043</v>
       </c>
@@ -4914,7 +4887,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="324" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>1150411</v>
       </c>
@@ -4922,7 +4895,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="325" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>1159220</v>
       </c>
@@ -4930,7 +4903,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="326" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>1159230</v>
       </c>
@@ -4938,7 +4911,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="327" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>1159323</v>
       </c>
@@ -4946,7 +4919,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="328" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>1150300</v>
       </c>
@@ -4954,7 +4927,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="329" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>1150050</v>
       </c>
@@ -4962,7 +4935,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="330" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>1150060</v>
       </c>
@@ -4970,7 +4943,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="331" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>1150061</v>
       </c>
@@ -4978,7 +4951,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="332" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>1150062</v>
       </c>
@@ -4986,7 +4959,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="333" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>1150211</v>
       </c>
@@ -4994,7 +4967,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="334" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>1150415</v>
       </c>
@@ -5002,7 +4975,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="335" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>1159325</v>
       </c>
@@ -5010,7 +4983,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="336" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>1101414</v>
       </c>
@@ -5018,7 +4991,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="337" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>1101415</v>
       </c>
@@ -5026,7 +4999,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="338" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>1608000</v>
       </c>
@@ -5034,7 +5007,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="339" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>1150192</v>
       </c>
@@ -5042,7 +5015,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="340" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>1101300</v>
       </c>
@@ -5050,7 +5023,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="341" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>1102600</v>
       </c>
@@ -5058,7 +5031,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="342" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>1151002</v>
       </c>
@@ -5066,7 +5039,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="343" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>1151004</v>
       </c>
@@ -5074,7 +5047,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="344" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>1151003</v>
       </c>
@@ -5082,7 +5055,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="345" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>1159215</v>
       </c>
@@ -5090,7 +5063,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="346" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>1150221</v>
       </c>
@@ -5098,7 +5071,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="347" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>1151102</v>
       </c>
@@ -5106,7 +5079,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="348" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>1150080</v>
       </c>
@@ -5114,7 +5087,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="349" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>1150417</v>
       </c>
@@ -5122,7 +5095,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="350" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>1150095</v>
       </c>
@@ -5130,7 +5103,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="351" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>1606072</v>
       </c>
@@ -5138,7 +5111,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="352" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>1603001</v>
       </c>
@@ -5146,7 +5119,7 @@
         <v>2713</v>
       </c>
     </row>
-    <row r="353" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>1606098</v>
       </c>
@@ -5154,7 +5127,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="354" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>1606099</v>
       </c>
@@ -5162,7 +5135,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="355" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>1650010</v>
       </c>
@@ -5170,7 +5143,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="356" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>1606011</v>
       </c>
@@ -5178,7 +5151,7 @@
         <v>4542</v>
       </c>
     </row>
-    <row r="357" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>1606010</v>
       </c>
@@ -5186,7 +5159,7 @@
         <v>4540</v>
       </c>
     </row>
-    <row r="358" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>1150233</v>
       </c>
@@ -5194,7 +5167,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="359" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>1150420</v>
       </c>
@@ -5202,7 +5175,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="360" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>1150242</v>
       </c>
@@ -5210,7 +5183,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="361" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>1150240</v>
       </c>
@@ -5218,7 +5191,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="362" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>1150100</v>
       </c>
@@ -5226,7 +5199,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="363" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>1150413</v>
       </c>
@@ -5234,7 +5207,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="364" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>1159101</v>
       </c>
@@ -5242,7 +5215,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="365" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>1159091</v>
       </c>
@@ -5250,7 +5223,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="366" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>1150106</v>
       </c>
@@ -5258,7 +5231,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="367" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>1150101</v>
       </c>
@@ -5266,7 +5239,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="368" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>1150414</v>
       </c>
@@ -5274,7 +5247,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="369" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>1159111</v>
       </c>
@@ -5282,7 +5255,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="370" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>1159102</v>
       </c>
@@ -5290,7 +5263,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="371" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>1159212</v>
       </c>
@@ -5298,7 +5271,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="372" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>1159214</v>
       </c>
@@ -5306,7 +5279,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="373" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>1159213</v>
       </c>
@@ -5314,7 +5287,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="374" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>1151801</v>
       </c>
@@ -5322,7 +5295,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="375" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>1151800</v>
       </c>
@@ -5330,7 +5303,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="376" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>1602003</v>
       </c>
@@ -5338,7 +5311,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="377" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>1606075</v>
       </c>
@@ -5346,7 +5319,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="378" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>1606080</v>
       </c>
@@ -5354,7 +5327,7 @@
         <v>2127</v>
       </c>
     </row>
-    <row r="379" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>1656085</v>
       </c>
@@ -5362,7 +5335,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="380" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>1150423</v>
       </c>
@@ -5370,7 +5343,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="381" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>1150422</v>
       </c>
@@ -5378,7 +5351,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="382" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>1159309</v>
       </c>
@@ -5386,7 +5359,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="383" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>1159308</v>
       </c>
@@ -5394,7 +5367,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="384" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>1154902</v>
       </c>
@@ -5402,7 +5375,7 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="385" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>1150425</v>
       </c>
@@ -5410,7 +5383,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="386" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>1152800</v>
       </c>
@@ -5418,7 +5391,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="387" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>1153812</v>
       </c>
@@ -5426,7 +5399,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="388" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>1153814</v>
       </c>
@@ -5434,7 +5407,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="389" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>1150153</v>
       </c>
@@ -5442,7 +5415,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="390" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>1150155</v>
       </c>
@@ -5450,7 +5423,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="391" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>1150401</v>
       </c>
@@ -5458,7 +5431,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="392" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>1159010</v>
       </c>
@@ -5466,7 +5439,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="393" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>1153810</v>
       </c>
@@ -5474,7 +5447,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="394" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>1150132</v>
       </c>
@@ -5482,7 +5455,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="395" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>1150130</v>
       </c>
@@ -5490,7 +5463,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="396" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>1150131</v>
       </c>
@@ -5498,7 +5471,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="397" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>1150412</v>
       </c>
@@ -5506,7 +5479,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="398" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>1150410</v>
       </c>
@@ -5514,7 +5487,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="399" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>1606074</v>
       </c>
@@ -5522,7 +5495,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="400" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>1656095</v>
       </c>
@@ -5530,7 +5503,7 @@
         <v>3225</v>
       </c>
     </row>
-    <row r="401" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>1153813</v>
       </c>
@@ -5538,7 +5511,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="402" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>1150142</v>
       </c>
@@ -5546,7 +5519,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="403" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>1159327</v>
       </c>
@@ -5554,7 +5527,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="404" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>1656096</v>
       </c>
@@ -5562,7 +5535,7 @@
         <v>6241</v>
       </c>
     </row>
-    <row r="405" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>1650100</v>
       </c>
@@ -5570,7 +5543,7 @@
         <v>4521</v>
       </c>
     </row>
-    <row r="406" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>1150163</v>
       </c>
@@ -5578,7 +5551,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="407" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>1606090</v>
       </c>
@@ -5586,7 +5559,7 @@
         <v>4364</v>
       </c>
     </row>
-    <row r="408" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>1606092</v>
       </c>
@@ -5594,7 +5567,7 @@
         <v>4882</v>
       </c>
     </row>
-    <row r="409" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>1150172</v>
       </c>
@@ -5602,7 +5575,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="410" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>1150173</v>
       </c>
@@ -5610,7 +5583,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="411" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>1155000</v>
       </c>
@@ -5618,7 +5591,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="412" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>1163740</v>
       </c>
@@ -5626,7 +5599,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="413" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>1168020</v>
       </c>
@@ -5634,7 +5607,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="414" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>1163410</v>
       </c>
@@ -5642,7 +5615,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="415" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>1163620</v>
       </c>
@@ -5650,7 +5623,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="416" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>1168025</v>
       </c>
@@ -5658,7 +5631,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="417" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>1163530</v>
       </c>
@@ -5666,7 +5639,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="418" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>1163850</v>
       </c>
@@ -5674,7 +5647,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="419" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>1155010</v>
       </c>
@@ -5682,7 +5655,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="420" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>1167010</v>
       </c>
@@ -5690,7 +5663,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="421" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>1168010</v>
       </c>
@@ -5698,7 +5671,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="422" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>1111120</v>
       </c>
@@ -5706,7 +5679,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="423" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>1111080</v>
       </c>
@@ -5714,7 +5687,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="424" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>1111060</v>
       </c>
@@ -5722,7 +5695,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="425" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>1111050</v>
       </c>
@@ -5730,7 +5703,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="426" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>1166060</v>
       </c>
@@ -5738,7 +5711,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="427" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>1155035</v>
       </c>
@@ -5746,7 +5719,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="428" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>1155020</v>
       </c>
@@ -5754,7 +5727,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="429" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>1155030</v>
       </c>
@@ -5762,7 +5735,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="430" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>1168013</v>
       </c>
@@ -5770,7 +5743,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="431" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>1102800</v>
       </c>
@@ -5778,7 +5751,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="432" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>1100600</v>
       </c>
@@ -5786,7 +5759,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="433" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>1701433</v>
       </c>
@@ -5794,7 +5767,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="434" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>1111110</v>
       </c>
@@ -5802,7 +5775,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="435" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>1111010</v>
       </c>
@@ -5810,7 +5783,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="436" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>1166020</v>
       </c>
@@ -5818,7 +5791,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="437" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>1166030</v>
       </c>
@@ -5826,7 +5799,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="438" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>1166040</v>
       </c>
@@ -5834,7 +5807,7 @@
         <v>2295</v>
       </c>
     </row>
-    <row r="439" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>1166044</v>
       </c>
@@ -5842,7 +5815,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="440" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>1166042</v>
       </c>
@@ -5850,7 +5823,7 @@
         <v>2551</v>
       </c>
     </row>
-    <row r="441" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>1111090</v>
       </c>
@@ -5858,7 +5831,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="442" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>1153815</v>
       </c>
@@ -5866,7 +5839,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="443" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>1101600</v>
       </c>
@@ -5874,7 +5847,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="444" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>1101601</v>
       </c>
@@ -5882,7 +5855,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="445" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>1100205</v>
       </c>
@@ -5890,7 +5863,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="446" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>1102400</v>
       </c>
@@ -5898,7 +5871,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="447" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>1103200</v>
       </c>
@@ -5906,7 +5879,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="448" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>1103261</v>
       </c>
@@ -5914,7 +5887,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="449" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>1111123</v>
       </c>
@@ -5922,7 +5895,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="450" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>1111100</v>
       </c>
@@ -5930,7 +5903,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="451" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>1161070</v>
       </c>
@@ -5938,7 +5911,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="452" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>1181015</v>
       </c>
@@ -5946,7 +5919,7 @@
         <v>2614</v>
       </c>
     </row>
-    <row r="453" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>1153244</v>
       </c>
@@ -5954,7 +5927,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="454" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>1153242</v>
       </c>
@@ -5962,7 +5935,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="455" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>1310002</v>
       </c>
@@ -5970,7 +5943,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="456" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>1163250</v>
       </c>
@@ -5978,7 +5951,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="457" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>1157041</v>
       </c>
@@ -5986,7 +5959,7 @@
         <v>2239</v>
       </c>
     </row>
-    <row r="458" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>1155036</v>
       </c>
@@ -5994,7 +5967,7 @@
         <v>2934</v>
       </c>
     </row>
-    <row r="459" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>1155037</v>
       </c>
@@ -6002,7 +5975,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="460" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>1181017</v>
       </c>
@@ -6010,7 +5983,7 @@
         <v>4175</v>
       </c>
     </row>
-    <row r="461" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>1153282</v>
       </c>
@@ -6018,7 +5991,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="462" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>1155040</v>
       </c>
@@ -6026,7 +5999,7 @@
         <v>3059</v>
       </c>
     </row>
-    <row r="463" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>1157040</v>
       </c>
@@ -6034,7 +6007,7 @@
         <v>3503</v>
       </c>
     </row>
-    <row r="464" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>1102500</v>
       </c>
@@ -6042,7 +6015,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="465" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>1103250</v>
       </c>
@@ -6050,7 +6023,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="466" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>1100811</v>
       </c>
@@ -6058,7 +6031,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="467" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>1103255</v>
       </c>
@@ -6066,7 +6039,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="468" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>1103257</v>
       </c>
@@ -6074,7 +6047,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="469" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>1100215</v>
       </c>
@@ -6082,7 +6055,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="470" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>1100040</v>
       </c>
@@ -6090,7 +6063,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="471" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>1100844</v>
       </c>
@@ -6098,7 +6071,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="472" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>1100225</v>
       </c>
@@ -6106,7 +6079,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="473" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>1100030</v>
       </c>
@@ -6114,7 +6087,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="474" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>1111122</v>
       </c>
@@ -6122,7 +6095,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="475" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>1168012</v>
       </c>
@@ -6130,7 +6103,7 @@
         <v>3629</v>
       </c>
     </row>
-    <row r="476" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>1310001</v>
       </c>
@@ -6138,7 +6111,7 @@
         <v>3201</v>
       </c>
     </row>
-    <row r="477" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>1168011</v>
       </c>
@@ -6146,7 +6119,7 @@
         <v>3540</v>
       </c>
     </row>
-    <row r="478" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>1181040</v>
       </c>
@@ -6154,7 +6127,7 @@
         <v>3112</v>
       </c>
     </row>
-    <row r="479" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>1157030</v>
       </c>
@@ -6162,7 +6135,7 @@
         <v>2842</v>
       </c>
     </row>
-    <row r="480" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>1159300</v>
       </c>
@@ -6170,7 +6143,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="481" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>1157032</v>
       </c>
@@ -6178,7 +6151,7 @@
         <v>3011</v>
       </c>
     </row>
-    <row r="482" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>1154065</v>
       </c>
@@ -6186,7 +6159,7 @@
         <v>3188</v>
       </c>
     </row>
-    <row r="483" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>1320002</v>
       </c>
@@ -6194,7 +6167,7 @@
         <v>3187</v>
       </c>
     </row>
-    <row r="484" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>1156010</v>
       </c>
@@ -6202,7 +6175,7 @@
         <v>4675</v>
       </c>
     </row>
-    <row r="485" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>1100235</v>
       </c>
@@ -6210,7 +6183,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="486" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>1159332</v>
       </c>
@@ -6218,7 +6191,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="487" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>1703003</v>
       </c>
@@ -6226,7 +6199,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="488" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>1157700</v>
       </c>
@@ -6234,7 +6207,7 @@
         <v>3746</v>
       </c>
     </row>
-    <row r="489" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>6009</v>
       </c>
@@ -6242,7 +6215,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="490" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>70012</v>
       </c>
@@ -6250,7 +6223,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="491" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>1016</v>
       </c>
@@ -6258,7 +6231,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="492" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>65016</v>
       </c>
@@ -6266,7 +6239,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="493" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>70016</v>
       </c>
@@ -6274,7 +6247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>14175</v>
       </c>
@@ -6282,7 +6255,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="495" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="8" t="s">
         <v>2</v>
       </c>
@@ -6290,7 +6263,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="496" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>130024</v>
       </c>
@@ -6298,7 +6271,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="497" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>19524</v>
       </c>
@@ -6306,7 +6279,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="498" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="8" t="s">
         <v>3</v>
       </c>
@@ -6314,7 +6287,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="499" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>13188</v>
       </c>
@@ -6322,7 +6295,7 @@
         <v>3806</v>
       </c>
     </row>
-    <row r="500" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="8" t="s">
         <v>4</v>
       </c>
@@ -6330,7 +6303,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="501" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="8" t="s">
         <v>5</v>
       </c>
@@ -6338,7 +6311,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="502" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="8" t="s">
         <v>6</v>
       </c>
@@ -6346,7 +6319,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="503" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="8" t="s">
         <v>7</v>
       </c>
@@ -6354,7 +6327,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="504" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="8" t="s">
         <v>8</v>
       </c>
@@ -6362,7 +6335,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="505" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="8" t="s">
         <v>9</v>
       </c>
@@ -6370,7 +6343,7 @@
         <v>2284</v>
       </c>
     </row>
-    <row r="506" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="8" t="s">
         <v>10</v>
       </c>
@@ -6378,7 +6351,7 @@
         <v>2557</v>
       </c>
     </row>
-    <row r="507" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" s="8" t="s">
         <v>11</v>
       </c>
@@ -6386,7 +6359,7 @@
         <v>2555</v>
       </c>
     </row>
-    <row r="508" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" s="8" t="s">
         <v>12</v>
       </c>
@@ -6394,7 +6367,7 @@
         <v>2844</v>
       </c>
     </row>
-    <row r="509" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="8" t="s">
         <v>13</v>
       </c>
@@ -6402,7 +6375,7 @@
         <v>5353</v>
       </c>
     </row>
-    <row r="510" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
         <v>29525</v>
       </c>
@@ -6410,7 +6383,7 @@
         <v>5633</v>
       </c>
     </row>
-    <row r="511" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
         <v>29529</v>
       </c>
@@ -6418,7 +6391,7 @@
         <v>4116</v>
       </c>
     </row>
-    <row r="512" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
         <v>7500412</v>
       </c>
@@ -6426,7 +6399,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="513" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
         <v>7500413</v>
       </c>
@@ -6434,7 +6407,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="514" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
         <v>7500476</v>
       </c>
@@ -6442,7 +6415,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="515" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" s="1">
         <v>8004516</v>
       </c>
@@ -6450,7 +6423,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="516" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="1">
         <v>8004858</v>
       </c>
@@ -6458,7 +6431,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="517" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="1">
         <v>7516056</v>
       </c>
@@ -6466,13 +6439,13 @@
         <v>520</v>
       </c>
     </row>
-    <row r="518" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A518" s="1">
         <v>8004674</v>
       </c>
       <c r="B518" s="12"/>
     </row>
-    <row r="519" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
         <v>7516006</v>
       </c>
@@ -6480,7 +6453,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="520" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520" s="1">
         <v>7500178</v>
       </c>
@@ -6488,7 +6461,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="521" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="1">
         <v>7500584</v>
       </c>
@@ -6496,7 +6469,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="522" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A522" s="1">
         <v>7500589</v>
       </c>
@@ -6504,7 +6477,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="523" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="1">
         <v>7500151</v>
       </c>
@@ -6512,7 +6485,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="524" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A524" s="1">
         <v>7500149</v>
       </c>
@@ -6520,7 +6493,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="525" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" s="1">
         <v>7500148</v>
       </c>
@@ -6528,7 +6501,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="526" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" s="1">
         <v>7500150</v>
       </c>
@@ -6536,7 +6509,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="527" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" s="1">
         <v>8004903</v>
       </c>
@@ -6544,7 +6517,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="528" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" s="1">
         <v>3166</v>
       </c>
@@ -6552,7 +6525,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="529" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A529" s="1">
         <v>3205</v>
       </c>
@@ -6560,7 +6533,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="530" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A530" s="1">
         <v>104058</v>
       </c>
@@ -6568,13 +6541,13 @@
         <v>416</v>
       </c>
     </row>
-    <row r="531" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A531" s="1">
         <v>4214</v>
       </c>
       <c r="B531" s="12"/>
     </row>
-    <row r="532" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A532" s="1">
         <v>103269</v>
       </c>
@@ -6582,7 +6555,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="533" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A533" s="1">
         <v>2802</v>
       </c>
@@ -6590,7 +6563,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="534" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A534" s="1">
         <v>2800</v>
       </c>
@@ -6598,7 +6571,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="535" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A535" s="8" t="s">
         <v>14</v>
       </c>
@@ -6606,7 +6579,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="536" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A536" s="8" t="s">
         <v>15</v>
       </c>
@@ -6614,7 +6587,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="537" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A537" s="8" t="s">
         <v>16</v>
       </c>
@@ -6622,13 +6595,13 @@
         <v>284</v>
       </c>
     </row>
-    <row r="538" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A538" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B538" s="12"/>
     </row>
-    <row r="539" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A539" s="8" t="s">
         <v>18</v>
       </c>
@@ -6636,7 +6609,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="540" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A540" s="8" t="s">
         <v>19</v>
       </c>
@@ -6644,7 +6617,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="541" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A541" s="8" t="s">
         <v>20</v>
       </c>
@@ -6652,7 +6625,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="542" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" s="8" t="s">
         <v>21</v>
       </c>
@@ -6660,7 +6633,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="543" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="8" t="s">
         <v>22</v>
       </c>
@@ -6668,7 +6641,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="544" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" s="8" t="s">
         <v>23</v>
       </c>
@@ -6676,7 +6649,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="545" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="8" t="s">
         <v>24</v>
       </c>
@@ -6684,7 +6657,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="546" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" s="8" t="s">
         <v>25</v>
       </c>
@@ -6692,7 +6665,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="547" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="8" t="s">
         <v>26</v>
       </c>
@@ -6700,7 +6673,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="548" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="8" t="s">
         <v>27</v>
       </c>
@@ -6708,7 +6681,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="549" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="8" t="s">
         <v>28</v>
       </c>
@@ -6716,7 +6689,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="550" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A550" s="8" t="s">
         <v>29</v>
       </c>
@@ -6724,7 +6697,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="551" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="8" t="s">
         <v>30</v>
       </c>
@@ -6732,7 +6705,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="552" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A552" s="8" t="s">
         <v>31</v>
       </c>
@@ -6740,7 +6713,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="553" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553" s="8" t="s">
         <v>32</v>
       </c>
@@ -6748,7 +6721,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="554" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="8" t="s">
         <v>33</v>
       </c>
@@ -6756,7 +6729,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="555" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" s="8" t="s">
         <v>34</v>
       </c>
@@ -6764,7 +6737,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="556" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" s="8" t="s">
         <v>35</v>
       </c>
@@ -6772,7 +6745,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="557" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="8" t="s">
         <v>36</v>
       </c>
@@ -6780,7 +6753,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="558" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="8" t="s">
         <v>37</v>
       </c>
@@ -6788,7 +6761,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="559" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559" s="8" t="s">
         <v>38</v>
       </c>
@@ -6796,7 +6769,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="560" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" s="8" t="s">
         <v>39</v>
       </c>
@@ -6804,7 +6777,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="561" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="8" t="s">
         <v>40</v>
       </c>
@@ -6812,7 +6785,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="562" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="8" t="s">
         <v>41</v>
       </c>
@@ -6820,7 +6793,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="563" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="8" t="s">
         <v>42</v>
       </c>
@@ -6828,7 +6801,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="564" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="8" t="s">
         <v>43</v>
       </c>
@@ -6836,7 +6809,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="565" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="8" t="s">
         <v>44</v>
       </c>
@@ -6844,7 +6817,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="566" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="8" t="s">
         <v>45</v>
       </c>
@@ -6852,7 +6825,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="567" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="8" t="s">
         <v>46</v>
       </c>
@@ -6860,7 +6833,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="568" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A568" s="8" t="s">
         <v>47</v>
       </c>
@@ -6868,7 +6841,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="569" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="8" t="s">
         <v>48</v>
       </c>
@@ -6876,7 +6849,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="570" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" s="8" t="s">
         <v>49</v>
       </c>
@@ -6884,7 +6857,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="571" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="8" t="s">
         <v>50</v>
       </c>
@@ -6892,7 +6865,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="572" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="8" t="s">
         <v>51</v>
       </c>
@@ -6900,7 +6873,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="573" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="8" t="s">
         <v>52</v>
       </c>
@@ -6908,7 +6881,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="574" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" s="8" t="s">
         <v>53</v>
       </c>
@@ -6916,7 +6889,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="575" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" s="8" t="s">
         <v>54</v>
       </c>
@@ -6924,7 +6897,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="576" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A576" s="8" t="s">
         <v>55</v>
       </c>
@@ -6932,7 +6905,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="577" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A577" s="8" t="s">
         <v>56</v>
       </c>
@@ -6940,7 +6913,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="578" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A578" s="8" t="s">
         <v>57</v>
       </c>
@@ -6948,7 +6921,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="579" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" s="8" t="s">
         <v>58</v>
       </c>
@@ -6956,7 +6929,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="580" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" s="8" t="s">
         <v>59</v>
       </c>
@@ -6964,7 +6937,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="581" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A581" s="8" t="s">
         <v>60</v>
       </c>
@@ -6972,7 +6945,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="582" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A582" s="8" t="s">
         <v>61</v>
       </c>
@@ -6980,7 +6953,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="583" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A583" s="8" t="s">
         <v>62</v>
       </c>
@@ -6988,7 +6961,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="584" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A584" s="8" t="s">
         <v>63</v>
       </c>
@@ -6996,7 +6969,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="585" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A585" s="8" t="s">
         <v>64</v>
       </c>
@@ -7004,7 +6977,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="586" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A586" s="8" t="s">
         <v>65</v>
       </c>
@@ -7012,7 +6985,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="587" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A587" s="8" t="s">
         <v>66</v>
       </c>
@@ -7020,7 +6993,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="588" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A588" s="8" t="s">
         <v>67</v>
       </c>
@@ -7028,7 +7001,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="589" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="8" t="s">
         <v>68</v>
       </c>
@@ -7036,7 +7009,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="590" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A590" s="8" t="s">
         <v>69</v>
       </c>
@@ -7044,7 +7017,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="591" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A591" s="8" t="s">
         <v>70</v>
       </c>
@@ -7052,7 +7025,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="592" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A592" s="8" t="s">
         <v>71</v>
       </c>
@@ -7060,7 +7033,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="593" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A593" s="8" t="s">
         <v>72</v>
       </c>
@@ -7068,7 +7041,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="594" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A594" s="8" t="s">
         <v>73</v>
       </c>
@@ -7076,7 +7049,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="595" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" s="8" t="s">
         <v>74</v>
       </c>
@@ -7084,7 +7057,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="596" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A596" s="1">
         <v>6053</v>
       </c>
@@ -7092,7 +7065,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="597" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A597" s="1">
         <v>6056</v>
       </c>
@@ -7100,7 +7073,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="598" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A598" s="1">
         <v>6059</v>
       </c>
@@ -7108,7 +7081,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="599" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="1">
         <v>6062</v>
       </c>
@@ -7116,7 +7089,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="600" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A600" s="1">
         <v>6065</v>
       </c>
@@ -7124,7 +7097,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="601" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A601" s="1">
         <v>6071</v>
       </c>
@@ -7132,7 +7105,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="602" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" s="1">
         <v>6074</v>
       </c>
@@ -7140,7 +7113,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="603" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="1">
         <v>6077</v>
       </c>
@@ -7148,7 +7121,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="604" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="1">
         <v>6080</v>
       </c>
@@ -7156,7 +7129,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="605" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="1">
         <v>6083</v>
       </c>
@@ -7164,7 +7137,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="606" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="1">
         <v>6086</v>
       </c>
@@ -7172,7 +7145,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="607" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="1">
         <v>6089</v>
       </c>
@@ -7180,7 +7153,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="608" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A608" s="1">
         <v>6098</v>
       </c>
@@ -7188,7 +7161,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="609" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A609" s="1">
         <v>6101</v>
       </c>
@@ -7196,7 +7169,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="610" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A610" s="1">
         <v>6107</v>
       </c>
@@ -7204,7 +7177,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="611" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A611" s="1">
         <v>6535</v>
       </c>
@@ -7212,7 +7185,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="612" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A612" s="1">
         <v>6555</v>
       </c>
@@ -7220,7 +7193,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="613" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A613" s="1">
         <v>6567</v>
       </c>
@@ -7228,7 +7201,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="614" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A614" s="1">
         <v>6569</v>
       </c>
@@ -7236,7 +7209,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="615" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A615" s="1">
         <v>6571</v>
       </c>
@@ -7244,7 +7217,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="616" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A616" s="1">
         <v>6607</v>
       </c>
@@ -7252,7 +7225,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="617" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A617" s="1">
         <v>6623</v>
       </c>
@@ -7260,7 +7233,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="618" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" s="1">
         <v>6627</v>
       </c>
@@ -7268,7 +7241,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="619" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A619" s="1">
         <v>6635</v>
       </c>
@@ -7276,7 +7249,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="620" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A620" s="1">
         <v>6731</v>
       </c>
@@ -7284,7 +7257,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="621" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A621" s="1">
         <v>6747</v>
       </c>
@@ -7292,7 +7265,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="622" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A622" s="1">
         <v>6787</v>
       </c>
@@ -7300,7 +7273,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="623" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A623" s="1">
         <v>6819</v>
       </c>
@@ -7308,7 +7281,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="624" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A624" s="1">
         <v>4892</v>
       </c>
@@ -7316,7 +7289,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="625" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="1">
         <v>5029</v>
       </c>
@@ -7324,7 +7297,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="626" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A626" s="1">
         <v>5050</v>
       </c>
@@ -7332,7 +7305,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="627" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A627" s="1">
         <v>5030</v>
       </c>
@@ -7340,7 +7313,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="628" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A628" s="1">
         <v>5031</v>
       </c>
@@ -7348,7 +7321,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="629" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A629" s="1">
         <v>5035</v>
       </c>
@@ -7356,7 +7329,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="630" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A630" s="1">
         <v>5041</v>
       </c>
@@ -7364,7 +7337,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="631" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A631" s="1">
         <v>5048</v>
       </c>
@@ -7372,7 +7345,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="632" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A632" s="1">
         <v>5045</v>
       </c>
@@ -7380,7 +7353,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="633" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A633" s="1">
         <v>5034</v>
       </c>
@@ -7388,7 +7361,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="634" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A634" s="1">
         <v>5036</v>
       </c>
@@ -7396,7 +7369,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="635" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A635" s="1">
         <v>5042</v>
       </c>
@@ -7404,7 +7377,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="636" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A636" s="1">
         <v>5047</v>
       </c>
@@ -7412,7 +7385,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="637" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A637" s="1">
         <v>5049</v>
       </c>
@@ -7420,7 +7393,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="638" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A638" s="1">
         <v>5005</v>
       </c>
@@ -7428,7 +7401,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="639" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A639" s="1">
         <v>5015</v>
       </c>
@@ -7436,7 +7409,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="640" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A640" s="1">
         <v>5007</v>
       </c>
@@ -7444,7 +7417,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="641" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A641" s="11">
         <v>5008</v>
       </c>
@@ -7452,15 +7425,15 @@
         <v>108</v>
       </c>
     </row>
-    <row r="642" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A642" s="1">
         <v>6241</v>
       </c>
-      <c r="B642" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="643" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B642" s="16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A643" s="1">
         <v>6259</v>
       </c>
@@ -7468,7 +7441,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="644" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A644" s="1">
         <v>6249</v>
       </c>
@@ -7476,7 +7449,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="645" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A645" s="1">
         <v>5555</v>
       </c>
@@ -7484,7 +7457,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="646" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A646" s="1">
         <v>5535</v>
       </c>
@@ -7492,7 +7465,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="647" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A647" s="1">
         <v>5567</v>
       </c>
@@ -7500,7 +7473,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="648" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A648" s="1">
         <v>5527</v>
       </c>
@@ -7508,7 +7481,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="649" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A649" s="1">
         <v>5563</v>
       </c>
@@ -7516,7 +7489,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="650" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A650" s="1">
         <v>4452</v>
       </c>
@@ -7524,7 +7497,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="651" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A651" s="1">
         <v>4359</v>
       </c>
@@ -7532,7 +7505,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="652" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A652" s="1">
         <v>4360</v>
       </c>
@@ -7540,7 +7513,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="653" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A653" s="1">
         <v>4361</v>
       </c>
@@ -7548,7 +7521,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="654" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A654" s="1">
         <v>4362</v>
       </c>
@@ -7556,7 +7529,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="655" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A655" s="1">
         <v>4453</v>
       </c>
@@ -7564,7 +7537,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="656" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A656" s="1">
         <v>4449</v>
       </c>
@@ -7572,7 +7545,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="657" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A657" s="1">
         <v>4363</v>
       </c>
@@ -7580,7 +7553,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="658" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A658" s="1">
         <v>4364</v>
       </c>
@@ -7588,7 +7561,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="659" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A659" s="1">
         <v>4610</v>
       </c>
@@ -7596,7 +7569,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="660" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A660" s="1">
         <v>4457</v>
       </c>
@@ -7604,7 +7577,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="661" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A661" s="1">
         <v>4613</v>
       </c>
@@ -7612,7 +7585,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="662" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A662" s="1">
         <v>3356</v>
       </c>
@@ -7620,7 +7593,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="663" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A663" s="1">
         <v>3392</v>
       </c>
@@ -7628,7 +7601,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="664" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A664" s="1">
         <v>3445</v>
       </c>
@@ -7636,7 +7609,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="665" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A665" s="1">
         <v>3355</v>
       </c>
@@ -7644,7 +7617,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="666" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A666" s="1">
         <v>3453</v>
       </c>
@@ -7652,7 +7625,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="667" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A667" s="1">
         <v>3286</v>
       </c>
@@ -7660,7 +7633,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="668" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A668" s="1">
         <v>3450</v>
       </c>
@@ -7668,7 +7641,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="669" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A669" s="1">
         <v>3357</v>
       </c>
@@ -7676,7 +7649,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="670" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A670" s="1">
         <v>3397</v>
       </c>
@@ -7684,7 +7657,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="671" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A671" s="1">
         <v>3393</v>
       </c>
@@ -7692,7 +7665,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="672" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A672" s="1">
         <v>3421</v>
       </c>
@@ -7700,7 +7673,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="673" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A673" s="1">
         <v>3426</v>
       </c>
@@ -7708,7 +7681,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="674" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A674" s="1">
         <v>3446</v>
       </c>
@@ -7716,7 +7689,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="675" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A675" s="1">
         <v>3458</v>
       </c>
@@ -7724,7 +7697,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="676" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A676" s="1">
         <v>3464</v>
       </c>
@@ -7732,7 +7705,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="677" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A677" s="1">
         <v>3478</v>
       </c>
@@ -7740,7 +7713,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="678" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A678" s="1">
         <v>6662</v>
       </c>
@@ -7748,7 +7721,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="679" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A679" s="1">
         <v>3461</v>
       </c>
@@ -7756,7 +7729,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="680" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A680" s="1">
         <v>3477</v>
       </c>
@@ -7764,7 +7737,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="681" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A681" s="1">
         <v>3472</v>
       </c>
@@ -7772,7 +7745,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="682" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A682" s="1">
         <v>3176</v>
       </c>
@@ -7780,7 +7753,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="683" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A683" s="1">
         <v>3206</v>
       </c>
@@ -7788,7 +7761,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="684" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A684" s="1">
         <v>3239</v>
       </c>
@@ -7796,7 +7769,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="685" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A685" s="1">
         <v>3208</v>
       </c>
@@ -7804,7 +7777,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="686" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A686" s="1">
         <v>3241</v>
       </c>
@@ -7812,7 +7785,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="687" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A687" s="1">
         <v>3237</v>
       </c>
@@ -7820,7 +7793,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="688" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A688" s="1">
         <v>3269</v>
       </c>
@@ -7828,7 +7801,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="689" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A689" s="1">
         <v>3303</v>
       </c>
@@ -7836,7 +7809,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="690" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A690" s="1">
         <v>3352</v>
       </c>
@@ -7844,7 +7817,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="691" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A691" s="1">
         <v>3238</v>
       </c>
@@ -7852,7 +7825,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="692" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A692" s="11">
         <v>3347</v>
       </c>
@@ -7860,743 +7833,743 @@
         <v>108</v>
       </c>
     </row>
-    <row r="693" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A693" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B693" s="2">
         <v>531</v>
       </c>
     </row>
-    <row r="694" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A694" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B694" s="2">
         <v>644</v>
       </c>
     </row>
-    <row r="695" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A695" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B695" s="9">
         <v>2214</v>
       </c>
     </row>
-    <row r="696" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A696" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B696" s="2">
         <v>767</v>
       </c>
     </row>
-    <row r="697" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A697" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B697" s="2">
         <v>905</v>
       </c>
     </row>
-    <row r="698" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A698" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B698" s="2">
         <v>938</v>
       </c>
     </row>
-    <row r="699" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A699" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B699" s="9">
         <v>1189</v>
       </c>
     </row>
-    <row r="700" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A700" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B700" s="9">
         <v>2999</v>
       </c>
     </row>
-    <row r="701" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A701" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B701" s="9">
         <v>4576</v>
       </c>
     </row>
-    <row r="702" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A702" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B702" s="2">
         <v>994</v>
       </c>
     </row>
-    <row r="703" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A703" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B703" s="9">
         <v>1106</v>
       </c>
     </row>
-    <row r="704" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A704" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B704" s="2">
         <v>616</v>
       </c>
     </row>
-    <row r="705" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A705" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B705" s="9">
         <v>1236</v>
       </c>
     </row>
-    <row r="706" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A706" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B706" s="9">
         <v>1805</v>
       </c>
     </row>
-    <row r="707" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A707" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B707" s="9">
         <v>2435</v>
       </c>
     </row>
-    <row r="708" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A708" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B708" s="9">
         <v>2070</v>
       </c>
     </row>
-    <row r="709" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A709" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B709" s="2">
         <v>993</v>
       </c>
     </row>
-    <row r="710" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A710" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B710" s="2">
         <v>994</v>
       </c>
     </row>
-    <row r="711" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A711" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B711" s="9">
         <v>1161</v>
       </c>
     </row>
-    <row r="712" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A712" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B712" s="9">
         <v>1518</v>
       </c>
     </row>
-    <row r="713" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A713" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B713" s="2">
         <v>205</v>
       </c>
     </row>
-    <row r="714" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A714" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B714" s="2">
         <v>334</v>
       </c>
     </row>
-    <row r="715" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A715" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B715" s="2">
         <v>297</v>
       </c>
     </row>
-    <row r="716" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A716" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B716" s="2">
         <v>386</v>
       </c>
     </row>
-    <row r="717" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A717" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B717" s="2">
         <v>426</v>
       </c>
     </row>
-    <row r="718" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A718" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B718" s="2">
         <v>382</v>
       </c>
     </row>
-    <row r="719" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A719" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B719" s="2">
         <v>568</v>
       </c>
     </row>
-    <row r="720" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A720" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B720" s="2">
         <v>653</v>
       </c>
     </row>
-    <row r="721" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A721" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B721" s="2">
         <v>673</v>
       </c>
     </row>
-    <row r="722" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A722" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B722" s="2">
         <v>718</v>
       </c>
     </row>
-    <row r="723" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A723" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B723" s="2">
         <v>998</v>
       </c>
     </row>
-    <row r="724" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A724" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B724" s="9">
         <v>2227</v>
       </c>
     </row>
-    <row r="725" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A725" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B725" s="2">
         <v>562</v>
       </c>
     </row>
-    <row r="726" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A726" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B726" s="2">
         <v>456</v>
       </c>
     </row>
-    <row r="727" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A727" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B727" s="2">
         <v>693</v>
       </c>
     </row>
-    <row r="728" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A728" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B728" s="2">
         <v>572</v>
       </c>
     </row>
-    <row r="729" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A729" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B729" s="2">
         <v>752</v>
       </c>
     </row>
-    <row r="730" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A730" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B730" s="9">
         <v>1149</v>
       </c>
     </row>
-    <row r="731" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A731" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B731" s="9">
         <v>1430</v>
       </c>
     </row>
-    <row r="732" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A732" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B732" s="15"/>
+    </row>
+    <row r="733" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A733" s="8" t="s">
         <v>115</v>
-      </c>
-      <c r="B732" s="15"/>
-    </row>
-    <row r="733" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A733" s="8" t="s">
-        <v>116</v>
       </c>
       <c r="B733" s="9">
         <v>2030</v>
       </c>
     </row>
-    <row r="734" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A734" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B734" s="2">
         <v>655</v>
       </c>
     </row>
-    <row r="735" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A735" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B735" s="2">
         <v>819</v>
       </c>
     </row>
-    <row r="736" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A736" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B736" s="2">
         <v>887</v>
       </c>
     </row>
-    <row r="737" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A737" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B737" s="2">
         <v>512</v>
       </c>
     </row>
-    <row r="738" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A738" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B738" s="2">
         <v>570</v>
       </c>
     </row>
-    <row r="739" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A739" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B739" s="2">
         <v>622</v>
       </c>
     </row>
-    <row r="740" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A740" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B740" s="2">
         <v>499</v>
       </c>
     </row>
-    <row r="741" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A741" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B741" s="2">
         <v>817</v>
       </c>
     </row>
-    <row r="742" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A742" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B742" s="9">
         <v>1122</v>
       </c>
     </row>
-    <row r="743" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A743" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B743" s="9">
         <v>1155</v>
       </c>
     </row>
-    <row r="744" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A744" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B744" s="2">
         <v>248</v>
       </c>
     </row>
-    <row r="745" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A745" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B745" s="2">
         <v>93</v>
       </c>
     </row>
-    <row r="746" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A746" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B746" s="2">
         <v>116</v>
       </c>
     </row>
-    <row r="747" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A747" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B747" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B747" s="10" t="s">
+    </row>
+    <row r="748" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A748" s="8" t="s">
         <v>131</v>
-      </c>
-    </row>
-    <row r="748" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A748" s="8" t="s">
-        <v>132</v>
       </c>
       <c r="B748" s="2">
         <v>246</v>
       </c>
     </row>
-    <row r="749" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A749" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B749" s="2">
         <v>155</v>
       </c>
     </row>
-    <row r="750" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A750" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B750" s="2">
         <v>145</v>
       </c>
     </row>
-    <row r="751" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A751" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B751" s="2">
         <v>229</v>
       </c>
     </row>
-    <row r="752" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A752" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B752" s="2">
         <v>272</v>
       </c>
     </row>
-    <row r="753" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A753" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B753" s="2">
         <v>431</v>
       </c>
     </row>
-    <row r="754" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A754" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B754" s="2">
         <v>636</v>
       </c>
     </row>
-    <row r="755" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A755" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B755" s="2">
         <v>796</v>
       </c>
     </row>
-    <row r="756" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A756" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B756" s="2">
         <v>515</v>
       </c>
     </row>
-    <row r="757" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A757" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B757" s="2">
         <v>559</v>
       </c>
     </row>
-    <row r="758" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A758" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B758" s="2">
         <v>583</v>
       </c>
     </row>
-    <row r="759" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A759" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B759" s="2">
         <v>610</v>
       </c>
     </row>
-    <row r="760" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A760" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B760" s="2">
         <v>683</v>
       </c>
     </row>
-    <row r="761" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A761" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B761" s="2">
         <v>801</v>
       </c>
     </row>
-    <row r="762" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A762" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B762" s="2">
         <v>720</v>
       </c>
     </row>
-    <row r="763" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A763" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B763" s="9">
         <v>1054</v>
       </c>
     </row>
-    <row r="764" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A764" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B764" s="9">
         <v>1143</v>
       </c>
     </row>
-    <row r="765" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A765" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B765" s="9">
         <v>1381</v>
       </c>
     </row>
-    <row r="766" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A766" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B766" s="9">
         <v>1469</v>
       </c>
     </row>
-    <row r="767" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A767" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B767" s="9">
         <v>2557</v>
       </c>
     </row>
-    <row r="768" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A768" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B768" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="769" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A769" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B769" s="2">
         <v>95</v>
       </c>
     </row>
-    <row r="770" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A770" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B770" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="771" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A771" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B771" s="2">
         <v>149</v>
       </c>
     </row>
-    <row r="772" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A772" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B772" s="2">
         <v>147</v>
       </c>
     </row>
-    <row r="773" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A773" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B773" s="2">
         <v>147</v>
       </c>
     </row>
-    <row r="774" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A774" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B774" s="2">
         <v>182</v>
       </c>
     </row>
-    <row r="775" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A775" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B775" s="2">
         <v>182</v>
       </c>
     </row>
-    <row r="776" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A776" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B776" s="2">
         <v>317</v>
       </c>
     </row>
-    <row r="777" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A777" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B777" s="2">
         <v>24</v>
       </c>
     </row>
-    <row r="778" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A778" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B778" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="779" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A779" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B779" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="780" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A780" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B780" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="781" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A781" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B781" s="2">
         <v>56</v>
       </c>
     </row>
-    <row r="782" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A782" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B782" s="2">
         <v>72</v>
       </c>
     </row>
-    <row r="783" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A783" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B783" s="2">
         <v>56</v>
       </c>
     </row>
-    <row r="784" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A784" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B784" s="2">
         <v>92</v>
       </c>
     </row>
-    <row r="785" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A785" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B785" s="2">
         <v>69</v>

--- a/api/files/prices.xlsx
+++ b/api/files/prices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\la union\Desktop\la_union_api_prices\api\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813BFD86-AEBA-4D78-9A0E-55721E55AC51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20B2FE9-892A-452D-99D6-47E899C35BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="672">
   <si>
     <t>S/COD</t>
   </si>
@@ -1776,9 +1776,6 @@
     <t>USD 416</t>
   </si>
   <si>
-    <t>USD 290</t>
-  </si>
-  <si>
     <t>USD 284</t>
   </si>
   <si>
@@ -2041,6 +2038,12 @@
   </si>
   <si>
     <t>USD 69</t>
+  </si>
+  <si>
+    <t>USD 260,810810</t>
+  </si>
+  <si>
+    <t>USD 285,810810</t>
   </si>
 </sst>
 </file>
@@ -2456,8 +2459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B787"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A519" workbookViewId="0">
+      <selection activeCell="B522" sqref="B522"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6620,20 +6623,20 @@
         <v>574</v>
       </c>
     </row>
-    <row r="521" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:2" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A521" s="1">
         <v>7500584</v>
       </c>
-      <c r="B521" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="522" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B521" s="8" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A522" s="1">
         <v>7500589</v>
       </c>
-      <c r="B522" s="2" t="s">
-        <v>575</v>
+      <c r="B522" s="8" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="523" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6692,12 +6695,12 @@
         <v>580</v>
       </c>
     </row>
-    <row r="530" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:2" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A530" s="7">
         <v>3147</v>
       </c>
       <c r="B530" s="8" t="s">
-        <v>236</v>
+        <v>670</v>
       </c>
     </row>
     <row r="531" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6708,12 +6711,12 @@
         <v>581</v>
       </c>
     </row>
-    <row r="532" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:2" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A532" s="7">
         <v>3148</v>
       </c>
       <c r="B532" s="8" t="s">
-        <v>582</v>
+        <v>671</v>
       </c>
     </row>
     <row r="533" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6743,7 +6746,7 @@
         <v>2800</v>
       </c>
       <c r="B536" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="537" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6767,7 +6770,7 @@
         <v>15</v>
       </c>
       <c r="B539" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="540" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6789,7 +6792,7 @@
         <v>18</v>
       </c>
       <c r="B542" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="543" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6797,7 +6800,7 @@
         <v>19</v>
       </c>
       <c r="B543" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="544" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6805,7 +6808,7 @@
         <v>20</v>
       </c>
       <c r="B544" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="545" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6813,7 +6816,7 @@
         <v>21</v>
       </c>
       <c r="B545" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="546" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6821,7 +6824,7 @@
         <v>22</v>
       </c>
       <c r="B546" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="547" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6829,7 +6832,7 @@
         <v>23</v>
       </c>
       <c r="B547" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="548" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6837,7 +6840,7 @@
         <v>24</v>
       </c>
       <c r="B548" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="549" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6845,7 +6848,7 @@
         <v>25</v>
       </c>
       <c r="B549" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="550" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6853,7 +6856,7 @@
         <v>26</v>
       </c>
       <c r="B550" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="551" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6861,7 +6864,7 @@
         <v>27</v>
       </c>
       <c r="B551" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="552" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6877,7 +6880,7 @@
         <v>29</v>
       </c>
       <c r="B553" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="554" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6885,7 +6888,7 @@
         <v>30</v>
       </c>
       <c r="B554" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="555" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6893,7 +6896,7 @@
         <v>31</v>
       </c>
       <c r="B555" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="556" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6901,7 +6904,7 @@
         <v>32</v>
       </c>
       <c r="B556" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="557" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6909,7 +6912,7 @@
         <v>33</v>
       </c>
       <c r="B557" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="558" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6917,7 +6920,7 @@
         <v>34</v>
       </c>
       <c r="B558" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="559" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6925,7 +6928,7 @@
         <v>35</v>
       </c>
       <c r="B559" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="560" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6933,7 +6936,7 @@
         <v>36</v>
       </c>
       <c r="B560" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="561" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6941,7 +6944,7 @@
         <v>37</v>
       </c>
       <c r="B561" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="562" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6949,7 +6952,7 @@
         <v>38</v>
       </c>
       <c r="B562" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="563" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6957,7 +6960,7 @@
         <v>39</v>
       </c>
       <c r="B563" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="564" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6965,7 +6968,7 @@
         <v>40</v>
       </c>
       <c r="B564" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="565" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6973,7 +6976,7 @@
         <v>41</v>
       </c>
       <c r="B565" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="566" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6981,7 +6984,7 @@
         <v>42</v>
       </c>
       <c r="B566" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="567" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6989,7 +6992,7 @@
         <v>43</v>
       </c>
       <c r="B567" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="568" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6997,7 +7000,7 @@
         <v>44</v>
       </c>
       <c r="B568" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="569" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -7005,7 +7008,7 @@
         <v>45</v>
       </c>
       <c r="B569" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="570" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -7013,7 +7016,7 @@
         <v>46</v>
       </c>
       <c r="B570" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="571" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -7021,7 +7024,7 @@
         <v>47</v>
       </c>
       <c r="B571" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="572" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -7029,7 +7032,7 @@
         <v>48</v>
       </c>
       <c r="B572" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="573" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7037,7 +7040,7 @@
         <v>49</v>
       </c>
       <c r="B573" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="574" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7045,7 +7048,7 @@
         <v>50</v>
       </c>
       <c r="B574" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="575" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7061,7 +7064,7 @@
         <v>52</v>
       </c>
       <c r="B576" s="9" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="577" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7069,7 +7072,7 @@
         <v>53</v>
       </c>
       <c r="B577" s="9" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="578" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7093,7 +7096,7 @@
         <v>56</v>
       </c>
       <c r="B580" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="581" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7101,7 +7104,7 @@
         <v>57</v>
       </c>
       <c r="B581" s="9" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="582" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7117,7 +7120,7 @@
         <v>59</v>
       </c>
       <c r="B583" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="584" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7141,7 +7144,7 @@
         <v>62</v>
       </c>
       <c r="B586" s="9" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="587" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7149,7 +7152,7 @@
         <v>63</v>
       </c>
       <c r="B587" s="9" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="588" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7165,7 +7168,7 @@
         <v>65</v>
       </c>
       <c r="B589" s="9" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="590" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7173,7 +7176,7 @@
         <v>66</v>
       </c>
       <c r="B590" s="9" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="591" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7181,7 +7184,7 @@
         <v>67</v>
       </c>
       <c r="B591" s="9" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="592" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7205,7 +7208,7 @@
         <v>70</v>
       </c>
       <c r="B594" s="9" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="595" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7213,7 +7216,7 @@
         <v>71</v>
       </c>
       <c r="B595" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="596" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7229,7 +7232,7 @@
         <v>73</v>
       </c>
       <c r="B597" s="5" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="598" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7237,7 +7240,7 @@
         <v>6053</v>
       </c>
       <c r="B598" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="599" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7245,7 +7248,7 @@
         <v>6056</v>
       </c>
       <c r="B599" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="600" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7253,7 +7256,7 @@
         <v>6059</v>
       </c>
       <c r="B600" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="601" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7261,7 +7264,7 @@
         <v>6062</v>
       </c>
       <c r="B601" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="602" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7269,7 +7272,7 @@
         <v>6065</v>
       </c>
       <c r="B602" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="603" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7277,7 +7280,7 @@
         <v>6071</v>
       </c>
       <c r="B603" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="604" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7285,7 +7288,7 @@
         <v>6074</v>
       </c>
       <c r="B604" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="605" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7293,7 +7296,7 @@
         <v>6077</v>
       </c>
       <c r="B605" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="606" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7301,7 +7304,7 @@
         <v>6080</v>
       </c>
       <c r="B606" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="607" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7309,7 +7312,7 @@
         <v>6083</v>
       </c>
       <c r="B607" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="608" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7317,7 +7320,7 @@
         <v>6086</v>
       </c>
       <c r="B608" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="609" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7325,7 +7328,7 @@
         <v>6089</v>
       </c>
       <c r="B609" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="610" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7357,7 +7360,7 @@
         <v>6535</v>
       </c>
       <c r="B613" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="614" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7365,7 +7368,7 @@
         <v>6555</v>
       </c>
       <c r="B614" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="615" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7373,7 +7376,7 @@
         <v>6567</v>
       </c>
       <c r="B615" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="616" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7381,7 +7384,7 @@
         <v>6569</v>
       </c>
       <c r="B616" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="617" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7389,7 +7392,7 @@
         <v>6571</v>
       </c>
       <c r="B617" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="618" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7405,7 +7408,7 @@
         <v>6623</v>
       </c>
       <c r="B619" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="620" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7413,7 +7416,7 @@
         <v>6627</v>
       </c>
       <c r="B620" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="621" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7421,7 +7424,7 @@
         <v>6635</v>
       </c>
       <c r="B621" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="622" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7461,7 +7464,7 @@
         <v>4892</v>
       </c>
       <c r="B626" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="627" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7477,7 +7480,7 @@
         <v>5050</v>
       </c>
       <c r="B628" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="629" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7533,7 +7536,7 @@
         <v>5034</v>
       </c>
       <c r="B635" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="636" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7557,7 +7560,7 @@
         <v>5047</v>
       </c>
       <c r="B638" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="639" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7565,7 +7568,7 @@
         <v>5049</v>
       </c>
       <c r="B639" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="640" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7597,7 +7600,7 @@
         <v>5008</v>
       </c>
       <c r="B643" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="644" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7645,7 +7648,7 @@
         <v>5567</v>
       </c>
       <c r="B649" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="650" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7653,7 +7656,7 @@
         <v>5527</v>
       </c>
       <c r="B650" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="651" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7669,7 +7672,7 @@
         <v>4452</v>
       </c>
       <c r="B652" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="653" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7677,7 +7680,7 @@
         <v>4359</v>
       </c>
       <c r="B653" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="654" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7701,7 +7704,7 @@
         <v>4362</v>
       </c>
       <c r="B656" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="657" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7717,7 +7720,7 @@
         <v>4449</v>
       </c>
       <c r="B658" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="659" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7733,7 +7736,7 @@
         <v>4364</v>
       </c>
       <c r="B660" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="661" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7749,7 +7752,7 @@
         <v>4457</v>
       </c>
       <c r="B662" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="663" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7765,7 +7768,7 @@
         <v>3356</v>
       </c>
       <c r="B664" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="665" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7781,7 +7784,7 @@
         <v>3445</v>
       </c>
       <c r="B666" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="667" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7789,7 +7792,7 @@
         <v>3355</v>
       </c>
       <c r="B667" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="668" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7797,7 +7800,7 @@
         <v>3453</v>
       </c>
       <c r="B668" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="669" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7805,7 +7808,7 @@
         <v>3286</v>
       </c>
       <c r="B669" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="670" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7813,7 +7816,7 @@
         <v>3450</v>
       </c>
       <c r="B670" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="671" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7821,7 +7824,7 @@
         <v>3357</v>
       </c>
       <c r="B671" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="672" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7829,7 +7832,7 @@
         <v>3397</v>
       </c>
       <c r="B672" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="673" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7869,7 +7872,7 @@
         <v>3458</v>
       </c>
       <c r="B677" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="678" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7893,7 +7896,7 @@
         <v>6662</v>
       </c>
       <c r="B680" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="681" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7917,7 +7920,7 @@
         <v>3472</v>
       </c>
       <c r="B683" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="684" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7925,7 +7928,7 @@
         <v>3176</v>
       </c>
       <c r="B684" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="685" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7941,7 +7944,7 @@
         <v>3239</v>
       </c>
       <c r="B686" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="687" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7973,7 +7976,7 @@
         <v>3269</v>
       </c>
       <c r="B690" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="691" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7981,7 +7984,7 @@
         <v>3303</v>
       </c>
       <c r="B691" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="692" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7989,7 +7992,7 @@
         <v>3352</v>
       </c>
       <c r="B692" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="693" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7997,7 +8000,7 @@
         <v>3238</v>
       </c>
       <c r="B693" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="694" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8005,7 +8008,7 @@
         <v>3347</v>
       </c>
       <c r="B694" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="695" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8013,7 +8016,7 @@
         <v>74</v>
       </c>
       <c r="B695" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="696" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8029,7 +8032,7 @@
         <v>76</v>
       </c>
       <c r="B697" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="698" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8037,7 +8040,7 @@
         <v>77</v>
       </c>
       <c r="B698" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="699" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8061,7 +8064,7 @@
         <v>80</v>
       </c>
       <c r="B701" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="702" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8069,7 +8072,7 @@
         <v>81</v>
       </c>
       <c r="B702" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="703" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8077,7 +8080,7 @@
         <v>82</v>
       </c>
       <c r="B703" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="704" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8085,7 +8088,7 @@
         <v>83</v>
       </c>
       <c r="B704" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="705" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8093,7 +8096,7 @@
         <v>84</v>
       </c>
       <c r="B705" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="706" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8101,7 +8104,7 @@
         <v>85</v>
       </c>
       <c r="B706" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="707" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8109,7 +8112,7 @@
         <v>86</v>
       </c>
       <c r="B707" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="708" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8125,7 +8128,7 @@
         <v>88</v>
       </c>
       <c r="B709" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="710" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8133,7 +8136,7 @@
         <v>89</v>
       </c>
       <c r="B710" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="711" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8141,7 +8144,7 @@
         <v>90</v>
       </c>
       <c r="B711" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="712" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8149,7 +8152,7 @@
         <v>91</v>
       </c>
       <c r="B712" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="713" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8157,7 +8160,7 @@
         <v>92</v>
       </c>
       <c r="B713" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="714" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8165,7 +8168,7 @@
         <v>93</v>
       </c>
       <c r="B714" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="715" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8189,7 +8192,7 @@
         <v>96</v>
       </c>
       <c r="B717" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="718" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8205,7 +8208,7 @@
         <v>98</v>
       </c>
       <c r="B719" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="720" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8229,7 +8232,7 @@
         <v>101</v>
       </c>
       <c r="B722" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="723" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8237,7 +8240,7 @@
         <v>102</v>
       </c>
       <c r="B723" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="724" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8245,7 +8248,7 @@
         <v>103</v>
       </c>
       <c r="B724" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="725" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8253,7 +8256,7 @@
         <v>104</v>
       </c>
       <c r="B725" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="726" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8261,7 +8264,7 @@
         <v>105</v>
       </c>
       <c r="B726" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="727" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8269,7 +8272,7 @@
         <v>106</v>
       </c>
       <c r="B727" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="728" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8277,7 +8280,7 @@
         <v>107</v>
       </c>
       <c r="B728" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="729" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8285,7 +8288,7 @@
         <v>108</v>
       </c>
       <c r="B729" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="730" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8293,7 +8296,7 @@
         <v>109</v>
       </c>
       <c r="B730" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="731" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8301,7 +8304,7 @@
         <v>110</v>
       </c>
       <c r="B731" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="732" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8309,7 +8312,7 @@
         <v>111</v>
       </c>
       <c r="B732" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="733" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8317,7 +8320,7 @@
         <v>112</v>
       </c>
       <c r="B733" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="734" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8347,7 +8350,7 @@
         <v>116</v>
       </c>
       <c r="B737" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="738" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8355,7 +8358,7 @@
         <v>117</v>
       </c>
       <c r="B738" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="739" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8363,7 +8366,7 @@
         <v>118</v>
       </c>
       <c r="B739" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="740" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8371,7 +8374,7 @@
         <v>119</v>
       </c>
       <c r="B740" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="741" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8379,7 +8382,7 @@
         <v>120</v>
       </c>
       <c r="B741" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="742" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8403,7 +8406,7 @@
         <v>123</v>
       </c>
       <c r="B744" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="745" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8411,7 +8414,7 @@
         <v>124</v>
       </c>
       <c r="B745" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="746" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8419,7 +8422,7 @@
         <v>125</v>
       </c>
       <c r="B746" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="747" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8435,7 +8438,7 @@
         <v>127</v>
       </c>
       <c r="B748" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="749" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8443,7 +8446,7 @@
         <v>128</v>
       </c>
       <c r="B749" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="750" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8475,7 +8478,7 @@
         <v>132</v>
       </c>
       <c r="B753" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="754" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8499,7 +8502,7 @@
         <v>135</v>
       </c>
       <c r="B756" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="757" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8507,7 +8510,7 @@
         <v>136</v>
       </c>
       <c r="B757" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="758" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8523,7 +8526,7 @@
         <v>138</v>
       </c>
       <c r="B759" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="760" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8539,7 +8542,7 @@
         <v>140</v>
       </c>
       <c r="B761" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="762" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8555,7 +8558,7 @@
         <v>142</v>
       </c>
       <c r="B763" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="764" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8563,7 +8566,7 @@
         <v>143</v>
       </c>
       <c r="B764" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="765" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8587,7 +8590,7 @@
         <v>146</v>
       </c>
       <c r="B767" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="768" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8683,7 +8686,7 @@
         <v>158</v>
       </c>
       <c r="B779" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="780" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8691,7 +8694,7 @@
         <v>159</v>
       </c>
       <c r="B780" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="781" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8699,7 +8702,7 @@
         <v>160</v>
       </c>
       <c r="B781" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="782" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8707,7 +8710,7 @@
         <v>161</v>
       </c>
       <c r="B782" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="783" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8715,7 +8718,7 @@
         <v>162</v>
       </c>
       <c r="B783" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="784" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8731,7 +8734,7 @@
         <v>164</v>
       </c>
       <c r="B785" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="786" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8739,7 +8742,7 @@
         <v>165</v>
       </c>
       <c r="B786" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="787" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8747,7 +8750,7 @@
         <v>166</v>
       </c>
       <c r="B787" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
   </sheetData>

--- a/api/files/prices.xlsx
+++ b/api/files/prices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\la union\Desktop\la_union_api_prices\api\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20B2FE9-892A-452D-99D6-47E899C35BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50187D1-80A1-4E87-8EC5-0C1144972FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="671">
   <si>
     <t>S/COD</t>
   </si>
@@ -2040,10 +2040,7 @@
     <t>USD 69</t>
   </si>
   <si>
-    <t>USD 260,810810</t>
-  </si>
-  <si>
-    <t>USD 285,810810</t>
+    <t>USD 274,32</t>
   </si>
 </sst>
 </file>
@@ -2459,8 +2456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B787"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A519" workbookViewId="0">
-      <selection activeCell="B522" sqref="B522"/>
+    <sheetView tabSelected="1" topLeftCell="A516" workbookViewId="0">
+      <selection activeCell="E527" sqref="E527"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6623,20 +6620,20 @@
         <v>574</v>
       </c>
     </row>
-    <row r="521" spans="1:2" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A521" s="1">
         <v>7500584</v>
       </c>
       <c r="B521" s="8" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="522" spans="1:2" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A522" s="1">
         <v>7500589</v>
       </c>
-      <c r="B522" s="8" t="s">
-        <v>671</v>
+      <c r="B522" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="523" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6695,12 +6692,12 @@
         <v>580</v>
       </c>
     </row>
-    <row r="530" spans="1:2" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A530" s="7">
         <v>3147</v>
       </c>
       <c r="B530" s="8" t="s">
-        <v>670</v>
+        <v>254</v>
       </c>
     </row>
     <row r="531" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6711,12 +6708,12 @@
         <v>581</v>
       </c>
     </row>
-    <row r="532" spans="1:2" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A532" s="7">
         <v>3148</v>
       </c>
-      <c r="B532" s="8" t="s">
-        <v>671</v>
+      <c r="B532" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="533" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">

--- a/api/files/prices.xlsx
+++ b/api/files/prices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\la union\Desktop\la_union_api_prices\api\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50187D1-80A1-4E87-8EC5-0C1144972FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D4BA31-00A4-4D37-B4F8-720A4B6375F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="673">
   <si>
     <t>S/COD</t>
   </si>
@@ -2040,7 +2040,13 @@
     <t>USD 69</t>
   </si>
   <si>
-    <t>USD 274,32</t>
+    <t>USD 254,2955</t>
+  </si>
+  <si>
+    <t>USD 279,0378</t>
+  </si>
+  <si>
+    <t>USD279,0378</t>
   </si>
 </sst>
 </file>
@@ -2457,7 +2463,7 @@
   <dimension ref="A1:B787"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A516" workbookViewId="0">
-      <selection activeCell="E527" sqref="E527"/>
+      <selection activeCell="B533" sqref="B533"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6620,12 +6626,12 @@
         <v>574</v>
       </c>
     </row>
-    <row r="521" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A521" s="1">
         <v>7500584</v>
       </c>
       <c r="B521" s="8" t="s">
-        <v>254</v>
+        <v>670</v>
       </c>
     </row>
     <row r="522" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6633,7 +6639,7 @@
         <v>7500589</v>
       </c>
       <c r="B522" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="523" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6692,12 +6698,12 @@
         <v>580</v>
       </c>
     </row>
-    <row r="530" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A530" s="7">
         <v>3147</v>
       </c>
       <c r="B530" s="8" t="s">
-        <v>254</v>
+        <v>670</v>
       </c>
     </row>
     <row r="531" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6713,7 +6719,7 @@
         <v>3148</v>
       </c>
       <c r="B532" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="533" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">

--- a/api/files/prices.xlsx
+++ b/api/files/prices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\la union\Desktop\la_union_api_prices\api\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D4BA31-00A4-4D37-B4F8-720A4B6375F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24350F9-0842-40C4-8F40-329F00DB44BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="672">
   <si>
     <t>S/COD</t>
   </si>
@@ -2040,13 +2040,10 @@
     <t>USD 69</t>
   </si>
   <si>
-    <t>USD 254,2955</t>
-  </si>
-  <si>
-    <t>USD 279,0378</t>
-  </si>
-  <si>
-    <t>USD279,0378</t>
+    <t>USD 256,0553633217993</t>
+  </si>
+  <si>
+    <t>USD 280,9688581314879</t>
   </si>
 </sst>
 </file>
@@ -2463,7 +2460,7 @@
   <dimension ref="A1:B787"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A516" workbookViewId="0">
-      <selection activeCell="B533" sqref="B533"/>
+      <selection activeCell="B532" sqref="B532"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6626,7 +6623,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="521" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:2" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A521" s="1">
         <v>7500584</v>
       </c>
@@ -6698,7 +6695,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="530" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:2" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A530" s="7">
         <v>3147</v>
       </c>
@@ -6719,7 +6716,7 @@
         <v>3148</v>
       </c>
       <c r="B532" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="533" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">

--- a/api/files/prices.xlsx
+++ b/api/files/prices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\la union\Desktop\la_union_api_prices\api\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24350F9-0842-40C4-8F40-329F00DB44BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FB6954-F494-4808-99ED-0469983D4CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="673">
   <si>
     <t>S/COD</t>
   </si>
@@ -2040,10 +2040,13 @@
     <t>USD 69</t>
   </si>
   <si>
-    <t>USD 256,0553633217993</t>
-  </si>
-  <si>
-    <t>USD 280,9688581314879</t>
+    <t>USD 259,6491228070175</t>
+  </si>
+  <si>
+    <t>USD 259,649122807017</t>
+  </si>
+  <si>
+    <t>USD 284,9122807017544</t>
   </si>
 </sst>
 </file>
@@ -2460,10 +2463,13 @@
   <dimension ref="A1:B787"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A516" workbookViewId="0">
-      <selection activeCell="B532" sqref="B532"/>
+      <selection activeCell="D520" sqref="D520"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
@@ -6623,12 +6629,12 @@
         <v>574</v>
       </c>
     </row>
-    <row r="521" spans="1:2" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:2" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A521" s="1">
         <v>7500584</v>
       </c>
       <c r="B521" s="8" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="522" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6636,7 +6642,7 @@
         <v>7500589</v>
       </c>
       <c r="B522" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="523" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6695,7 +6701,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="530" spans="1:2" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:2" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A530" s="7">
         <v>3147</v>
       </c>
@@ -6716,7 +6722,7 @@
         <v>3148</v>
       </c>
       <c r="B532" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="533" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8259,7 +8265,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="726" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A726" s="1" t="s">
         <v>105</v>
       </c>
@@ -8307,7 +8313,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="732" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A732" s="1" t="s">
         <v>111</v>
       </c>
@@ -8315,7 +8321,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="733" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A733" s="1" t="s">
         <v>112</v>
       </c>
@@ -8329,7 +8335,7 @@
       </c>
       <c r="B734" s="10"/>
     </row>
-    <row r="735" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A735" s="1" t="s">
         <v>114</v>
       </c>
@@ -8401,7 +8407,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="744" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A744" s="1" t="s">
         <v>123</v>
       </c>
@@ -8409,7 +8415,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="745" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A745" s="1" t="s">
         <v>124</v>
       </c>
@@ -8569,7 +8575,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="765" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A765" s="1" t="s">
         <v>144</v>
       </c>
@@ -8577,7 +8583,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="766" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A766" s="1" t="s">
         <v>145</v>
       </c>
@@ -8585,7 +8591,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="767" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A767" s="1" t="s">
         <v>146</v>
       </c>
@@ -8593,7 +8599,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="768" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A768" s="1" t="s">
         <v>147</v>
       </c>
@@ -8601,7 +8607,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="769" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A769" s="1" t="s">
         <v>148</v>
       </c>

--- a/api/files/prices.xlsx
+++ b/api/files/prices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\la union\Desktop\la_union_api_prices\api\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FB6954-F494-4808-99ED-0469983D4CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24D8AEE-2D2D-459D-997D-37C31692D158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="673">
   <si>
     <t>S/COD</t>
   </si>
@@ -2460,10 +2460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B787"/>
+  <dimension ref="A1:B788"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A516" workbookViewId="0">
-      <selection activeCell="D520" sqref="D520"/>
+    <sheetView tabSelected="1" topLeftCell="A765" workbookViewId="0">
+      <selection activeCell="B788" sqref="B788"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8752,10 +8752,18 @@
       </c>
     </row>
     <row r="787" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A787" s="1" t="s">
+      <c r="A787">
+        <v>3305</v>
+      </c>
+      <c r="B787" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A788" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B787" s="2" t="s">
+      <c r="B788" s="2" t="s">
         <v>669</v>
       </c>
     </row>

--- a/api/files/prices.xlsx
+++ b/api/files/prices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\la union\Desktop\la_union_api_prices\api\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24D8AEE-2D2D-459D-997D-37C31692D158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D75681-1291-4724-BD17-1A38D1DC9739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="671">
   <si>
     <t>S/COD</t>
   </si>
@@ -2040,13 +2040,7 @@
     <t>USD 69</t>
   </si>
   <si>
-    <t>USD 259,6491228070175</t>
-  </si>
-  <si>
-    <t>USD 259,649122807017</t>
-  </si>
-  <si>
-    <t>USD 284,9122807017544</t>
+    <t>USD 255,1724137931034</t>
   </si>
 </sst>
 </file>
@@ -2462,8 +2456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B788"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A765" workbookViewId="0">
-      <selection activeCell="B788" sqref="B788"/>
+    <sheetView tabSelected="1" topLeftCell="A515" workbookViewId="0">
+      <selection activeCell="H525" sqref="H525"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6634,7 +6628,7 @@
         <v>7500584</v>
       </c>
       <c r="B521" s="8" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="522" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6642,7 +6636,7 @@
         <v>7500589</v>
       </c>
       <c r="B522" t="s">
-        <v>672</v>
+        <v>277</v>
       </c>
     </row>
     <row r="523" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6722,7 +6716,7 @@
         <v>3148</v>
       </c>
       <c r="B532" t="s">
-        <v>672</v>
+        <v>277</v>
       </c>
     </row>
     <row r="533" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">

--- a/api/files/prices.xlsx
+++ b/api/files/prices.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29517"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\la union\Desktop\la_union_api_prices\api\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mamustin\Desktop\api_precios\api\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D75681-1291-4724-BD17-1A38D1DC9739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D24E6DC-8FC0-4B97-8E65-E6F48E2FB0C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="672">
   <si>
     <t>S/COD</t>
   </si>
@@ -2041,6 +2038,9 @@
   </si>
   <si>
     <t>USD 255,1724137931034</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AR1581602HD</t>
   </si>
 </sst>
 </file>
@@ -2100,7 +2100,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2138,11 +2138,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2173,6 +2182,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2454,18 +2466,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B788"/>
+  <dimension ref="A1:B789"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A515" workbookViewId="0">
-      <selection activeCell="H525" sqref="H525"/>
+    <sheetView tabSelected="1" topLeftCell="A773" workbookViewId="0">
+      <selection activeCell="B789" sqref="B789"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>110375</v>
       </c>
@@ -2473,7 +2485,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>117809</v>
       </c>
@@ -2481,7 +2493,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>110371</v>
       </c>
@@ -2489,7 +2501,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>117808</v>
       </c>
@@ -2497,7 +2509,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>110540</v>
       </c>
@@ -2505,7 +2517,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>110376</v>
       </c>
@@ -2513,7 +2525,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>110372</v>
       </c>
@@ -2521,7 +2533,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>118299</v>
       </c>
@@ -2529,7 +2541,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>109747</v>
       </c>
@@ -2537,7 +2549,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>110373</v>
       </c>
@@ -2545,7 +2557,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>117820</v>
       </c>
@@ -2553,7 +2565,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>110529</v>
       </c>
@@ -2561,7 +2573,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>117822</v>
       </c>
@@ -2569,7 +2581,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>110325</v>
       </c>
@@ -2577,7 +2589,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>110374</v>
       </c>
@@ -2585,7 +2597,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>107830</v>
       </c>
@@ -2593,7 +2605,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>140921</v>
       </c>
@@ -2601,7 +2613,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>117833</v>
       </c>
@@ -2609,7 +2621,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>141048</v>
       </c>
@@ -2617,7 +2629,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>108794</v>
       </c>
@@ -2625,7 +2637,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>111463</v>
       </c>
@@ -2633,7 +2645,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>141823</v>
       </c>
@@ -2641,7 +2653,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>111466</v>
       </c>
@@ -2649,7 +2661,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>106855</v>
       </c>
@@ -2657,7 +2669,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>118330</v>
       </c>
@@ -2665,7 +2677,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>108711</v>
       </c>
@@ -2673,7 +2685,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>111462</v>
       </c>
@@ -2681,7 +2693,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>117831</v>
       </c>
@@ -2689,7 +2701,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>107236</v>
       </c>
@@ -2697,7 +2709,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>117821</v>
       </c>
@@ -2705,7 +2717,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>110787</v>
       </c>
@@ -2713,7 +2725,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>111469</v>
       </c>
@@ -2721,7 +2733,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>118140</v>
       </c>
@@ -2729,7 +2741,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>111468</v>
       </c>
@@ -2737,7 +2749,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>105333</v>
       </c>
@@ -2745,7 +2757,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>117787</v>
       </c>
@@ -2753,7 +2765,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>111743</v>
       </c>
@@ -2761,7 +2773,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>111172</v>
       </c>
@@ -2769,7 +2781,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>108795</v>
       </c>
@@ -2777,7 +2789,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>111418</v>
       </c>
@@ -2785,7 +2797,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>117785</v>
       </c>
@@ -2793,7 +2805,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>105894</v>
       </c>
@@ -2801,7 +2813,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>108303</v>
       </c>
@@ -2809,7 +2821,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>107263</v>
       </c>
@@ -2817,7 +2829,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>106698</v>
       </c>
@@ -2825,7 +2837,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>118298</v>
       </c>
@@ -2833,7 +2845,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>118337</v>
       </c>
@@ -2841,7 +2853,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>118403</v>
       </c>
@@ -2849,7 +2861,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>110733</v>
       </c>
@@ -2857,7 +2869,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>118338</v>
       </c>
@@ -2865,7 +2877,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>108701</v>
       </c>
@@ -2873,7 +2885,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>117706</v>
       </c>
@@ -2881,7 +2893,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>117862</v>
       </c>
@@ -2889,7 +2901,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>118094</v>
       </c>
@@ -2897,7 +2909,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>107629</v>
       </c>
@@ -2905,7 +2917,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>117861</v>
       </c>
@@ -2913,7 +2925,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>117786</v>
       </c>
@@ -2921,7 +2933,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>111467</v>
       </c>
@@ -2929,7 +2941,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>108583</v>
       </c>
@@ -2937,7 +2949,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>110581</v>
       </c>
@@ -2945,7 +2957,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>110711</v>
       </c>
@@ -2953,7 +2965,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>117935</v>
       </c>
@@ -2961,7 +2973,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>118381</v>
       </c>
@@ -2969,7 +2981,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>106565</v>
       </c>
@@ -2977,7 +2989,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>108361</v>
       </c>
@@ -2985,7 +2997,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>118382</v>
       </c>
@@ -2993,7 +3005,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>118286</v>
       </c>
@@ -3001,7 +3013,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>107495</v>
       </c>
@@ -3009,7 +3021,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>110233</v>
       </c>
@@ -3017,7 +3029,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>109493</v>
       </c>
@@ -3025,7 +3037,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>110580</v>
       </c>
@@ -3033,7 +3045,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>110193</v>
       </c>
@@ -3041,7 +3053,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>118379</v>
       </c>
@@ -3049,7 +3061,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>118497</v>
       </c>
@@ -3057,7 +3069,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>118392</v>
       </c>
@@ -3065,7 +3077,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>117948</v>
       </c>
@@ -3073,7 +3085,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>118383</v>
       </c>
@@ -3081,7 +3093,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>118376</v>
       </c>
@@ -3089,7 +3101,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>117859</v>
       </c>
@@ -3097,7 +3109,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>118391</v>
       </c>
@@ -3105,7 +3117,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>118319</v>
       </c>
@@ -3113,7 +3125,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>118320</v>
       </c>
@@ -3121,7 +3133,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>117789</v>
       </c>
@@ -3129,7 +3141,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>141565</v>
       </c>
@@ -3137,7 +3149,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>117840</v>
       </c>
@@ -3145,7 +3157,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>111442</v>
       </c>
@@ -3153,7 +3165,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>110745</v>
       </c>
@@ -3161,7 +3173,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>110751</v>
       </c>
@@ -3169,7 +3181,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>111434</v>
       </c>
@@ -3177,7 +3189,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>111381</v>
       </c>
@@ -3185,7 +3197,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>108871</v>
       </c>
@@ -3193,7 +3205,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>116241</v>
       </c>
@@ -3201,7 +3213,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>109338</v>
       </c>
@@ -3209,7 +3221,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>140922</v>
       </c>
@@ -3217,7 +3229,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>108022</v>
       </c>
@@ -3225,7 +3237,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>111532</v>
       </c>
@@ -3233,7 +3245,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>111383</v>
       </c>
@@ -3241,7 +3253,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>117854</v>
       </c>
@@ -3249,7 +3261,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>111443</v>
       </c>
@@ -3257,7 +3269,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>117315</v>
       </c>
@@ -3265,7 +3277,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>110740</v>
       </c>
@@ -3273,7 +3285,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>110762</v>
       </c>
@@ -3281,7 +3293,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>100761</v>
       </c>
@@ -3289,7 +3301,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>111435</v>
       </c>
@@ -3297,7 +3309,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>117841</v>
       </c>
@@ -3305,7 +3317,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>110743</v>
       </c>
@@ -3313,7 +3325,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>117838</v>
       </c>
@@ -3321,7 +3333,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>111433</v>
       </c>
@@ -3329,7 +3341,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>111430</v>
       </c>
@@ -3337,7 +3349,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>117834</v>
       </c>
@@ -3345,7 +3357,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>117289</v>
       </c>
@@ -3353,7 +3365,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>116527</v>
       </c>
@@ -3361,7 +3373,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>107472</v>
       </c>
@@ -3369,7 +3381,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>110746</v>
       </c>
@@ -3377,7 +3389,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>111569</v>
       </c>
@@ -3385,7 +3397,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>110742</v>
       </c>
@@ -3393,7 +3405,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>118306</v>
       </c>
@@ -3401,7 +3413,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>107474</v>
       </c>
@@ -3409,7 +3421,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>111598</v>
       </c>
@@ -3417,7 +3429,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>110515</v>
       </c>
@@ -3425,7 +3437,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>111530</v>
       </c>
@@ -3433,7 +3445,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>110752</v>
       </c>
@@ -3441,7 +3453,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>107890</v>
       </c>
@@ -3449,7 +3461,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>117087</v>
       </c>
@@ -3457,7 +3469,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>111439</v>
       </c>
@@ -3465,7 +3477,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>110756</v>
       </c>
@@ -3473,7 +3485,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>107886</v>
       </c>
@@ -3481,7 +3493,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>110753</v>
       </c>
@@ -3489,7 +3501,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>110750</v>
       </c>
@@ -3497,7 +3509,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>111879</v>
       </c>
@@ -3505,7 +3517,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>111437</v>
       </c>
@@ -3513,7 +3525,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>110749</v>
       </c>
@@ -3521,7 +3533,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>111447</v>
       </c>
@@ -3529,7 +3541,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>107532</v>
       </c>
@@ -3537,7 +3549,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>109933</v>
       </c>
@@ -3545,7 +3557,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>111655</v>
       </c>
@@ -3553,7 +3565,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>111438</v>
       </c>
@@ -3561,7 +3573,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>110747</v>
       </c>
@@ -3569,7 +3581,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>111445</v>
       </c>
@@ -3577,7 +3589,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>106955</v>
       </c>
@@ -3585,7 +3597,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>110313</v>
       </c>
@@ -3593,7 +3605,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>117853</v>
       </c>
@@ -3601,7 +3613,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>110339</v>
       </c>
@@ -3609,7 +3621,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>117856</v>
       </c>
@@ -3617,7 +3629,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>117855</v>
       </c>
@@ -3625,7 +3637,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>108772</v>
       </c>
@@ -3633,7 +3645,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>108592</v>
       </c>
@@ -3641,7 +3653,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>118183</v>
       </c>
@@ -3649,7 +3661,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>110741</v>
       </c>
@@ -3657,7 +3669,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>107888</v>
       </c>
@@ -3665,7 +3677,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>111436</v>
       </c>
@@ -3673,7 +3685,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>111660</v>
       </c>
@@ -3681,7 +3693,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>111441</v>
       </c>
@@ -3689,7 +3701,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>118222</v>
       </c>
@@ -3697,7 +3709,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>110755</v>
       </c>
@@ -3705,7 +3717,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>107109</v>
       </c>
@@ -3713,7 +3725,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>118304</v>
       </c>
@@ -3721,7 +3733,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>110895</v>
       </c>
@@ -3729,7 +3741,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>111850</v>
       </c>
@@ -3737,7 +3749,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>108770</v>
       </c>
@@ -3745,7 +3757,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>107892</v>
       </c>
@@ -3753,7 +3765,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>111440</v>
       </c>
@@ -3761,7 +3773,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>111690</v>
       </c>
@@ -3769,7 +3781,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>107537</v>
       </c>
@@ -3777,7 +3789,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>109646</v>
       </c>
@@ -3785,7 +3797,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>109645</v>
       </c>
@@ -3793,7 +3805,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>109647</v>
       </c>
@@ -3801,7 +3813,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>105111</v>
       </c>
@@ -3809,7 +3821,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>111182</v>
       </c>
@@ -3817,7 +3829,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>109641</v>
       </c>
@@ -3825,7 +3837,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>105705</v>
       </c>
@@ -3833,7 +3845,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>109640</v>
       </c>
@@ -3841,7 +3853,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="4">
         <v>111330</v>
       </c>
@@ -3849,7 +3861,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>118166</v>
       </c>
@@ -3857,7 +3869,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>118168</v>
       </c>
@@ -3865,7 +3877,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>118171</v>
       </c>
@@ -3873,7 +3885,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>118169</v>
       </c>
@@ -3881,7 +3893,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>111813</v>
       </c>
@@ -3889,7 +3901,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>118226</v>
       </c>
@@ -3897,7 +3909,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>111812</v>
       </c>
@@ -3905,7 +3917,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>140991</v>
       </c>
@@ -3913,7 +3925,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>118257</v>
       </c>
@@ -3921,7 +3933,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>118119</v>
       </c>
@@ -3929,7 +3941,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>118187</v>
       </c>
@@ -3937,7 +3949,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>118229</v>
       </c>
@@ -3945,7 +3957,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>118419</v>
       </c>
@@ -3953,7 +3965,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>118333</v>
       </c>
@@ -3961,7 +3973,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>118205</v>
       </c>
@@ -3969,7 +3981,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>118113</v>
       </c>
@@ -3977,7 +3989,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>118530</v>
       </c>
@@ -3985,7 +3997,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>118528</v>
       </c>
@@ -3993,7 +4005,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>118200</v>
       </c>
@@ -4001,7 +4013,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>0</v>
       </c>
@@ -4009,7 +4021,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>111357</v>
       </c>
@@ -4017,7 +4029,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>108961</v>
       </c>
@@ -4025,7 +4037,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>105470</v>
       </c>
@@ -4033,7 +4045,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>110063</v>
       </c>
@@ -4041,7 +4053,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>105368</v>
       </c>
@@ -4049,7 +4061,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>118215</v>
       </c>
@@ -4057,7 +4069,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>110841</v>
       </c>
@@ -4065,7 +4077,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>110563</v>
       </c>
@@ -4073,7 +4085,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>120002</v>
       </c>
@@ -4081,7 +4093,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>120003</v>
       </c>
@@ -4089,7 +4101,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>120050</v>
       </c>
@@ -4097,7 +4109,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>120098</v>
       </c>
@@ -4105,7 +4117,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>122968</v>
       </c>
@@ -4113,7 +4125,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>122967</v>
       </c>
@@ -4121,7 +4133,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>123492</v>
       </c>
@@ -4129,7 +4141,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>123345</v>
       </c>
@@ -4137,7 +4149,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>123343</v>
       </c>
@@ -4145,7 +4157,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>120389</v>
       </c>
@@ -4153,7 +4165,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>123822</v>
       </c>
@@ -4161,7 +4173,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>123909</v>
       </c>
@@ -4169,7 +4181,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>124486</v>
       </c>
@@ -4177,7 +4189,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>121304</v>
       </c>
@@ -4185,7 +4197,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="216" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>122673</v>
       </c>
@@ -4193,7 +4205,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>122647</v>
       </c>
@@ -4201,7 +4213,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>123313</v>
       </c>
@@ -4209,7 +4221,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>120286</v>
       </c>
@@ -4217,7 +4229,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>122671</v>
       </c>
@@ -4225,7 +4237,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="221" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>122962</v>
       </c>
@@ -4233,7 +4245,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>120285</v>
       </c>
@@ -4241,7 +4253,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="223" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>121307</v>
       </c>
@@ -4249,7 +4261,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="224" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>123284</v>
       </c>
@@ -4257,7 +4269,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="225" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>120028</v>
       </c>
@@ -4265,7 +4277,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>120008</v>
       </c>
@@ -4273,7 +4285,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="227" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>123153</v>
       </c>
@@ -4281,7 +4293,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="228" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>124624</v>
       </c>
@@ -4289,7 +4301,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="229" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>124594</v>
       </c>
@@ -4297,7 +4309,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="230" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>123084</v>
       </c>
@@ -4305,7 +4317,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="231" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>124247</v>
       </c>
@@ -4313,7 +4325,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="232" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>120339</v>
       </c>
@@ -4321,7 +4333,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>124248</v>
       </c>
@@ -4329,7 +4341,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="234" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>124548</v>
       </c>
@@ -4337,7 +4349,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>123445</v>
       </c>
@@ -4345,7 +4357,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>124246</v>
       </c>
@@ -4353,7 +4365,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="237" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>122188</v>
       </c>
@@ -4361,7 +4373,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="238" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>122195</v>
       </c>
@@ -4369,7 +4381,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>122983</v>
       </c>
@@ -4377,7 +4389,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>122984</v>
       </c>
@@ -4385,7 +4397,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="241" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>123862</v>
       </c>
@@ -4393,7 +4405,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="242" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>122650</v>
       </c>
@@ -4401,7 +4413,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>124433</v>
       </c>
@@ -4409,7 +4421,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="244" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>120995</v>
       </c>
@@ -4417,7 +4429,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="245" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>123222</v>
       </c>
@@ -4425,7 +4437,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="246" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>120240</v>
       </c>
@@ -4433,7 +4445,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>123833</v>
       </c>
@@ -4441,7 +4453,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="248" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>124477</v>
       </c>
@@ -4449,7 +4461,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>123344</v>
       </c>
@@ -4457,7 +4469,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>124475</v>
       </c>
@@ -4465,7 +4477,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="251" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>121760</v>
       </c>
@@ -4473,7 +4485,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="252" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>124476</v>
       </c>
@@ -4481,7 +4493,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="253" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>124370</v>
       </c>
@@ -4489,7 +4501,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="254" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>121651</v>
       </c>
@@ -4497,7 +4509,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>124371</v>
       </c>
@@ -4505,7 +4517,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="256" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>122703</v>
       </c>
@@ -4513,7 +4525,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="257" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>123560</v>
       </c>
@@ -4521,7 +4533,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="258" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>123561</v>
       </c>
@@ -4529,7 +4541,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="259" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>160052</v>
       </c>
@@ -4537,7 +4549,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>160054</v>
       </c>
@@ -4545,7 +4557,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>160051</v>
       </c>
@@ -4553,7 +4565,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="262" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>160055</v>
       </c>
@@ -4561,7 +4573,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="263" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>1152018</v>
       </c>
@@ -4569,7 +4581,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="264" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>1100000</v>
       </c>
@@ -4577,7 +4589,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>1100403</v>
       </c>
@@ -4585,7 +4597,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="266" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>1100401</v>
       </c>
@@ -4593,7 +4605,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>1100402</v>
       </c>
@@ -4601,7 +4613,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="268" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>1181019</v>
       </c>
@@ -4609,7 +4621,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="269" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>1101350</v>
       </c>
@@ -4617,7 +4629,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="270" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>1701535</v>
       </c>
@@ -4625,7 +4637,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="271" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>1701510</v>
       </c>
@@ -4633,7 +4645,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="272" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>1100051</v>
       </c>
@@ -4641,7 +4653,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>1100050</v>
       </c>
@@ -4649,7 +4661,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="274" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>1120001</v>
       </c>
@@ -4657,7 +4669,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="275" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>1600050</v>
       </c>
@@ -4665,7 +4677,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>1150005</v>
       </c>
@@ -4673,7 +4685,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="277" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>1150000</v>
       </c>
@@ -4681,7 +4693,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="278" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>1150003</v>
       </c>
@@ -4689,7 +4701,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="279" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>1182040</v>
       </c>
@@ -4697,7 +4709,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="280" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>1103003</v>
       </c>
@@ -4705,7 +4717,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="281" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>1103002</v>
       </c>
@@ -4713,7 +4725,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="282" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>1103001</v>
       </c>
@@ -4721,7 +4733,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="283" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>1101150</v>
       </c>
@@ -4729,7 +4741,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="284" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>1101160</v>
       </c>
@@ -4737,7 +4749,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="285" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>1101202</v>
       </c>
@@ -4745,7 +4757,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>1101201</v>
       </c>
@@ -4753,7 +4765,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="287" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>1602023</v>
       </c>
@@ -4761,7 +4773,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="288" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>1150014</v>
       </c>
@@ -4769,7 +4781,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="289" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>1150015</v>
       </c>
@@ -4777,7 +4789,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="290" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>1159210</v>
       </c>
@@ -4785,7 +4797,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="291" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>1159305</v>
       </c>
@@ -4793,7 +4805,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="292" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>1159211</v>
       </c>
@@ -4801,7 +4813,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="293" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>1159320</v>
       </c>
@@ -4809,7 +4821,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="294" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>1159324</v>
       </c>
@@ -4817,7 +4829,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="295" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>1150315</v>
       </c>
@@ -4825,7 +4837,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="296" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>1150020</v>
       </c>
@@ -4833,7 +4845,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="297" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>1150030</v>
       </c>
@@ -4841,7 +4853,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="298" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>1150032</v>
       </c>
@@ -4849,7 +4861,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="299" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>1150124</v>
       </c>
@@ -4857,7 +4869,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="300" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>1150900</v>
       </c>
@@ -4865,7 +4877,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="301" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>1101800</v>
       </c>
@@ -4873,7 +4885,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="302" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>1101410</v>
       </c>
@@ -4881,7 +4893,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="303" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>1101422</v>
       </c>
@@ -4889,7 +4901,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="304" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>1103004</v>
       </c>
@@ -4897,7 +4909,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="305" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>1103005</v>
       </c>
@@ -4905,7 +4917,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="306" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>1103006</v>
       </c>
@@ -4913,7 +4925,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="307" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>1701530</v>
       </c>
@@ -4921,7 +4933,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="308" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>1101250</v>
       </c>
@@ -4929,7 +4941,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="309" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>1701515</v>
       </c>
@@ -4937,7 +4949,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="310" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>1601005</v>
       </c>
@@ -4945,7 +4957,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="311" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>1601004</v>
       </c>
@@ -4953,7 +4965,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="312" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>1601002</v>
       </c>
@@ -4961,7 +4973,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="313" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>1601003</v>
       </c>
@@ -4969,7 +4981,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="314" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>1150022</v>
       </c>
@@ -4977,7 +4989,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="315" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>1159330</v>
       </c>
@@ -4985,7 +4997,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="316" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>1150201</v>
       </c>
@@ -4993,7 +5005,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="317" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>1150200</v>
       </c>
@@ -5001,7 +5013,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="318" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>1606094</v>
       </c>
@@ -5009,7 +5021,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="319" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>1606096</v>
       </c>
@@ -5017,7 +5029,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="320" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>1606097</v>
       </c>
@@ -5025,7 +5037,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="321" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>1606095</v>
       </c>
@@ -5033,7 +5045,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="322" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>1150041</v>
       </c>
@@ -5041,7 +5053,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="323" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>1150043</v>
       </c>
@@ -5049,7 +5061,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="324" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>1150411</v>
       </c>
@@ -5057,7 +5069,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="325" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>1159220</v>
       </c>
@@ -5065,7 +5077,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="326" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>1159230</v>
       </c>
@@ -5073,7 +5085,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="327" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>1159323</v>
       </c>
@@ -5081,7 +5093,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="328" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>1150300</v>
       </c>
@@ -5089,7 +5101,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="329" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>1150050</v>
       </c>
@@ -5097,7 +5109,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="330" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>1150060</v>
       </c>
@@ -5105,7 +5117,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="331" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>1150061</v>
       </c>
@@ -5113,7 +5125,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="332" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>1150062</v>
       </c>
@@ -5121,7 +5133,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="333" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>1150211</v>
       </c>
@@ -5129,7 +5141,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="334" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>1150415</v>
       </c>
@@ -5137,7 +5149,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="335" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>1159325</v>
       </c>
@@ -5145,7 +5157,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="336" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>1101414</v>
       </c>
@@ -5153,7 +5165,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="337" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>1101415</v>
       </c>
@@ -5161,7 +5173,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="338" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>1608000</v>
       </c>
@@ -5169,7 +5181,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="339" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>1150192</v>
       </c>
@@ -5177,7 +5189,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="340" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>1101300</v>
       </c>
@@ -5185,7 +5197,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="341" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>1102600</v>
       </c>
@@ -5193,7 +5205,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="342" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>1151002</v>
       </c>
@@ -5201,7 +5213,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="343" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>1151004</v>
       </c>
@@ -5209,7 +5221,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="344" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>1151003</v>
       </c>
@@ -5217,7 +5229,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="345" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>1159215</v>
       </c>
@@ -5225,7 +5237,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="346" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>1150221</v>
       </c>
@@ -5233,7 +5245,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="347" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>1151102</v>
       </c>
@@ -5241,7 +5253,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="348" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>1150080</v>
       </c>
@@ -5249,7 +5261,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="349" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>1150417</v>
       </c>
@@ -5257,7 +5269,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="350" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>1150095</v>
       </c>
@@ -5265,7 +5277,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="351" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>1606072</v>
       </c>
@@ -5273,7 +5285,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="352" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>1603001</v>
       </c>
@@ -5281,7 +5293,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="353" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>1606098</v>
       </c>
@@ -5289,7 +5301,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="354" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>1606099</v>
       </c>
@@ -5297,7 +5309,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="355" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>1650010</v>
       </c>
@@ -5305,7 +5317,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="356" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>1606011</v>
       </c>
@@ -5313,7 +5325,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="357" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>1606010</v>
       </c>
@@ -5321,7 +5333,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="358" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>1150233</v>
       </c>
@@ -5329,7 +5341,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="359" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>1150420</v>
       </c>
@@ -5337,7 +5349,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="360" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>1150242</v>
       </c>
@@ -5345,7 +5357,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="361" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>1150240</v>
       </c>
@@ -5353,7 +5365,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="362" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>1150100</v>
       </c>
@@ -5361,7 +5373,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="363" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>1150413</v>
       </c>
@@ -5369,7 +5381,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="364" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>1159101</v>
       </c>
@@ -5377,7 +5389,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="365" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>1159091</v>
       </c>
@@ -5385,7 +5397,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="366" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>1150106</v>
       </c>
@@ -5393,7 +5405,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="367" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>1150101</v>
       </c>
@@ -5401,7 +5413,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="368" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>1150414</v>
       </c>
@@ -5409,7 +5421,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="369" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>1159111</v>
       </c>
@@ -5417,7 +5429,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="370" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>1159102</v>
       </c>
@@ -5425,7 +5437,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="371" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>1159212</v>
       </c>
@@ -5433,7 +5445,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="372" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>1159214</v>
       </c>
@@ -5441,7 +5453,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="373" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>1159213</v>
       </c>
@@ -5449,7 +5461,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="374" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>1151801</v>
       </c>
@@ -5457,7 +5469,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="375" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>1151800</v>
       </c>
@@ -5465,7 +5477,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="376" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>1602003</v>
       </c>
@@ -5473,7 +5485,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="377" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>1606075</v>
       </c>
@@ -5481,7 +5493,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="378" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>1606080</v>
       </c>
@@ -5489,7 +5501,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="379" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>1656085</v>
       </c>
@@ -5497,7 +5509,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="380" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>1150423</v>
       </c>
@@ -5505,7 +5517,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="381" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>1150422</v>
       </c>
@@ -5513,7 +5525,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="382" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>1159309</v>
       </c>
@@ -5521,7 +5533,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="383" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>1159308</v>
       </c>
@@ -5529,7 +5541,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="384" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>1154902</v>
       </c>
@@ -5537,7 +5549,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="385" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>1150425</v>
       </c>
@@ -5545,7 +5557,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="386" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>1152800</v>
       </c>
@@ -5553,7 +5565,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="387" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>1153812</v>
       </c>
@@ -5561,7 +5573,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="388" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>1153814</v>
       </c>
@@ -5569,7 +5581,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="389" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>1150153</v>
       </c>
@@ -5577,7 +5589,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="390" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>1150155</v>
       </c>
@@ -5585,7 +5597,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="391" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>1150401</v>
       </c>
@@ -5593,7 +5605,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="392" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>1159010</v>
       </c>
@@ -5601,7 +5613,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="393" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>1153810</v>
       </c>
@@ -5609,7 +5621,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="394" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>1150132</v>
       </c>
@@ -5617,7 +5629,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="395" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>1150130</v>
       </c>
@@ -5625,7 +5637,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="396" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>1150131</v>
       </c>
@@ -5633,7 +5645,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="397" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>1150412</v>
       </c>
@@ -5641,7 +5653,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="398" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>1150410</v>
       </c>
@@ -5649,7 +5661,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="399" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>1606074</v>
       </c>
@@ -5657,7 +5669,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="400" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>1656095</v>
       </c>
@@ -5665,7 +5677,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="401" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>1153813</v>
       </c>
@@ -5673,7 +5685,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="402" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>1150142</v>
       </c>
@@ -5681,7 +5693,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="403" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>1159327</v>
       </c>
@@ -5689,7 +5701,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="404" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>1656096</v>
       </c>
@@ -5697,7 +5709,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="405" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>1650100</v>
       </c>
@@ -5705,7 +5717,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="406" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>1150163</v>
       </c>
@@ -5713,7 +5725,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="407" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>1606090</v>
       </c>
@@ -5721,7 +5733,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="408" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>1606092</v>
       </c>
@@ -5729,7 +5741,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="409" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>1150172</v>
       </c>
@@ -5737,7 +5749,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="410" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>1150173</v>
       </c>
@@ -5745,7 +5757,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="411" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>1155000</v>
       </c>
@@ -5753,7 +5765,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="412" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>1163740</v>
       </c>
@@ -5761,7 +5773,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="413" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>1168020</v>
       </c>
@@ -5769,7 +5781,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="414" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>1163410</v>
       </c>
@@ -5777,7 +5789,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="415" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>1163620</v>
       </c>
@@ -5785,7 +5797,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="416" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>1168025</v>
       </c>
@@ -5793,7 +5805,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="417" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>1163530</v>
       </c>
@@ -5801,7 +5813,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="418" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>1163850</v>
       </c>
@@ -5809,7 +5821,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="419" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>1155010</v>
       </c>
@@ -5817,7 +5829,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="420" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>1167010</v>
       </c>
@@ -5825,7 +5837,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="421" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>1168010</v>
       </c>
@@ -5833,7 +5845,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="422" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>1111120</v>
       </c>
@@ -5841,7 +5853,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="423" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <v>1111080</v>
       </c>
@@ -5849,7 +5861,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="424" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <v>1111060</v>
       </c>
@@ -5857,7 +5869,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="425" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <v>1111050</v>
       </c>
@@ -5865,7 +5877,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="426" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <v>1166060</v>
       </c>
@@ -5873,7 +5885,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="427" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>1155035</v>
       </c>
@@ -5881,7 +5893,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="428" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
         <v>1155020</v>
       </c>
@@ -5889,7 +5901,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="429" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <v>1155030</v>
       </c>
@@ -5897,7 +5909,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="430" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <v>1168013</v>
       </c>
@@ -5905,7 +5917,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="431" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <v>1102800</v>
       </c>
@@ -5913,7 +5925,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="432" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
         <v>1100600</v>
       </c>
@@ -5921,7 +5933,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="433" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <v>1701433</v>
       </c>
@@ -5929,7 +5941,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="434" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <v>1111110</v>
       </c>
@@ -5937,7 +5949,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="435" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <v>1111010</v>
       </c>
@@ -5945,7 +5957,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="436" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
         <v>1166020</v>
       </c>
@@ -5953,7 +5965,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="437" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <v>1166030</v>
       </c>
@@ -5961,7 +5973,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="438" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
         <v>1166040</v>
       </c>
@@ -5969,7 +5981,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="439" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <v>1166044</v>
       </c>
@@ -5977,7 +5989,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="440" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
         <v>1166042</v>
       </c>
@@ -5985,7 +5997,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="441" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
         <v>1111090</v>
       </c>
@@ -5993,7 +6005,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="442" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A442" s="1">
         <v>1153815</v>
       </c>
@@ -6001,7 +6013,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="443" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A443" s="1">
         <v>1101600</v>
       </c>
@@ -6009,7 +6021,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="444" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A444" s="1">
         <v>1101601</v>
       </c>
@@ -6017,7 +6029,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="445" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A445" s="1">
         <v>1100205</v>
       </c>
@@ -6025,7 +6037,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="446" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
         <v>1102400</v>
       </c>
@@ -6033,7 +6045,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="447" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
         <v>1103200</v>
       </c>
@@ -6041,7 +6053,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="448" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A448" s="1">
         <v>1103261</v>
       </c>
@@ -6049,7 +6061,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="449" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
         <v>1111123</v>
       </c>
@@ -6057,7 +6069,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="450" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A450" s="1">
         <v>1111100</v>
       </c>
@@ -6065,7 +6077,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="451" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A451" s="1">
         <v>1161070</v>
       </c>
@@ -6073,7 +6085,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="452" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A452" s="1">
         <v>1181015</v>
       </c>
@@ -6081,7 +6093,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="453" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A453" s="1">
         <v>1153244</v>
       </c>
@@ -6089,7 +6101,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="454" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A454" s="1">
         <v>1153242</v>
       </c>
@@ -6097,7 +6109,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="455" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A455" s="1">
         <v>1310002</v>
       </c>
@@ -6105,7 +6117,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="456" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A456" s="1">
         <v>1163250</v>
       </c>
@@ -6113,7 +6125,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="457" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A457" s="1">
         <v>1157041</v>
       </c>
@@ -6121,7 +6133,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="458" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A458" s="1">
         <v>1155036</v>
       </c>
@@ -6129,7 +6141,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="459" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A459" s="1">
         <v>1155037</v>
       </c>
@@ -6137,7 +6149,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="460" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A460" s="1">
         <v>1181017</v>
       </c>
@@ -6145,7 +6157,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="461" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A461" s="1">
         <v>1153282</v>
       </c>
@@ -6153,7 +6165,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="462" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A462" s="1">
         <v>1155040</v>
       </c>
@@ -6161,7 +6173,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="463" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A463" s="1">
         <v>1157040</v>
       </c>
@@ -6169,7 +6181,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="464" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A464" s="1">
         <v>1102500</v>
       </c>
@@ -6177,7 +6189,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="465" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A465" s="1">
         <v>1103250</v>
       </c>
@@ -6185,7 +6197,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="466" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A466" s="1">
         <v>1100811</v>
       </c>
@@ -6193,7 +6205,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="467" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A467" s="1">
         <v>1103255</v>
       </c>
@@ -6201,7 +6213,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="468" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
         <v>1103257</v>
       </c>
@@ -6209,7 +6221,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="469" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A469" s="1">
         <v>1100215</v>
       </c>
@@ -6217,7 +6229,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="470" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A470" s="1">
         <v>1100040</v>
       </c>
@@ -6225,7 +6237,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="471" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A471" s="1">
         <v>1100844</v>
       </c>
@@ -6233,7 +6245,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="472" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A472" s="1">
         <v>1100225</v>
       </c>
@@ -6241,7 +6253,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="473" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A473" s="1">
         <v>1100030</v>
       </c>
@@ -6249,7 +6261,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="474" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A474" s="1">
         <v>1111122</v>
       </c>
@@ -6257,7 +6269,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="475" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A475" s="1">
         <v>1168012</v>
       </c>
@@ -6265,7 +6277,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="476" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A476" s="1">
         <v>1310001</v>
       </c>
@@ -6273,7 +6285,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="477" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A477" s="1">
         <v>1168011</v>
       </c>
@@ -6281,7 +6293,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="478" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A478" s="1">
         <v>1181040</v>
       </c>
@@ -6289,7 +6301,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="479" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A479" s="1">
         <v>1157030</v>
       </c>
@@ -6297,7 +6309,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="480" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A480" s="1">
         <v>1159300</v>
       </c>
@@ -6305,7 +6317,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="481" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A481" s="1">
         <v>1157032</v>
       </c>
@@ -6313,7 +6325,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="482" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A482" s="1">
         <v>1154065</v>
       </c>
@@ -6321,7 +6333,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="483" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A483" s="1">
         <v>1320002</v>
       </c>
@@ -6329,7 +6341,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="484" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A484" s="1">
         <v>1156010</v>
       </c>
@@ -6337,7 +6349,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="485" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A485" s="1">
         <v>1100235</v>
       </c>
@@ -6345,7 +6357,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="486" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A486" s="1">
         <v>1159332</v>
       </c>
@@ -6353,7 +6365,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="487" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A487" s="1">
         <v>1703003</v>
       </c>
@@ -6361,7 +6373,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="488" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A488" s="1">
         <v>1157700</v>
       </c>
@@ -6369,7 +6381,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="489" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A489" s="1">
         <v>6009</v>
       </c>
@@ -6377,7 +6389,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="490" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A490" s="1">
         <v>70012</v>
       </c>
@@ -6385,7 +6397,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="491" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A491" s="1">
         <v>1016</v>
       </c>
@@ -6393,7 +6405,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="492" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A492" s="1">
         <v>65016</v>
       </c>
@@ -6401,7 +6413,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="493" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A493" s="1">
         <v>70016</v>
       </c>
@@ -6409,7 +6421,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="494" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A494" s="1">
         <v>14175</v>
       </c>
@@ -6417,7 +6429,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="495" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A495" s="1" t="s">
         <v>1</v>
       </c>
@@ -6425,7 +6437,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="496" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A496" s="1">
         <v>130024</v>
       </c>
@@ -6433,7 +6445,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="497" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A497" s="1">
         <v>19524</v>
       </c>
@@ -6441,7 +6453,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="498" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A498" s="1" t="s">
         <v>2</v>
       </c>
@@ -6449,7 +6461,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="499" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A499" s="1">
         <v>13188</v>
       </c>
@@ -6457,7 +6469,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="500" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A500" s="1" t="s">
         <v>3</v>
       </c>
@@ -6465,7 +6477,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="501" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A501" s="1" t="s">
         <v>4</v>
       </c>
@@ -6473,7 +6485,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="502" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A502" s="1" t="s">
         <v>5</v>
       </c>
@@ -6481,7 +6493,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="503" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A503" s="1" t="s">
         <v>6</v>
       </c>
@@ -6489,7 +6501,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="504" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A504" s="1" t="s">
         <v>7</v>
       </c>
@@ -6497,7 +6509,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="505" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A505" s="1" t="s">
         <v>8</v>
       </c>
@@ -6505,7 +6517,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="506" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A506" s="1" t="s">
         <v>9</v>
       </c>
@@ -6513,7 +6525,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="507" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A507" s="1" t="s">
         <v>10</v>
       </c>
@@ -6521,7 +6533,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="508" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A508" s="1" t="s">
         <v>11</v>
       </c>
@@ -6529,7 +6541,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="509" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A509" s="1" t="s">
         <v>12</v>
       </c>
@@ -6537,7 +6549,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="510" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A510" s="1">
         <v>29525</v>
       </c>
@@ -6545,7 +6557,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="511" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A511" s="4">
         <v>29529</v>
       </c>
@@ -6553,7 +6565,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="512" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A512" s="1">
         <v>7500412</v>
       </c>
@@ -6561,7 +6573,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="513" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A513" s="1">
         <v>7500413</v>
       </c>
@@ -6569,7 +6581,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="514" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A514" s="1">
         <v>7500476</v>
       </c>
@@ -6577,7 +6589,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="515" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A515" s="1">
         <v>8004516</v>
       </c>
@@ -6585,7 +6597,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="516" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A516" s="1">
         <v>8004858</v>
       </c>
@@ -6593,7 +6605,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="517" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A517" s="1">
         <v>7516056</v>
       </c>
@@ -6601,13 +6613,13 @@
         <v>573</v>
       </c>
     </row>
-    <row r="518" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A518" s="1">
         <v>8004674</v>
       </c>
       <c r="B518" s="6"/>
     </row>
-    <row r="519" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A519" s="1">
         <v>7516006</v>
       </c>
@@ -6615,7 +6627,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="520" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A520" s="1">
         <v>7500178</v>
       </c>
@@ -6623,7 +6635,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="521" spans="1:2" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:2" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A521" s="1">
         <v>7500584</v>
       </c>
@@ -6631,7 +6643,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="522" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A522" s="1">
         <v>7500589</v>
       </c>
@@ -6639,7 +6651,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="523" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A523" s="1">
         <v>7500151</v>
       </c>
@@ -6647,7 +6659,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="524" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A524" s="1">
         <v>7500149</v>
       </c>
@@ -6655,7 +6667,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="525" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A525" s="1">
         <v>7500148</v>
       </c>
@@ -6663,7 +6675,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="526" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A526" s="1">
         <v>7500150</v>
       </c>
@@ -6671,7 +6683,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="527" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A527" s="4">
         <v>8004903</v>
       </c>
@@ -6679,7 +6691,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="528" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A528" s="1">
         <v>3166</v>
       </c>
@@ -6687,7 +6699,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="529" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A529" s="1">
         <v>3205</v>
       </c>
@@ -6695,7 +6707,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="530" spans="1:2" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:2" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A530" s="7">
         <v>3147</v>
       </c>
@@ -6703,7 +6715,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="531" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A531" s="1">
         <v>104058</v>
       </c>
@@ -6711,7 +6723,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="532" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A532" s="7">
         <v>3148</v>
       </c>
@@ -6719,13 +6731,13 @@
         <v>277</v>
       </c>
     </row>
-    <row r="533" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A533" s="1">
         <v>4214</v>
       </c>
       <c r="B533" s="6"/>
     </row>
-    <row r="534" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A534" s="1">
         <v>103269</v>
       </c>
@@ -6733,7 +6745,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="535" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A535" s="1">
         <v>2802</v>
       </c>
@@ -6741,7 +6753,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="536" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A536" s="1">
         <v>2800</v>
       </c>
@@ -6749,7 +6761,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="537" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A537" s="1" t="s">
         <v>13</v>
       </c>
@@ -6757,7 +6769,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="538" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A538" s="1" t="s">
         <v>14</v>
       </c>
@@ -6765,7 +6777,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="539" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A539" s="1" t="s">
         <v>15</v>
       </c>
@@ -6773,13 +6785,13 @@
         <v>582</v>
       </c>
     </row>
-    <row r="540" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A540" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B540" s="6"/>
     </row>
-    <row r="541" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A541" s="1" t="s">
         <v>17</v>
       </c>
@@ -6787,7 +6799,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="542" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A542" s="1" t="s">
         <v>18</v>
       </c>
@@ -6795,7 +6807,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="543" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A543" s="1" t="s">
         <v>19</v>
       </c>
@@ -6803,7 +6815,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="544" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A544" s="1" t="s">
         <v>20</v>
       </c>
@@ -6811,7 +6823,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="545" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A545" s="1" t="s">
         <v>21</v>
       </c>
@@ -6819,7 +6831,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="546" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A546" s="1" t="s">
         <v>22</v>
       </c>
@@ -6827,7 +6839,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="547" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A547" s="1" t="s">
         <v>23</v>
       </c>
@@ -6835,7 +6847,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="548" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A548" s="1" t="s">
         <v>24</v>
       </c>
@@ -6843,7 +6855,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="549" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A549" s="1" t="s">
         <v>25</v>
       </c>
@@ -6851,7 +6863,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="550" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A550" s="1" t="s">
         <v>26</v>
       </c>
@@ -6859,7 +6871,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="551" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A551" s="1" t="s">
         <v>27</v>
       </c>
@@ -6867,7 +6879,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="552" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A552" s="1" t="s">
         <v>28</v>
       </c>
@@ -6875,7 +6887,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="553" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A553" s="1" t="s">
         <v>29</v>
       </c>
@@ -6883,7 +6895,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="554" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A554" s="1" t="s">
         <v>30</v>
       </c>
@@ -6891,7 +6903,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="555" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A555" s="1" t="s">
         <v>31</v>
       </c>
@@ -6899,7 +6911,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="556" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A556" s="1" t="s">
         <v>32</v>
       </c>
@@ -6907,7 +6919,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="557" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A557" s="1" t="s">
         <v>33</v>
       </c>
@@ -6915,7 +6927,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="558" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A558" s="1" t="s">
         <v>34</v>
       </c>
@@ -6923,7 +6935,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="559" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A559" s="1" t="s">
         <v>35</v>
       </c>
@@ -6931,7 +6943,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="560" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A560" s="1" t="s">
         <v>36</v>
       </c>
@@ -6939,7 +6951,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="561" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A561" s="1" t="s">
         <v>37</v>
       </c>
@@ -6947,7 +6959,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="562" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A562" s="1" t="s">
         <v>38</v>
       </c>
@@ -6955,7 +6967,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="563" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A563" s="1" t="s">
         <v>39</v>
       </c>
@@ -6963,7 +6975,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="564" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A564" s="1" t="s">
         <v>40</v>
       </c>
@@ -6971,7 +6983,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="565" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A565" s="1" t="s">
         <v>41</v>
       </c>
@@ -6979,7 +6991,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="566" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A566" s="1" t="s">
         <v>42</v>
       </c>
@@ -6987,7 +6999,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="567" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A567" s="1" t="s">
         <v>43</v>
       </c>
@@ -6995,7 +7007,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="568" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A568" s="1" t="s">
         <v>44</v>
       </c>
@@ -7003,7 +7015,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="569" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A569" s="1" t="s">
         <v>45</v>
       </c>
@@ -7011,7 +7023,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="570" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A570" s="1" t="s">
         <v>46</v>
       </c>
@@ -7019,7 +7031,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="571" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A571" s="1" t="s">
         <v>47</v>
       </c>
@@ -7027,7 +7039,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="572" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A572" s="1" t="s">
         <v>48</v>
       </c>
@@ -7035,7 +7047,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="573" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A573" s="1" t="s">
         <v>49</v>
       </c>
@@ -7043,7 +7055,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="574" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A574" s="1" t="s">
         <v>50</v>
       </c>
@@ -7051,7 +7063,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="575" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A575" s="1" t="s">
         <v>51</v>
       </c>
@@ -7059,7 +7071,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="576" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A576" s="1" t="s">
         <v>52</v>
       </c>
@@ -7067,7 +7079,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="577" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A577" s="1" t="s">
         <v>53</v>
       </c>
@@ -7075,7 +7087,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="578" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A578" s="1" t="s">
         <v>54</v>
       </c>
@@ -7083,7 +7095,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="579" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A579" s="1" t="s">
         <v>55</v>
       </c>
@@ -7091,7 +7103,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="580" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A580" s="1" t="s">
         <v>56</v>
       </c>
@@ -7099,7 +7111,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="581" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A581" s="1" t="s">
         <v>57</v>
       </c>
@@ -7107,7 +7119,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="582" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A582" s="1" t="s">
         <v>58</v>
       </c>
@@ -7115,7 +7127,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="583" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A583" s="1" t="s">
         <v>59</v>
       </c>
@@ -7123,7 +7135,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="584" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A584" s="1" t="s">
         <v>60</v>
       </c>
@@ -7131,7 +7143,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="585" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A585" s="1" t="s">
         <v>61</v>
       </c>
@@ -7139,7 +7151,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="586" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A586" s="1" t="s">
         <v>62</v>
       </c>
@@ -7147,7 +7159,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="587" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A587" s="1" t="s">
         <v>63</v>
       </c>
@@ -7155,7 +7167,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="588" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A588" s="1" t="s">
         <v>64</v>
       </c>
@@ -7163,7 +7175,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="589" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A589" s="1" t="s">
         <v>65</v>
       </c>
@@ -7171,7 +7183,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="590" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A590" s="1" t="s">
         <v>66</v>
       </c>
@@ -7179,7 +7191,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="591" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A591" s="1" t="s">
         <v>67</v>
       </c>
@@ -7187,7 +7199,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="592" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A592" s="1" t="s">
         <v>68</v>
       </c>
@@ -7195,7 +7207,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="593" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A593" s="1" t="s">
         <v>69</v>
       </c>
@@ -7203,7 +7215,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="594" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A594" s="1" t="s">
         <v>70</v>
       </c>
@@ -7211,7 +7223,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="595" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A595" s="1" t="s">
         <v>71</v>
       </c>
@@ -7219,7 +7231,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="596" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A596" s="1" t="s">
         <v>72</v>
       </c>
@@ -7227,7 +7239,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="597" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A597" s="4" t="s">
         <v>73</v>
       </c>
@@ -7235,7 +7247,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="598" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A598" s="1">
         <v>6053</v>
       </c>
@@ -7243,7 +7255,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="599" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A599" s="1">
         <v>6056</v>
       </c>
@@ -7251,7 +7263,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="600" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A600" s="1">
         <v>6059</v>
       </c>
@@ -7259,7 +7271,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="601" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A601" s="1">
         <v>6062</v>
       </c>
@@ -7267,7 +7279,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="602" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A602" s="1">
         <v>6065</v>
       </c>
@@ -7275,7 +7287,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="603" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A603" s="1">
         <v>6071</v>
       </c>
@@ -7283,7 +7295,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="604" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A604" s="1">
         <v>6074</v>
       </c>
@@ -7291,7 +7303,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="605" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A605" s="1">
         <v>6077</v>
       </c>
@@ -7299,7 +7311,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="606" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A606" s="1">
         <v>6080</v>
       </c>
@@ -7307,7 +7319,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="607" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A607" s="1">
         <v>6083</v>
       </c>
@@ -7315,7 +7327,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="608" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A608" s="1">
         <v>6086</v>
       </c>
@@ -7323,7 +7335,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="609" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A609" s="1">
         <v>6089</v>
       </c>
@@ -7331,7 +7343,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="610" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A610" s="1">
         <v>6098</v>
       </c>
@@ -7339,7 +7351,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="611" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A611" s="1">
         <v>6101</v>
       </c>
@@ -7347,7 +7359,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="612" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A612" s="1">
         <v>6107</v>
       </c>
@@ -7355,7 +7367,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="613" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A613" s="1">
         <v>6535</v>
       </c>
@@ -7363,7 +7375,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="614" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A614" s="1">
         <v>6555</v>
       </c>
@@ -7371,7 +7383,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="615" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A615" s="1">
         <v>6567</v>
       </c>
@@ -7379,7 +7391,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="616" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A616" s="1">
         <v>6569</v>
       </c>
@@ -7387,7 +7399,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="617" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A617" s="1">
         <v>6571</v>
       </c>
@@ -7395,7 +7407,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="618" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A618" s="1">
         <v>6607</v>
       </c>
@@ -7403,7 +7415,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="619" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A619" s="1">
         <v>6623</v>
       </c>
@@ -7411,7 +7423,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="620" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A620" s="1">
         <v>6627</v>
       </c>
@@ -7419,7 +7431,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="621" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A621" s="1">
         <v>6635</v>
       </c>
@@ -7427,7 +7439,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="622" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A622" s="1">
         <v>6731</v>
       </c>
@@ -7435,7 +7447,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="623" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A623" s="1">
         <v>6747</v>
       </c>
@@ -7443,7 +7455,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="624" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A624" s="1">
         <v>6787</v>
       </c>
@@ -7451,7 +7463,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="625" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A625" s="1">
         <v>6819</v>
       </c>
@@ -7459,7 +7471,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="626" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A626" s="1">
         <v>4892</v>
       </c>
@@ -7467,7 +7479,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="627" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A627" s="1">
         <v>5029</v>
       </c>
@@ -7475,7 +7487,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="628" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A628" s="1">
         <v>5050</v>
       </c>
@@ -7483,7 +7495,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="629" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A629" s="1">
         <v>5030</v>
       </c>
@@ -7491,7 +7503,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="630" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A630" s="1">
         <v>5031</v>
       </c>
@@ -7499,7 +7511,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="631" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A631" s="1">
         <v>5035</v>
       </c>
@@ -7507,7 +7519,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="632" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A632" s="1">
         <v>5041</v>
       </c>
@@ -7515,7 +7527,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="633" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A633" s="1">
         <v>5048</v>
       </c>
@@ -7523,7 +7535,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="634" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A634" s="1">
         <v>5045</v>
       </c>
@@ -7531,7 +7543,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="635" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A635" s="1">
         <v>5034</v>
       </c>
@@ -7539,7 +7551,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="636" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A636" s="1">
         <v>5036</v>
       </c>
@@ -7547,7 +7559,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="637" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A637" s="1">
         <v>5042</v>
       </c>
@@ -7555,7 +7567,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="638" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A638" s="1">
         <v>5047</v>
       </c>
@@ -7563,7 +7575,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="639" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A639" s="1">
         <v>5049</v>
       </c>
@@ -7571,7 +7583,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="640" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A640" s="1">
         <v>5005</v>
       </c>
@@ -7579,7 +7591,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="641" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A641" s="1">
         <v>5015</v>
       </c>
@@ -7587,7 +7599,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="642" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A642" s="1">
         <v>5007</v>
       </c>
@@ -7595,7 +7607,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="643" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A643" s="1">
         <v>5008</v>
       </c>
@@ -7603,7 +7615,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="644" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A644" s="1">
         <v>6241</v>
       </c>
@@ -7611,7 +7623,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="645" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A645" s="1">
         <v>6259</v>
       </c>
@@ -7619,7 +7631,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="646" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A646" s="1">
         <v>6249</v>
       </c>
@@ -7627,7 +7639,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="647" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A647" s="1">
         <v>5555</v>
       </c>
@@ -7635,7 +7647,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="648" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A648" s="1">
         <v>5535</v>
       </c>
@@ -7643,7 +7655,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="649" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A649" s="1">
         <v>5567</v>
       </c>
@@ -7651,7 +7663,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="650" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A650" s="1">
         <v>5527</v>
       </c>
@@ -7659,7 +7671,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="651" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A651" s="1">
         <v>5563</v>
       </c>
@@ -7667,7 +7679,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="652" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A652" s="1">
         <v>4452</v>
       </c>
@@ -7675,7 +7687,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="653" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A653" s="1">
         <v>4359</v>
       </c>
@@ -7683,7 +7695,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="654" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A654" s="1">
         <v>4360</v>
       </c>
@@ -7691,7 +7703,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="655" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A655" s="1">
         <v>4361</v>
       </c>
@@ -7699,7 +7711,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="656" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A656" s="1">
         <v>4362</v>
       </c>
@@ -7707,7 +7719,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="657" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A657" s="1">
         <v>4453</v>
       </c>
@@ -7715,7 +7727,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="658" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A658" s="1">
         <v>4449</v>
       </c>
@@ -7723,7 +7735,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="659" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A659" s="1">
         <v>4363</v>
       </c>
@@ -7731,7 +7743,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="660" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A660" s="1">
         <v>4364</v>
       </c>
@@ -7739,7 +7751,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="661" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A661" s="1">
         <v>4610</v>
       </c>
@@ -7747,7 +7759,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="662" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A662" s="1">
         <v>4457</v>
       </c>
@@ -7755,7 +7767,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="663" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A663" s="1">
         <v>4613</v>
       </c>
@@ -7763,7 +7775,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="664" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A664" s="1">
         <v>3356</v>
       </c>
@@ -7771,7 +7783,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="665" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A665" s="1">
         <v>3392</v>
       </c>
@@ -7779,7 +7791,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="666" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A666" s="1">
         <v>3445</v>
       </c>
@@ -7787,7 +7799,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="667" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A667" s="1">
         <v>3355</v>
       </c>
@@ -7795,7 +7807,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="668" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A668" s="1">
         <v>3453</v>
       </c>
@@ -7803,7 +7815,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="669" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A669" s="1">
         <v>3286</v>
       </c>
@@ -7811,7 +7823,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="670" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A670" s="1">
         <v>3450</v>
       </c>
@@ -7819,7 +7831,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="671" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A671" s="1">
         <v>3357</v>
       </c>
@@ -7827,7 +7839,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="672" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A672" s="1">
         <v>3397</v>
       </c>
@@ -7835,7 +7847,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="673" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A673" s="1">
         <v>3393</v>
       </c>
@@ -7843,7 +7855,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="674" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A674" s="1">
         <v>3421</v>
       </c>
@@ -7851,7 +7863,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="675" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A675" s="1">
         <v>3426</v>
       </c>
@@ -7859,7 +7871,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="676" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A676" s="1">
         <v>3446</v>
       </c>
@@ -7867,7 +7879,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="677" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A677" s="1">
         <v>3458</v>
       </c>
@@ -7875,7 +7887,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="678" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A678" s="1">
         <v>3464</v>
       </c>
@@ -7883,7 +7895,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="679" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A679" s="1">
         <v>3478</v>
       </c>
@@ -7891,7 +7903,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="680" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A680" s="1">
         <v>6662</v>
       </c>
@@ -7899,7 +7911,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="681" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A681" s="1">
         <v>3461</v>
       </c>
@@ -7907,7 +7919,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="682" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A682" s="1">
         <v>3477</v>
       </c>
@@ -7915,7 +7927,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="683" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A683" s="1">
         <v>3472</v>
       </c>
@@ -7923,7 +7935,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="684" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A684" s="1">
         <v>3176</v>
       </c>
@@ -7931,7 +7943,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="685" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A685" s="1">
         <v>3206</v>
       </c>
@@ -7939,7 +7951,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="686" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A686" s="1">
         <v>3239</v>
       </c>
@@ -7947,7 +7959,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="687" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A687" s="1">
         <v>3208</v>
       </c>
@@ -7955,7 +7967,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="688" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A688" s="1">
         <v>3241</v>
       </c>
@@ -7963,7 +7975,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="689" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A689" s="1">
         <v>3237</v>
       </c>
@@ -7971,7 +7983,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="690" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A690" s="1">
         <v>3269</v>
       </c>
@@ -7979,7 +7991,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="691" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A691" s="1">
         <v>3303</v>
       </c>
@@ -7987,7 +7999,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="692" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A692" s="1">
         <v>3352</v>
       </c>
@@ -7995,7 +8007,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="693" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A693" s="1">
         <v>3238</v>
       </c>
@@ -8003,7 +8015,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="694" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A694" s="1">
         <v>3347</v>
       </c>
@@ -8011,7 +8023,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="695" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A695" s="1" t="s">
         <v>74</v>
       </c>
@@ -8019,7 +8031,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="696" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A696" s="1" t="s">
         <v>75</v>
       </c>
@@ -8027,7 +8039,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="697" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A697" s="1" t="s">
         <v>76</v>
       </c>
@@ -8035,7 +8047,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="698" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A698" s="1" t="s">
         <v>77</v>
       </c>
@@ -8043,7 +8055,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="699" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A699" s="1" t="s">
         <v>78</v>
       </c>
@@ -8051,7 +8063,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="700" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A700" s="1" t="s">
         <v>79</v>
       </c>
@@ -8059,7 +8071,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="701" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A701" s="1" t="s">
         <v>80</v>
       </c>
@@ -8067,7 +8079,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="702" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A702" s="1" t="s">
         <v>81</v>
       </c>
@@ -8075,7 +8087,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="703" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A703" s="1" t="s">
         <v>82</v>
       </c>
@@ -8083,7 +8095,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="704" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A704" s="1" t="s">
         <v>83</v>
       </c>
@@ -8091,7 +8103,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="705" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A705" s="1" t="s">
         <v>84</v>
       </c>
@@ -8099,7 +8111,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="706" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A706" s="1" t="s">
         <v>85</v>
       </c>
@@ -8107,7 +8119,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="707" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A707" s="1" t="s">
         <v>86</v>
       </c>
@@ -8115,7 +8127,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="708" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A708" s="1" t="s">
         <v>87</v>
       </c>
@@ -8123,7 +8135,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="709" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A709" s="1" t="s">
         <v>88</v>
       </c>
@@ -8131,7 +8143,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="710" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A710" s="1" t="s">
         <v>89</v>
       </c>
@@ -8139,7 +8151,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="711" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A711" s="1" t="s">
         <v>90</v>
       </c>
@@ -8147,7 +8159,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="712" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A712" s="1" t="s">
         <v>91</v>
       </c>
@@ -8155,7 +8167,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="713" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A713" s="1" t="s">
         <v>92</v>
       </c>
@@ -8163,7 +8175,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="714" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A714" s="4" t="s">
         <v>93</v>
       </c>
@@ -8171,7 +8183,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="715" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A715" s="1" t="s">
         <v>94</v>
       </c>
@@ -8179,7 +8191,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="716" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A716" s="1" t="s">
         <v>95</v>
       </c>
@@ -8187,7 +8199,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="717" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A717" s="1" t="s">
         <v>96</v>
       </c>
@@ -8195,7 +8207,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="718" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A718" s="1" t="s">
         <v>97</v>
       </c>
@@ -8203,7 +8215,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="719" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A719" s="1" t="s">
         <v>98</v>
       </c>
@@ -8211,7 +8223,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="720" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A720" s="1" t="s">
         <v>99</v>
       </c>
@@ -8219,7 +8231,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="721" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A721" s="1" t="s">
         <v>100</v>
       </c>
@@ -8227,7 +8239,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="722" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A722" s="1" t="s">
         <v>101</v>
       </c>
@@ -8235,7 +8247,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="723" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A723" s="1" t="s">
         <v>102</v>
       </c>
@@ -8243,7 +8255,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="724" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A724" s="1" t="s">
         <v>103</v>
       </c>
@@ -8251,7 +8263,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="725" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A725" s="1" t="s">
         <v>104</v>
       </c>
@@ -8259,7 +8271,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="726" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A726" s="1" t="s">
         <v>105</v>
       </c>
@@ -8267,7 +8279,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="727" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A727" s="1" t="s">
         <v>106</v>
       </c>
@@ -8275,7 +8287,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="728" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A728" s="1" t="s">
         <v>107</v>
       </c>
@@ -8283,7 +8295,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="729" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A729" s="1" t="s">
         <v>108</v>
       </c>
@@ -8291,7 +8303,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="730" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A730" s="1" t="s">
         <v>109</v>
       </c>
@@ -8299,7 +8311,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="731" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A731" s="1" t="s">
         <v>110</v>
       </c>
@@ -8307,7 +8319,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="732" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A732" s="1" t="s">
         <v>111</v>
       </c>
@@ -8315,7 +8327,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="733" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A733" s="1" t="s">
         <v>112</v>
       </c>
@@ -8323,13 +8335,13 @@
         <v>647</v>
       </c>
     </row>
-    <row r="734" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A734" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B734" s="10"/>
     </row>
-    <row r="735" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A735" s="1" t="s">
         <v>114</v>
       </c>
@@ -8337,7 +8349,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="736" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A736" s="1" t="s">
         <v>115</v>
       </c>
@@ -8345,7 +8357,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="737" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A737" s="1" t="s">
         <v>116</v>
       </c>
@@ -8353,7 +8365,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="738" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A738" s="1" t="s">
         <v>117</v>
       </c>
@@ -8361,7 +8373,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="739" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A739" s="1" t="s">
         <v>118</v>
       </c>
@@ -8369,7 +8381,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="740" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A740" s="1" t="s">
         <v>119</v>
       </c>
@@ -8377,7 +8389,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="741" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A741" s="1" t="s">
         <v>120</v>
       </c>
@@ -8385,7 +8397,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="742" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A742" s="1" t="s">
         <v>121</v>
       </c>
@@ -8393,7 +8405,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="743" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A743" s="1" t="s">
         <v>122</v>
       </c>
@@ -8401,7 +8413,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="744" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A744" s="1" t="s">
         <v>123</v>
       </c>
@@ -8409,7 +8421,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="745" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A745" s="1" t="s">
         <v>124</v>
       </c>
@@ -8417,7 +8429,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="746" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A746" s="1" t="s">
         <v>125</v>
       </c>
@@ -8425,7 +8437,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="747" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A747" s="1" t="s">
         <v>126</v>
       </c>
@@ -8433,7 +8445,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="748" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A748" s="1" t="s">
         <v>127</v>
       </c>
@@ -8441,7 +8453,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="749" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A749" s="1" t="s">
         <v>128</v>
       </c>
@@ -8449,7 +8461,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="750" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A750" s="1" t="s">
         <v>129</v>
       </c>
@@ -8457,7 +8469,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="751" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A751" s="1" t="s">
         <v>130</v>
       </c>
@@ -8465,7 +8477,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="752" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A752" s="1" t="s">
         <v>131</v>
       </c>
@@ -8473,7 +8485,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="753" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A753" s="1" t="s">
         <v>132</v>
       </c>
@@ -8481,7 +8493,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="754" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A754" s="1" t="s">
         <v>133</v>
       </c>
@@ -8489,7 +8501,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="755" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A755" s="1" t="s">
         <v>134</v>
       </c>
@@ -8497,7 +8509,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="756" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A756" s="1" t="s">
         <v>135</v>
       </c>
@@ -8505,7 +8517,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="757" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A757" s="1" t="s">
         <v>136</v>
       </c>
@@ -8513,7 +8525,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="758" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A758" s="1" t="s">
         <v>137</v>
       </c>
@@ -8521,7 +8533,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="759" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A759" s="1" t="s">
         <v>138</v>
       </c>
@@ -8529,7 +8541,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="760" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A760" s="1" t="s">
         <v>139</v>
       </c>
@@ -8537,7 +8549,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="761" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A761" s="1" t="s">
         <v>140</v>
       </c>
@@ -8545,7 +8557,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="762" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A762" s="1" t="s">
         <v>141</v>
       </c>
@@ -8553,7 +8565,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="763" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A763" s="1" t="s">
         <v>142</v>
       </c>
@@ -8561,7 +8573,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="764" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A764" s="1" t="s">
         <v>143</v>
       </c>
@@ -8569,7 +8581,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="765" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A765" s="1" t="s">
         <v>144</v>
       </c>
@@ -8577,7 +8589,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="766" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A766" s="1" t="s">
         <v>145</v>
       </c>
@@ -8585,7 +8597,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="767" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A767" s="1" t="s">
         <v>146</v>
       </c>
@@ -8593,7 +8605,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="768" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A768" s="1" t="s">
         <v>147</v>
       </c>
@@ -8601,7 +8613,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="769" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A769" s="1" t="s">
         <v>148</v>
       </c>
@@ -8609,7 +8621,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="770" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A770" s="1" t="s">
         <v>149</v>
       </c>
@@ -8617,7 +8629,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="771" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A771" s="1" t="s">
         <v>150</v>
       </c>
@@ -8625,7 +8637,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="772" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A772" s="1" t="s">
         <v>151</v>
       </c>
@@ -8633,7 +8645,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="773" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A773" s="1" t="s">
         <v>152</v>
       </c>
@@ -8641,7 +8653,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="774" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="774" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A774" s="1" t="s">
         <v>153</v>
       </c>
@@ -8649,7 +8661,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="775" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A775" s="1" t="s">
         <v>154</v>
       </c>
@@ -8657,7 +8669,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="776" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="776" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A776" s="1" t="s">
         <v>155</v>
       </c>
@@ -8665,7 +8677,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="777" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A777" s="1" t="s">
         <v>156</v>
       </c>
@@ -8673,7 +8685,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="778" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="778" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A778" s="1" t="s">
         <v>157</v>
       </c>
@@ -8681,7 +8693,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="779" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A779" s="1" t="s">
         <v>158</v>
       </c>
@@ -8689,7 +8701,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="780" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A780" s="1" t="s">
         <v>159</v>
       </c>
@@ -8697,7 +8709,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="781" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A781" s="1" t="s">
         <v>160</v>
       </c>
@@ -8705,7 +8717,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="782" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="782" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A782" s="1" t="s">
         <v>161</v>
       </c>
@@ -8713,7 +8725,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="783" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="783" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A783" s="1" t="s">
         <v>162</v>
       </c>
@@ -8721,7 +8733,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="784" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="784" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A784" s="1" t="s">
         <v>163</v>
       </c>
@@ -8729,7 +8741,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="785" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="785" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A785" s="1" t="s">
         <v>164</v>
       </c>
@@ -8737,7 +8749,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="786" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="786" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A786" s="1" t="s">
         <v>165</v>
       </c>
@@ -8745,7 +8757,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="787" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="787" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A787">
         <v>3305</v>
       </c>
@@ -8753,11 +8765,19 @@
         <v>183</v>
       </c>
     </row>
-    <row r="788" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A788" s="1" t="s">
+    <row r="788" spans="1:2" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A788" s="11" t="s">
+        <v>671</v>
+      </c>
+      <c r="B788" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A789" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B788" s="2" t="s">
+      <c r="B789" s="2" t="s">
         <v>669</v>
       </c>
     </row>

--- a/api/files/prices.xlsx
+++ b/api/files/prices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mamustin\Desktop\api_precios\api\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D24E6DC-8FC0-4B97-8E65-E6F48E2FB0C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86963726-E226-4C6A-AA39-C934E688C592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="671">
   <si>
     <t>S/COD</t>
   </si>
@@ -2038,9 +2038,6 @@
   </si>
   <si>
     <t>USD 255,1724137931034</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> AR1581602HD</t>
   </si>
 </sst>
 </file>
@@ -2183,7 +2180,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2469,7 +2466,7 @@
   <dimension ref="A1:B789"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A773" workbookViewId="0">
-      <selection activeCell="B789" sqref="B789"/>
+      <selection activeCell="A788" sqref="A788"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8765,9 +8762,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="788" spans="1:2" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A788" s="11" t="s">
-        <v>671</v>
+        <v>16</v>
       </c>
       <c r="B788" s="2" t="s">
         <v>262</v>

--- a/api/files/prices.xlsx
+++ b/api/files/prices.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mamustin\Desktop\api_precios\api\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mamustin\Desktop\la_union_api_prices\api\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86963726-E226-4C6A-AA39-C934E688C592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0F8B6F-0E2F-427A-9B13-838DCD9C27D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="671">
   <si>
     <t>S/COD</t>
   </si>
@@ -2097,7 +2097,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2135,20 +2135,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2179,9 +2170,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2463,10 +2451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B789"/>
+  <dimension ref="A1:B788"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A773" workbookViewId="0">
-      <selection activeCell="A788" sqref="A788"/>
+    <sheetView tabSelected="1" topLeftCell="A770" workbookViewId="0">
+      <selection activeCell="A788" sqref="A788:XFD788"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6786,7 +6774,9 @@
       <c r="A540" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B540" s="6"/>
+      <c r="B540" s="6" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="541" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A541" s="1" t="s">
@@ -8762,19 +8752,11 @@
         <v>183</v>
       </c>
     </row>
-    <row r="788" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A788" s="11" t="s">
-        <v>16</v>
+    <row r="788" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A788" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="B788" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="789" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A789" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B789" s="2" t="s">
         <v>669</v>
       </c>
     </row>

--- a/api/files/prices.xlsx
+++ b/api/files/prices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\la union\Desktop\la_union_api_prices\api\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D75681-1291-4724-BD17-1A38D1DC9739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49655130-D05F-495C-B633-F935388A4331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="677">
   <si>
     <t>S/COD</t>
   </si>
@@ -2041,6 +2041,24 @@
   </si>
   <si>
     <t>USD 255,1724137931034</t>
+  </si>
+  <si>
+    <t>F101</t>
+  </si>
+  <si>
+    <t>F102</t>
+  </si>
+  <si>
+    <t>USD 1084</t>
+  </si>
+  <si>
+    <t>USD 1128</t>
+  </si>
+  <si>
+    <t>F100</t>
+  </si>
+  <si>
+    <t>F97</t>
   </si>
 </sst>
 </file>
@@ -2142,7 +2160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2173,6 +2191,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2454,10 +2481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B788"/>
+  <dimension ref="A1:B792"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A515" workbookViewId="0">
-      <selection activeCell="H525" sqref="H525"/>
+    <sheetView tabSelected="1" topLeftCell="A769" workbookViewId="0">
+      <selection activeCell="B793" sqref="B793"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8761,6 +8788,38 @@
         <v>669</v>
       </c>
     </row>
+    <row r="789" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A789" s="11" t="s">
+        <v>671</v>
+      </c>
+      <c r="B789" s="12" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A790" s="11" t="s">
+        <v>672</v>
+      </c>
+      <c r="B790" s="12" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A791" t="s">
+        <v>675</v>
+      </c>
+      <c r="B791">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A792" s="13" t="s">
+        <v>676</v>
+      </c>
+      <c r="B792">
+        <v>4292</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/api/files/prices.xlsx
+++ b/api/files/prices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\la union\Desktop\la_union_api_prices\api\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4C15B1-5585-408F-8734-374E4BB6F503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581D0C15-B6A8-45BA-B12E-A3B46E7B0C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2856" yWindow="2856" windowWidth="17280" windowHeight="8928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="678">
   <si>
     <t>S/COD</t>
   </si>
@@ -2059,6 +2059,9 @@
   </si>
   <si>
     <t>F97</t>
+  </si>
+  <si>
+    <t>F99</t>
   </si>
 </sst>
 </file>
@@ -2481,10 +2484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B792"/>
+  <dimension ref="A1:B793"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A535" workbookViewId="0">
-      <selection activeCell="D539" sqref="D539"/>
+    <sheetView tabSelected="1" topLeftCell="A782" workbookViewId="0">
+      <selection activeCell="B793" sqref="B793"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8822,6 +8825,14 @@
         <v>4292</v>
       </c>
     </row>
+    <row r="793" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A793" s="13" t="s">
+        <v>677</v>
+      </c>
+      <c r="B793">
+        <v>2745</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/api/files/prices.xlsx
+++ b/api/files/prices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\la union\Desktop\la_union_api_prices\api\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581D0C15-B6A8-45BA-B12E-A3B46E7B0C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C7D83A-C6AE-447D-A2AE-8807C5A5BED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2856" yWindow="2856" windowWidth="17280" windowHeight="8928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="679">
   <si>
     <t>S/COD</t>
   </si>
@@ -2040,9 +2040,6 @@
     <t>USD 69</t>
   </si>
   <si>
-    <t>USD 255,1724137931034</t>
-  </si>
-  <si>
     <t>F101</t>
   </si>
   <si>
@@ -2062,6 +2059,12 @@
   </si>
   <si>
     <t>F99</t>
+  </si>
+  <si>
+    <t>USD 250,847457</t>
+  </si>
+  <si>
+    <t>USD 275,254237288</t>
   </si>
 </sst>
 </file>
@@ -2089,18 +2092,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFEDB00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2117,6 +2114,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF808080"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2163,7 +2172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2180,19 +2189,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2204,6 +2207,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2486,8 +2499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B793"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A782" workbookViewId="0">
-      <selection activeCell="B793" sqref="B793"/>
+    <sheetView tabSelected="1" topLeftCell="A515" workbookViewId="0">
+      <selection activeCell="D530" sqref="D530"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6653,20 +6666,20 @@
         <v>574</v>
       </c>
     </row>
-    <row r="521" spans="1:2" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A521" s="1">
+    <row r="521" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A521" s="12">
         <v>7500584</v>
       </c>
-      <c r="B521" s="8" t="s">
-        <v>670</v>
+      <c r="B521" s="13" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="522" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A522" s="1">
+      <c r="A522" s="14">
         <v>7500589</v>
       </c>
-      <c r="B522" t="s">
-        <v>277</v>
+      <c r="B522" s="15" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="523" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6725,12 +6738,12 @@
         <v>580</v>
       </c>
     </row>
-    <row r="530" spans="1:2" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A530" s="7">
+    <row r="530" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A530" s="12">
         <v>3147</v>
       </c>
-      <c r="B530" s="8" t="s">
-        <v>670</v>
+      <c r="B530" s="13" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="531" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6742,11 +6755,11 @@
       </c>
     </row>
     <row r="532" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A532" s="7">
+      <c r="A532" s="14">
         <v>3148</v>
       </c>
-      <c r="B532" t="s">
-        <v>277</v>
+      <c r="B532" s="15" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="533" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7087,7 +7100,7 @@
       <c r="A575" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B575" s="9" t="s">
+      <c r="B575" s="7" t="s">
         <v>167</v>
       </c>
     </row>
@@ -7095,7 +7108,7 @@
       <c r="A576" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B576" s="9" t="s">
+      <c r="B576" s="7" t="s">
         <v>599</v>
       </c>
     </row>
@@ -7103,7 +7116,7 @@
       <c r="A577" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B577" s="9" t="s">
+      <c r="B577" s="7" t="s">
         <v>600</v>
       </c>
     </row>
@@ -7135,7 +7148,7 @@
       <c r="A581" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B581" s="9" t="s">
+      <c r="B581" s="7" t="s">
         <v>602</v>
       </c>
     </row>
@@ -7143,7 +7156,7 @@
       <c r="A582" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B582" s="9" t="s">
+      <c r="B582" s="7" t="s">
         <v>182</v>
       </c>
     </row>
@@ -7159,7 +7172,7 @@
       <c r="A584" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B584" s="9" t="s">
+      <c r="B584" s="7" t="s">
         <v>537</v>
       </c>
     </row>
@@ -7167,7 +7180,7 @@
       <c r="A585" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B585" s="9" t="s">
+      <c r="B585" s="7" t="s">
         <v>173</v>
       </c>
     </row>
@@ -7175,7 +7188,7 @@
       <c r="A586" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B586" s="9" t="s">
+      <c r="B586" s="7" t="s">
         <v>603</v>
       </c>
     </row>
@@ -7183,7 +7196,7 @@
       <c r="A587" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B587" s="9" t="s">
+      <c r="B587" s="7" t="s">
         <v>604</v>
       </c>
     </row>
@@ -7199,7 +7212,7 @@
       <c r="A589" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B589" s="9" t="s">
+      <c r="B589" s="7" t="s">
         <v>602</v>
       </c>
     </row>
@@ -7207,7 +7220,7 @@
       <c r="A590" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B590" s="9" t="s">
+      <c r="B590" s="7" t="s">
         <v>600</v>
       </c>
     </row>
@@ -7215,7 +7228,7 @@
       <c r="A591" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B591" s="9" t="s">
+      <c r="B591" s="7" t="s">
         <v>600</v>
       </c>
     </row>
@@ -7223,7 +7236,7 @@
       <c r="A592" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B592" s="9" t="s">
+      <c r="B592" s="7" t="s">
         <v>537</v>
       </c>
     </row>
@@ -7231,7 +7244,7 @@
       <c r="A593" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B593" s="9" t="s">
+      <c r="B593" s="7" t="s">
         <v>537</v>
       </c>
     </row>
@@ -7239,7 +7252,7 @@
       <c r="A594" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B594" s="9" t="s">
+      <c r="B594" s="7" t="s">
         <v>605</v>
       </c>
     </row>
@@ -8359,7 +8372,7 @@
       <c r="A734" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B734" s="10"/>
+      <c r="B734" s="8"/>
     </row>
     <row r="735" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A735" s="1" t="s">
@@ -8794,40 +8807,40 @@
       </c>
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A789" s="11" t="s">
+      <c r="A789" s="9" t="s">
+        <v>670</v>
+      </c>
+      <c r="B789" s="10" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A790" s="9" t="s">
         <v>671</v>
       </c>
-      <c r="B789" s="12" t="s">
+      <c r="B790" s="10" t="s">
         <v>673</v>
-      </c>
-    </row>
-    <row r="790" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A790" s="11" t="s">
-        <v>672</v>
-      </c>
-      <c r="B790" s="12" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="791" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A791" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B791">
         <v>1644</v>
       </c>
     </row>
     <row r="792" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A792" s="13" t="s">
-        <v>676</v>
+      <c r="A792" s="11" t="s">
+        <v>675</v>
       </c>
       <c r="B792">
         <v>4292</v>
       </c>
     </row>
     <row r="793" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A793" s="13" t="s">
-        <v>677</v>
+      <c r="A793" s="11" t="s">
+        <v>676</v>
       </c>
       <c r="B793">
         <v>2745</v>

--- a/api/files/prices.xlsx
+++ b/api/files/prices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\la union\Desktop\la_union_api_prices\api\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C7D83A-C6AE-447D-A2AE-8807C5A5BED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46BEE690-1692-4994-8651-036D89A46443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -414,9 +414,6 @@
     <t>F76</t>
   </si>
   <si>
-    <t>F68 / F42</t>
-  </si>
-  <si>
     <t>F43</t>
   </si>
   <si>
@@ -2065,6 +2062,9 @@
   </si>
   <si>
     <t>USD 275,254237288</t>
+  </si>
+  <si>
+    <t>F42</t>
   </si>
 </sst>
 </file>
@@ -2499,8 +2499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B793"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A515" workbookViewId="0">
-      <selection activeCell="D530" sqref="D530"/>
+    <sheetView tabSelected="1" topLeftCell="A729" workbookViewId="0">
+      <selection activeCell="A750" sqref="A750"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2513,7 +2513,7 @@
         <v>110375</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2521,7 +2521,7 @@
         <v>117809</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2529,7 +2529,7 @@
         <v>110371</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2537,7 +2537,7 @@
         <v>117808</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2545,7 +2545,7 @@
         <v>110540</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2553,7 +2553,7 @@
         <v>110376</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2561,7 +2561,7 @@
         <v>110372</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2569,7 +2569,7 @@
         <v>118299</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2577,7 +2577,7 @@
         <v>109747</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2585,7 +2585,7 @@
         <v>110373</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2593,7 +2593,7 @@
         <v>117820</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2601,7 +2601,7 @@
         <v>110529</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2609,7 +2609,7 @@
         <v>117822</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2617,7 +2617,7 @@
         <v>110325</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2625,7 +2625,7 @@
         <v>110374</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2633,7 +2633,7 @@
         <v>107830</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2641,7 +2641,7 @@
         <v>140921</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2649,7 +2649,7 @@
         <v>117833</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2657,7 +2657,7 @@
         <v>141048</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2665,7 +2665,7 @@
         <v>108794</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2673,7 +2673,7 @@
         <v>111463</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2681,7 +2681,7 @@
         <v>141823</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2689,7 +2689,7 @@
         <v>111466</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2697,7 +2697,7 @@
         <v>106855</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2705,7 +2705,7 @@
         <v>118330</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2713,7 +2713,7 @@
         <v>108711</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2721,7 +2721,7 @@
         <v>111462</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2729,7 +2729,7 @@
         <v>117831</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2737,7 +2737,7 @@
         <v>107236</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2745,7 +2745,7 @@
         <v>117821</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2753,7 +2753,7 @@
         <v>110787</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2761,7 +2761,7 @@
         <v>111469</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2769,7 +2769,7 @@
         <v>118140</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2777,7 +2777,7 @@
         <v>111468</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2785,7 +2785,7 @@
         <v>105333</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2793,7 +2793,7 @@
         <v>117787</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2801,7 +2801,7 @@
         <v>111743</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2809,7 +2809,7 @@
         <v>111172</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2817,7 +2817,7 @@
         <v>108795</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2825,7 +2825,7 @@
         <v>111418</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2833,7 +2833,7 @@
         <v>117785</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2841,7 +2841,7 @@
         <v>105894</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2849,7 +2849,7 @@
         <v>108303</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2857,7 +2857,7 @@
         <v>107263</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2865,7 +2865,7 @@
         <v>106698</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2873,7 +2873,7 @@
         <v>118298</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2881,7 +2881,7 @@
         <v>118337</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2889,7 +2889,7 @@
         <v>118403</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2897,7 +2897,7 @@
         <v>110733</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2905,7 +2905,7 @@
         <v>118338</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2913,7 +2913,7 @@
         <v>108701</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2921,7 +2921,7 @@
         <v>117706</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2929,7 +2929,7 @@
         <v>117862</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2937,7 +2937,7 @@
         <v>118094</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2945,7 +2945,7 @@
         <v>107629</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2953,7 +2953,7 @@
         <v>117861</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2961,7 +2961,7 @@
         <v>117786</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2969,7 +2969,7 @@
         <v>111467</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2977,7 +2977,7 @@
         <v>108583</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2985,7 +2985,7 @@
         <v>110581</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2993,7 +2993,7 @@
         <v>110711</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3001,7 +3001,7 @@
         <v>117935</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3009,7 +3009,7 @@
         <v>118381</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3017,7 +3017,7 @@
         <v>106565</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3025,7 +3025,7 @@
         <v>108361</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3033,7 +3033,7 @@
         <v>118382</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3041,7 +3041,7 @@
         <v>118286</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3049,7 +3049,7 @@
         <v>107495</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3057,7 +3057,7 @@
         <v>110233</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3065,7 +3065,7 @@
         <v>109493</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3073,7 +3073,7 @@
         <v>110580</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3081,7 +3081,7 @@
         <v>110193</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3089,7 +3089,7 @@
         <v>118379</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3097,7 +3097,7 @@
         <v>118497</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3105,7 +3105,7 @@
         <v>118392</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3113,7 +3113,7 @@
         <v>117948</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3121,7 +3121,7 @@
         <v>118383</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3129,7 +3129,7 @@
         <v>118376</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3137,7 +3137,7 @@
         <v>117859</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3145,7 +3145,7 @@
         <v>118391</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3153,7 +3153,7 @@
         <v>118319</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3161,7 +3161,7 @@
         <v>118320</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3169,7 +3169,7 @@
         <v>117789</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3177,7 +3177,7 @@
         <v>141565</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3185,7 +3185,7 @@
         <v>117840</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3193,7 +3193,7 @@
         <v>111442</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3201,7 +3201,7 @@
         <v>110745</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3209,7 +3209,7 @@
         <v>110751</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3217,7 +3217,7 @@
         <v>111434</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3225,7 +3225,7 @@
         <v>111381</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3233,7 +3233,7 @@
         <v>108871</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3241,7 +3241,7 @@
         <v>116241</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3249,7 +3249,7 @@
         <v>109338</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3257,7 +3257,7 @@
         <v>140922</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3265,7 +3265,7 @@
         <v>108022</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3273,7 +3273,7 @@
         <v>111532</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3281,7 +3281,7 @@
         <v>111383</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3289,7 +3289,7 @@
         <v>117854</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3297,7 +3297,7 @@
         <v>111443</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3305,7 +3305,7 @@
         <v>117315</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3313,7 +3313,7 @@
         <v>110740</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3321,7 +3321,7 @@
         <v>110762</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3329,7 +3329,7 @@
         <v>100761</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3337,7 +3337,7 @@
         <v>111435</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3345,7 +3345,7 @@
         <v>117841</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3353,7 +3353,7 @@
         <v>110743</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3361,7 +3361,7 @@
         <v>117838</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3369,7 +3369,7 @@
         <v>111433</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3377,7 +3377,7 @@
         <v>111430</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3385,7 +3385,7 @@
         <v>117834</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3393,7 +3393,7 @@
         <v>117289</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3401,7 +3401,7 @@
         <v>116527</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3409,7 +3409,7 @@
         <v>107472</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3417,7 +3417,7 @@
         <v>110746</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3425,7 +3425,7 @@
         <v>111569</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3433,7 +3433,7 @@
         <v>110742</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3441,7 +3441,7 @@
         <v>118306</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3449,7 +3449,7 @@
         <v>107474</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3457,7 +3457,7 @@
         <v>111598</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3465,7 +3465,7 @@
         <v>110515</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3473,7 +3473,7 @@
         <v>111530</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3481,7 +3481,7 @@
         <v>110752</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3489,7 +3489,7 @@
         <v>107890</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3497,7 +3497,7 @@
         <v>117087</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3505,7 +3505,7 @@
         <v>111439</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3513,7 +3513,7 @@
         <v>110756</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3521,7 +3521,7 @@
         <v>107886</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3529,7 +3529,7 @@
         <v>110753</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3537,7 +3537,7 @@
         <v>110750</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3545,7 +3545,7 @@
         <v>111879</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3553,7 +3553,7 @@
         <v>111437</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3561,7 +3561,7 @@
         <v>110749</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3569,7 +3569,7 @@
         <v>111447</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3577,7 +3577,7 @@
         <v>107532</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3585,7 +3585,7 @@
         <v>109933</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3593,7 +3593,7 @@
         <v>111655</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3601,7 +3601,7 @@
         <v>111438</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3609,7 +3609,7 @@
         <v>110747</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3617,7 +3617,7 @@
         <v>111445</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3625,7 +3625,7 @@
         <v>106955</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3633,7 +3633,7 @@
         <v>110313</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3641,7 +3641,7 @@
         <v>117853</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3649,7 +3649,7 @@
         <v>110339</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3657,7 +3657,7 @@
         <v>117856</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3665,7 +3665,7 @@
         <v>117855</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3673,7 +3673,7 @@
         <v>108772</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3681,7 +3681,7 @@
         <v>108592</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3689,7 +3689,7 @@
         <v>118183</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3697,7 +3697,7 @@
         <v>110741</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3705,7 +3705,7 @@
         <v>107888</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3713,7 +3713,7 @@
         <v>111436</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3721,7 +3721,7 @@
         <v>111660</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3729,7 +3729,7 @@
         <v>111441</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3737,7 +3737,7 @@
         <v>118222</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3745,7 +3745,7 @@
         <v>110755</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3753,7 +3753,7 @@
         <v>107109</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3761,7 +3761,7 @@
         <v>118304</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3769,7 +3769,7 @@
         <v>110895</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3777,7 +3777,7 @@
         <v>111850</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3785,7 +3785,7 @@
         <v>108770</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3793,7 +3793,7 @@
         <v>107892</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3801,7 +3801,7 @@
         <v>111440</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3809,7 +3809,7 @@
         <v>111690</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3817,7 +3817,7 @@
         <v>107537</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3825,7 +3825,7 @@
         <v>109646</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3833,7 +3833,7 @@
         <v>109645</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3841,7 +3841,7 @@
         <v>109647</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3849,7 +3849,7 @@
         <v>105111</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3857,7 +3857,7 @@
         <v>111182</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3865,7 +3865,7 @@
         <v>109641</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3873,7 +3873,7 @@
         <v>105705</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3881,7 +3881,7 @@
         <v>109640</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3889,7 +3889,7 @@
         <v>111330</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3897,7 +3897,7 @@
         <v>118166</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3905,7 +3905,7 @@
         <v>118168</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3913,7 +3913,7 @@
         <v>118171</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3921,7 +3921,7 @@
         <v>118169</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3929,7 +3929,7 @@
         <v>111813</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3937,7 +3937,7 @@
         <v>118226</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3945,7 +3945,7 @@
         <v>111812</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3953,7 +3953,7 @@
         <v>140991</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3961,7 +3961,7 @@
         <v>118257</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3969,7 +3969,7 @@
         <v>118119</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3977,7 +3977,7 @@
         <v>118187</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3985,7 +3985,7 @@
         <v>118229</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3993,7 +3993,7 @@
         <v>118419</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4001,7 +4001,7 @@
         <v>118333</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4009,7 +4009,7 @@
         <v>118205</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4017,7 +4017,7 @@
         <v>118113</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4025,7 +4025,7 @@
         <v>118530</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4033,7 +4033,7 @@
         <v>118528</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4041,7 +4041,7 @@
         <v>118200</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4049,7 +4049,7 @@
         <v>0</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4057,7 +4057,7 @@
         <v>111357</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4065,7 +4065,7 @@
         <v>108961</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4073,7 +4073,7 @@
         <v>105470</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4081,7 +4081,7 @@
         <v>110063</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4089,7 +4089,7 @@
         <v>105368</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4097,7 +4097,7 @@
         <v>118215</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4105,7 +4105,7 @@
         <v>110841</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4113,7 +4113,7 @@
         <v>110563</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4121,7 +4121,7 @@
         <v>120002</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4129,7 +4129,7 @@
         <v>120003</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4137,7 +4137,7 @@
         <v>120050</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4145,7 +4145,7 @@
         <v>120098</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4153,7 +4153,7 @@
         <v>122968</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4161,7 +4161,7 @@
         <v>122967</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4169,7 +4169,7 @@
         <v>123492</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4177,7 +4177,7 @@
         <v>123345</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4185,7 +4185,7 @@
         <v>123343</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4193,7 +4193,7 @@
         <v>120389</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4201,7 +4201,7 @@
         <v>123822</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4209,7 +4209,7 @@
         <v>123909</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4217,7 +4217,7 @@
         <v>124486</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4225,7 +4225,7 @@
         <v>121304</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4233,7 +4233,7 @@
         <v>122673</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4241,7 +4241,7 @@
         <v>122647</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4249,7 +4249,7 @@
         <v>123313</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4257,7 +4257,7 @@
         <v>120286</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4265,7 +4265,7 @@
         <v>122671</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4273,7 +4273,7 @@
         <v>122962</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4281,7 +4281,7 @@
         <v>120285</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4289,7 +4289,7 @@
         <v>121307</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4297,7 +4297,7 @@
         <v>123284</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4305,7 +4305,7 @@
         <v>120028</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4313,7 +4313,7 @@
         <v>120008</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4321,7 +4321,7 @@
         <v>123153</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4329,7 +4329,7 @@
         <v>124624</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4337,7 +4337,7 @@
         <v>124594</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4345,7 +4345,7 @@
         <v>123084</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4353,7 +4353,7 @@
         <v>124247</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4361,7 +4361,7 @@
         <v>120339</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4369,7 +4369,7 @@
         <v>124248</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4377,7 +4377,7 @@
         <v>124548</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4385,7 +4385,7 @@
         <v>123445</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4393,7 +4393,7 @@
         <v>124246</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4401,7 +4401,7 @@
         <v>122188</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="238" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4409,7 +4409,7 @@
         <v>122195</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4417,7 +4417,7 @@
         <v>122983</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="240" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4425,7 +4425,7 @@
         <v>122984</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4433,7 +4433,7 @@
         <v>123862</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4441,7 +4441,7 @@
         <v>122650</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -4449,7 +4449,7 @@
         <v>124433</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4457,7 +4457,7 @@
         <v>120995</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -4465,7 +4465,7 @@
         <v>123222</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4473,7 +4473,7 @@
         <v>120240</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4481,7 +4481,7 @@
         <v>123833</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4489,7 +4489,7 @@
         <v>124477</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4497,7 +4497,7 @@
         <v>123344</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4505,7 +4505,7 @@
         <v>124475</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4513,7 +4513,7 @@
         <v>121760</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4521,7 +4521,7 @@
         <v>124476</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4529,7 +4529,7 @@
         <v>124370</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4537,7 +4537,7 @@
         <v>121651</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4545,7 +4545,7 @@
         <v>124371</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4553,7 +4553,7 @@
         <v>122703</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4561,7 +4561,7 @@
         <v>123560</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4569,7 +4569,7 @@
         <v>123561</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4577,7 +4577,7 @@
         <v>160052</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4585,7 +4585,7 @@
         <v>160054</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4593,7 +4593,7 @@
         <v>160051</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4601,7 +4601,7 @@
         <v>160055</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4609,7 +4609,7 @@
         <v>1152018</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4617,7 +4617,7 @@
         <v>1100000</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4625,7 +4625,7 @@
         <v>1100403</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="266" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4633,7 +4633,7 @@
         <v>1100401</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="267" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4641,7 +4641,7 @@
         <v>1100402</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -4649,7 +4649,7 @@
         <v>1181019</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="269" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4657,7 +4657,7 @@
         <v>1101350</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4665,7 +4665,7 @@
         <v>1701535</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4673,7 +4673,7 @@
         <v>1701510</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4681,7 +4681,7 @@
         <v>1100051</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="273" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4689,7 +4689,7 @@
         <v>1100050</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4697,7 +4697,7 @@
         <v>1120001</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4705,7 +4705,7 @@
         <v>1600050</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4713,7 +4713,7 @@
         <v>1150005</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="277" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4721,7 +4721,7 @@
         <v>1150000</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4729,7 +4729,7 @@
         <v>1150003</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="279" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -4737,7 +4737,7 @@
         <v>1182040</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="280" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4745,7 +4745,7 @@
         <v>1103003</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="281" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4753,7 +4753,7 @@
         <v>1103002</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="282" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4761,7 +4761,7 @@
         <v>1103001</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="283" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4769,7 +4769,7 @@
         <v>1101150</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="284" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4777,7 +4777,7 @@
         <v>1101160</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="285" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4785,7 +4785,7 @@
         <v>1101202</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4793,7 +4793,7 @@
         <v>1101201</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="287" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -4801,7 +4801,7 @@
         <v>1602023</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="288" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4809,7 +4809,7 @@
         <v>1150014</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="289" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4817,7 +4817,7 @@
         <v>1150015</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="290" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4825,7 +4825,7 @@
         <v>1159210</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="291" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4833,7 +4833,7 @@
         <v>1159305</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="292" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4841,7 +4841,7 @@
         <v>1159211</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="293" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4849,7 +4849,7 @@
         <v>1159320</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="294" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4857,7 +4857,7 @@
         <v>1159324</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="295" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4865,7 +4865,7 @@
         <v>1150315</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="296" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4873,7 +4873,7 @@
         <v>1150020</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="297" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4881,7 +4881,7 @@
         <v>1150030</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="298" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4889,7 +4889,7 @@
         <v>1150032</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="299" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4897,7 +4897,7 @@
         <v>1150124</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="300" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4905,7 +4905,7 @@
         <v>1150900</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="301" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4913,7 +4913,7 @@
         <v>1101800</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="302" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4921,7 +4921,7 @@
         <v>1101410</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="303" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4929,7 +4929,7 @@
         <v>1101422</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="304" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4937,7 +4937,7 @@
         <v>1103004</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="305" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4945,7 +4945,7 @@
         <v>1103005</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="306" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4953,7 +4953,7 @@
         <v>1103006</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="307" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4961,7 +4961,7 @@
         <v>1701530</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="308" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4969,7 +4969,7 @@
         <v>1101250</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="309" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4977,7 +4977,7 @@
         <v>1701515</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="310" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4985,7 +4985,7 @@
         <v>1601005</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="311" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4993,7 +4993,7 @@
         <v>1601004</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="312" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5001,7 +5001,7 @@
         <v>1601002</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="313" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5009,7 +5009,7 @@
         <v>1601003</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="314" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5017,7 +5017,7 @@
         <v>1150022</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="315" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5025,7 +5025,7 @@
         <v>1159330</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="316" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5033,7 +5033,7 @@
         <v>1150201</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="317" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5041,7 +5041,7 @@
         <v>1150200</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="318" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5049,7 +5049,7 @@
         <v>1606094</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="319" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5057,7 +5057,7 @@
         <v>1606096</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="320" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5065,7 +5065,7 @@
         <v>1606097</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="321" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5073,7 +5073,7 @@
         <v>1606095</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="322" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5081,7 +5081,7 @@
         <v>1150041</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="323" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5089,7 +5089,7 @@
         <v>1150043</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="324" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5097,7 +5097,7 @@
         <v>1150411</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="325" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5105,7 +5105,7 @@
         <v>1159220</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="326" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5113,7 +5113,7 @@
         <v>1159230</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="327" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5121,7 +5121,7 @@
         <v>1159323</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="328" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5129,7 +5129,7 @@
         <v>1150300</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="329" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5137,7 +5137,7 @@
         <v>1150050</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="330" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5145,7 +5145,7 @@
         <v>1150060</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="331" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5153,7 +5153,7 @@
         <v>1150061</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="332" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5161,7 +5161,7 @@
         <v>1150062</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="333" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5169,7 +5169,7 @@
         <v>1150211</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="334" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5177,7 +5177,7 @@
         <v>1150415</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="335" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5185,7 +5185,7 @@
         <v>1159325</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="336" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5193,7 +5193,7 @@
         <v>1101414</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="337" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5201,7 +5201,7 @@
         <v>1101415</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="338" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5209,7 +5209,7 @@
         <v>1608000</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="339" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5217,7 +5217,7 @@
         <v>1150192</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="340" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5225,7 +5225,7 @@
         <v>1101300</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="341" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5233,7 +5233,7 @@
         <v>1102600</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="342" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5241,7 +5241,7 @@
         <v>1151002</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="343" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5249,7 +5249,7 @@
         <v>1151004</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="344" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5257,7 +5257,7 @@
         <v>1151003</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="345" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5265,7 +5265,7 @@
         <v>1159215</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="346" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5273,7 +5273,7 @@
         <v>1150221</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="347" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5281,7 +5281,7 @@
         <v>1151102</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="348" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5289,7 +5289,7 @@
         <v>1150080</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="349" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5297,7 +5297,7 @@
         <v>1150417</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="350" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5305,7 +5305,7 @@
         <v>1150095</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="351" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5313,7 +5313,7 @@
         <v>1606072</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="352" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5321,7 +5321,7 @@
         <v>1603001</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="353" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5329,7 +5329,7 @@
         <v>1606098</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="354" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5337,7 +5337,7 @@
         <v>1606099</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="355" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5345,7 +5345,7 @@
         <v>1650010</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="356" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5353,7 +5353,7 @@
         <v>1606011</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="357" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5361,7 +5361,7 @@
         <v>1606010</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="358" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5369,7 +5369,7 @@
         <v>1150233</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="359" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5377,7 +5377,7 @@
         <v>1150420</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="360" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5385,7 +5385,7 @@
         <v>1150242</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="361" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5393,7 +5393,7 @@
         <v>1150240</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="362" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5401,7 +5401,7 @@
         <v>1150100</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="363" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5409,7 +5409,7 @@
         <v>1150413</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="364" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5417,7 +5417,7 @@
         <v>1159101</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="365" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5425,7 +5425,7 @@
         <v>1159091</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="366" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5433,7 +5433,7 @@
         <v>1150106</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="367" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5441,7 +5441,7 @@
         <v>1150101</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="368" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5449,7 +5449,7 @@
         <v>1150414</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="369" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5457,7 +5457,7 @@
         <v>1159111</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="370" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5465,7 +5465,7 @@
         <v>1159102</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="371" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5473,7 +5473,7 @@
         <v>1159212</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="372" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5481,7 +5481,7 @@
         <v>1159214</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="373" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5489,7 +5489,7 @@
         <v>1159213</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="374" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5497,7 +5497,7 @@
         <v>1151801</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="375" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5505,7 +5505,7 @@
         <v>1151800</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="376" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5513,7 +5513,7 @@
         <v>1602003</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="377" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5521,7 +5521,7 @@
         <v>1606075</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="378" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5529,7 +5529,7 @@
         <v>1606080</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="379" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5537,7 +5537,7 @@
         <v>1656085</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="380" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5545,7 +5545,7 @@
         <v>1150423</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="381" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5553,7 +5553,7 @@
         <v>1150422</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="382" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5561,7 +5561,7 @@
         <v>1159309</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="383" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5569,7 +5569,7 @@
         <v>1159308</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="384" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5577,7 +5577,7 @@
         <v>1154902</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="385" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5585,7 +5585,7 @@
         <v>1150425</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="386" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5593,7 +5593,7 @@
         <v>1152800</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="387" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5601,7 +5601,7 @@
         <v>1153812</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="388" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5609,7 +5609,7 @@
         <v>1153814</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="389" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5617,7 +5617,7 @@
         <v>1150153</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="390" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5625,7 +5625,7 @@
         <v>1150155</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="391" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5633,7 +5633,7 @@
         <v>1150401</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="392" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5641,7 +5641,7 @@
         <v>1159010</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="393" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5649,7 +5649,7 @@
         <v>1153810</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="394" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5657,7 +5657,7 @@
         <v>1150132</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="395" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5665,7 +5665,7 @@
         <v>1150130</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="396" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5673,7 +5673,7 @@
         <v>1150131</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="397" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5681,7 +5681,7 @@
         <v>1150412</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="398" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5689,7 +5689,7 @@
         <v>1150410</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="399" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5697,7 +5697,7 @@
         <v>1606074</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="400" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5705,7 +5705,7 @@
         <v>1656095</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="401" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5713,7 +5713,7 @@
         <v>1153813</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="402" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5721,7 +5721,7 @@
         <v>1150142</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="403" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5729,7 +5729,7 @@
         <v>1159327</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="404" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5737,7 +5737,7 @@
         <v>1656096</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="405" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5745,7 +5745,7 @@
         <v>1650100</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="406" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5753,7 +5753,7 @@
         <v>1150163</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="407" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5761,7 +5761,7 @@
         <v>1606090</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="408" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5769,7 +5769,7 @@
         <v>1606092</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="409" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5777,7 +5777,7 @@
         <v>1150172</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="410" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5785,7 +5785,7 @@
         <v>1150173</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="411" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5793,7 +5793,7 @@
         <v>1155000</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="412" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5801,7 +5801,7 @@
         <v>1163740</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="413" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5809,7 +5809,7 @@
         <v>1168020</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="414" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5817,7 +5817,7 @@
         <v>1163410</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="415" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5825,7 +5825,7 @@
         <v>1163620</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="416" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5833,7 +5833,7 @@
         <v>1168025</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="417" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5841,7 +5841,7 @@
         <v>1163530</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="418" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5849,7 +5849,7 @@
         <v>1163850</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="419" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5857,7 +5857,7 @@
         <v>1155010</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="420" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5865,7 +5865,7 @@
         <v>1167010</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="421" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5873,7 +5873,7 @@
         <v>1168010</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="422" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5881,7 +5881,7 @@
         <v>1111120</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="423" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5889,7 +5889,7 @@
         <v>1111080</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="424" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5897,7 +5897,7 @@
         <v>1111060</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="425" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5905,7 +5905,7 @@
         <v>1111050</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="426" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5913,7 +5913,7 @@
         <v>1166060</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="427" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5921,7 +5921,7 @@
         <v>1155035</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="428" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5929,7 +5929,7 @@
         <v>1155020</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="429" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5937,7 +5937,7 @@
         <v>1155030</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="430" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5945,7 +5945,7 @@
         <v>1168013</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="431" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5953,7 +5953,7 @@
         <v>1102800</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="432" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5961,7 +5961,7 @@
         <v>1100600</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="433" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5969,7 +5969,7 @@
         <v>1701433</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="434" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5977,7 +5977,7 @@
         <v>1111110</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="435" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5985,7 +5985,7 @@
         <v>1111010</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="436" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5993,7 +5993,7 @@
         <v>1166020</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="437" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6001,7 +6001,7 @@
         <v>1166030</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="438" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6009,7 +6009,7 @@
         <v>1166040</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="439" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6017,7 +6017,7 @@
         <v>1166044</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="440" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6025,7 +6025,7 @@
         <v>1166042</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="441" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6033,7 +6033,7 @@
         <v>1111090</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="442" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6041,7 +6041,7 @@
         <v>1153815</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="443" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6049,7 +6049,7 @@
         <v>1101600</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="444" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6057,7 +6057,7 @@
         <v>1101601</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="445" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6065,7 +6065,7 @@
         <v>1100205</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="446" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6073,7 +6073,7 @@
         <v>1102400</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="447" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6081,7 +6081,7 @@
         <v>1103200</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="448" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6089,7 +6089,7 @@
         <v>1103261</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="449" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6097,7 +6097,7 @@
         <v>1111123</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="450" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6105,7 +6105,7 @@
         <v>1111100</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="451" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6113,7 +6113,7 @@
         <v>1161070</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="452" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6121,7 +6121,7 @@
         <v>1181015</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="453" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6129,7 +6129,7 @@
         <v>1153244</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="454" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6137,7 +6137,7 @@
         <v>1153242</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="455" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6145,7 +6145,7 @@
         <v>1310002</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="456" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6153,7 +6153,7 @@
         <v>1163250</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="457" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6161,7 +6161,7 @@
         <v>1157041</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="458" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6169,7 +6169,7 @@
         <v>1155036</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="459" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6177,7 +6177,7 @@
         <v>1155037</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="460" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6185,7 +6185,7 @@
         <v>1181017</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="461" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6193,7 +6193,7 @@
         <v>1153282</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="462" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6201,7 +6201,7 @@
         <v>1155040</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="463" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6209,7 +6209,7 @@
         <v>1157040</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="464" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6217,7 +6217,7 @@
         <v>1102500</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="465" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6225,7 +6225,7 @@
         <v>1103250</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="466" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6233,7 +6233,7 @@
         <v>1100811</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="467" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6241,7 +6241,7 @@
         <v>1103255</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="468" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6249,7 +6249,7 @@
         <v>1103257</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="469" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6257,7 +6257,7 @@
         <v>1100215</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="470" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6265,7 +6265,7 @@
         <v>1100040</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="471" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6273,7 +6273,7 @@
         <v>1100844</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="472" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6281,7 +6281,7 @@
         <v>1100225</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="473" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6289,7 +6289,7 @@
         <v>1100030</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="474" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6297,7 +6297,7 @@
         <v>1111122</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="475" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6305,7 +6305,7 @@
         <v>1168012</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="476" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6313,7 +6313,7 @@
         <v>1310001</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="477" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6321,7 +6321,7 @@
         <v>1168011</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="478" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6329,7 +6329,7 @@
         <v>1181040</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="479" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6337,7 +6337,7 @@
         <v>1157030</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="480" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6345,7 +6345,7 @@
         <v>1159300</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="481" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6353,7 +6353,7 @@
         <v>1157032</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="482" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6361,7 +6361,7 @@
         <v>1154065</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="483" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6369,7 +6369,7 @@
         <v>1320002</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="484" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6377,7 +6377,7 @@
         <v>1156010</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="485" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6385,7 +6385,7 @@
         <v>1100235</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="486" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6393,7 +6393,7 @@
         <v>1159332</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="487" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6401,7 +6401,7 @@
         <v>1703003</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="488" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6409,7 +6409,7 @@
         <v>1157700</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="489" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6417,7 +6417,7 @@
         <v>6009</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="490" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6425,7 +6425,7 @@
         <v>70012</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="491" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6433,7 +6433,7 @@
         <v>1016</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="492" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6441,7 +6441,7 @@
         <v>65016</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="493" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6449,7 +6449,7 @@
         <v>70016</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="494" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6457,7 +6457,7 @@
         <v>14175</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="495" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6465,7 +6465,7 @@
         <v>1</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="496" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6473,7 +6473,7 @@
         <v>130024</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="497" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6481,7 +6481,7 @@
         <v>19524</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="498" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6489,7 +6489,7 @@
         <v>2</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="499" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6497,7 +6497,7 @@
         <v>13188</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="500" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6505,7 +6505,7 @@
         <v>3</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="501" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6513,7 +6513,7 @@
         <v>4</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="502" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6521,7 +6521,7 @@
         <v>5</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="503" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6529,7 +6529,7 @@
         <v>6</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="504" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6537,7 +6537,7 @@
         <v>7</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="505" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6545,7 +6545,7 @@
         <v>8</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="506" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6553,7 +6553,7 @@
         <v>9</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="507" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6561,7 +6561,7 @@
         <v>10</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="508" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6569,7 +6569,7 @@
         <v>11</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="509" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6577,7 +6577,7 @@
         <v>12</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="510" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6585,7 +6585,7 @@
         <v>29525</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="511" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6593,7 +6593,7 @@
         <v>29529</v>
       </c>
       <c r="B511" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="512" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6601,7 +6601,7 @@
         <v>7500412</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="513" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6609,7 +6609,7 @@
         <v>7500413</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="514" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6617,7 +6617,7 @@
         <v>7500476</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="515" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6625,7 +6625,7 @@
         <v>8004516</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="516" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6633,7 +6633,7 @@
         <v>8004858</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="517" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6641,7 +6641,7 @@
         <v>7516056</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="518" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6655,7 +6655,7 @@
         <v>7516006</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="520" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6663,7 +6663,7 @@
         <v>7500178</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="521" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6671,7 +6671,7 @@
         <v>7500584</v>
       </c>
       <c r="B521" s="13" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="522" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6679,7 +6679,7 @@
         <v>7500589</v>
       </c>
       <c r="B522" s="15" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="523" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6687,7 +6687,7 @@
         <v>7500151</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="524" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6695,7 +6695,7 @@
         <v>7500149</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="525" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6703,7 +6703,7 @@
         <v>7500148</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="526" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6711,7 +6711,7 @@
         <v>7500150</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="527" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6719,7 +6719,7 @@
         <v>8004903</v>
       </c>
       <c r="B527" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="528" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6727,7 +6727,7 @@
         <v>3166</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="529" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6735,7 +6735,7 @@
         <v>3205</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="530" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6743,7 +6743,7 @@
         <v>3147</v>
       </c>
       <c r="B530" s="13" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="531" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6751,7 +6751,7 @@
         <v>104058</v>
       </c>
       <c r="B531" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="532" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6759,7 +6759,7 @@
         <v>3148</v>
       </c>
       <c r="B532" s="15" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="533" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6773,7 +6773,7 @@
         <v>103269</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="535" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6781,7 +6781,7 @@
         <v>2802</v>
       </c>
       <c r="B535" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="536" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6789,7 +6789,7 @@
         <v>2800</v>
       </c>
       <c r="B536" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="537" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6797,7 +6797,7 @@
         <v>13</v>
       </c>
       <c r="B537" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="538" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6805,7 +6805,7 @@
         <v>14</v>
       </c>
       <c r="B538" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="539" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6813,7 +6813,7 @@
         <v>15</v>
       </c>
       <c r="B539" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="540" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6821,7 +6821,7 @@
         <v>16</v>
       </c>
       <c r="B540" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="541" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6829,7 +6829,7 @@
         <v>17</v>
       </c>
       <c r="B541" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="542" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6837,7 +6837,7 @@
         <v>18</v>
       </c>
       <c r="B542" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="543" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6845,7 +6845,7 @@
         <v>19</v>
       </c>
       <c r="B543" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="544" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6853,7 +6853,7 @@
         <v>20</v>
       </c>
       <c r="B544" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="545" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6861,7 +6861,7 @@
         <v>21</v>
       </c>
       <c r="B545" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="546" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6869,7 +6869,7 @@
         <v>22</v>
       </c>
       <c r="B546" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="547" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6877,7 +6877,7 @@
         <v>23</v>
       </c>
       <c r="B547" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="548" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6885,7 +6885,7 @@
         <v>24</v>
       </c>
       <c r="B548" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="549" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6893,7 +6893,7 @@
         <v>25</v>
       </c>
       <c r="B549" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="550" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6901,7 +6901,7 @@
         <v>26</v>
       </c>
       <c r="B550" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="551" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6909,7 +6909,7 @@
         <v>27</v>
       </c>
       <c r="B551" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="552" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6917,7 +6917,7 @@
         <v>28</v>
       </c>
       <c r="B552" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="553" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6925,7 +6925,7 @@
         <v>29</v>
       </c>
       <c r="B553" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="554" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6933,7 +6933,7 @@
         <v>30</v>
       </c>
       <c r="B554" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="555" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6941,7 +6941,7 @@
         <v>31</v>
       </c>
       <c r="B555" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="556" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6949,7 +6949,7 @@
         <v>32</v>
       </c>
       <c r="B556" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="557" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6957,7 +6957,7 @@
         <v>33</v>
       </c>
       <c r="B557" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="558" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6965,7 +6965,7 @@
         <v>34</v>
       </c>
       <c r="B558" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="559" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6973,7 +6973,7 @@
         <v>35</v>
       </c>
       <c r="B559" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="560" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6981,7 +6981,7 @@
         <v>36</v>
       </c>
       <c r="B560" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="561" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6989,7 +6989,7 @@
         <v>37</v>
       </c>
       <c r="B561" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="562" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6997,7 +6997,7 @@
         <v>38</v>
       </c>
       <c r="B562" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="563" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -7005,7 +7005,7 @@
         <v>39</v>
       </c>
       <c r="B563" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="564" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -7013,7 +7013,7 @@
         <v>40</v>
       </c>
       <c r="B564" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="565" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -7021,7 +7021,7 @@
         <v>41</v>
       </c>
       <c r="B565" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="566" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -7029,7 +7029,7 @@
         <v>42</v>
       </c>
       <c r="B566" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="567" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -7037,7 +7037,7 @@
         <v>43</v>
       </c>
       <c r="B567" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="568" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -7045,7 +7045,7 @@
         <v>44</v>
       </c>
       <c r="B568" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="569" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -7053,7 +7053,7 @@
         <v>45</v>
       </c>
       <c r="B569" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="570" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -7061,7 +7061,7 @@
         <v>46</v>
       </c>
       <c r="B570" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="571" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -7069,7 +7069,7 @@
         <v>47</v>
       </c>
       <c r="B571" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="572" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -7077,7 +7077,7 @@
         <v>48</v>
       </c>
       <c r="B572" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="573" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7085,7 +7085,7 @@
         <v>49</v>
       </c>
       <c r="B573" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="574" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7093,7 +7093,7 @@
         <v>50</v>
       </c>
       <c r="B574" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="575" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7101,7 +7101,7 @@
         <v>51</v>
       </c>
       <c r="B575" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="576" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7109,7 +7109,7 @@
         <v>52</v>
       </c>
       <c r="B576" s="7" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="577" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7117,7 +7117,7 @@
         <v>53</v>
       </c>
       <c r="B577" s="7" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="578" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7125,7 +7125,7 @@
         <v>54</v>
       </c>
       <c r="B578" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="579" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7133,7 +7133,7 @@
         <v>55</v>
       </c>
       <c r="B579" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="580" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7141,7 +7141,7 @@
         <v>56</v>
       </c>
       <c r="B580" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="581" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7149,7 +7149,7 @@
         <v>57</v>
       </c>
       <c r="B581" s="7" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="582" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7157,7 +7157,7 @@
         <v>58</v>
       </c>
       <c r="B582" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="583" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7165,7 +7165,7 @@
         <v>59</v>
       </c>
       <c r="B583" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="584" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7173,7 +7173,7 @@
         <v>60</v>
       </c>
       <c r="B584" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="585" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7181,7 +7181,7 @@
         <v>61</v>
       </c>
       <c r="B585" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="586" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7189,7 +7189,7 @@
         <v>62</v>
       </c>
       <c r="B586" s="7" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="587" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7197,7 +7197,7 @@
         <v>63</v>
       </c>
       <c r="B587" s="7" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="588" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7205,7 +7205,7 @@
         <v>64</v>
       </c>
       <c r="B588" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="589" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7213,7 +7213,7 @@
         <v>65</v>
       </c>
       <c r="B589" s="7" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="590" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7221,7 +7221,7 @@
         <v>66</v>
       </c>
       <c r="B590" s="7" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="591" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7229,7 +7229,7 @@
         <v>67</v>
       </c>
       <c r="B591" s="7" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="592" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7237,7 +7237,7 @@
         <v>68</v>
       </c>
       <c r="B592" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="593" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7245,7 +7245,7 @@
         <v>69</v>
       </c>
       <c r="B593" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="594" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7253,7 +7253,7 @@
         <v>70</v>
       </c>
       <c r="B594" s="7" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="595" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7261,7 +7261,7 @@
         <v>71</v>
       </c>
       <c r="B595" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="596" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7269,7 +7269,7 @@
         <v>72</v>
       </c>
       <c r="B596" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="597" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7277,7 +7277,7 @@
         <v>73</v>
       </c>
       <c r="B597" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="598" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7285,7 +7285,7 @@
         <v>6053</v>
       </c>
       <c r="B598" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="599" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7293,7 +7293,7 @@
         <v>6056</v>
       </c>
       <c r="B599" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="600" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7301,7 +7301,7 @@
         <v>6059</v>
       </c>
       <c r="B600" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="601" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7309,7 +7309,7 @@
         <v>6062</v>
       </c>
       <c r="B601" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="602" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7317,7 +7317,7 @@
         <v>6065</v>
       </c>
       <c r="B602" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="603" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7325,7 +7325,7 @@
         <v>6071</v>
       </c>
       <c r="B603" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="604" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7333,7 +7333,7 @@
         <v>6074</v>
       </c>
       <c r="B604" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="605" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7341,7 +7341,7 @@
         <v>6077</v>
       </c>
       <c r="B605" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="606" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7349,7 +7349,7 @@
         <v>6080</v>
       </c>
       <c r="B606" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="607" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7357,7 +7357,7 @@
         <v>6083</v>
       </c>
       <c r="B607" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="608" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7365,7 +7365,7 @@
         <v>6086</v>
       </c>
       <c r="B608" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="609" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7373,7 +7373,7 @@
         <v>6089</v>
       </c>
       <c r="B609" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="610" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7381,7 +7381,7 @@
         <v>6098</v>
       </c>
       <c r="B610" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="611" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7389,7 +7389,7 @@
         <v>6101</v>
       </c>
       <c r="B611" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="612" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7397,7 +7397,7 @@
         <v>6107</v>
       </c>
       <c r="B612" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="613" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7405,7 +7405,7 @@
         <v>6535</v>
       </c>
       <c r="B613" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="614" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7413,7 +7413,7 @@
         <v>6555</v>
       </c>
       <c r="B614" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="615" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7421,7 +7421,7 @@
         <v>6567</v>
       </c>
       <c r="B615" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="616" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7429,7 +7429,7 @@
         <v>6569</v>
       </c>
       <c r="B616" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="617" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7437,7 +7437,7 @@
         <v>6571</v>
       </c>
       <c r="B617" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="618" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7445,7 +7445,7 @@
         <v>6607</v>
       </c>
       <c r="B618" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="619" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7453,7 +7453,7 @@
         <v>6623</v>
       </c>
       <c r="B619" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="620" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7461,7 +7461,7 @@
         <v>6627</v>
       </c>
       <c r="B620" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="621" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7469,7 +7469,7 @@
         <v>6635</v>
       </c>
       <c r="B621" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="622" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7477,7 +7477,7 @@
         <v>6731</v>
       </c>
       <c r="B622" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="623" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7485,7 +7485,7 @@
         <v>6747</v>
       </c>
       <c r="B623" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="624" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7493,7 +7493,7 @@
         <v>6787</v>
       </c>
       <c r="B624" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="625" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7501,7 +7501,7 @@
         <v>6819</v>
       </c>
       <c r="B625" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="626" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7509,7 +7509,7 @@
         <v>4892</v>
       </c>
       <c r="B626" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="627" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7517,7 +7517,7 @@
         <v>5029</v>
       </c>
       <c r="B627" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="628" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7525,7 +7525,7 @@
         <v>5050</v>
       </c>
       <c r="B628" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="629" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7533,7 +7533,7 @@
         <v>5030</v>
       </c>
       <c r="B629" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="630" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7541,7 +7541,7 @@
         <v>5031</v>
       </c>
       <c r="B630" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="631" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7549,7 +7549,7 @@
         <v>5035</v>
       </c>
       <c r="B631" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="632" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7557,7 +7557,7 @@
         <v>5041</v>
       </c>
       <c r="B632" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="633" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7565,7 +7565,7 @@
         <v>5048</v>
       </c>
       <c r="B633" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="634" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7573,7 +7573,7 @@
         <v>5045</v>
       </c>
       <c r="B634" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="635" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7581,7 +7581,7 @@
         <v>5034</v>
       </c>
       <c r="B635" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="636" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7589,7 +7589,7 @@
         <v>5036</v>
       </c>
       <c r="B636" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="637" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7597,7 +7597,7 @@
         <v>5042</v>
       </c>
       <c r="B637" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="638" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7605,7 +7605,7 @@
         <v>5047</v>
       </c>
       <c r="B638" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="639" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7613,7 +7613,7 @@
         <v>5049</v>
       </c>
       <c r="B639" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="640" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7621,7 +7621,7 @@
         <v>5005</v>
       </c>
       <c r="B640" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="641" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7629,7 +7629,7 @@
         <v>5015</v>
       </c>
       <c r="B641" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="642" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7637,7 +7637,7 @@
         <v>5007</v>
       </c>
       <c r="B642" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="643" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7645,7 +7645,7 @@
         <v>5008</v>
       </c>
       <c r="B643" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="644" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7653,7 +7653,7 @@
         <v>6241</v>
       </c>
       <c r="B644" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="645" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7661,7 +7661,7 @@
         <v>6259</v>
       </c>
       <c r="B645" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="646" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7669,7 +7669,7 @@
         <v>6249</v>
       </c>
       <c r="B646" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="647" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7677,7 +7677,7 @@
         <v>5555</v>
       </c>
       <c r="B647" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="648" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7685,7 +7685,7 @@
         <v>5535</v>
       </c>
       <c r="B648" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="649" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7693,7 +7693,7 @@
         <v>5567</v>
       </c>
       <c r="B649" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="650" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7701,7 +7701,7 @@
         <v>5527</v>
       </c>
       <c r="B650" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="651" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7709,7 +7709,7 @@
         <v>5563</v>
       </c>
       <c r="B651" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="652" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7717,7 +7717,7 @@
         <v>4452</v>
       </c>
       <c r="B652" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="653" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7725,7 +7725,7 @@
         <v>4359</v>
       </c>
       <c r="B653" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="654" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7733,7 +7733,7 @@
         <v>4360</v>
       </c>
       <c r="B654" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="655" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7741,7 +7741,7 @@
         <v>4361</v>
       </c>
       <c r="B655" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="656" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7749,7 +7749,7 @@
         <v>4362</v>
       </c>
       <c r="B656" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="657" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7757,7 +7757,7 @@
         <v>4453</v>
       </c>
       <c r="B657" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="658" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7765,7 +7765,7 @@
         <v>4449</v>
       </c>
       <c r="B658" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="659" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7773,7 +7773,7 @@
         <v>4363</v>
       </c>
       <c r="B659" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="660" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7781,7 +7781,7 @@
         <v>4364</v>
       </c>
       <c r="B660" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="661" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7789,7 +7789,7 @@
         <v>4610</v>
       </c>
       <c r="B661" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="662" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7797,7 +7797,7 @@
         <v>4457</v>
       </c>
       <c r="B662" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="663" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7805,7 +7805,7 @@
         <v>4613</v>
       </c>
       <c r="B663" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="664" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7813,7 +7813,7 @@
         <v>3356</v>
       </c>
       <c r="B664" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="665" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7821,7 +7821,7 @@
         <v>3392</v>
       </c>
       <c r="B665" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="666" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7829,7 +7829,7 @@
         <v>3445</v>
       </c>
       <c r="B666" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="667" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7837,7 +7837,7 @@
         <v>3355</v>
       </c>
       <c r="B667" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="668" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7845,7 +7845,7 @@
         <v>3453</v>
       </c>
       <c r="B668" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="669" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7853,7 +7853,7 @@
         <v>3286</v>
       </c>
       <c r="B669" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="670" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7861,7 +7861,7 @@
         <v>3450</v>
       </c>
       <c r="B670" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="671" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7869,7 +7869,7 @@
         <v>3357</v>
       </c>
       <c r="B671" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="672" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7877,7 +7877,7 @@
         <v>3397</v>
       </c>
       <c r="B672" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="673" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7885,7 +7885,7 @@
         <v>3393</v>
       </c>
       <c r="B673" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="674" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7893,7 +7893,7 @@
         <v>3421</v>
       </c>
       <c r="B674" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="675" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7901,7 +7901,7 @@
         <v>3426</v>
       </c>
       <c r="B675" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="676" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7909,7 +7909,7 @@
         <v>3446</v>
       </c>
       <c r="B676" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="677" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7917,7 +7917,7 @@
         <v>3458</v>
       </c>
       <c r="B677" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="678" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7925,7 +7925,7 @@
         <v>3464</v>
       </c>
       <c r="B678" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="679" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7933,7 +7933,7 @@
         <v>3478</v>
       </c>
       <c r="B679" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="680" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7941,7 +7941,7 @@
         <v>6662</v>
       </c>
       <c r="B680" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="681" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7949,7 +7949,7 @@
         <v>3461</v>
       </c>
       <c r="B681" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="682" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7957,7 +7957,7 @@
         <v>3477</v>
       </c>
       <c r="B682" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="683" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7965,7 +7965,7 @@
         <v>3472</v>
       </c>
       <c r="B683" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="684" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7973,7 +7973,7 @@
         <v>3176</v>
       </c>
       <c r="B684" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="685" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7981,7 +7981,7 @@
         <v>3206</v>
       </c>
       <c r="B685" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="686" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7989,7 +7989,7 @@
         <v>3239</v>
       </c>
       <c r="B686" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="687" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7997,7 +7997,7 @@
         <v>3208</v>
       </c>
       <c r="B687" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="688" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8005,7 +8005,7 @@
         <v>3241</v>
       </c>
       <c r="B688" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="689" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8013,7 +8013,7 @@
         <v>3237</v>
       </c>
       <c r="B689" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="690" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8021,7 +8021,7 @@
         <v>3269</v>
       </c>
       <c r="B690" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="691" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8029,7 +8029,7 @@
         <v>3303</v>
       </c>
       <c r="B691" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="692" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8037,7 +8037,7 @@
         <v>3352</v>
       </c>
       <c r="B692" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="693" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8045,7 +8045,7 @@
         <v>3238</v>
       </c>
       <c r="B693" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="694" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8053,7 +8053,7 @@
         <v>3347</v>
       </c>
       <c r="B694" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="695" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8061,7 +8061,7 @@
         <v>74</v>
       </c>
       <c r="B695" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="696" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8069,7 +8069,7 @@
         <v>75</v>
       </c>
       <c r="B696" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="697" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8077,7 +8077,7 @@
         <v>76</v>
       </c>
       <c r="B697" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="698" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8085,7 +8085,7 @@
         <v>77</v>
       </c>
       <c r="B698" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="699" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8093,7 +8093,7 @@
         <v>78</v>
       </c>
       <c r="B699" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="700" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8101,7 +8101,7 @@
         <v>79</v>
       </c>
       <c r="B700" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="701" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8109,7 +8109,7 @@
         <v>80</v>
       </c>
       <c r="B701" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="702" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8117,7 +8117,7 @@
         <v>81</v>
       </c>
       <c r="B702" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="703" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8125,7 +8125,7 @@
         <v>82</v>
       </c>
       <c r="B703" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="704" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8133,7 +8133,7 @@
         <v>83</v>
       </c>
       <c r="B704" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="705" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8141,7 +8141,7 @@
         <v>84</v>
       </c>
       <c r="B705" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="706" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8149,7 +8149,7 @@
         <v>85</v>
       </c>
       <c r="B706" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="707" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8157,7 +8157,7 @@
         <v>86</v>
       </c>
       <c r="B707" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="708" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8165,7 +8165,7 @@
         <v>87</v>
       </c>
       <c r="B708" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="709" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8173,7 +8173,7 @@
         <v>88</v>
       </c>
       <c r="B709" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="710" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8181,7 +8181,7 @@
         <v>89</v>
       </c>
       <c r="B710" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="711" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8189,7 +8189,7 @@
         <v>90</v>
       </c>
       <c r="B711" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="712" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8197,7 +8197,7 @@
         <v>91</v>
       </c>
       <c r="B712" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="713" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8205,7 +8205,7 @@
         <v>92</v>
       </c>
       <c r="B713" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="714" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8213,7 +8213,7 @@
         <v>93</v>
       </c>
       <c r="B714" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="715" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8221,7 +8221,7 @@
         <v>94</v>
       </c>
       <c r="B715" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="716" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8229,7 +8229,7 @@
         <v>95</v>
       </c>
       <c r="B716" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="717" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8237,7 +8237,7 @@
         <v>96</v>
       </c>
       <c r="B717" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="718" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8245,7 +8245,7 @@
         <v>97</v>
       </c>
       <c r="B718" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="719" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8253,7 +8253,7 @@
         <v>98</v>
       </c>
       <c r="B719" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="720" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8261,7 +8261,7 @@
         <v>99</v>
       </c>
       <c r="B720" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="721" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8269,7 +8269,7 @@
         <v>100</v>
       </c>
       <c r="B721" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="722" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8277,7 +8277,7 @@
         <v>101</v>
       </c>
       <c r="B722" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="723" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8285,7 +8285,7 @@
         <v>102</v>
       </c>
       <c r="B723" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="724" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8293,7 +8293,7 @@
         <v>103</v>
       </c>
       <c r="B724" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="725" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8301,7 +8301,7 @@
         <v>104</v>
       </c>
       <c r="B725" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="726" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8309,7 +8309,7 @@
         <v>105</v>
       </c>
       <c r="B726" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="727" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8317,7 +8317,7 @@
         <v>106</v>
       </c>
       <c r="B727" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="728" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8325,7 +8325,7 @@
         <v>107</v>
       </c>
       <c r="B728" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="729" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8333,7 +8333,7 @@
         <v>108</v>
       </c>
       <c r="B729" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="730" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8341,7 +8341,7 @@
         <v>109</v>
       </c>
       <c r="B730" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="731" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8349,7 +8349,7 @@
         <v>110</v>
       </c>
       <c r="B731" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="732" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8357,7 +8357,7 @@
         <v>111</v>
       </c>
       <c r="B732" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="733" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8365,7 +8365,7 @@
         <v>112</v>
       </c>
       <c r="B733" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="734" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8379,7 +8379,7 @@
         <v>114</v>
       </c>
       <c r="B735" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="736" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8387,7 +8387,7 @@
         <v>115</v>
       </c>
       <c r="B736" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="737" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8395,7 +8395,7 @@
         <v>116</v>
       </c>
       <c r="B737" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="738" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8403,7 +8403,7 @@
         <v>117</v>
       </c>
       <c r="B738" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="739" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8411,7 +8411,7 @@
         <v>118</v>
       </c>
       <c r="B739" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="740" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8419,7 +8419,7 @@
         <v>119</v>
       </c>
       <c r="B740" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="741" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8427,7 +8427,7 @@
         <v>120</v>
       </c>
       <c r="B741" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="742" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8435,7 +8435,7 @@
         <v>121</v>
       </c>
       <c r="B742" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="743" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8443,7 +8443,7 @@
         <v>122</v>
       </c>
       <c r="B743" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="744" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8451,7 +8451,7 @@
         <v>123</v>
       </c>
       <c r="B744" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="745" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8459,7 +8459,7 @@
         <v>124</v>
       </c>
       <c r="B745" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="746" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8467,7 +8467,7 @@
         <v>125</v>
       </c>
       <c r="B746" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="747" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8475,7 +8475,7 @@
         <v>126</v>
       </c>
       <c r="B747" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="748" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8483,311 +8483,311 @@
         <v>127</v>
       </c>
       <c r="B748" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="749" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A749" s="1" t="s">
-        <v>128</v>
+        <v>678</v>
       </c>
       <c r="B749" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="750" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A750" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B750" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="751" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A751" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B751" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="752" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A752" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B752" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="753" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A753" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B753" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="754" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A754" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B754" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="755" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A755" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B755" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="756" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A756" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B756" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="757" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A757" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B757" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="758" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A758" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B758" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="759" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A759" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B759" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="760" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A760" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B760" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="761" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A761" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B761" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="762" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A762" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B762" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="763" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A763" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B763" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="764" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A764" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B764" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="765" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A765" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B765" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="766" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A766" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B766" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="767" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A767" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B767" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="768" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A768" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B768" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="769" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A769" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B769" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="770" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A770" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B770" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="771" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A771" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B771" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="772" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A772" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B772" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="773" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A773" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B773" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="774" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A774" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B774" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="775" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A775" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B775" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="776" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A776" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B776" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="777" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A777" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B777" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="778" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A778" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B778" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="779" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A779" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B779" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="780" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A780" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B780" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="781" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A781" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B781" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="782" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A782" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B782" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="783" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A783" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B783" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="784" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A784" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B784" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="785" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A785" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B785" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="786" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A786" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B786" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="787" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8795,36 +8795,36 @@
         <v>3305</v>
       </c>
       <c r="B787" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="788" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A788" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B788" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A789" s="9" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B789" s="10" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="790" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A790" s="9" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B790" s="10" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="791" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A791" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B791">
         <v>1644</v>
@@ -8832,7 +8832,7 @@
     </row>
     <row r="792" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A792" s="11" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B792">
         <v>4292</v>
@@ -8840,7 +8840,7 @@
     </row>
     <row r="793" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A793" s="11" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B793">
         <v>2745</v>

--- a/api/files/prices.xlsx
+++ b/api/files/prices.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29525"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\la union\Desktop\la_union_api_prices\api\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mamustin\Desktop\la_union_api_prices\api\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46BEE690-1692-4994-8651-036D89A46443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E65EA1-7867-4D71-968F-4C28A9BDBFDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="681">
   <si>
     <t>S/COD</t>
   </si>
@@ -2065,6 +2062,12 @@
   </si>
   <si>
     <t>F42</t>
+  </si>
+  <si>
+    <t>AR6781703G</t>
+  </si>
+  <si>
+    <t>AR16217038</t>
   </si>
 </sst>
 </file>
@@ -2172,7 +2175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2198,14 +2201,11 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2497,18 +2497,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B793"/>
+  <dimension ref="A1:B795"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A729" workbookViewId="0">
-      <selection activeCell="A750" sqref="A750"/>
+    <sheetView tabSelected="1" topLeftCell="A771" workbookViewId="0">
+      <selection activeCell="E783" sqref="E783"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>110375</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>117809</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>110371</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>117808</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>110540</v>
       </c>
@@ -2548,7 +2548,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>110376</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>110372</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>118299</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>109747</v>
       </c>
@@ -2580,7 +2580,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>110373</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>117820</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>110529</v>
       </c>
@@ -2604,7 +2604,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>117822</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>110325</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>110374</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>107830</v>
       </c>
@@ -2636,7 +2636,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>140921</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>117833</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>141048</v>
       </c>
@@ -2660,7 +2660,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>108794</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>111463</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>141823</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>111466</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>106855</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>118330</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>108711</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>111462</v>
       </c>
@@ -2724,7 +2724,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>117831</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>107236</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>117821</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>110787</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>111469</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>118140</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>111468</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>105333</v>
       </c>
@@ -2788,7 +2788,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>117787</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>111743</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>111172</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>108795</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>111418</v>
       </c>
@@ -2828,7 +2828,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>117785</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>105894</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>108303</v>
       </c>
@@ -2852,7 +2852,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>107263</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>106698</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>118298</v>
       </c>
@@ -2876,7 +2876,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>118337</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>118403</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>110733</v>
       </c>
@@ -2900,7 +2900,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>118338</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>108701</v>
       </c>
@@ -2916,7 +2916,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>117706</v>
       </c>
@@ -2924,7 +2924,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>117862</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>118094</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>107629</v>
       </c>
@@ -2948,7 +2948,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>117861</v>
       </c>
@@ -2956,7 +2956,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>117786</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>111467</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>108583</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>110581</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>110711</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>117935</v>
       </c>
@@ -3004,7 +3004,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>118381</v>
       </c>
@@ -3012,7 +3012,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>106565</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>108361</v>
       </c>
@@ -3028,7 +3028,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>118382</v>
       </c>
@@ -3036,7 +3036,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>118286</v>
       </c>
@@ -3044,7 +3044,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>107495</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>110233</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>109493</v>
       </c>
@@ -3068,7 +3068,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>110580</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>110193</v>
       </c>
@@ -3084,7 +3084,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>118379</v>
       </c>
@@ -3092,7 +3092,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>118497</v>
       </c>
@@ -3100,7 +3100,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>118392</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>117948</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>118383</v>
       </c>
@@ -3124,7 +3124,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>118376</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>117859</v>
       </c>
@@ -3140,7 +3140,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>118391</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>118319</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>118320</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>117789</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>141565</v>
       </c>
@@ -3180,7 +3180,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>117840</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>111442</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>110745</v>
       </c>
@@ -3204,7 +3204,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>110751</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>111434</v>
       </c>
@@ -3220,7 +3220,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>111381</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>108871</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>116241</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>109338</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>140922</v>
       </c>
@@ -3260,7 +3260,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>108022</v>
       </c>
@@ -3268,7 +3268,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>111532</v>
       </c>
@@ -3276,7 +3276,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>111383</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>117854</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>111443</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>117315</v>
       </c>
@@ -3308,7 +3308,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>110740</v>
       </c>
@@ -3316,7 +3316,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>110762</v>
       </c>
@@ -3324,7 +3324,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>100761</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>111435</v>
       </c>
@@ -3340,7 +3340,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>117841</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>110743</v>
       </c>
@@ -3356,7 +3356,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>117838</v>
       </c>
@@ -3364,7 +3364,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>111433</v>
       </c>
@@ -3372,7 +3372,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>111430</v>
       </c>
@@ -3380,7 +3380,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>117834</v>
       </c>
@@ -3388,7 +3388,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>117289</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>116527</v>
       </c>
@@ -3404,7 +3404,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>107472</v>
       </c>
@@ -3412,7 +3412,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>110746</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>111569</v>
       </c>
@@ -3428,7 +3428,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>110742</v>
       </c>
@@ -3436,7 +3436,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>118306</v>
       </c>
@@ -3444,7 +3444,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>107474</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>111598</v>
       </c>
@@ -3460,7 +3460,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>110515</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>111530</v>
       </c>
@@ -3476,7 +3476,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>110752</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>107890</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>117087</v>
       </c>
@@ -3500,7 +3500,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>111439</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>110756</v>
       </c>
@@ -3516,7 +3516,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>107886</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>110753</v>
       </c>
@@ -3532,7 +3532,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>110750</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>111879</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>111437</v>
       </c>
@@ -3556,7 +3556,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>110749</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>111447</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>107532</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>109933</v>
       </c>
@@ -3588,7 +3588,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>111655</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>111438</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>110747</v>
       </c>
@@ -3612,7 +3612,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>111445</v>
       </c>
@@ -3620,7 +3620,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>106955</v>
       </c>
@@ -3628,7 +3628,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>110313</v>
       </c>
@@ -3636,7 +3636,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>117853</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>110339</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>117856</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>117855</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>108772</v>
       </c>
@@ -3676,7 +3676,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>108592</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>118183</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>110741</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>107888</v>
       </c>
@@ -3708,7 +3708,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>111436</v>
       </c>
@@ -3716,7 +3716,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>111660</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>111441</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>118222</v>
       </c>
@@ -3740,7 +3740,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>110755</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>107109</v>
       </c>
@@ -3756,7 +3756,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>118304</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>110895</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>111850</v>
       </c>
@@ -3780,7 +3780,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>108770</v>
       </c>
@@ -3788,7 +3788,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>107892</v>
       </c>
@@ -3796,7 +3796,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>111440</v>
       </c>
@@ -3804,7 +3804,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>111690</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>107537</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>109646</v>
       </c>
@@ -3828,7 +3828,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>109645</v>
       </c>
@@ -3836,7 +3836,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>109647</v>
       </c>
@@ -3844,7 +3844,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>105111</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>111182</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>109641</v>
       </c>
@@ -3868,7 +3868,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>105705</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>109640</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="4">
         <v>111330</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>118166</v>
       </c>
@@ -3900,7 +3900,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>118168</v>
       </c>
@@ -3908,7 +3908,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>118171</v>
       </c>
@@ -3916,7 +3916,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>118169</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>111813</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>118226</v>
       </c>
@@ -3940,7 +3940,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>111812</v>
       </c>
@@ -3948,7 +3948,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>140991</v>
       </c>
@@ -3956,7 +3956,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>118257</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>118119</v>
       </c>
@@ -3972,7 +3972,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>118187</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>118229</v>
       </c>
@@ -3988,7 +3988,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>118419</v>
       </c>
@@ -3996,7 +3996,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>118333</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>118205</v>
       </c>
@@ -4012,7 +4012,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>118113</v>
       </c>
@@ -4020,7 +4020,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>118530</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>118528</v>
       </c>
@@ -4036,7 +4036,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>118200</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>0</v>
       </c>
@@ -4052,7 +4052,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>111357</v>
       </c>
@@ -4060,7 +4060,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>108961</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>105470</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>110063</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>105368</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>118215</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>110841</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>110563</v>
       </c>
@@ -4116,7 +4116,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>120002</v>
       </c>
@@ -4124,7 +4124,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>120003</v>
       </c>
@@ -4132,7 +4132,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>120050</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>120098</v>
       </c>
@@ -4148,7 +4148,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>122968</v>
       </c>
@@ -4156,7 +4156,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>122967</v>
       </c>
@@ -4164,7 +4164,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>123492</v>
       </c>
@@ -4172,7 +4172,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>123345</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>123343</v>
       </c>
@@ -4188,7 +4188,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>120389</v>
       </c>
@@ -4196,7 +4196,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>123822</v>
       </c>
@@ -4204,7 +4204,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>123909</v>
       </c>
@@ -4212,7 +4212,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>124486</v>
       </c>
@@ -4220,7 +4220,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>121304</v>
       </c>
@@ -4228,7 +4228,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="216" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>122673</v>
       </c>
@@ -4236,7 +4236,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>122647</v>
       </c>
@@ -4244,7 +4244,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>123313</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>120286</v>
       </c>
@@ -4260,7 +4260,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>122671</v>
       </c>
@@ -4268,7 +4268,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="221" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>122962</v>
       </c>
@@ -4276,7 +4276,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>120285</v>
       </c>
@@ -4284,7 +4284,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="223" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>121307</v>
       </c>
@@ -4292,7 +4292,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="224" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>123284</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="225" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>120028</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>120008</v>
       </c>
@@ -4316,7 +4316,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="227" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>123153</v>
       </c>
@@ -4324,7 +4324,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="228" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>124624</v>
       </c>
@@ -4332,7 +4332,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="229" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>124594</v>
       </c>
@@ -4340,7 +4340,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="230" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>123084</v>
       </c>
@@ -4348,7 +4348,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="231" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>124247</v>
       </c>
@@ -4356,7 +4356,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="232" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>120339</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>124248</v>
       </c>
@@ -4372,7 +4372,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="234" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>124548</v>
       </c>
@@ -4380,7 +4380,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>123445</v>
       </c>
@@ -4388,7 +4388,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>124246</v>
       </c>
@@ -4396,7 +4396,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="237" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>122188</v>
       </c>
@@ -4404,7 +4404,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="238" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>122195</v>
       </c>
@@ -4412,7 +4412,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>122983</v>
       </c>
@@ -4420,7 +4420,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>122984</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="241" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>123862</v>
       </c>
@@ -4436,7 +4436,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="242" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>122650</v>
       </c>
@@ -4444,7 +4444,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>124433</v>
       </c>
@@ -4452,7 +4452,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="244" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>120995</v>
       </c>
@@ -4460,7 +4460,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="245" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>123222</v>
       </c>
@@ -4468,7 +4468,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="246" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>120240</v>
       </c>
@@ -4476,7 +4476,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>123833</v>
       </c>
@@ -4484,7 +4484,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="248" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>124477</v>
       </c>
@@ -4492,7 +4492,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>123344</v>
       </c>
@@ -4500,7 +4500,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>124475</v>
       </c>
@@ -4508,7 +4508,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="251" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>121760</v>
       </c>
@@ -4516,7 +4516,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="252" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>124476</v>
       </c>
@@ -4524,7 +4524,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="253" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>124370</v>
       </c>
@@ -4532,7 +4532,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="254" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>121651</v>
       </c>
@@ -4540,7 +4540,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>124371</v>
       </c>
@@ -4548,7 +4548,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="256" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>122703</v>
       </c>
@@ -4556,7 +4556,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="257" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>123560</v>
       </c>
@@ -4564,7 +4564,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="258" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>123561</v>
       </c>
@@ -4572,7 +4572,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="259" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>160052</v>
       </c>
@@ -4580,7 +4580,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>160054</v>
       </c>
@@ -4588,7 +4588,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>160051</v>
       </c>
@@ -4596,7 +4596,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="262" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>160055</v>
       </c>
@@ -4604,7 +4604,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="263" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>1152018</v>
       </c>
@@ -4612,7 +4612,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="264" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>1100000</v>
       </c>
@@ -4620,7 +4620,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>1100403</v>
       </c>
@@ -4628,7 +4628,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="266" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>1100401</v>
       </c>
@@ -4636,7 +4636,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>1100402</v>
       </c>
@@ -4644,7 +4644,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="268" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>1181019</v>
       </c>
@@ -4652,7 +4652,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="269" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>1101350</v>
       </c>
@@ -4660,7 +4660,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="270" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>1701535</v>
       </c>
@@ -4668,7 +4668,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="271" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>1701510</v>
       </c>
@@ -4676,7 +4676,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="272" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>1100051</v>
       </c>
@@ -4684,7 +4684,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>1100050</v>
       </c>
@@ -4692,7 +4692,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="274" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>1120001</v>
       </c>
@@ -4700,7 +4700,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="275" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>1600050</v>
       </c>
@@ -4708,7 +4708,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>1150005</v>
       </c>
@@ -4716,7 +4716,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="277" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>1150000</v>
       </c>
@@ -4724,7 +4724,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="278" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>1150003</v>
       </c>
@@ -4732,7 +4732,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="279" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>1182040</v>
       </c>
@@ -4740,7 +4740,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="280" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>1103003</v>
       </c>
@@ -4748,7 +4748,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="281" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>1103002</v>
       </c>
@@ -4756,7 +4756,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="282" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>1103001</v>
       </c>
@@ -4764,7 +4764,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="283" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>1101150</v>
       </c>
@@ -4772,7 +4772,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="284" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>1101160</v>
       </c>
@@ -4780,7 +4780,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="285" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>1101202</v>
       </c>
@@ -4788,7 +4788,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="286" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>1101201</v>
       </c>
@@ -4796,7 +4796,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="287" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>1602023</v>
       </c>
@@ -4804,7 +4804,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="288" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>1150014</v>
       </c>
@@ -4812,7 +4812,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="289" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>1150015</v>
       </c>
@@ -4820,7 +4820,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="290" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>1159210</v>
       </c>
@@ -4828,7 +4828,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="291" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>1159305</v>
       </c>
@@ -4836,7 +4836,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="292" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>1159211</v>
       </c>
@@ -4844,7 +4844,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="293" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>1159320</v>
       </c>
@@ -4852,7 +4852,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="294" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>1159324</v>
       </c>
@@ -4860,7 +4860,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="295" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>1150315</v>
       </c>
@@ -4868,7 +4868,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="296" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>1150020</v>
       </c>
@@ -4876,7 +4876,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="297" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>1150030</v>
       </c>
@@ -4884,7 +4884,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="298" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>1150032</v>
       </c>
@@ -4892,7 +4892,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="299" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>1150124</v>
       </c>
@@ -4900,7 +4900,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="300" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>1150900</v>
       </c>
@@ -4908,7 +4908,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="301" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>1101800</v>
       </c>
@@ -4916,7 +4916,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="302" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>1101410</v>
       </c>
@@ -4924,7 +4924,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="303" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>1101422</v>
       </c>
@@ -4932,7 +4932,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="304" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>1103004</v>
       </c>
@@ -4940,7 +4940,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="305" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>1103005</v>
       </c>
@@ -4948,7 +4948,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="306" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>1103006</v>
       </c>
@@ -4956,7 +4956,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="307" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>1701530</v>
       </c>
@@ -4964,7 +4964,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="308" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>1101250</v>
       </c>
@@ -4972,7 +4972,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="309" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>1701515</v>
       </c>
@@ -4980,7 +4980,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="310" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>1601005</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="311" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>1601004</v>
       </c>
@@ -4996,7 +4996,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="312" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>1601002</v>
       </c>
@@ -5004,7 +5004,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="313" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>1601003</v>
       </c>
@@ -5012,7 +5012,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="314" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>1150022</v>
       </c>
@@ -5020,7 +5020,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="315" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>1159330</v>
       </c>
@@ -5028,7 +5028,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="316" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>1150201</v>
       </c>
@@ -5036,7 +5036,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="317" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>1150200</v>
       </c>
@@ -5044,7 +5044,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="318" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>1606094</v>
       </c>
@@ -5052,7 +5052,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="319" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>1606096</v>
       </c>
@@ -5060,7 +5060,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="320" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>1606097</v>
       </c>
@@ -5068,7 +5068,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="321" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>1606095</v>
       </c>
@@ -5076,7 +5076,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="322" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>1150041</v>
       </c>
@@ -5084,7 +5084,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="323" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>1150043</v>
       </c>
@@ -5092,7 +5092,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="324" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>1150411</v>
       </c>
@@ -5100,7 +5100,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="325" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>1159220</v>
       </c>
@@ -5108,7 +5108,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="326" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>1159230</v>
       </c>
@@ -5116,7 +5116,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="327" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>1159323</v>
       </c>
@@ -5124,7 +5124,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="328" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>1150300</v>
       </c>
@@ -5132,7 +5132,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="329" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>1150050</v>
       </c>
@@ -5140,7 +5140,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="330" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>1150060</v>
       </c>
@@ -5148,7 +5148,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="331" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>1150061</v>
       </c>
@@ -5156,7 +5156,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="332" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>1150062</v>
       </c>
@@ -5164,7 +5164,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="333" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>1150211</v>
       </c>
@@ -5172,7 +5172,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="334" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>1150415</v>
       </c>
@@ -5180,7 +5180,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="335" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>1159325</v>
       </c>
@@ -5188,7 +5188,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="336" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>1101414</v>
       </c>
@@ -5196,7 +5196,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="337" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>1101415</v>
       </c>
@@ -5204,7 +5204,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="338" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>1608000</v>
       </c>
@@ -5212,7 +5212,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="339" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>1150192</v>
       </c>
@@ -5220,7 +5220,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="340" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>1101300</v>
       </c>
@@ -5228,7 +5228,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="341" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>1102600</v>
       </c>
@@ -5236,7 +5236,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="342" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>1151002</v>
       </c>
@@ -5244,7 +5244,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="343" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>1151004</v>
       </c>
@@ -5252,7 +5252,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="344" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>1151003</v>
       </c>
@@ -5260,7 +5260,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="345" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>1159215</v>
       </c>
@@ -5268,7 +5268,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="346" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>1150221</v>
       </c>
@@ -5276,7 +5276,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="347" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>1151102</v>
       </c>
@@ -5284,7 +5284,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="348" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>1150080</v>
       </c>
@@ -5292,7 +5292,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="349" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>1150417</v>
       </c>
@@ -5300,7 +5300,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="350" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>1150095</v>
       </c>
@@ -5308,7 +5308,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="351" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>1606072</v>
       </c>
@@ -5316,7 +5316,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="352" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>1603001</v>
       </c>
@@ -5324,7 +5324,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="353" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>1606098</v>
       </c>
@@ -5332,7 +5332,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="354" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>1606099</v>
       </c>
@@ -5340,7 +5340,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="355" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>1650010</v>
       </c>
@@ -5348,7 +5348,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="356" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>1606011</v>
       </c>
@@ -5356,7 +5356,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="357" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>1606010</v>
       </c>
@@ -5364,7 +5364,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="358" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>1150233</v>
       </c>
@@ -5372,7 +5372,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="359" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>1150420</v>
       </c>
@@ -5380,7 +5380,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="360" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>1150242</v>
       </c>
@@ -5388,7 +5388,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="361" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>1150240</v>
       </c>
@@ -5396,7 +5396,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="362" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>1150100</v>
       </c>
@@ -5404,7 +5404,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="363" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>1150413</v>
       </c>
@@ -5412,7 +5412,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="364" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>1159101</v>
       </c>
@@ -5420,7 +5420,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="365" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>1159091</v>
       </c>
@@ -5428,7 +5428,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="366" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>1150106</v>
       </c>
@@ -5436,7 +5436,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="367" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>1150101</v>
       </c>
@@ -5444,7 +5444,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="368" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>1150414</v>
       </c>
@@ -5452,7 +5452,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="369" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>1159111</v>
       </c>
@@ -5460,7 +5460,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="370" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>1159102</v>
       </c>
@@ -5468,7 +5468,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="371" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>1159212</v>
       </c>
@@ -5476,7 +5476,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="372" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>1159214</v>
       </c>
@@ -5484,7 +5484,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="373" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>1159213</v>
       </c>
@@ -5492,7 +5492,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="374" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>1151801</v>
       </c>
@@ -5500,7 +5500,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="375" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>1151800</v>
       </c>
@@ -5508,7 +5508,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="376" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>1602003</v>
       </c>
@@ -5516,7 +5516,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="377" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>1606075</v>
       </c>
@@ -5524,7 +5524,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="378" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>1606080</v>
       </c>
@@ -5532,7 +5532,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="379" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>1656085</v>
       </c>
@@ -5540,7 +5540,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="380" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>1150423</v>
       </c>
@@ -5548,7 +5548,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="381" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>1150422</v>
       </c>
@@ -5556,7 +5556,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="382" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>1159309</v>
       </c>
@@ -5564,7 +5564,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="383" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>1159308</v>
       </c>
@@ -5572,7 +5572,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="384" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>1154902</v>
       </c>
@@ -5580,7 +5580,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="385" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>1150425</v>
       </c>
@@ -5588,7 +5588,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="386" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>1152800</v>
       </c>
@@ -5596,7 +5596,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="387" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>1153812</v>
       </c>
@@ -5604,7 +5604,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="388" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>1153814</v>
       </c>
@@ -5612,7 +5612,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="389" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>1150153</v>
       </c>
@@ -5620,7 +5620,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="390" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>1150155</v>
       </c>
@@ -5628,7 +5628,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="391" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>1150401</v>
       </c>
@@ -5636,7 +5636,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="392" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>1159010</v>
       </c>
@@ -5644,7 +5644,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="393" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>1153810</v>
       </c>
@@ -5652,7 +5652,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="394" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>1150132</v>
       </c>
@@ -5660,7 +5660,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="395" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>1150130</v>
       </c>
@@ -5668,7 +5668,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="396" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>1150131</v>
       </c>
@@ -5676,7 +5676,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="397" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>1150412</v>
       </c>
@@ -5684,7 +5684,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="398" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>1150410</v>
       </c>
@@ -5692,7 +5692,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="399" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>1606074</v>
       </c>
@@ -5700,7 +5700,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="400" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>1656095</v>
       </c>
@@ -5708,7 +5708,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="401" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>1153813</v>
       </c>
@@ -5716,7 +5716,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="402" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>1150142</v>
       </c>
@@ -5724,7 +5724,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="403" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>1159327</v>
       </c>
@@ -5732,7 +5732,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="404" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>1656096</v>
       </c>
@@ -5740,7 +5740,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="405" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>1650100</v>
       </c>
@@ -5748,7 +5748,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="406" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>1150163</v>
       </c>
@@ -5756,7 +5756,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="407" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>1606090</v>
       </c>
@@ -5764,7 +5764,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="408" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>1606092</v>
       </c>
@@ -5772,7 +5772,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="409" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>1150172</v>
       </c>
@@ -5780,7 +5780,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="410" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>1150173</v>
       </c>
@@ -5788,7 +5788,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="411" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>1155000</v>
       </c>
@@ -5796,7 +5796,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="412" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>1163740</v>
       </c>
@@ -5804,7 +5804,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="413" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>1168020</v>
       </c>
@@ -5812,7 +5812,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="414" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>1163410</v>
       </c>
@@ -5820,7 +5820,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="415" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>1163620</v>
       </c>
@@ -5828,7 +5828,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="416" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>1168025</v>
       </c>
@@ -5836,7 +5836,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="417" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>1163530</v>
       </c>
@@ -5844,7 +5844,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="418" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>1163850</v>
       </c>
@@ -5852,7 +5852,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="419" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>1155010</v>
       </c>
@@ -5860,7 +5860,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="420" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>1167010</v>
       </c>
@@ -5868,7 +5868,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="421" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>1168010</v>
       </c>
@@ -5876,7 +5876,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="422" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>1111120</v>
       </c>
@@ -5884,7 +5884,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="423" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <v>1111080</v>
       </c>
@@ -5892,7 +5892,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="424" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <v>1111060</v>
       </c>
@@ -5900,7 +5900,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="425" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <v>1111050</v>
       </c>
@@ -5908,7 +5908,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="426" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <v>1166060</v>
       </c>
@@ -5916,7 +5916,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="427" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>1155035</v>
       </c>
@@ -5924,7 +5924,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="428" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
         <v>1155020</v>
       </c>
@@ -5932,7 +5932,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="429" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <v>1155030</v>
       </c>
@@ -5940,7 +5940,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="430" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <v>1168013</v>
       </c>
@@ -5948,7 +5948,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="431" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <v>1102800</v>
       </c>
@@ -5956,7 +5956,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="432" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
         <v>1100600</v>
       </c>
@@ -5964,7 +5964,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="433" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <v>1701433</v>
       </c>
@@ -5972,7 +5972,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="434" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <v>1111110</v>
       </c>
@@ -5980,7 +5980,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="435" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <v>1111010</v>
       </c>
@@ -5988,7 +5988,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="436" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
         <v>1166020</v>
       </c>
@@ -5996,7 +5996,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="437" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <v>1166030</v>
       </c>
@@ -6004,7 +6004,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="438" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
         <v>1166040</v>
       </c>
@@ -6012,7 +6012,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="439" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <v>1166044</v>
       </c>
@@ -6020,7 +6020,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="440" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
         <v>1166042</v>
       </c>
@@ -6028,7 +6028,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="441" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
         <v>1111090</v>
       </c>
@@ -6036,7 +6036,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="442" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A442" s="1">
         <v>1153815</v>
       </c>
@@ -6044,7 +6044,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="443" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A443" s="1">
         <v>1101600</v>
       </c>
@@ -6052,7 +6052,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="444" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A444" s="1">
         <v>1101601</v>
       </c>
@@ -6060,7 +6060,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="445" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A445" s="1">
         <v>1100205</v>
       </c>
@@ -6068,7 +6068,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="446" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
         <v>1102400</v>
       </c>
@@ -6076,7 +6076,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="447" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
         <v>1103200</v>
       </c>
@@ -6084,7 +6084,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="448" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A448" s="1">
         <v>1103261</v>
       </c>
@@ -6092,7 +6092,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="449" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
         <v>1111123</v>
       </c>
@@ -6100,7 +6100,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="450" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A450" s="1">
         <v>1111100</v>
       </c>
@@ -6108,7 +6108,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="451" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A451" s="1">
         <v>1161070</v>
       </c>
@@ -6116,7 +6116,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="452" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A452" s="1">
         <v>1181015</v>
       </c>
@@ -6124,7 +6124,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="453" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A453" s="1">
         <v>1153244</v>
       </c>
@@ -6132,7 +6132,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="454" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A454" s="1">
         <v>1153242</v>
       </c>
@@ -6140,7 +6140,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="455" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A455" s="1">
         <v>1310002</v>
       </c>
@@ -6148,7 +6148,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="456" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A456" s="1">
         <v>1163250</v>
       </c>
@@ -6156,7 +6156,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="457" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A457" s="1">
         <v>1157041</v>
       </c>
@@ -6164,7 +6164,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="458" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A458" s="1">
         <v>1155036</v>
       </c>
@@ -6172,7 +6172,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="459" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A459" s="1">
         <v>1155037</v>
       </c>
@@ -6180,7 +6180,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="460" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A460" s="1">
         <v>1181017</v>
       </c>
@@ -6188,7 +6188,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="461" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A461" s="1">
         <v>1153282</v>
       </c>
@@ -6196,7 +6196,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="462" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A462" s="1">
         <v>1155040</v>
       </c>
@@ -6204,7 +6204,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="463" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A463" s="1">
         <v>1157040</v>
       </c>
@@ -6212,7 +6212,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="464" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A464" s="1">
         <v>1102500</v>
       </c>
@@ -6220,7 +6220,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="465" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A465" s="1">
         <v>1103250</v>
       </c>
@@ -6228,7 +6228,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="466" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A466" s="1">
         <v>1100811</v>
       </c>
@@ -6236,7 +6236,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="467" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A467" s="1">
         <v>1103255</v>
       </c>
@@ -6244,7 +6244,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="468" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
         <v>1103257</v>
       </c>
@@ -6252,7 +6252,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="469" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A469" s="1">
         <v>1100215</v>
       </c>
@@ -6260,7 +6260,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="470" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A470" s="1">
         <v>1100040</v>
       </c>
@@ -6268,7 +6268,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="471" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A471" s="1">
         <v>1100844</v>
       </c>
@@ -6276,7 +6276,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="472" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A472" s="1">
         <v>1100225</v>
       </c>
@@ -6284,7 +6284,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="473" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A473" s="1">
         <v>1100030</v>
       </c>
@@ -6292,7 +6292,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="474" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A474" s="1">
         <v>1111122</v>
       </c>
@@ -6300,7 +6300,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="475" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A475" s="1">
         <v>1168012</v>
       </c>
@@ -6308,7 +6308,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="476" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A476" s="1">
         <v>1310001</v>
       </c>
@@ -6316,7 +6316,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="477" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A477" s="1">
         <v>1168011</v>
       </c>
@@ -6324,7 +6324,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="478" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A478" s="1">
         <v>1181040</v>
       </c>
@@ -6332,7 +6332,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="479" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A479" s="1">
         <v>1157030</v>
       </c>
@@ -6340,7 +6340,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="480" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A480" s="1">
         <v>1159300</v>
       </c>
@@ -6348,7 +6348,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="481" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A481" s="1">
         <v>1157032</v>
       </c>
@@ -6356,7 +6356,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="482" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A482" s="1">
         <v>1154065</v>
       </c>
@@ -6364,7 +6364,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="483" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A483" s="1">
         <v>1320002</v>
       </c>
@@ -6372,7 +6372,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="484" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A484" s="1">
         <v>1156010</v>
       </c>
@@ -6380,7 +6380,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="485" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A485" s="1">
         <v>1100235</v>
       </c>
@@ -6388,7 +6388,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="486" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A486" s="1">
         <v>1159332</v>
       </c>
@@ -6396,7 +6396,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="487" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A487" s="1">
         <v>1703003</v>
       </c>
@@ -6404,7 +6404,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="488" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A488" s="1">
         <v>1157700</v>
       </c>
@@ -6412,7 +6412,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="489" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A489" s="1">
         <v>6009</v>
       </c>
@@ -6420,7 +6420,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="490" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A490" s="1">
         <v>70012</v>
       </c>
@@ -6428,7 +6428,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="491" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A491" s="1">
         <v>1016</v>
       </c>
@@ -6436,7 +6436,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="492" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A492" s="1">
         <v>65016</v>
       </c>
@@ -6444,7 +6444,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="493" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A493" s="1">
         <v>70016</v>
       </c>
@@ -6452,7 +6452,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="494" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A494" s="1">
         <v>14175</v>
       </c>
@@ -6460,7 +6460,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="495" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A495" s="1" t="s">
         <v>1</v>
       </c>
@@ -6468,7 +6468,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="496" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A496" s="1">
         <v>130024</v>
       </c>
@@ -6476,7 +6476,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="497" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A497" s="1">
         <v>19524</v>
       </c>
@@ -6484,7 +6484,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="498" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A498" s="1" t="s">
         <v>2</v>
       </c>
@@ -6492,7 +6492,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="499" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A499" s="1">
         <v>13188</v>
       </c>
@@ -6500,7 +6500,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="500" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A500" s="1" t="s">
         <v>3</v>
       </c>
@@ -6508,7 +6508,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="501" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A501" s="1" t="s">
         <v>4</v>
       </c>
@@ -6516,7 +6516,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="502" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A502" s="1" t="s">
         <v>5</v>
       </c>
@@ -6524,7 +6524,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="503" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A503" s="1" t="s">
         <v>6</v>
       </c>
@@ -6532,7 +6532,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="504" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A504" s="1" t="s">
         <v>7</v>
       </c>
@@ -6540,7 +6540,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="505" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A505" s="1" t="s">
         <v>8</v>
       </c>
@@ -6548,7 +6548,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="506" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A506" s="1" t="s">
         <v>9</v>
       </c>
@@ -6556,7 +6556,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="507" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A507" s="1" t="s">
         <v>10</v>
       </c>
@@ -6564,7 +6564,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="508" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A508" s="1" t="s">
         <v>11</v>
       </c>
@@ -6572,7 +6572,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="509" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A509" s="1" t="s">
         <v>12</v>
       </c>
@@ -6580,7 +6580,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="510" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A510" s="1">
         <v>29525</v>
       </c>
@@ -6588,7 +6588,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="511" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A511" s="4">
         <v>29529</v>
       </c>
@@ -6596,7 +6596,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="512" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A512" s="1">
         <v>7500412</v>
       </c>
@@ -6604,7 +6604,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="513" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A513" s="1">
         <v>7500413</v>
       </c>
@@ -6612,7 +6612,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="514" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A514" s="1">
         <v>7500476</v>
       </c>
@@ -6620,7 +6620,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="515" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A515" s="1">
         <v>8004516</v>
       </c>
@@ -6628,7 +6628,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="516" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A516" s="1">
         <v>8004858</v>
       </c>
@@ -6636,7 +6636,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="517" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A517" s="1">
         <v>7516056</v>
       </c>
@@ -6644,13 +6644,13 @@
         <v>572</v>
       </c>
     </row>
-    <row r="518" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A518" s="1">
         <v>8004674</v>
       </c>
       <c r="B518" s="6"/>
     </row>
-    <row r="519" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A519" s="1">
         <v>7516006</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="520" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A520" s="1">
         <v>7500178</v>
       </c>
@@ -6666,23 +6666,23 @@
         <v>573</v>
       </c>
     </row>
-    <row r="521" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A521" s="12">
+    <row r="521" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A521" s="11">
         <v>7500584</v>
       </c>
-      <c r="B521" s="13" t="s">
+      <c r="B521" s="12" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="522" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A522" s="14">
+    <row r="522" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A522" s="13">
         <v>7500589</v>
       </c>
-      <c r="B522" s="15" t="s">
+      <c r="B522" s="14" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="523" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A523" s="1">
         <v>7500151</v>
       </c>
@@ -6690,7 +6690,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="524" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A524" s="1">
         <v>7500149</v>
       </c>
@@ -6698,7 +6698,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="525" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A525" s="1">
         <v>7500148</v>
       </c>
@@ -6706,7 +6706,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="526" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A526" s="1">
         <v>7500150</v>
       </c>
@@ -6714,7 +6714,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="527" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A527" s="4">
         <v>8004903</v>
       </c>
@@ -6722,7 +6722,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="528" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A528" s="1">
         <v>3166</v>
       </c>
@@ -6730,7 +6730,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="529" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A529" s="1">
         <v>3205</v>
       </c>
@@ -6738,15 +6738,15 @@
         <v>579</v>
       </c>
     </row>
-    <row r="530" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A530" s="12">
+    <row r="530" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A530" s="11">
         <v>3147</v>
       </c>
-      <c r="B530" s="13" t="s">
+      <c r="B530" s="12" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="531" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A531" s="1">
         <v>104058</v>
       </c>
@@ -6754,21 +6754,21 @@
         <v>580</v>
       </c>
     </row>
-    <row r="532" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A532" s="14">
+    <row r="532" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A532" s="13">
         <v>3148</v>
       </c>
-      <c r="B532" s="15" t="s">
+      <c r="B532" s="14" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="533" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A533" s="1">
         <v>4214</v>
       </c>
       <c r="B533" s="6"/>
     </row>
-    <row r="534" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A534" s="1">
         <v>103269</v>
       </c>
@@ -6776,7 +6776,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="535" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A535" s="1">
         <v>2802</v>
       </c>
@@ -6784,7 +6784,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="536" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A536" s="1">
         <v>2800</v>
       </c>
@@ -6792,7 +6792,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="537" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A537" s="1" t="s">
         <v>13</v>
       </c>
@@ -6800,7 +6800,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="538" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A538" s="1" t="s">
         <v>14</v>
       </c>
@@ -6808,7 +6808,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="539" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A539" s="1" t="s">
         <v>15</v>
       </c>
@@ -6816,7 +6816,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="540" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A540" s="1" t="s">
         <v>16</v>
       </c>
@@ -6824,7 +6824,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="541" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A541" s="1" t="s">
         <v>17</v>
       </c>
@@ -6832,7 +6832,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="542" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A542" s="1" t="s">
         <v>18</v>
       </c>
@@ -6840,7 +6840,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="543" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A543" s="1" t="s">
         <v>19</v>
       </c>
@@ -6848,7 +6848,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="544" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A544" s="1" t="s">
         <v>20</v>
       </c>
@@ -6856,7 +6856,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="545" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A545" s="1" t="s">
         <v>21</v>
       </c>
@@ -6864,7 +6864,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="546" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A546" s="1" t="s">
         <v>22</v>
       </c>
@@ -6872,7 +6872,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="547" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A547" s="1" t="s">
         <v>23</v>
       </c>
@@ -6880,7 +6880,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="548" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A548" s="1" t="s">
         <v>24</v>
       </c>
@@ -6888,7 +6888,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="549" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A549" s="1" t="s">
         <v>25</v>
       </c>
@@ -6896,7 +6896,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="550" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A550" s="1" t="s">
         <v>26</v>
       </c>
@@ -6904,7 +6904,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="551" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A551" s="1" t="s">
         <v>27</v>
       </c>
@@ -6912,7 +6912,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="552" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A552" s="1" t="s">
         <v>28</v>
       </c>
@@ -6920,7 +6920,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="553" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A553" s="1" t="s">
         <v>29</v>
       </c>
@@ -6928,7 +6928,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="554" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A554" s="1" t="s">
         <v>30</v>
       </c>
@@ -6936,7 +6936,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="555" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A555" s="1" t="s">
         <v>31</v>
       </c>
@@ -6944,7 +6944,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="556" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A556" s="1" t="s">
         <v>32</v>
       </c>
@@ -6952,7 +6952,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="557" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A557" s="1" t="s">
         <v>33</v>
       </c>
@@ -6960,7 +6960,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="558" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A558" s="1" t="s">
         <v>34</v>
       </c>
@@ -6968,7 +6968,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="559" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A559" s="1" t="s">
         <v>35</v>
       </c>
@@ -6976,7 +6976,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="560" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A560" s="1" t="s">
         <v>36</v>
       </c>
@@ -6984,7 +6984,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="561" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A561" s="1" t="s">
         <v>37</v>
       </c>
@@ -6992,7 +6992,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="562" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A562" s="1" t="s">
         <v>38</v>
       </c>
@@ -7000,7 +7000,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="563" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A563" s="1" t="s">
         <v>39</v>
       </c>
@@ -7008,7 +7008,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="564" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A564" s="1" t="s">
         <v>40</v>
       </c>
@@ -7016,7 +7016,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="565" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A565" s="1" t="s">
         <v>41</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="566" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A566" s="1" t="s">
         <v>42</v>
       </c>
@@ -7032,7 +7032,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="567" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A567" s="1" t="s">
         <v>43</v>
       </c>
@@ -7040,7 +7040,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="568" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A568" s="1" t="s">
         <v>44</v>
       </c>
@@ -7048,7 +7048,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="569" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A569" s="1" t="s">
         <v>45</v>
       </c>
@@ -7056,7 +7056,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="570" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A570" s="1" t="s">
         <v>46</v>
       </c>
@@ -7064,7 +7064,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="571" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A571" s="1" t="s">
         <v>47</v>
       </c>
@@ -7072,7 +7072,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="572" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A572" s="1" t="s">
         <v>48</v>
       </c>
@@ -7080,7 +7080,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="573" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A573" s="1" t="s">
         <v>49</v>
       </c>
@@ -7088,7 +7088,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="574" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A574" s="1" t="s">
         <v>50</v>
       </c>
@@ -7096,7 +7096,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="575" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A575" s="1" t="s">
         <v>51</v>
       </c>
@@ -7104,7 +7104,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="576" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A576" s="1" t="s">
         <v>52</v>
       </c>
@@ -7112,7 +7112,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="577" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A577" s="1" t="s">
         <v>53</v>
       </c>
@@ -7120,7 +7120,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="578" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A578" s="1" t="s">
         <v>54</v>
       </c>
@@ -7128,7 +7128,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="579" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A579" s="1" t="s">
         <v>55</v>
       </c>
@@ -7136,7 +7136,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="580" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A580" s="1" t="s">
         <v>56</v>
       </c>
@@ -7144,7 +7144,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="581" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A581" s="1" t="s">
         <v>57</v>
       </c>
@@ -7152,7 +7152,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="582" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A582" s="1" t="s">
         <v>58</v>
       </c>
@@ -7160,7 +7160,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="583" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A583" s="1" t="s">
         <v>59</v>
       </c>
@@ -7168,7 +7168,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="584" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A584" s="1" t="s">
         <v>60</v>
       </c>
@@ -7176,7 +7176,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="585" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A585" s="1" t="s">
         <v>61</v>
       </c>
@@ -7184,7 +7184,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="586" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A586" s="1" t="s">
         <v>62</v>
       </c>
@@ -7192,7 +7192,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="587" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A587" s="1" t="s">
         <v>63</v>
       </c>
@@ -7200,7 +7200,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="588" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A588" s="1" t="s">
         <v>64</v>
       </c>
@@ -7208,7 +7208,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="589" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A589" s="1" t="s">
         <v>65</v>
       </c>
@@ -7216,7 +7216,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="590" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A590" s="1" t="s">
         <v>66</v>
       </c>
@@ -7224,7 +7224,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="591" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A591" s="1" t="s">
         <v>67</v>
       </c>
@@ -7232,7 +7232,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="592" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A592" s="1" t="s">
         <v>68</v>
       </c>
@@ -7240,7 +7240,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="593" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A593" s="1" t="s">
         <v>69</v>
       </c>
@@ -7248,7 +7248,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="594" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A594" s="1" t="s">
         <v>70</v>
       </c>
@@ -7256,7 +7256,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="595" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A595" s="1" t="s">
         <v>71</v>
       </c>
@@ -7264,7 +7264,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="596" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A596" s="1" t="s">
         <v>72</v>
       </c>
@@ -7272,7 +7272,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="597" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A597" s="4" t="s">
         <v>73</v>
       </c>
@@ -7280,7 +7280,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="598" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A598" s="1">
         <v>6053</v>
       </c>
@@ -7288,7 +7288,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="599" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A599" s="1">
         <v>6056</v>
       </c>
@@ -7296,7 +7296,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="600" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A600" s="1">
         <v>6059</v>
       </c>
@@ -7304,7 +7304,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="601" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A601" s="1">
         <v>6062</v>
       </c>
@@ -7312,7 +7312,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="602" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A602" s="1">
         <v>6065</v>
       </c>
@@ -7320,7 +7320,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="603" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A603" s="1">
         <v>6071</v>
       </c>
@@ -7328,7 +7328,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="604" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A604" s="1">
         <v>6074</v>
       </c>
@@ -7336,7 +7336,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="605" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A605" s="1">
         <v>6077</v>
       </c>
@@ -7344,7 +7344,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="606" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A606" s="1">
         <v>6080</v>
       </c>
@@ -7352,7 +7352,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="607" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A607" s="1">
         <v>6083</v>
       </c>
@@ -7360,7 +7360,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="608" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A608" s="1">
         <v>6086</v>
       </c>
@@ -7368,7 +7368,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="609" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A609" s="1">
         <v>6089</v>
       </c>
@@ -7376,7 +7376,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="610" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A610" s="1">
         <v>6098</v>
       </c>
@@ -7384,7 +7384,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="611" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A611" s="1">
         <v>6101</v>
       </c>
@@ -7392,7 +7392,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="612" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A612" s="1">
         <v>6107</v>
       </c>
@@ -7400,7 +7400,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="613" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A613" s="1">
         <v>6535</v>
       </c>
@@ -7408,7 +7408,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="614" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A614" s="1">
         <v>6555</v>
       </c>
@@ -7416,7 +7416,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="615" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A615" s="1">
         <v>6567</v>
       </c>
@@ -7424,7 +7424,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="616" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A616" s="1">
         <v>6569</v>
       </c>
@@ -7432,7 +7432,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="617" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A617" s="1">
         <v>6571</v>
       </c>
@@ -7440,7 +7440,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="618" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A618" s="1">
         <v>6607</v>
       </c>
@@ -7448,7 +7448,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="619" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A619" s="1">
         <v>6623</v>
       </c>
@@ -7456,7 +7456,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="620" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A620" s="1">
         <v>6627</v>
       </c>
@@ -7464,7 +7464,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="621" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A621" s="1">
         <v>6635</v>
       </c>
@@ -7472,7 +7472,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="622" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A622" s="1">
         <v>6731</v>
       </c>
@@ -7480,7 +7480,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="623" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A623" s="1">
         <v>6747</v>
       </c>
@@ -7488,7 +7488,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="624" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A624" s="1">
         <v>6787</v>
       </c>
@@ -7496,7 +7496,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="625" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A625" s="1">
         <v>6819</v>
       </c>
@@ -7504,7 +7504,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="626" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A626" s="1">
         <v>4892</v>
       </c>
@@ -7512,7 +7512,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="627" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A627" s="1">
         <v>5029</v>
       </c>
@@ -7520,7 +7520,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="628" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A628" s="1">
         <v>5050</v>
       </c>
@@ -7528,7 +7528,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="629" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A629" s="1">
         <v>5030</v>
       </c>
@@ -7536,7 +7536,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="630" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A630" s="1">
         <v>5031</v>
       </c>
@@ -7544,7 +7544,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="631" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A631" s="1">
         <v>5035</v>
       </c>
@@ -7552,7 +7552,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="632" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A632" s="1">
         <v>5041</v>
       </c>
@@ -7560,7 +7560,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="633" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A633" s="1">
         <v>5048</v>
       </c>
@@ -7568,7 +7568,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="634" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A634" s="1">
         <v>5045</v>
       </c>
@@ -7576,7 +7576,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="635" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A635" s="1">
         <v>5034</v>
       </c>
@@ -7584,7 +7584,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="636" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A636" s="1">
         <v>5036</v>
       </c>
@@ -7592,7 +7592,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="637" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A637" s="1">
         <v>5042</v>
       </c>
@@ -7600,7 +7600,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="638" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A638" s="1">
         <v>5047</v>
       </c>
@@ -7608,7 +7608,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="639" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A639" s="1">
         <v>5049</v>
       </c>
@@ -7616,7 +7616,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="640" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A640" s="1">
         <v>5005</v>
       </c>
@@ -7624,7 +7624,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="641" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A641" s="1">
         <v>5015</v>
       </c>
@@ -7632,7 +7632,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="642" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A642" s="1">
         <v>5007</v>
       </c>
@@ -7640,7 +7640,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="643" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A643" s="1">
         <v>5008</v>
       </c>
@@ -7648,7 +7648,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="644" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A644" s="1">
         <v>6241</v>
       </c>
@@ -7656,7 +7656,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="645" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A645" s="1">
         <v>6259</v>
       </c>
@@ -7664,7 +7664,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="646" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A646" s="1">
         <v>6249</v>
       </c>
@@ -7672,7 +7672,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="647" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A647" s="1">
         <v>5555</v>
       </c>
@@ -7680,7 +7680,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="648" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A648" s="1">
         <v>5535</v>
       </c>
@@ -7688,7 +7688,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="649" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A649" s="1">
         <v>5567</v>
       </c>
@@ -7696,7 +7696,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="650" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A650" s="1">
         <v>5527</v>
       </c>
@@ -7704,7 +7704,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="651" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A651" s="1">
         <v>5563</v>
       </c>
@@ -7712,7 +7712,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="652" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A652" s="1">
         <v>4452</v>
       </c>
@@ -7720,7 +7720,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="653" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A653" s="1">
         <v>4359</v>
       </c>
@@ -7728,7 +7728,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="654" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A654" s="1">
         <v>4360</v>
       </c>
@@ -7736,7 +7736,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="655" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A655" s="1">
         <v>4361</v>
       </c>
@@ -7744,7 +7744,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="656" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A656" s="1">
         <v>4362</v>
       </c>
@@ -7752,7 +7752,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="657" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A657" s="1">
         <v>4453</v>
       </c>
@@ -7760,7 +7760,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="658" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A658" s="1">
         <v>4449</v>
       </c>
@@ -7768,7 +7768,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="659" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A659" s="1">
         <v>4363</v>
       </c>
@@ -7776,7 +7776,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="660" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A660" s="1">
         <v>4364</v>
       </c>
@@ -7784,7 +7784,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="661" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A661" s="1">
         <v>4610</v>
       </c>
@@ -7792,7 +7792,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="662" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A662" s="1">
         <v>4457</v>
       </c>
@@ -7800,7 +7800,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="663" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A663" s="1">
         <v>4613</v>
       </c>
@@ -7808,7 +7808,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="664" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A664" s="1">
         <v>3356</v>
       </c>
@@ -7816,7 +7816,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="665" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A665" s="1">
         <v>3392</v>
       </c>
@@ -7824,7 +7824,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="666" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A666" s="1">
         <v>3445</v>
       </c>
@@ -7832,7 +7832,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="667" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A667" s="1">
         <v>3355</v>
       </c>
@@ -7840,7 +7840,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="668" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A668" s="1">
         <v>3453</v>
       </c>
@@ -7848,7 +7848,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="669" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A669" s="1">
         <v>3286</v>
       </c>
@@ -7856,7 +7856,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="670" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A670" s="1">
         <v>3450</v>
       </c>
@@ -7864,7 +7864,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="671" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A671" s="1">
         <v>3357</v>
       </c>
@@ -7872,7 +7872,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="672" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A672" s="1">
         <v>3397</v>
       </c>
@@ -7880,7 +7880,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="673" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A673" s="1">
         <v>3393</v>
       </c>
@@ -7888,7 +7888,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="674" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A674" s="1">
         <v>3421</v>
       </c>
@@ -7896,7 +7896,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="675" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A675" s="1">
         <v>3426</v>
       </c>
@@ -7904,7 +7904,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="676" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A676" s="1">
         <v>3446</v>
       </c>
@@ -7912,7 +7912,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="677" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A677" s="1">
         <v>3458</v>
       </c>
@@ -7920,7 +7920,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="678" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A678" s="1">
         <v>3464</v>
       </c>
@@ -7928,7 +7928,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="679" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A679" s="1">
         <v>3478</v>
       </c>
@@ -7936,7 +7936,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="680" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A680" s="1">
         <v>6662</v>
       </c>
@@ -7944,7 +7944,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="681" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A681" s="1">
         <v>3461</v>
       </c>
@@ -7952,7 +7952,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="682" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A682" s="1">
         <v>3477</v>
       </c>
@@ -7960,7 +7960,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="683" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A683" s="1">
         <v>3472</v>
       </c>
@@ -7968,7 +7968,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="684" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A684" s="1">
         <v>3176</v>
       </c>
@@ -7976,7 +7976,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="685" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A685" s="1">
         <v>3206</v>
       </c>
@@ -7984,7 +7984,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="686" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A686" s="1">
         <v>3239</v>
       </c>
@@ -7992,7 +7992,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="687" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A687" s="1">
         <v>3208</v>
       </c>
@@ -8000,7 +8000,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="688" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A688" s="1">
         <v>3241</v>
       </c>
@@ -8008,7 +8008,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="689" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A689" s="1">
         <v>3237</v>
       </c>
@@ -8016,7 +8016,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="690" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A690" s="1">
         <v>3269</v>
       </c>
@@ -8024,7 +8024,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="691" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A691" s="1">
         <v>3303</v>
       </c>
@@ -8032,7 +8032,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="692" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A692" s="1">
         <v>3352</v>
       </c>
@@ -8040,7 +8040,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="693" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A693" s="1">
         <v>3238</v>
       </c>
@@ -8048,7 +8048,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="694" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A694" s="1">
         <v>3347</v>
       </c>
@@ -8056,7 +8056,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="695" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A695" s="1" t="s">
         <v>74</v>
       </c>
@@ -8064,7 +8064,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="696" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A696" s="1" t="s">
         <v>75</v>
       </c>
@@ -8072,7 +8072,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="697" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A697" s="1" t="s">
         <v>76</v>
       </c>
@@ -8080,7 +8080,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="698" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A698" s="1" t="s">
         <v>77</v>
       </c>
@@ -8088,7 +8088,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="699" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A699" s="1" t="s">
         <v>78</v>
       </c>
@@ -8096,7 +8096,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="700" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A700" s="1" t="s">
         <v>79</v>
       </c>
@@ -8104,7 +8104,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="701" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A701" s="1" t="s">
         <v>80</v>
       </c>
@@ -8112,7 +8112,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="702" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A702" s="1" t="s">
         <v>81</v>
       </c>
@@ -8120,7 +8120,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="703" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A703" s="1" t="s">
         <v>82</v>
       </c>
@@ -8128,7 +8128,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="704" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A704" s="1" t="s">
         <v>83</v>
       </c>
@@ -8136,7 +8136,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="705" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A705" s="1" t="s">
         <v>84</v>
       </c>
@@ -8144,7 +8144,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="706" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A706" s="1" t="s">
         <v>85</v>
       </c>
@@ -8152,7 +8152,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="707" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A707" s="1" t="s">
         <v>86</v>
       </c>
@@ -8160,7 +8160,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="708" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A708" s="1" t="s">
         <v>87</v>
       </c>
@@ -8168,7 +8168,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="709" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A709" s="1" t="s">
         <v>88</v>
       </c>
@@ -8176,7 +8176,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="710" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A710" s="1" t="s">
         <v>89</v>
       </c>
@@ -8184,7 +8184,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="711" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A711" s="1" t="s">
         <v>90</v>
       </c>
@@ -8192,7 +8192,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="712" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A712" s="1" t="s">
         <v>91</v>
       </c>
@@ -8200,7 +8200,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="713" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A713" s="1" t="s">
         <v>92</v>
       </c>
@@ -8208,7 +8208,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="714" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A714" s="4" t="s">
         <v>93</v>
       </c>
@@ -8216,7 +8216,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="715" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A715" s="1" t="s">
         <v>94</v>
       </c>
@@ -8224,7 +8224,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="716" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A716" s="1" t="s">
         <v>95</v>
       </c>
@@ -8232,7 +8232,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="717" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A717" s="1" t="s">
         <v>96</v>
       </c>
@@ -8240,7 +8240,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="718" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A718" s="1" t="s">
         <v>97</v>
       </c>
@@ -8248,7 +8248,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="719" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A719" s="1" t="s">
         <v>98</v>
       </c>
@@ -8256,7 +8256,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="720" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A720" s="1" t="s">
         <v>99</v>
       </c>
@@ -8264,7 +8264,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="721" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A721" s="1" t="s">
         <v>100</v>
       </c>
@@ -8272,7 +8272,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="722" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A722" s="1" t="s">
         <v>101</v>
       </c>
@@ -8280,7 +8280,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="723" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A723" s="1" t="s">
         <v>102</v>
       </c>
@@ -8288,7 +8288,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="724" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A724" s="1" t="s">
         <v>103</v>
       </c>
@@ -8296,7 +8296,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="725" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A725" s="1" t="s">
         <v>104</v>
       </c>
@@ -8304,7 +8304,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="726" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A726" s="1" t="s">
         <v>105</v>
       </c>
@@ -8312,7 +8312,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="727" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A727" s="1" t="s">
         <v>106</v>
       </c>
@@ -8320,7 +8320,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="728" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A728" s="1" t="s">
         <v>107</v>
       </c>
@@ -8328,7 +8328,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="729" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A729" s="1" t="s">
         <v>108</v>
       </c>
@@ -8336,7 +8336,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="730" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A730" s="1" t="s">
         <v>109</v>
       </c>
@@ -8344,7 +8344,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="731" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A731" s="1" t="s">
         <v>110</v>
       </c>
@@ -8352,7 +8352,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="732" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A732" s="1" t="s">
         <v>111</v>
       </c>
@@ -8360,7 +8360,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="733" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A733" s="1" t="s">
         <v>112</v>
       </c>
@@ -8368,13 +8368,13 @@
         <v>646</v>
       </c>
     </row>
-    <row r="734" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A734" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B734" s="8"/>
     </row>
-    <row r="735" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A735" s="1" t="s">
         <v>114</v>
       </c>
@@ -8382,7 +8382,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="736" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A736" s="1" t="s">
         <v>115</v>
       </c>
@@ -8390,7 +8390,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="737" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A737" s="1" t="s">
         <v>116</v>
       </c>
@@ -8398,7 +8398,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="738" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A738" s="1" t="s">
         <v>117</v>
       </c>
@@ -8406,7 +8406,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="739" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A739" s="1" t="s">
         <v>118</v>
       </c>
@@ -8414,7 +8414,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="740" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A740" s="1" t="s">
         <v>119</v>
       </c>
@@ -8422,7 +8422,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="741" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A741" s="1" t="s">
         <v>120</v>
       </c>
@@ -8430,7 +8430,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="742" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A742" s="1" t="s">
         <v>121</v>
       </c>
@@ -8438,7 +8438,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="743" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A743" s="1" t="s">
         <v>122</v>
       </c>
@@ -8446,7 +8446,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="744" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A744" s="1" t="s">
         <v>123</v>
       </c>
@@ -8454,7 +8454,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="745" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A745" s="1" t="s">
         <v>124</v>
       </c>
@@ -8462,7 +8462,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="746" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A746" s="1" t="s">
         <v>125</v>
       </c>
@@ -8470,7 +8470,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="747" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A747" s="1" t="s">
         <v>126</v>
       </c>
@@ -8478,7 +8478,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="748" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A748" s="1" t="s">
         <v>127</v>
       </c>
@@ -8486,7 +8486,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="749" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A749" s="1" t="s">
         <v>678</v>
       </c>
@@ -8494,7 +8494,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="750" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A750" s="1" t="s">
         <v>128</v>
       </c>
@@ -8502,7 +8502,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="751" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A751" s="1" t="s">
         <v>129</v>
       </c>
@@ -8510,7 +8510,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="752" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A752" s="1" t="s">
         <v>130</v>
       </c>
@@ -8518,7 +8518,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="753" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A753" s="1" t="s">
         <v>131</v>
       </c>
@@ -8526,7 +8526,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="754" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A754" s="1" t="s">
         <v>132</v>
       </c>
@@ -8534,7 +8534,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="755" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A755" s="1" t="s">
         <v>133</v>
       </c>
@@ -8542,7 +8542,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="756" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A756" s="1" t="s">
         <v>134</v>
       </c>
@@ -8550,7 +8550,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="757" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A757" s="1" t="s">
         <v>135</v>
       </c>
@@ -8558,7 +8558,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="758" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A758" s="1" t="s">
         <v>136</v>
       </c>
@@ -8566,7 +8566,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="759" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A759" s="1" t="s">
         <v>137</v>
       </c>
@@ -8574,7 +8574,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="760" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A760" s="1" t="s">
         <v>138</v>
       </c>
@@ -8582,7 +8582,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="761" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A761" s="1" t="s">
         <v>139</v>
       </c>
@@ -8590,7 +8590,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="762" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A762" s="1" t="s">
         <v>140</v>
       </c>
@@ -8598,7 +8598,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="763" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A763" s="1" t="s">
         <v>141</v>
       </c>
@@ -8606,7 +8606,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="764" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A764" s="1" t="s">
         <v>142</v>
       </c>
@@ -8614,7 +8614,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="765" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A765" s="1" t="s">
         <v>143</v>
       </c>
@@ -8622,7 +8622,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="766" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A766" s="1" t="s">
         <v>144</v>
       </c>
@@ -8630,7 +8630,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="767" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A767" s="1" t="s">
         <v>145</v>
       </c>
@@ -8638,7 +8638,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="768" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A768" s="1" t="s">
         <v>146</v>
       </c>
@@ -8646,7 +8646,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="769" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A769" s="1" t="s">
         <v>147</v>
       </c>
@@ -8654,7 +8654,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="770" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A770" s="1" t="s">
         <v>148</v>
       </c>
@@ -8662,7 +8662,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="771" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A771" s="1" t="s">
         <v>149</v>
       </c>
@@ -8670,7 +8670,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="772" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A772" s="1" t="s">
         <v>150</v>
       </c>
@@ -8678,7 +8678,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="773" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A773" s="1" t="s">
         <v>151</v>
       </c>
@@ -8686,7 +8686,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="774" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="774" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A774" s="1" t="s">
         <v>152</v>
       </c>
@@ -8694,7 +8694,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="775" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A775" s="1" t="s">
         <v>153</v>
       </c>
@@ -8702,7 +8702,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="776" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="776" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A776" s="1" t="s">
         <v>154</v>
       </c>
@@ -8710,7 +8710,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="777" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A777" s="1" t="s">
         <v>155</v>
       </c>
@@ -8718,7 +8718,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="778" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="778" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A778" s="1" t="s">
         <v>156</v>
       </c>
@@ -8726,7 +8726,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="779" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A779" s="1" t="s">
         <v>157</v>
       </c>
@@ -8734,7 +8734,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="780" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A780" s="1" t="s">
         <v>158</v>
       </c>
@@ -8742,7 +8742,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="781" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A781" s="1" t="s">
         <v>159</v>
       </c>
@@ -8750,7 +8750,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="782" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="782" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A782" s="1" t="s">
         <v>160</v>
       </c>
@@ -8758,7 +8758,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="783" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="783" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A783" s="1" t="s">
         <v>161</v>
       </c>
@@ -8766,7 +8766,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="784" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="784" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A784" s="1" t="s">
         <v>162</v>
       </c>
@@ -8774,7 +8774,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="785" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="785" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A785" s="1" t="s">
         <v>163</v>
       </c>
@@ -8782,7 +8782,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="786" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="786" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A786" s="1" t="s">
         <v>164</v>
       </c>
@@ -8790,7 +8790,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="787" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="787" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A787">
         <v>3305</v>
       </c>
@@ -8798,7 +8798,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="788" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="788" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A788" s="1" t="s">
         <v>165</v>
       </c>
@@ -8806,7 +8806,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="789" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A789" s="9" t="s">
         <v>669</v>
       </c>
@@ -8814,7 +8814,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="790" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A790" s="9" t="s">
         <v>670</v>
       </c>
@@ -8822,7 +8822,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="791" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
         <v>673</v>
       </c>
@@ -8830,20 +8830,36 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="792" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A792" s="11" t="s">
+    <row r="792" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A792" s="9" t="s">
         <v>674</v>
       </c>
       <c r="B792">
         <v>4292</v>
       </c>
     </row>
-    <row r="793" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A793" s="11" t="s">
+    <row r="793" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A793" s="9" t="s">
         <v>675</v>
       </c>
       <c r="B793">
         <v>2745</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2" ht="27" x14ac:dyDescent="0.25">
+      <c r="A794" s="9" t="s">
+        <v>679</v>
+      </c>
+      <c r="B794">
+        <v>285.42372881</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2" ht="27" x14ac:dyDescent="0.25">
+      <c r="A795" s="9" t="s">
+        <v>680</v>
+      </c>
+      <c r="B795">
+        <v>261.01694915249999</v>
       </c>
     </row>
   </sheetData>

--- a/api/files/prices.xlsx
+++ b/api/files/prices.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\la union\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\la union\Desktop\la_union_api_prices\api\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4F77BD-58AF-47E1-9CE7-E14C7339DC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23EADBB5-8199-48CF-AB71-2DB15016085B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -243,25 +243,6 @@
         <rFont val="Calibri"/>
         <family val="1"/>
       </rPr>
-      <t>USD 329</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
       <t>AR9691602HD</t>
     </r>
   </si>
@@ -1939,6 +1920,9 @@
   </si>
   <si>
     <t>USD 189</t>
+  </si>
+  <si>
+    <t>USD 329</t>
   </si>
 </sst>
 </file>
@@ -1947,9 +1931,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$USD]\ 0"/>
-    <numFmt numFmtId="166" formatCode="[$USD]\ #,##0"/>
+    <numFmt numFmtId="165" formatCode="[$USD]\ #,##0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1968,12 +1952,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="1"/>
     </font>
@@ -2130,7 +2108,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2173,11 +2151,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2509,8 +2484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B814"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A807" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="B817" sqref="B817"/>
+    <sheetView tabSelected="1" topLeftCell="A536" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B547" sqref="B547"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6459,8 +6434,8 @@
       <c r="A493" s="1">
         <v>1016</v>
       </c>
-      <c r="B493" s="23" t="s">
-        <v>191</v>
+      <c r="B493" s="22" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="494" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6675,7 +6650,7 @@
       <c r="A520" s="1">
         <v>8004674</v>
       </c>
-      <c r="B520" s="16"/>
+      <c r="B520" s="15"/>
     </row>
     <row r="521" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
@@ -6766,10 +6741,10 @@
       </c>
     </row>
     <row r="532" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A532" s="17">
+      <c r="A532" s="16">
         <v>3147</v>
       </c>
-      <c r="B532" s="18">
+      <c r="B532" s="17">
         <v>275</v>
       </c>
     </row>
@@ -6782,10 +6757,10 @@
       </c>
     </row>
     <row r="534" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A534" s="17">
+      <c r="A534" s="16">
         <v>3148</v>
       </c>
-      <c r="B534" s="18">
+      <c r="B534" s="17">
         <v>300</v>
       </c>
     </row>
@@ -6846,18 +6821,18 @@
       </c>
     </row>
     <row r="542" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A542" s="19" t="s">
+      <c r="A542" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B542" s="20">
+      <c r="B542" s="19">
         <v>290</v>
       </c>
     </row>
     <row r="543" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A543" s="19" t="s">
+      <c r="A543" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B543" s="20">
+      <c r="B543" s="19">
         <v>300</v>
       </c>
     </row>
@@ -6881,13 +6856,13 @@
       <c r="A546" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B546" s="15" t="s">
-        <v>21</v>
+      <c r="B546" s="22" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="547" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B547" s="2">
         <v>329</v>
@@ -6895,7 +6870,7 @@
     </row>
     <row r="548" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B548" s="2">
         <v>41</v>
@@ -6903,7 +6878,7 @@
     </row>
     <row r="549" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B549" s="2">
         <v>40</v>
@@ -6911,7 +6886,7 @@
     </row>
     <row r="550" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B550" s="2">
         <v>41</v>
@@ -6919,7 +6894,7 @@
     </row>
     <row r="551" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B551" s="2">
         <v>49</v>
@@ -6927,7 +6902,7 @@
     </row>
     <row r="552" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B552" s="2">
         <v>51</v>
@@ -6935,7 +6910,7 @@
     </row>
     <row r="553" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B553" s="2">
         <v>49</v>
@@ -6943,7 +6918,7 @@
     </row>
     <row r="554" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B554" s="2">
         <v>51</v>
@@ -6951,7 +6926,7 @@
     </row>
     <row r="555" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B555" s="2">
         <v>52</v>
@@ -6959,7 +6934,7 @@
     </row>
     <row r="556" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B556" s="2">
         <v>63</v>
@@ -6967,7 +6942,7 @@
     </row>
     <row r="557" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B557" s="2">
         <v>56</v>
@@ -6975,7 +6950,7 @@
     </row>
     <row r="558" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B558" s="2">
         <v>53</v>
@@ -6983,7 +6958,7 @@
     </row>
     <row r="559" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B559" s="2">
         <v>57</v>
@@ -6991,7 +6966,7 @@
     </row>
     <row r="560" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B560" s="2">
         <v>41</v>
@@ -6999,7 +6974,7 @@
     </row>
     <row r="561" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B561" s="2">
         <v>46</v>
@@ -7007,7 +6982,7 @@
     </row>
     <row r="562" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B562" s="2">
         <v>46</v>
@@ -7015,7 +6990,7 @@
     </row>
     <row r="563" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B563" s="2">
         <v>42</v>
@@ -7023,7 +6998,7 @@
     </row>
     <row r="564" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B564" s="2">
         <v>47</v>
@@ -7031,7 +7006,7 @@
     </row>
     <row r="565" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B565" s="2">
         <v>49</v>
@@ -7039,7 +7014,7 @@
     </row>
     <row r="566" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B566" s="2">
         <v>53</v>
@@ -7047,7 +7022,7 @@
     </row>
     <row r="567" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B567" s="2">
         <v>49</v>
@@ -7055,7 +7030,7 @@
     </row>
     <row r="568" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B568" s="2">
         <v>51</v>
@@ -7063,7 +7038,7 @@
     </row>
     <row r="569" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B569" s="2">
         <v>49</v>
@@ -7071,7 +7046,7 @@
     </row>
     <row r="570" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B570" s="2">
         <v>51</v>
@@ -7079,7 +7054,7 @@
     </row>
     <row r="571" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B571" s="2">
         <v>56</v>
@@ -7087,7 +7062,7 @@
     </row>
     <row r="572" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B572" s="2">
         <v>60</v>
@@ -7095,7 +7070,7 @@
     </row>
     <row r="573" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B573" s="2">
         <v>53</v>
@@ -7103,7 +7078,7 @@
     </row>
     <row r="574" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B574" s="2">
         <v>63</v>
@@ -7111,7 +7086,7 @@
     </row>
     <row r="575" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B575" s="2">
         <v>57</v>
@@ -7119,7 +7094,7 @@
     </row>
     <row r="576" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B576" s="2">
         <v>79</v>
@@ -7127,7 +7102,7 @@
     </row>
     <row r="577" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B577" s="2">
         <v>53</v>
@@ -7135,7 +7110,7 @@
     </row>
     <row r="578" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B578" s="2">
         <v>53</v>
@@ -7143,7 +7118,7 @@
     </row>
     <row r="579" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B579" s="2">
         <v>68</v>
@@ -7151,7 +7126,7 @@
     </row>
     <row r="580" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B580" s="2">
         <v>103</v>
@@ -7159,7 +7134,7 @@
     </row>
     <row r="581" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B581" s="2">
         <v>123</v>
@@ -7167,7 +7142,7 @@
     </row>
     <row r="582" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B582" s="2">
         <v>103</v>
@@ -7175,7 +7150,7 @@
     </row>
     <row r="583" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B583" s="2">
         <v>110</v>
@@ -7183,7 +7158,7 @@
     </row>
     <row r="584" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B584" s="2">
         <v>116</v>
@@ -7191,7 +7166,7 @@
     </row>
     <row r="585" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B585" s="2">
         <v>127</v>
@@ -7199,7 +7174,7 @@
     </row>
     <row r="586" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B586" s="2">
         <v>88</v>
@@ -7207,7 +7182,7 @@
     </row>
     <row r="587" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B587" s="2">
         <v>120</v>
@@ -7215,7 +7190,7 @@
     </row>
     <row r="588" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B588" s="2">
         <v>148</v>
@@ -7223,7 +7198,7 @@
     </row>
     <row r="589" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B589" s="2">
         <v>83</v>
@@ -7231,7 +7206,7 @@
     </row>
     <row r="590" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B590" s="2">
         <v>120</v>
@@ -7239,7 +7214,7 @@
     </row>
     <row r="591" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B591" s="2">
         <v>118</v>
@@ -7247,7 +7222,7 @@
     </row>
     <row r="592" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B592" s="2">
         <v>166</v>
@@ -7255,7 +7230,7 @@
     </row>
     <row r="593" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B593" s="2">
         <v>127</v>
@@ -7263,47 +7238,47 @@
     </row>
     <row r="594" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B594" s="21">
+        <v>68</v>
+      </c>
+      <c r="B594" s="20">
         <v>123</v>
       </c>
     </row>
     <row r="595" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B595" s="21">
+        <v>69</v>
+      </c>
+      <c r="B595" s="20">
         <v>123</v>
       </c>
     </row>
     <row r="596" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B596" s="21">
+        <v>70</v>
+      </c>
+      <c r="B596" s="20">
         <v>148</v>
       </c>
     </row>
     <row r="597" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B597" s="21">
+        <v>71</v>
+      </c>
+      <c r="B597" s="20">
         <v>148</v>
       </c>
     </row>
     <row r="598" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B598" s="21">
+        <v>72</v>
+      </c>
+      <c r="B598" s="20">
         <v>158</v>
       </c>
     </row>
     <row r="599" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B599" s="2">
         <v>51</v>
@@ -7311,7 +7286,7 @@
     </row>
     <row r="600" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B600" s="2">
         <v>84</v>
@@ -7319,7 +7294,7 @@
     </row>
     <row r="601" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B601" s="2">
         <v>99</v>
@@ -7681,8 +7656,8 @@
       <c r="A646" s="1">
         <v>5005</v>
       </c>
-      <c r="B646" s="23" t="s">
-        <v>189</v>
+      <c r="B646" s="22" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="647" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8089,8 +8064,8 @@
       <c r="A697" s="1">
         <v>3237</v>
       </c>
-      <c r="B697" s="23" t="s">
-        <v>192</v>
+      <c r="B697" s="22" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="698" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8135,7 +8110,7 @@
     </row>
     <row r="703" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A703" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B703" s="2">
         <v>34</v>
@@ -8143,7 +8118,7 @@
     </row>
     <row r="704" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A704" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B704" s="2">
         <v>55</v>
@@ -8151,7 +8126,7 @@
     </row>
     <row r="705" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A705" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B705" s="2">
         <v>62</v>
@@ -8159,7 +8134,7 @@
     </row>
     <row r="706" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B706" s="2">
         <v>75</v>
@@ -8167,7 +8142,7 @@
     </row>
     <row r="707" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A707" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B707" s="2">
         <v>72</v>
@@ -8175,7 +8150,7 @@
     </row>
     <row r="708" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B708" s="2">
         <v>74</v>
@@ -8183,7 +8158,7 @@
     </row>
     <row r="709" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B709" s="2">
         <v>75</v>
@@ -8191,7 +8166,7 @@
     </row>
     <row r="710" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B710" s="2">
         <v>84</v>
@@ -8199,7 +8174,7 @@
     </row>
     <row r="711" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A711" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B711" s="2">
         <v>93</v>
@@ -8207,7 +8182,7 @@
     </row>
     <row r="712" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A712" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B712" s="2">
         <v>550</v>
@@ -8215,7 +8190,7 @@
     </row>
     <row r="713" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A713" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B713" s="2">
         <v>667</v>
@@ -8223,7 +8198,7 @@
     </row>
     <row r="714" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A714" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B714" s="14">
         <v>2292</v>
@@ -8231,7 +8206,7 @@
     </row>
     <row r="715" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A715" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B715" s="2">
         <v>794</v>
@@ -8239,7 +8214,7 @@
     </row>
     <row r="716" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A716" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B716" s="2">
         <v>937</v>
@@ -8247,7 +8222,7 @@
     </row>
     <row r="717" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A717" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B717" s="14">
         <v>1122</v>
@@ -8255,7 +8230,7 @@
     </row>
     <row r="718" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A718" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B718" s="14">
         <v>1168</v>
@@ -8263,7 +8238,7 @@
     </row>
     <row r="719" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A719" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B719" s="2">
         <v>972</v>
@@ -8271,7 +8246,7 @@
     </row>
     <row r="720" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A720" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B720" s="14">
         <v>1231</v>
@@ -8279,7 +8254,7 @@
     </row>
     <row r="721" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A721" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B721" s="14">
         <v>2842</v>
@@ -8287,7 +8262,7 @@
     </row>
     <row r="722" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A722" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B722" s="14">
         <v>1702</v>
@@ -8295,7 +8270,7 @@
     </row>
     <row r="723" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A723" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B723" s="14">
         <v>3105</v>
@@ -8303,7 +8278,7 @@
     </row>
     <row r="724" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A724" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B724" s="14">
         <v>4737</v>
@@ -8311,7 +8286,7 @@
     </row>
     <row r="725" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A725" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B725" s="14">
         <v>4444</v>
@@ -8319,7 +8294,7 @@
     </row>
     <row r="726" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A726" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B726" s="14">
         <v>1029</v>
@@ -8327,7 +8302,7 @@
     </row>
     <row r="727" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A727" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B727" s="14">
         <v>1145</v>
@@ -8335,7 +8310,7 @@
     </row>
     <row r="728" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A728" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B728" s="2">
         <v>637</v>
@@ -8343,7 +8318,7 @@
     </row>
     <row r="729" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A729" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B729" s="14">
         <v>1280</v>
@@ -8351,7 +8326,7 @@
     </row>
     <row r="730" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A730" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B730" s="14">
         <v>1868</v>
@@ -8359,7 +8334,7 @@
     </row>
     <row r="731" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A731" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B731" s="14">
         <v>2521</v>
@@ -8367,7 +8342,7 @@
     </row>
     <row r="732" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A732" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B732" s="14">
         <v>2143</v>
@@ -8375,7 +8350,7 @@
     </row>
     <row r="733" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A733" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B733" s="14">
         <v>1028</v>
@@ -8383,7 +8358,7 @@
     </row>
     <row r="734" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A734" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B734" s="14">
         <v>1029</v>
@@ -8391,7 +8366,7 @@
     </row>
     <row r="735" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A735" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B735" s="14">
         <v>1009</v>
@@ -8399,7 +8374,7 @@
     </row>
     <row r="736" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A736" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B736" s="14">
         <v>1202</v>
@@ -8407,7 +8382,7 @@
     </row>
     <row r="737" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A737" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B737" s="14">
         <v>1572</v>
@@ -8415,7 +8390,7 @@
     </row>
     <row r="738" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A738" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B738" s="2">
         <v>213</v>
@@ -8423,7 +8398,7 @@
     </row>
     <row r="739" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A739" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B739" s="2">
         <v>345</v>
@@ -8431,7 +8406,7 @@
     </row>
     <row r="740" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A740" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B740" s="2">
         <v>308</v>
@@ -8439,7 +8414,7 @@
     </row>
     <row r="741" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A741" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B741" s="2">
         <v>400</v>
@@ -8447,7 +8422,7 @@
     </row>
     <row r="742" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A742" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B742" s="2">
         <v>441</v>
@@ -8455,7 +8430,7 @@
     </row>
     <row r="743" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A743" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B743" s="2">
         <v>395</v>
@@ -8463,7 +8438,7 @@
     </row>
     <row r="744" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A744" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B744" s="2">
         <v>588</v>
@@ -8471,7 +8446,7 @@
     </row>
     <row r="745" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A745" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B745" s="2">
         <v>621</v>
@@ -8479,7 +8454,7 @@
     </row>
     <row r="746" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A746" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B746" s="2">
         <v>676</v>
@@ -8487,7 +8462,7 @@
     </row>
     <row r="747" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A747" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B747" s="2">
         <v>697</v>
@@ -8495,7 +8470,7 @@
     </row>
     <row r="748" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A748" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B748" s="2">
         <v>744</v>
@@ -8503,15 +8478,15 @@
     </row>
     <row r="749" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A749" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="B749" s="23" t="s">
-        <v>190</v>
+        <v>122</v>
+      </c>
+      <c r="B749" s="22" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="750" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A750" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B750" s="14">
         <v>2306</v>
@@ -8519,7 +8494,7 @@
     </row>
     <row r="751" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A751" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B751" s="2">
         <v>582</v>
@@ -8527,7 +8502,7 @@
     </row>
     <row r="752" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A752" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B752" s="2">
         <v>588</v>
@@ -8535,7 +8510,7 @@
     </row>
     <row r="753" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A753" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B753" s="2">
         <v>472</v>
@@ -8543,7 +8518,7 @@
     </row>
     <row r="754" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A754" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B754" s="2">
         <v>717</v>
@@ -8551,7 +8526,7 @@
     </row>
     <row r="755" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A755" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B755" s="2">
         <v>593</v>
@@ -8559,7 +8534,7 @@
     </row>
     <row r="756" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A756" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B756" s="2">
         <v>779</v>
@@ -8567,7 +8542,7 @@
     </row>
     <row r="757" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A757" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B757" s="14">
         <v>1190</v>
@@ -8575,7 +8550,7 @@
     </row>
     <row r="758" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A758" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B758" s="14">
         <v>1481</v>
@@ -8583,13 +8558,13 @@
     </row>
     <row r="759" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A759" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="B759" s="22"/>
+        <v>132</v>
+      </c>
+      <c r="B759" s="21"/>
     </row>
     <row r="760" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A760" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B760" s="14">
         <v>2102</v>
@@ -8597,7 +8572,7 @@
     </row>
     <row r="761" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A761" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B761" s="2">
         <v>678</v>
@@ -8605,7 +8580,7 @@
     </row>
     <row r="762" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A762" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B762" s="2">
         <v>848</v>
@@ -8613,7 +8588,7 @@
     </row>
     <row r="763" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A763" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B763" s="2">
         <v>918</v>
@@ -8621,7 +8596,7 @@
     </row>
     <row r="764" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A764" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B764" s="2">
         <v>530</v>
@@ -8629,7 +8604,7 @@
     </row>
     <row r="765" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A765" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B765" s="2">
         <v>590</v>
@@ -8637,7 +8612,7 @@
     </row>
     <row r="766" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A766" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B766" s="2">
         <v>644</v>
@@ -8645,7 +8620,7 @@
     </row>
     <row r="767" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A767" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B767" s="2">
         <v>516</v>
@@ -8653,7 +8628,7 @@
     </row>
     <row r="768" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A768" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B768" s="2">
         <v>846</v>
@@ -8661,7 +8636,7 @@
     </row>
     <row r="769" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A769" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B769" s="14">
         <v>1161</v>
@@ -8669,7 +8644,7 @@
     </row>
     <row r="770" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A770" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B770" s="14">
         <v>1196</v>
@@ -8677,7 +8652,7 @@
     </row>
     <row r="771" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A771" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B771" s="2">
         <v>257</v>
@@ -8685,7 +8660,7 @@
     </row>
     <row r="772" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A772" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B772" s="2">
         <v>96</v>
@@ -8693,7 +8668,7 @@
     </row>
     <row r="773" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A773" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B773" s="2">
         <v>121</v>
@@ -8701,7 +8676,7 @@
     </row>
     <row r="774" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A774" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B774" s="2">
         <v>201</v>
@@ -8709,7 +8684,7 @@
     </row>
     <row r="775" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A775" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B775" s="2">
         <v>255</v>
@@ -8717,7 +8692,7 @@
     </row>
     <row r="776" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A776" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B776" s="2">
         <v>161</v>
@@ -8725,7 +8700,7 @@
     </row>
     <row r="777" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A777" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B777" s="2">
         <v>151</v>
@@ -8733,7 +8708,7 @@
     </row>
     <row r="778" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A778" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B778" s="2">
         <v>237</v>
@@ -8741,7 +8716,7 @@
     </row>
     <row r="779" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A779" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B779" s="2">
         <v>281</v>
@@ -8749,7 +8724,7 @@
     </row>
     <row r="780" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A780" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B780" s="2">
         <v>447</v>
@@ -8757,7 +8732,7 @@
     </row>
     <row r="781" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A781" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B781" s="2">
         <v>659</v>
@@ -8765,7 +8740,7 @@
     </row>
     <row r="782" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A782" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B782" s="2">
         <v>824</v>
@@ -8773,7 +8748,7 @@
     </row>
     <row r="783" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A783" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B783" s="2">
         <v>534</v>
@@ -8781,7 +8756,7 @@
     </row>
     <row r="784" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A784" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B784" s="2">
         <v>579</v>
@@ -8789,7 +8764,7 @@
     </row>
     <row r="785" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A785" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B785" s="2">
         <v>603</v>
@@ -8797,7 +8772,7 @@
     </row>
     <row r="786" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A786" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B786" s="2">
         <v>631</v>
@@ -8805,7 +8780,7 @@
     </row>
     <row r="787" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A787" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B787" s="2">
         <v>600</v>
@@ -8813,7 +8788,7 @@
     </row>
     <row r="788" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A788" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B788" s="2">
         <v>707</v>
@@ -8821,7 +8796,7 @@
     </row>
     <row r="789" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A789" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B789" s="2">
         <v>830</v>
@@ -8829,7 +8804,7 @@
     </row>
     <row r="790" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A790" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B790" s="2">
         <v>745</v>
@@ -8837,7 +8812,7 @@
     </row>
     <row r="791" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A791" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B791" s="14">
         <v>1092</v>
@@ -8845,7 +8820,7 @@
     </row>
     <row r="792" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A792" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B792" s="14">
         <v>1183</v>
@@ -8853,7 +8828,7 @@
     </row>
     <row r="793" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A793" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B793" s="14">
         <v>1430</v>
@@ -8861,7 +8836,7 @@
     </row>
     <row r="794" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A794" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B794" s="14">
         <v>1521</v>
@@ -8869,7 +8844,7 @@
     </row>
     <row r="795" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A795" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B795" s="14">
         <v>2647</v>
@@ -8877,7 +8852,7 @@
     </row>
     <row r="796" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A796" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B796" s="2">
         <v>85</v>
@@ -8885,7 +8860,7 @@
     </row>
     <row r="797" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A797" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B797" s="2">
         <v>98</v>
@@ -8893,7 +8868,7 @@
     </row>
     <row r="798" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A798" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B798" s="2">
         <v>104</v>
@@ -8901,7 +8876,7 @@
     </row>
     <row r="799" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A799" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B799" s="2">
         <v>154</v>
@@ -8909,7 +8884,7 @@
     </row>
     <row r="800" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A800" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B800" s="2">
         <v>86</v>
@@ -8917,7 +8892,7 @@
     </row>
     <row r="801" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A801" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B801" s="2">
         <v>152</v>
@@ -8925,7 +8900,7 @@
     </row>
     <row r="802" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A802" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B802" s="2">
         <v>152</v>
@@ -8933,15 +8908,15 @@
     </row>
     <row r="803" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A803" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="B803" s="23" t="s">
-        <v>193</v>
+        <v>176</v>
+      </c>
+      <c r="B803" s="22" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="804" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A804" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B804" s="2">
         <v>189</v>
@@ -8949,7 +8924,7 @@
     </row>
     <row r="805" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A805" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B805" s="2">
         <v>328</v>
@@ -8957,7 +8932,7 @@
     </row>
     <row r="806" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A806" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B806" s="2">
         <v>25</v>
@@ -8965,7 +8940,7 @@
     </row>
     <row r="807" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A807" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B807" s="2">
         <v>43</v>
@@ -8973,7 +8948,7 @@
     </row>
     <row r="808" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A808" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B808" s="2">
         <v>40</v>
@@ -8981,7 +8956,7 @@
     </row>
     <row r="809" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A809" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B809" s="2">
         <v>45</v>
@@ -8989,7 +8964,7 @@
     </row>
     <row r="810" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A810" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B810" s="2">
         <v>58</v>
@@ -8997,7 +8972,7 @@
     </row>
     <row r="811" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A811" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B811" s="2">
         <v>75</v>
@@ -9005,7 +8980,7 @@
     </row>
     <row r="812" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A812" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B812" s="2">
         <v>58</v>
@@ -9013,7 +8988,7 @@
     </row>
     <row r="813" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A813" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B813" s="2">
         <v>95</v>
@@ -9021,7 +8996,7 @@
     </row>
     <row r="814" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A814" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B814" s="2">
         <v>71</v>

--- a/api/files/prices.xlsx
+++ b/api/files/prices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\la union\Desktop\la_union_api_prices\api\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040E7854-C214-4DAB-B08A-2F8C32BA2B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3B3E5E-C270-4692-8A84-DAAC1FEC012E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1527,7 +1527,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="[$USD]\ #,##0"/>
+    <numFmt numFmtId="164" formatCode="[$USD]\ #,##0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -1736,37 +1736,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1778,16 +1778,16 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1799,55 +1799,55 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1865,22 +1865,22 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2190,8 +2190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B897"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection sqref="A1:B897"/>
+    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/api/files/prices.xlsx
+++ b/api/files/prices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\la union\Desktop\la_union_api_prices\api\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E4FFB0-5FDE-4208-9F0C-1BFA9E7EBAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD548AC7-0232-4CA6-AE8A-2A91794CA232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="1060">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="1061">
   <si>
     <t>USD 89</t>
   </si>
@@ -3205,6 +3205,9 @@
   </si>
   <si>
     <t>F89</t>
+  </si>
+  <si>
+    <t>F999</t>
   </si>
 </sst>
 </file>
@@ -3305,7 +3308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3335,6 +3338,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3640,10 +3646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B897"/>
+  <dimension ref="A1:B898"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A881" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection sqref="A1:B897"/>
+    <sheetView tabSelected="1" topLeftCell="A889" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D893" sqref="D893"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10818,11 +10824,19 @@
         <v>880</v>
       </c>
     </row>
-    <row r="897" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A897" s="1" t="s">
+    <row r="897" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A897" s="10" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B897" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="898" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A898" s="1" t="s">
         <v>1059</v>
       </c>
-      <c r="B897" s="2" t="s">
+      <c r="B898" s="2" t="s">
         <v>754</v>
       </c>
     </row>

--- a/api/files/prices.xlsx
+++ b/api/files/prices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\la union\Desktop\la_union_api_prices\api\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD548AC7-0232-4CA6-AE8A-2A91794CA232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0288C78-25DE-46AF-A780-BFEAA55385CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="1061">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="1028">
   <si>
     <t>USD 89</t>
   </si>
@@ -483,124 +483,25 @@
     <t>USD 303</t>
   </si>
   <si>
-    <t>USD 156</t>
-  </si>
-  <si>
-    <t>USD 586</t>
-  </si>
-  <si>
-    <t>USD 654</t>
-  </si>
-  <si>
-    <t>USD 338</t>
-  </si>
-  <si>
-    <t>USD 402</t>
-  </si>
-  <si>
-    <t>USD 462</t>
-  </si>
-  <si>
-    <t>USD 530</t>
-  </si>
-  <si>
-    <t>USD 658</t>
-  </si>
-  <si>
-    <t>USD 359</t>
-  </si>
-  <si>
     <t>USD 544</t>
   </si>
   <si>
-    <t>USD 604</t>
-  </si>
-  <si>
-    <t>USD 591</t>
-  </si>
-  <si>
-    <t>USD 724</t>
-  </si>
-  <si>
-    <t>USD 466</t>
-  </si>
-  <si>
-    <t>USD 537</t>
-  </si>
-  <si>
     <t>USD 766</t>
   </si>
   <si>
-    <t>USD 341</t>
-  </si>
-  <si>
-    <t>USD 406</t>
-  </si>
-  <si>
-    <t>USD 634</t>
-  </si>
-  <si>
-    <t>USD 497</t>
-  </si>
-  <si>
-    <t>USD 603</t>
-  </si>
-  <si>
     <t>USD 543</t>
   </si>
   <si>
-    <t>USD 784</t>
-  </si>
-  <si>
-    <t>USD 967</t>
-  </si>
-  <si>
-    <t>USD 703</t>
-  </si>
-  <si>
-    <t>USD 782</t>
-  </si>
-  <si>
     <t>USD 592</t>
   </si>
   <si>
-    <t>USD 655</t>
-  </si>
-  <si>
     <t>USD 938</t>
   </si>
   <si>
     <t>USD 973</t>
   </si>
   <si>
-    <t>USD 929</t>
-  </si>
-  <si>
-    <t>USD 966</t>
-  </si>
-  <si>
-    <t>USD 491</t>
-  </si>
-  <si>
-    <t>USD 564</t>
-  </si>
-  <si>
-    <t>USD 246</t>
-  </si>
-  <si>
-    <t>USD 436</t>
-  </si>
-  <si>
-    <t>USD 482</t>
-  </si>
-  <si>
-    <t>USD 432</t>
-  </si>
-  <si>
     <t>USD 492</t>
-  </si>
-  <si>
-    <t>USD 538</t>
   </si>
   <si>
     <t>USD 82</t>
@@ -3214,6 +3115,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$USD]\ 0"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -3266,7 +3170,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -3304,11 +3208,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3341,6 +3260,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3648,8 +3573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B898"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A889" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D893" sqref="D893"/>
+    <sheetView tabSelected="1" topLeftCell="A252" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B260" sqref="A204:B260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5282,460 +5207,460 @@
         <v>149</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A204" s="1">
+    <row r="204" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="11">
         <v>120002</v>
       </c>
-      <c r="B204" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A205" s="1">
+      <c r="B204" s="12">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="11">
         <v>124592</v>
       </c>
-      <c r="B205" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A206" s="1">
+      <c r="B205" s="12">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="11">
         <v>120050</v>
       </c>
-      <c r="B206" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A207" s="1">
+      <c r="B206" s="12">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="11">
         <v>120098</v>
       </c>
-      <c r="B207" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A208" s="1">
+      <c r="B207" s="12">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="11">
         <v>122968</v>
       </c>
-      <c r="B208" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A209" s="1">
+      <c r="B208" s="12">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="11">
         <v>122967</v>
       </c>
-      <c r="B209" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A210" s="1">
+      <c r="B209" s="12">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="11">
         <v>123492</v>
       </c>
-      <c r="B210" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A211" s="1">
+      <c r="B210" s="12">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="11">
         <v>123345</v>
       </c>
-      <c r="B211" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A212" s="1">
+      <c r="B211" s="12">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="11">
         <v>123343</v>
       </c>
-      <c r="B212" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A213" s="1">
+      <c r="B212" s="12">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="11">
         <v>120389</v>
       </c>
-      <c r="B213" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A214" s="1">
+      <c r="B213" s="12">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="11">
         <v>123822</v>
       </c>
-      <c r="B214" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A215" s="1">
+      <c r="B214" s="12">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="11">
         <v>124487</v>
       </c>
-      <c r="B215" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A216" s="1">
+      <c r="B215" s="12">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="11">
         <v>124486</v>
       </c>
-      <c r="B216" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A217" s="1">
+      <c r="B216" s="12">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="11">
         <v>121304</v>
       </c>
-      <c r="B217" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A218" s="1">
+      <c r="B217" s="12">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="11">
         <v>122673</v>
       </c>
-      <c r="B218" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A219" s="1">
+      <c r="B218" s="12">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="11">
         <v>122647</v>
       </c>
-      <c r="B219" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A220" s="1">
+      <c r="B219" s="12">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="11">
         <v>123313</v>
       </c>
-      <c r="B220" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A221" s="1">
+      <c r="B220" s="12">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="11">
         <v>123012</v>
       </c>
-      <c r="B221" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A222" s="1">
+      <c r="B221" s="12">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="11">
         <v>122671</v>
       </c>
-      <c r="B222" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A223" s="1">
+      <c r="B222" s="12">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="11">
         <v>122962</v>
       </c>
-      <c r="B223" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A224" s="1">
+      <c r="B223" s="12">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="11">
         <v>120285</v>
       </c>
-      <c r="B224" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A225" s="1">
+      <c r="B224" s="12">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="11">
         <v>121307</v>
       </c>
-      <c r="B225" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A226" s="1">
+      <c r="B225" s="12">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="11">
         <v>123284</v>
       </c>
-      <c r="B226" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A227" s="1">
+      <c r="B226" s="12">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="11">
         <v>120028</v>
       </c>
-      <c r="B227" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A228" s="1">
+      <c r="B227" s="12">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="11">
         <v>120008</v>
       </c>
-      <c r="B228" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A229" s="1">
+      <c r="B228" s="12">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="11">
         <v>123153</v>
       </c>
-      <c r="B229" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A230" s="1">
+      <c r="B229" s="12">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="11">
         <v>124624</v>
       </c>
-      <c r="B230" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A231" s="1">
+      <c r="B230" s="12">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="11">
         <v>124594</v>
       </c>
-      <c r="B231" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A232" s="1">
+      <c r="B231" s="12">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="11">
         <v>123084</v>
       </c>
-      <c r="B232" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A233" s="1">
+      <c r="B232" s="12">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="11">
         <v>124247</v>
       </c>
-      <c r="B233" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A234" s="1">
+      <c r="B233" s="12">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="11">
         <v>120339</v>
       </c>
-      <c r="B234" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A235" s="1">
+      <c r="B234" s="12">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="11">
         <v>124248</v>
       </c>
-      <c r="B235" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A236" s="1">
+      <c r="B235" s="12">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="11">
         <v>124548</v>
       </c>
-      <c r="B236" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A237" s="1">
+      <c r="B236" s="12">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="11">
         <v>123445</v>
       </c>
-      <c r="B237" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A238" s="1">
+      <c r="B237" s="12">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="11">
         <v>124246</v>
       </c>
-      <c r="B238" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A239" s="1">
+      <c r="B238" s="12">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="11">
         <v>122188</v>
       </c>
-      <c r="B239" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A240" s="1">
+      <c r="B239" s="12">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="11">
         <v>122195</v>
       </c>
-      <c r="B240" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A241" s="1">
+      <c r="B240" s="12">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="11">
         <v>122983</v>
       </c>
-      <c r="B241" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A242" s="1">
+      <c r="B241" s="12">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="11">
         <v>122984</v>
       </c>
-      <c r="B242" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A243" s="1">
+      <c r="B242" s="12">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="11">
         <v>123862</v>
       </c>
-      <c r="B243" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A244" s="1">
+      <c r="B243" s="12">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="11">
         <v>122650</v>
       </c>
-      <c r="B244" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A245" s="1">
+      <c r="B244" s="12">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="11">
         <v>124433</v>
       </c>
-      <c r="B245" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A246" s="1">
+      <c r="B245" s="12">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="11">
         <v>120995</v>
       </c>
-      <c r="B246" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A247" s="1">
+      <c r="B246" s="12">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="11">
         <v>123222</v>
       </c>
-      <c r="B247" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A248" s="1">
+      <c r="B247" s="12">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="11">
         <v>120240</v>
       </c>
-      <c r="B248" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A249" s="1">
+      <c r="B248" s="12">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="11">
         <v>123833</v>
       </c>
-      <c r="B249" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A250" s="1">
+      <c r="B249" s="12">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="11">
         <v>124477</v>
       </c>
-      <c r="B250" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A251" s="1">
+      <c r="B250" s="12">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="11">
         <v>123344</v>
       </c>
-      <c r="B251" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A252" s="1">
+      <c r="B251" s="12">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="11">
         <v>124475</v>
       </c>
-      <c r="B252" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A253" s="1">
+      <c r="B252" s="12">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="11">
         <v>121760</v>
       </c>
-      <c r="B253" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A254" s="1">
+      <c r="B253" s="12">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="11">
         <v>124476</v>
       </c>
-      <c r="B254" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A255" s="1">
+      <c r="B254" s="12">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="11">
         <v>124370</v>
       </c>
-      <c r="B255" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A256" s="1">
+      <c r="B255" s="12">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="11">
         <v>121651</v>
       </c>
-      <c r="B256" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A257" s="1">
+      <c r="B256" s="12">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="11">
         <v>124371</v>
       </c>
-      <c r="B257" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A258" s="1">
+      <c r="B257" s="12">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="11">
         <v>122703</v>
       </c>
-      <c r="B258" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A259" s="1">
+      <c r="B258" s="12">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="11">
         <v>123560</v>
       </c>
-      <c r="B259" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A260" s="1">
+      <c r="B259" s="12">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A260" s="11">
         <v>123561</v>
       </c>
-      <c r="B260" s="2" t="s">
-        <v>191</v>
+      <c r="B260" s="12">
+        <v>510</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5743,7 +5668,7 @@
         <v>160052</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>192</v>
+        <v>159</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5751,7 +5676,7 @@
         <v>160054</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>193</v>
+        <v>160</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5759,7 +5684,7 @@
         <v>160051</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5772,15 +5697,15 @@
     </row>
     <row r="265" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A265" s="1" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
     </row>
     <row r="266" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A266" s="1" t="s">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>37</v>
@@ -5788,7 +5713,7 @@
     </row>
     <row r="267" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A267" s="1" t="s">
-        <v>198</v>
+        <v>165</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>58</v>
@@ -5796,7 +5721,7 @@
     </row>
     <row r="268" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A268" s="1" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>100</v>
@@ -5804,7 +5729,7 @@
     </row>
     <row r="269" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A269" s="1" t="s">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>86</v>
@@ -5812,15 +5737,15 @@
     </row>
     <row r="270" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A270" s="1" t="s">
-        <v>201</v>
+        <v>168</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>202</v>
+        <v>169</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A271" s="1" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="B271" s="2" t="s">
         <v>107</v>
@@ -5828,95 +5753,95 @@
     </row>
     <row r="272" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A272" s="1" t="s">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>205</v>
+        <v>172</v>
       </c>
     </row>
     <row r="273" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A273" s="1" t="s">
-        <v>206</v>
+        <v>173</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>207</v>
+        <v>174</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A274" s="1" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>209</v>
+        <v>176</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A275" s="1" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>211</v>
+        <v>178</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A276" s="1" t="s">
-        <v>212</v>
+        <v>179</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>213</v>
+        <v>180</v>
       </c>
     </row>
     <row r="277" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A277" s="1" t="s">
-        <v>214</v>
+        <v>181</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>215</v>
+        <v>182</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A278" s="1" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>217</v>
+        <v>184</v>
       </c>
     </row>
     <row r="279" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A279" s="1" t="s">
-        <v>218</v>
+        <v>185</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
     </row>
     <row r="280" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A280" s="1" t="s">
-        <v>220</v>
+        <v>187</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>221</v>
+        <v>188</v>
       </c>
     </row>
     <row r="281" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A281" s="1" t="s">
-        <v>222</v>
+        <v>189</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>223</v>
+        <v>190</v>
       </c>
     </row>
     <row r="282" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A282" s="1" t="s">
-        <v>224</v>
+        <v>191</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>225</v>
+        <v>192</v>
       </c>
     </row>
     <row r="283" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A283" s="1" t="s">
-        <v>226</v>
+        <v>193</v>
       </c>
       <c r="B283" s="2" t="s">
         <v>145</v>
@@ -5924,23 +5849,23 @@
     </row>
     <row r="284" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A284" s="1" t="s">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>228</v>
+        <v>195</v>
       </c>
     </row>
     <row r="285" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A285" s="1" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A286" s="1" t="s">
-        <v>231</v>
+        <v>198</v>
       </c>
       <c r="B286" s="2" t="s">
         <v>73</v>
@@ -5948,15 +5873,15 @@
     </row>
     <row r="287" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A287" s="1" t="s">
-        <v>232</v>
+        <v>199</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>233</v>
+        <v>200</v>
       </c>
     </row>
     <row r="288" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A288" s="1" t="s">
-        <v>234</v>
+        <v>201</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>51</v>
@@ -5964,31 +5889,31 @@
     </row>
     <row r="289" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A289" s="1" t="s">
-        <v>235</v>
+        <v>202</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>236</v>
+        <v>203</v>
       </c>
     </row>
     <row r="290" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A290" s="1" t="s">
-        <v>237</v>
+        <v>204</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>238</v>
+        <v>205</v>
       </c>
     </row>
     <row r="291" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A291" s="1" t="s">
-        <v>239</v>
+        <v>206</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>240</v>
+        <v>207</v>
       </c>
     </row>
     <row r="292" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A292" s="1" t="s">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="B292" s="2" t="s">
         <v>99</v>
@@ -5996,7 +5921,7 @@
     </row>
     <row r="293" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A293" s="1" t="s">
-        <v>242</v>
+        <v>209</v>
       </c>
       <c r="B293" s="2" t="s">
         <v>84</v>
@@ -6004,7 +5929,7 @@
     </row>
     <row r="294" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A294" s="1" t="s">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>61</v>
@@ -6012,7 +5937,7 @@
     </row>
     <row r="295" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A295" s="1" t="s">
-        <v>244</v>
+        <v>211</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>85</v>
@@ -6020,7 +5945,7 @@
     </row>
     <row r="296" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A296" s="1" t="s">
-        <v>245</v>
+        <v>212</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>74</v>
@@ -6028,7 +5953,7 @@
     </row>
     <row r="297" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A297" s="1" t="s">
-        <v>246</v>
+        <v>213</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>93</v>
@@ -6036,7 +5961,7 @@
     </row>
     <row r="298" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A298" s="1" t="s">
-        <v>247</v>
+        <v>214</v>
       </c>
       <c r="B298" s="2" t="s">
         <v>107</v>
@@ -6044,55 +5969,55 @@
     </row>
     <row r="299" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A299" s="1" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
     </row>
     <row r="300" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A300" s="1" t="s">
-        <v>250</v>
+        <v>217</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>251</v>
+        <v>218</v>
       </c>
     </row>
     <row r="301" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A301" s="1" t="s">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>253</v>
+        <v>220</v>
       </c>
     </row>
     <row r="302" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A302" s="1" t="s">
-        <v>254</v>
+        <v>221</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>255</v>
+        <v>222</v>
       </c>
     </row>
     <row r="303" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A303" s="1" t="s">
-        <v>256</v>
+        <v>223</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>257</v>
+        <v>224</v>
       </c>
     </row>
     <row r="304" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A304" s="1" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>259</v>
+        <v>226</v>
       </c>
     </row>
     <row r="305" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A305" s="1" t="s">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>129</v>
@@ -6100,15 +6025,15 @@
     </row>
     <row r="306" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A306" s="1" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>262</v>
+        <v>229</v>
       </c>
     </row>
     <row r="307" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A307" s="1" t="s">
-        <v>263</v>
+        <v>230</v>
       </c>
       <c r="B307" s="2" t="s">
         <v>144</v>
@@ -6116,31 +6041,31 @@
     </row>
     <row r="308" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A308" s="1" t="s">
-        <v>264</v>
+        <v>231</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>265</v>
+        <v>232</v>
       </c>
     </row>
     <row r="309" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A309" s="1" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
     </row>
     <row r="310" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A310" s="1" t="s">
-        <v>268</v>
+        <v>235</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>269</v>
+        <v>236</v>
       </c>
     </row>
     <row r="311" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A311" s="1" t="s">
-        <v>270</v>
+        <v>237</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>135</v>
@@ -6148,103 +6073,103 @@
     </row>
     <row r="312" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A312" s="1" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>272</v>
+        <v>239</v>
       </c>
     </row>
     <row r="313" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A313" s="1" t="s">
-        <v>273</v>
+        <v>240</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
     </row>
     <row r="314" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A314" s="1" t="s">
-        <v>275</v>
+        <v>242</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>276</v>
+        <v>243</v>
       </c>
     </row>
     <row r="315" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A315" s="1" t="s">
-        <v>277</v>
+        <v>244</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>278</v>
+        <v>245</v>
       </c>
     </row>
     <row r="316" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A316" s="1" t="s">
-        <v>279</v>
+        <v>246</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
     </row>
     <row r="317" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A317" s="1" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
     </row>
     <row r="318" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A318" s="1" t="s">
-        <v>283</v>
+        <v>250</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>284</v>
+        <v>251</v>
       </c>
     </row>
     <row r="319" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A319" s="1" t="s">
-        <v>285</v>
+        <v>252</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>286</v>
+        <v>253</v>
       </c>
     </row>
     <row r="320" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A320" s="1" t="s">
-        <v>287</v>
+        <v>254</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>265</v>
+        <v>232</v>
       </c>
     </row>
     <row r="321" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A321" s="1" t="s">
-        <v>288</v>
+        <v>255</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
     </row>
     <row r="322" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A322" s="1" t="s">
-        <v>289</v>
+        <v>256</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>207</v>
+        <v>174</v>
       </c>
     </row>
     <row r="323" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A323" s="1" t="s">
-        <v>290</v>
+        <v>257</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>291</v>
+        <v>258</v>
       </c>
     </row>
     <row r="324" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A324" s="1" t="s">
-        <v>292</v>
+        <v>259</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>53</v>
@@ -6252,7 +6177,7 @@
     </row>
     <row r="325" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A325" s="1" t="s">
-        <v>293</v>
+        <v>260</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>49</v>
@@ -6260,7 +6185,7 @@
     </row>
     <row r="326" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A326" s="1" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>58</v>
@@ -6268,215 +6193,215 @@
     </row>
     <row r="327" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A327" s="1" t="s">
-        <v>295</v>
+        <v>262</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>296</v>
+        <v>263</v>
       </c>
     </row>
     <row r="328" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A328" s="1" t="s">
-        <v>297</v>
+        <v>264</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>217</v>
+        <v>184</v>
       </c>
     </row>
     <row r="329" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A329" s="1" t="s">
-        <v>298</v>
+        <v>265</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
     </row>
     <row r="330" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A330" s="1" t="s">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
     </row>
     <row r="331" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A331" s="1" t="s">
-        <v>302</v>
+        <v>269</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>303</v>
+        <v>270</v>
       </c>
     </row>
     <row r="332" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A332" s="1" t="s">
-        <v>304</v>
+        <v>271</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>305</v>
+        <v>272</v>
       </c>
     </row>
     <row r="333" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A333" s="1" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>307</v>
+        <v>274</v>
       </c>
     </row>
     <row r="334" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A334" s="1" t="s">
-        <v>308</v>
+        <v>275</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
     </row>
     <row r="335" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A335" s="1" t="s">
-        <v>310</v>
+        <v>277</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>311</v>
+        <v>278</v>
       </c>
     </row>
     <row r="336" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A336" s="1" t="s">
-        <v>312</v>
+        <v>279</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>313</v>
+        <v>280</v>
       </c>
     </row>
     <row r="337" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A337" s="1" t="s">
-        <v>314</v>
+        <v>281</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>315</v>
+        <v>282</v>
       </c>
     </row>
     <row r="338" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A338" s="1" t="s">
-        <v>316</v>
+        <v>283</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>317</v>
+        <v>284</v>
       </c>
     </row>
     <row r="339" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A339" s="1" t="s">
-        <v>318</v>
+        <v>285</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>319</v>
+        <v>286</v>
       </c>
     </row>
     <row r="340" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A340" s="1" t="s">
-        <v>320</v>
+        <v>287</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
     </row>
     <row r="341" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A341" s="1" t="s">
-        <v>322</v>
+        <v>289</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>323</v>
+        <v>290</v>
       </c>
     </row>
     <row r="342" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A342" s="1" t="s">
-        <v>324</v>
+        <v>291</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>325</v>
+        <v>292</v>
       </c>
     </row>
     <row r="343" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A343" s="1" t="s">
-        <v>326</v>
+        <v>293</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>327</v>
+        <v>294</v>
       </c>
     </row>
     <row r="344" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A344" s="1" t="s">
-        <v>328</v>
+        <v>295</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>319</v>
+        <v>286</v>
       </c>
     </row>
     <row r="345" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A345" s="1" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
     </row>
     <row r="346" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A346" s="1" t="s">
-        <v>330</v>
+        <v>297</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>331</v>
+        <v>298</v>
       </c>
     </row>
     <row r="347" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A347" s="1" t="s">
-        <v>332</v>
+        <v>299</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
     </row>
     <row r="348" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A348" s="1" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>334</v>
+        <v>301</v>
       </c>
     </row>
     <row r="349" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A349" s="1" t="s">
-        <v>335</v>
+        <v>302</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>336</v>
+        <v>303</v>
       </c>
     </row>
     <row r="350" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A350" s="1" t="s">
-        <v>337</v>
+        <v>304</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
     </row>
     <row r="351" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A351" s="1" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
     </row>
     <row r="352" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A352" s="1" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>342</v>
+        <v>309</v>
       </c>
     </row>
     <row r="353" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A353" s="1" t="s">
-        <v>343</v>
+        <v>310</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>116</v>
@@ -6484,23 +6409,23 @@
     </row>
     <row r="354" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A354" s="1" t="s">
-        <v>344</v>
+        <v>311</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>345</v>
+        <v>312</v>
       </c>
     </row>
     <row r="355" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A355" s="1" t="s">
-        <v>346</v>
+        <v>313</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>347</v>
+        <v>314</v>
       </c>
     </row>
     <row r="356" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A356" s="1" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="B356" s="2" t="s">
         <v>137</v>
@@ -6508,879 +6433,879 @@
     </row>
     <row r="357" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A357" s="1" t="s">
-        <v>349</v>
+        <v>316</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>350</v>
+        <v>317</v>
       </c>
     </row>
     <row r="358" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A358" s="1" t="s">
-        <v>351</v>
+        <v>318</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>352</v>
+        <v>319</v>
       </c>
     </row>
     <row r="359" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A359" s="1" t="s">
-        <v>353</v>
+        <v>320</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="360" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A360" s="1" t="s">
-        <v>354</v>
+        <v>321</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>272</v>
+        <v>239</v>
       </c>
     </row>
     <row r="361" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A361" s="1" t="s">
-        <v>355</v>
+        <v>322</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>356</v>
+        <v>323</v>
       </c>
     </row>
     <row r="362" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A362" s="1" t="s">
-        <v>357</v>
+        <v>324</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>358</v>
+        <v>325</v>
       </c>
     </row>
     <row r="363" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A363" s="1" t="s">
-        <v>359</v>
+        <v>326</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>311</v>
+        <v>278</v>
       </c>
     </row>
     <row r="364" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A364" s="1" t="s">
-        <v>360</v>
+        <v>327</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>361</v>
+        <v>328</v>
       </c>
     </row>
     <row r="365" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A365" s="1" t="s">
-        <v>362</v>
+        <v>329</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>363</v>
+        <v>330</v>
       </c>
     </row>
     <row r="366" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A366" s="1" t="s">
-        <v>364</v>
+        <v>331</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>272</v>
+        <v>239</v>
       </c>
     </row>
     <row r="367" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A367" s="1" t="s">
-        <v>365</v>
+        <v>332</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>366</v>
+        <v>333</v>
       </c>
     </row>
     <row r="368" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A368" s="1" t="s">
-        <v>367</v>
+        <v>334</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>368</v>
+        <v>335</v>
       </c>
     </row>
     <row r="369" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A369" s="1" t="s">
-        <v>369</v>
+        <v>336</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>370</v>
+        <v>337</v>
       </c>
     </row>
     <row r="370" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A370" s="1" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>372</v>
+        <v>339</v>
       </c>
     </row>
     <row r="371" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A371" s="1" t="s">
-        <v>373</v>
+        <v>340</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>374</v>
+        <v>341</v>
       </c>
     </row>
     <row r="372" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A372" s="1" t="s">
-        <v>375</v>
+        <v>342</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>376</v>
+        <v>343</v>
       </c>
     </row>
     <row r="373" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A373" s="1" t="s">
-        <v>377</v>
+        <v>344</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>378</v>
+        <v>345</v>
       </c>
     </row>
     <row r="374" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A374" s="1" t="s">
-        <v>379</v>
+        <v>346</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>380</v>
+        <v>347</v>
       </c>
     </row>
     <row r="375" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A375" s="1" t="s">
-        <v>381</v>
+        <v>348</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>382</v>
+        <v>349</v>
       </c>
     </row>
     <row r="376" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A376" s="1" t="s">
-        <v>383</v>
+        <v>350</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
     </row>
     <row r="377" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A377" s="1" t="s">
-        <v>384</v>
+        <v>351</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>385</v>
+        <v>352</v>
       </c>
     </row>
     <row r="378" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A378" s="1" t="s">
-        <v>386</v>
+        <v>353</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
     </row>
     <row r="379" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A379" s="1" t="s">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>305</v>
+        <v>272</v>
       </c>
     </row>
     <row r="380" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A380" s="1" t="s">
-        <v>389</v>
+        <v>356</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>390</v>
+        <v>357</v>
       </c>
     </row>
     <row r="381" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A381" s="1" t="s">
-        <v>391</v>
+        <v>358</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>392</v>
+        <v>359</v>
       </c>
     </row>
     <row r="382" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A382" s="1" t="s">
-        <v>393</v>
+        <v>360</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>394</v>
+        <v>361</v>
       </c>
     </row>
     <row r="383" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A383" s="1" t="s">
-        <v>395</v>
+        <v>362</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>396</v>
+        <v>363</v>
       </c>
     </row>
     <row r="384" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A384" s="1" t="s">
-        <v>397</v>
+        <v>364</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>398</v>
+        <v>365</v>
       </c>
     </row>
     <row r="385" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A385" s="1" t="s">
-        <v>399</v>
+        <v>366</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>303</v>
+        <v>270</v>
       </c>
     </row>
     <row r="386" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A386" s="1" t="s">
-        <v>400</v>
+        <v>367</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>401</v>
+        <v>368</v>
       </c>
     </row>
     <row r="387" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A387" s="1" t="s">
-        <v>402</v>
+        <v>369</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>403</v>
+        <v>370</v>
       </c>
     </row>
     <row r="388" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A388" s="1" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>405</v>
+        <v>372</v>
       </c>
     </row>
     <row r="389" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A389" s="1" t="s">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>407</v>
+        <v>374</v>
       </c>
     </row>
     <row r="390" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A390" s="1" t="s">
-        <v>408</v>
+        <v>375</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>382</v>
+        <v>349</v>
       </c>
     </row>
     <row r="391" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A391" s="1" t="s">
-        <v>409</v>
+        <v>376</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>410</v>
+        <v>377</v>
       </c>
     </row>
     <row r="392" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A392" s="1" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>412</v>
+        <v>379</v>
       </c>
     </row>
     <row r="393" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A393" s="1" t="s">
-        <v>413</v>
+        <v>380</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>414</v>
+        <v>381</v>
       </c>
     </row>
     <row r="394" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A394" s="1" t="s">
-        <v>415</v>
+        <v>382</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>416</v>
+        <v>383</v>
       </c>
     </row>
     <row r="395" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A395" s="1" t="s">
-        <v>417</v>
+        <v>384</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>418</v>
+        <v>385</v>
       </c>
     </row>
     <row r="396" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A396" s="1" t="s">
-        <v>419</v>
+        <v>386</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>420</v>
+        <v>387</v>
       </c>
     </row>
     <row r="397" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A397" s="1" t="s">
-        <v>421</v>
+        <v>388</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>422</v>
+        <v>389</v>
       </c>
     </row>
     <row r="398" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A398" s="1" t="s">
-        <v>423</v>
+        <v>390</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>424</v>
+        <v>391</v>
       </c>
     </row>
     <row r="399" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A399" s="1" t="s">
-        <v>425</v>
+        <v>392</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>426</v>
+        <v>393</v>
       </c>
     </row>
     <row r="400" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A400" s="1" t="s">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>428</v>
+        <v>395</v>
       </c>
     </row>
     <row r="401" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A401" s="1" t="s">
-        <v>429</v>
+        <v>396</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>430</v>
+        <v>397</v>
       </c>
     </row>
     <row r="402" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A402" s="1" t="s">
-        <v>431</v>
+        <v>398</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>432</v>
+        <v>399</v>
       </c>
     </row>
     <row r="403" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A403" s="1" t="s">
-        <v>433</v>
+        <v>400</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>434</v>
+        <v>401</v>
       </c>
     </row>
     <row r="404" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A404" s="1" t="s">
-        <v>435</v>
+        <v>402</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>436</v>
+        <v>403</v>
       </c>
     </row>
     <row r="405" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A405" s="1" t="s">
-        <v>437</v>
+        <v>404</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>438</v>
+        <v>405</v>
       </c>
     </row>
     <row r="406" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A406" s="1" t="s">
-        <v>439</v>
+        <v>406</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>440</v>
+        <v>407</v>
       </c>
     </row>
     <row r="407" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A407" s="1" t="s">
-        <v>441</v>
+        <v>408</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>442</v>
+        <v>409</v>
       </c>
     </row>
     <row r="408" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A408" s="1" t="s">
-        <v>443</v>
+        <v>410</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>444</v>
+        <v>411</v>
       </c>
     </row>
     <row r="409" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A409" s="1" t="s">
-        <v>445</v>
+        <v>412</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>446</v>
+        <v>413</v>
       </c>
     </row>
     <row r="410" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A410" s="1" t="s">
-        <v>447</v>
+        <v>414</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>448</v>
+        <v>415</v>
       </c>
     </row>
     <row r="411" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A411" s="1" t="s">
-        <v>449</v>
+        <v>416</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>450</v>
+        <v>417</v>
       </c>
     </row>
     <row r="412" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A412" s="1" t="s">
-        <v>451</v>
+        <v>418</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>452</v>
+        <v>419</v>
       </c>
     </row>
     <row r="413" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A413" s="1" t="s">
-        <v>453</v>
+        <v>420</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>454</v>
+        <v>421</v>
       </c>
     </row>
     <row r="414" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A414" s="1" t="s">
-        <v>455</v>
+        <v>422</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>456</v>
+        <v>423</v>
       </c>
     </row>
     <row r="415" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A415" s="1" t="s">
-        <v>457</v>
+        <v>424</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>458</v>
+        <v>425</v>
       </c>
     </row>
     <row r="416" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A416" s="1" t="s">
-        <v>459</v>
+        <v>426</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>448</v>
+        <v>415</v>
       </c>
     </row>
     <row r="417" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A417" s="1" t="s">
-        <v>460</v>
+        <v>427</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>461</v>
+        <v>428</v>
       </c>
     </row>
     <row r="418" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A418" s="1" t="s">
-        <v>462</v>
+        <v>429</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>463</v>
+        <v>430</v>
       </c>
     </row>
     <row r="419" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A419" s="1" t="s">
-        <v>464</v>
+        <v>431</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
     </row>
     <row r="420" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A420" s="1" t="s">
-        <v>465</v>
+        <v>432</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>466</v>
+        <v>433</v>
       </c>
     </row>
     <row r="421" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A421" s="1" t="s">
-        <v>467</v>
+        <v>434</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>468</v>
+        <v>435</v>
       </c>
     </row>
     <row r="422" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A422" s="1" t="s">
-        <v>469</v>
+        <v>436</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>470</v>
+        <v>437</v>
       </c>
     </row>
     <row r="423" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A423" s="1" t="s">
-        <v>471</v>
+        <v>438</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>430</v>
+        <v>397</v>
       </c>
     </row>
     <row r="424" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A424" s="1" t="s">
-        <v>472</v>
+        <v>439</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>473</v>
+        <v>440</v>
       </c>
     </row>
     <row r="425" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A425" s="1" t="s">
-        <v>474</v>
+        <v>441</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>475</v>
+        <v>442</v>
       </c>
     </row>
     <row r="426" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A426" s="1" t="s">
-        <v>476</v>
+        <v>443</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
     </row>
     <row r="427" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A427" s="1" t="s">
-        <v>478</v>
+        <v>445</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>479</v>
+        <v>446</v>
       </c>
     </row>
     <row r="428" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A428" s="1" t="s">
-        <v>480</v>
+        <v>447</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>481</v>
+        <v>448</v>
       </c>
     </row>
     <row r="429" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A429" s="1" t="s">
-        <v>482</v>
+        <v>449</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>483</v>
+        <v>450</v>
       </c>
     </row>
     <row r="430" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A430" s="1" t="s">
-        <v>484</v>
+        <v>451</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>485</v>
+        <v>452</v>
       </c>
     </row>
     <row r="431" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A431" s="1" t="s">
-        <v>486</v>
+        <v>453</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>487</v>
+        <v>454</v>
       </c>
     </row>
     <row r="432" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A432" s="1" t="s">
-        <v>488</v>
+        <v>455</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>489</v>
+        <v>456</v>
       </c>
     </row>
     <row r="433" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A433" s="1" t="s">
-        <v>490</v>
+        <v>457</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>491</v>
+        <v>458</v>
       </c>
     </row>
     <row r="434" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A434" s="1" t="s">
-        <v>492</v>
+        <v>459</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>493</v>
+        <v>460</v>
       </c>
     </row>
     <row r="435" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A435" s="1" t="s">
-        <v>494</v>
+        <v>461</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>495</v>
+        <v>462</v>
       </c>
     </row>
     <row r="436" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A436" s="1" t="s">
-        <v>496</v>
+        <v>463</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>497</v>
+        <v>464</v>
       </c>
     </row>
     <row r="437" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A437" s="1" t="s">
-        <v>498</v>
+        <v>465</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>499</v>
+        <v>466</v>
       </c>
     </row>
     <row r="438" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A438" s="1" t="s">
-        <v>500</v>
+        <v>467</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>501</v>
+        <v>468</v>
       </c>
     </row>
     <row r="439" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A439" s="1" t="s">
-        <v>502</v>
+        <v>469</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>503</v>
+        <v>470</v>
       </c>
     </row>
     <row r="440" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A440" s="1" t="s">
-        <v>504</v>
+        <v>471</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>505</v>
+        <v>472</v>
       </c>
     </row>
     <row r="441" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A441" s="1" t="s">
-        <v>506</v>
+        <v>473</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>507</v>
+        <v>474</v>
       </c>
     </row>
     <row r="442" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A442" s="1" t="s">
-        <v>508</v>
+        <v>475</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>509</v>
+        <v>476</v>
       </c>
     </row>
     <row r="443" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A443" s="1" t="s">
-        <v>510</v>
+        <v>477</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>511</v>
+        <v>478</v>
       </c>
     </row>
     <row r="444" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A444" s="1" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>513</v>
+        <v>480</v>
       </c>
     </row>
     <row r="445" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A445" s="1" t="s">
-        <v>514</v>
+        <v>481</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>515</v>
+        <v>482</v>
       </c>
     </row>
     <row r="446" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A446" s="1" t="s">
-        <v>516</v>
+        <v>483</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>517</v>
+        <v>484</v>
       </c>
     </row>
     <row r="447" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A447" s="1" t="s">
-        <v>518</v>
+        <v>485</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>519</v>
+        <v>486</v>
       </c>
     </row>
     <row r="448" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A448" s="1" t="s">
-        <v>520</v>
+        <v>487</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>521</v>
+        <v>488</v>
       </c>
     </row>
     <row r="449" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A449" s="1" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>523</v>
+        <v>490</v>
       </c>
     </row>
     <row r="450" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A450" s="1" t="s">
-        <v>524</v>
+        <v>491</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>525</v>
+        <v>492</v>
       </c>
     </row>
     <row r="451" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A451" s="1" t="s">
-        <v>526</v>
+        <v>493</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>527</v>
+        <v>494</v>
       </c>
     </row>
     <row r="452" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A452" s="1" t="s">
-        <v>528</v>
+        <v>495</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>529</v>
+        <v>496</v>
       </c>
     </row>
     <row r="453" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A453" s="1" t="s">
-        <v>530</v>
+        <v>497</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>531</v>
+        <v>498</v>
       </c>
     </row>
     <row r="454" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A454" s="1" t="s">
-        <v>532</v>
+        <v>499</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>533</v>
+        <v>500</v>
       </c>
     </row>
     <row r="455" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A455" s="1" t="s">
-        <v>534</v>
+        <v>501</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>535</v>
+        <v>502</v>
       </c>
     </row>
     <row r="456" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A456" s="1" t="s">
-        <v>536</v>
+        <v>503</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>537</v>
+        <v>504</v>
       </c>
     </row>
     <row r="457" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A457" s="1" t="s">
-        <v>538</v>
+        <v>505</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>539</v>
+        <v>506</v>
       </c>
     </row>
     <row r="458" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A458" s="1" t="s">
-        <v>540</v>
+        <v>507</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>541</v>
+        <v>508</v>
       </c>
     </row>
     <row r="459" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A459" s="1" t="s">
-        <v>542</v>
+        <v>509</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>543</v>
+        <v>510</v>
       </c>
     </row>
     <row r="460" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A460" s="1" t="s">
-        <v>544</v>
+        <v>511</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>545</v>
+        <v>512</v>
       </c>
     </row>
     <row r="461" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A461" s="1" t="s">
-        <v>546</v>
+        <v>513</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>547</v>
+        <v>514</v>
       </c>
     </row>
     <row r="462" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A462" s="1" t="s">
-        <v>548</v>
+        <v>515</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
     </row>
     <row r="463" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A463" s="1" t="s">
-        <v>550</v>
+        <v>517</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="464" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A464" s="1" t="s">
-        <v>552</v>
+        <v>519</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>553</v>
+        <v>520</v>
       </c>
     </row>
     <row r="465" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A465" s="1" t="s">
-        <v>554</v>
+        <v>521</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>555</v>
+        <v>522</v>
       </c>
     </row>
     <row r="466" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A466" s="1" t="s">
-        <v>556</v>
+        <v>523</v>
       </c>
       <c r="B466" s="2" t="s">
         <v>74</v>
@@ -7388,239 +7313,239 @@
     </row>
     <row r="467" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A467" s="1" t="s">
-        <v>557</v>
+        <v>524</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>558</v>
+        <v>525</v>
       </c>
     </row>
     <row r="468" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A468" s="1" t="s">
-        <v>559</v>
+        <v>526</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>560</v>
+        <v>527</v>
       </c>
     </row>
     <row r="469" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A469" s="1" t="s">
-        <v>561</v>
+        <v>528</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>562</v>
+        <v>529</v>
       </c>
     </row>
     <row r="470" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A470" s="1" t="s">
-        <v>563</v>
+        <v>530</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>564</v>
+        <v>531</v>
       </c>
     </row>
     <row r="471" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A471" s="1" t="s">
-        <v>565</v>
+        <v>532</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>566</v>
+        <v>533</v>
       </c>
     </row>
     <row r="472" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A472" s="1" t="s">
-        <v>567</v>
+        <v>534</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>568</v>
+        <v>535</v>
       </c>
     </row>
     <row r="473" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A473" s="1" t="s">
-        <v>569</v>
+        <v>536</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>570</v>
+        <v>537</v>
       </c>
     </row>
     <row r="474" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A474" s="1" t="s">
-        <v>571</v>
+        <v>538</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>572</v>
+        <v>539</v>
       </c>
     </row>
     <row r="475" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A475" s="1" t="s">
-        <v>573</v>
+        <v>540</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>574</v>
+        <v>541</v>
       </c>
     </row>
     <row r="476" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A476" s="1" t="s">
-        <v>575</v>
+        <v>542</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>576</v>
+        <v>543</v>
       </c>
     </row>
     <row r="477" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A477" s="1" t="s">
-        <v>577</v>
+        <v>544</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>578</v>
+        <v>545</v>
       </c>
     </row>
     <row r="478" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A478" s="1" t="s">
-        <v>579</v>
+        <v>546</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>580</v>
+        <v>547</v>
       </c>
     </row>
     <row r="479" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A479" s="1" t="s">
-        <v>581</v>
+        <v>548</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>473</v>
+        <v>440</v>
       </c>
     </row>
     <row r="480" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A480" s="1" t="s">
-        <v>582</v>
+        <v>549</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>473</v>
+        <v>440</v>
       </c>
     </row>
     <row r="481" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A481" s="1" t="s">
-        <v>583</v>
+        <v>550</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>584</v>
+        <v>551</v>
       </c>
     </row>
     <row r="482" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A482" s="1" t="s">
-        <v>585</v>
+        <v>552</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>586</v>
+        <v>553</v>
       </c>
     </row>
     <row r="483" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A483" s="1" t="s">
-        <v>587</v>
+        <v>554</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>438</v>
+        <v>405</v>
       </c>
     </row>
     <row r="484" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A484" s="1" t="s">
-        <v>588</v>
+        <v>555</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>589</v>
+        <v>556</v>
       </c>
     </row>
     <row r="485" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A485" s="1" t="s">
-        <v>590</v>
+        <v>557</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>591</v>
+        <v>558</v>
       </c>
     </row>
     <row r="486" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A486" s="1" t="s">
-        <v>592</v>
+        <v>559</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>593</v>
+        <v>560</v>
       </c>
     </row>
     <row r="487" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A487" s="1" t="s">
-        <v>594</v>
+        <v>561</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>595</v>
+        <v>562</v>
       </c>
     </row>
     <row r="488" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A488" s="1" t="s">
-        <v>596</v>
+        <v>563</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>597</v>
+        <v>564</v>
       </c>
     </row>
     <row r="489" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A489" s="1" t="s">
-        <v>598</v>
+        <v>565</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>599</v>
+        <v>566</v>
       </c>
     </row>
     <row r="490" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A490" s="1" t="s">
-        <v>600</v>
+        <v>567</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>601</v>
+        <v>568</v>
       </c>
     </row>
     <row r="491" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A491" s="1" t="s">
-        <v>602</v>
+        <v>569</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>603</v>
+        <v>570</v>
       </c>
     </row>
     <row r="492" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A492" s="1" t="s">
-        <v>604</v>
+        <v>571</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>605</v>
+        <v>572</v>
       </c>
     </row>
     <row r="493" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A493" s="1" t="s">
-        <v>606</v>
+        <v>573</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>607</v>
+        <v>574</v>
       </c>
     </row>
     <row r="494" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A494" s="1" t="s">
-        <v>608</v>
+        <v>575</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>609</v>
+        <v>576</v>
       </c>
     </row>
     <row r="495" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A495" s="1" t="s">
-        <v>610</v>
+        <v>577</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>611</v>
+        <v>578</v>
       </c>
     </row>
     <row r="496" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A496" s="1" t="s">
-        <v>612</v>
+        <v>579</v>
       </c>
       <c r="B496" s="2" t="s">
         <v>144</v>
@@ -7628,7 +7553,7 @@
     </row>
     <row r="497" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A497" s="1" t="s">
-        <v>613</v>
+        <v>580</v>
       </c>
       <c r="B497" s="2" t="s">
         <v>128</v>
@@ -7636,71 +7561,71 @@
     </row>
     <row r="498" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A498" s="1" t="s">
-        <v>614</v>
+        <v>581</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>615</v>
+        <v>582</v>
       </c>
     </row>
     <row r="499" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A499" s="1" t="s">
-        <v>616</v>
+        <v>583</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>617</v>
+        <v>584</v>
       </c>
     </row>
     <row r="500" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A500" s="1" t="s">
-        <v>618</v>
+        <v>585</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>619</v>
+        <v>586</v>
       </c>
     </row>
     <row r="501" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A501" s="1" t="s">
-        <v>620</v>
+        <v>587</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>621</v>
+        <v>588</v>
       </c>
     </row>
     <row r="502" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A502" s="1" t="s">
-        <v>622</v>
+        <v>589</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>623</v>
+        <v>590</v>
       </c>
     </row>
     <row r="503" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A503" s="1" t="s">
-        <v>624</v>
+        <v>591</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>625</v>
+        <v>592</v>
       </c>
     </row>
     <row r="504" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A504" s="1" t="s">
-        <v>626</v>
+        <v>593</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>625</v>
+        <v>592</v>
       </c>
     </row>
     <row r="505" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A505" s="1" t="s">
-        <v>627</v>
+        <v>594</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>628</v>
+        <v>595</v>
       </c>
     </row>
     <row r="506" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A506" s="1" t="s">
-        <v>629</v>
+        <v>596</v>
       </c>
       <c r="B506" s="2" t="s">
         <v>20</v>
@@ -7708,7 +7633,7 @@
     </row>
     <row r="507" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A507" s="1" t="s">
-        <v>630</v>
+        <v>597</v>
       </c>
       <c r="B507" s="2" t="s">
         <v>13</v>
@@ -7716,103 +7641,103 @@
     </row>
     <row r="508" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A508" s="1" t="s">
-        <v>631</v>
+        <v>598</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>632</v>
+        <v>599</v>
       </c>
     </row>
     <row r="509" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A509" s="1" t="s">
-        <v>633</v>
+        <v>600</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>634</v>
+        <v>601</v>
       </c>
     </row>
     <row r="510" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A510" s="1" t="s">
-        <v>635</v>
+        <v>602</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>636</v>
+        <v>603</v>
       </c>
     </row>
     <row r="511" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A511" s="1" t="s">
-        <v>637</v>
+        <v>604</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>638</v>
+        <v>605</v>
       </c>
     </row>
     <row r="512" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A512" s="1" t="s">
-        <v>639</v>
+        <v>606</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>640</v>
+        <v>607</v>
       </c>
     </row>
     <row r="513" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A513" s="1" t="s">
-        <v>641</v>
+        <v>608</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>642</v>
+        <v>609</v>
       </c>
     </row>
     <row r="514" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A514" s="1" t="s">
-        <v>643</v>
+        <v>610</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>644</v>
+        <v>611</v>
       </c>
     </row>
     <row r="515" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A515" s="1" t="s">
-        <v>645</v>
+        <v>612</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>646</v>
+        <v>613</v>
       </c>
     </row>
     <row r="516" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A516" s="1" t="s">
-        <v>647</v>
+        <v>614</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>648</v>
+        <v>615</v>
       </c>
     </row>
     <row r="517" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A517" s="1" t="s">
-        <v>649</v>
+        <v>616</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>650</v>
+        <v>617</v>
       </c>
     </row>
     <row r="518" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A518" s="1" t="s">
-        <v>651</v>
+        <v>618</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>652</v>
+        <v>619</v>
       </c>
     </row>
     <row r="519" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A519" s="1" t="s">
-        <v>653</v>
+        <v>620</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>654</v>
+        <v>621</v>
       </c>
     </row>
     <row r="520" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A520" s="1" t="s">
-        <v>655</v>
+        <v>622</v>
       </c>
       <c r="B520" s="2" t="s">
         <v>25</v>
@@ -7820,7 +7745,7 @@
     </row>
     <row r="521" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A521" s="1" t="s">
-        <v>656</v>
+        <v>623</v>
       </c>
       <c r="B521" s="2" t="s">
         <v>27</v>
@@ -7828,15 +7753,15 @@
     </row>
     <row r="522" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A522" s="1" t="s">
-        <v>657</v>
+        <v>624</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>658</v>
+        <v>625</v>
       </c>
     </row>
     <row r="523" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A523" s="1" t="s">
-        <v>659</v>
+        <v>626</v>
       </c>
       <c r="B523" s="2" t="s">
         <v>70</v>
@@ -7844,15 +7769,15 @@
     </row>
     <row r="524" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A524" s="1" t="s">
-        <v>660</v>
+        <v>627</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>661</v>
+        <v>628</v>
       </c>
     </row>
     <row r="525" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A525" s="1" t="s">
-        <v>662</v>
+        <v>629</v>
       </c>
       <c r="B525" s="2" t="s">
         <v>75</v>
@@ -7860,183 +7785,183 @@
     </row>
     <row r="526" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A526" s="1" t="s">
-        <v>663</v>
+        <v>630</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>664</v>
+        <v>631</v>
       </c>
     </row>
     <row r="527" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A527" s="1" t="s">
-        <v>665</v>
+        <v>632</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>666</v>
+        <v>633</v>
       </c>
     </row>
     <row r="528" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A528" s="1" t="s">
-        <v>667</v>
+        <v>634</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>668</v>
+        <v>635</v>
       </c>
     </row>
     <row r="529" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A529" s="1" t="s">
-        <v>669</v>
+        <v>636</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>670</v>
+        <v>637</v>
       </c>
     </row>
     <row r="530" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A530" s="1" t="s">
-        <v>671</v>
+        <v>638</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>672</v>
+        <v>639</v>
       </c>
     </row>
     <row r="531" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A531" s="1" t="s">
-        <v>673</v>
+        <v>640</v>
       </c>
       <c r="B531" s="2" t="s">
-        <v>674</v>
+        <v>641</v>
       </c>
     </row>
     <row r="532" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A532" s="1" t="s">
-        <v>675</v>
+        <v>642</v>
       </c>
       <c r="B532" s="2" t="s">
-        <v>676</v>
+        <v>643</v>
       </c>
     </row>
     <row r="533" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A533" s="1" t="s">
-        <v>677</v>
+        <v>644</v>
       </c>
       <c r="B533" s="2" t="s">
-        <v>678</v>
+        <v>645</v>
       </c>
     </row>
     <row r="534" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A534" s="1" t="s">
-        <v>679</v>
+        <v>646</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>680</v>
+        <v>647</v>
       </c>
     </row>
     <row r="535" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A535" s="1" t="s">
-        <v>681</v>
+        <v>648</v>
       </c>
       <c r="B535" s="2" t="s">
-        <v>682</v>
+        <v>649</v>
       </c>
     </row>
     <row r="536" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A536" s="1" t="s">
-        <v>683</v>
+        <v>650</v>
       </c>
       <c r="B536" s="2" t="s">
-        <v>684</v>
+        <v>651</v>
       </c>
     </row>
     <row r="537" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A537" s="1" t="s">
-        <v>685</v>
+        <v>652</v>
       </c>
       <c r="B537" s="2" t="s">
-        <v>682</v>
+        <v>649</v>
       </c>
     </row>
     <row r="538" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A538" s="1" t="s">
-        <v>686</v>
+        <v>653</v>
       </c>
       <c r="B538" s="2" t="s">
-        <v>687</v>
+        <v>654</v>
       </c>
     </row>
     <row r="539" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A539" s="1" t="s">
-        <v>688</v>
+        <v>655</v>
       </c>
       <c r="B539" s="2" t="s">
-        <v>689</v>
+        <v>656</v>
       </c>
     </row>
     <row r="540" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A540" s="1" t="s">
-        <v>690</v>
+        <v>657</v>
       </c>
       <c r="B540" s="2" t="s">
-        <v>691</v>
+        <v>658</v>
       </c>
     </row>
     <row r="541" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A541" s="1" t="s">
-        <v>692</v>
+        <v>659</v>
       </c>
       <c r="B541" s="2" t="s">
-        <v>693</v>
+        <v>660</v>
       </c>
     </row>
     <row r="542" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A542" s="1" t="s">
-        <v>694</v>
+        <v>661</v>
       </c>
       <c r="B542" s="2" t="s">
-        <v>695</v>
+        <v>662</v>
       </c>
     </row>
     <row r="543" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A543" s="1" t="s">
-        <v>696</v>
+        <v>663</v>
       </c>
       <c r="B543" s="2" t="s">
-        <v>697</v>
+        <v>664</v>
       </c>
     </row>
     <row r="544" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A544" s="1" t="s">
-        <v>698</v>
+        <v>665</v>
       </c>
       <c r="B544" s="2" t="s">
-        <v>699</v>
+        <v>666</v>
       </c>
     </row>
     <row r="545" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A545" s="1" t="s">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="B545" s="2" t="s">
-        <v>701</v>
+        <v>668</v>
       </c>
     </row>
     <row r="546" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A546" s="1" t="s">
-        <v>702</v>
+        <v>669</v>
       </c>
       <c r="B546" s="2" t="s">
-        <v>703</v>
+        <v>670</v>
       </c>
     </row>
     <row r="547" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A547" s="1" t="s">
-        <v>704</v>
+        <v>671</v>
       </c>
       <c r="B547" s="2" t="s">
-        <v>705</v>
+        <v>672</v>
       </c>
     </row>
     <row r="548" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A548" s="1" t="s">
-        <v>706</v>
+        <v>673</v>
       </c>
       <c r="B548" s="2" t="s">
         <v>36</v>
@@ -8044,15 +7969,15 @@
     </row>
     <row r="549" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A549" s="1" t="s">
-        <v>707</v>
+        <v>674</v>
       </c>
       <c r="B549" s="2" t="s">
-        <v>708</v>
+        <v>675</v>
       </c>
     </row>
     <row r="550" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A550" s="1" t="s">
-        <v>709</v>
+        <v>676</v>
       </c>
       <c r="B550" s="2" t="s">
         <v>38</v>
@@ -8060,7 +7985,7 @@
     </row>
     <row r="551" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A551" s="1" t="s">
-        <v>710</v>
+        <v>677</v>
       </c>
       <c r="B551" s="2" t="s">
         <v>84</v>
@@ -8068,15 +7993,15 @@
     </row>
     <row r="552" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A552" s="1" t="s">
-        <v>711</v>
+        <v>678</v>
       </c>
       <c r="B552" s="2" t="s">
-        <v>705</v>
+        <v>672</v>
       </c>
     </row>
     <row r="553" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A553" s="1" t="s">
-        <v>712</v>
+        <v>679</v>
       </c>
       <c r="B553" s="2" t="s">
         <v>46</v>
@@ -8084,7 +8009,7 @@
     </row>
     <row r="554" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A554" s="1" t="s">
-        <v>713</v>
+        <v>680</v>
       </c>
       <c r="B554" s="2" t="s">
         <v>78</v>
@@ -8092,7 +8017,7 @@
     </row>
     <row r="555" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A555" s="1" t="s">
-        <v>714</v>
+        <v>681</v>
       </c>
       <c r="B555" s="2" t="s">
         <v>2</v>
@@ -8100,7 +8025,7 @@
     </row>
     <row r="556" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A556" s="1" t="s">
-        <v>715</v>
+        <v>682</v>
       </c>
       <c r="B556" s="2" t="s">
         <v>99</v>
@@ -8108,127 +8033,127 @@
     </row>
     <row r="557" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A557" s="1" t="s">
-        <v>716</v>
+        <v>683</v>
       </c>
       <c r="B557" s="2" t="s">
-        <v>717</v>
+        <v>684</v>
       </c>
     </row>
     <row r="558" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A558" s="1" t="s">
-        <v>718</v>
+        <v>685</v>
       </c>
       <c r="B558" s="2" t="s">
-        <v>719</v>
+        <v>686</v>
       </c>
     </row>
     <row r="559" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A559" s="1" t="s">
-        <v>720</v>
+        <v>687</v>
       </c>
       <c r="B559" s="2" t="s">
-        <v>721</v>
+        <v>688</v>
       </c>
     </row>
     <row r="560" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A560" s="1" t="s">
-        <v>722</v>
+        <v>689</v>
       </c>
       <c r="B560" s="2" t="s">
-        <v>723</v>
+        <v>690</v>
       </c>
     </row>
     <row r="561" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A561" s="1" t="s">
-        <v>724</v>
+        <v>691</v>
       </c>
       <c r="B561" s="2" t="s">
-        <v>725</v>
+        <v>692</v>
       </c>
     </row>
     <row r="562" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A562" s="1" t="s">
-        <v>726</v>
+        <v>693</v>
       </c>
       <c r="B562" s="2" t="s">
-        <v>725</v>
+        <v>692</v>
       </c>
     </row>
     <row r="563" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A563" s="1" t="s">
-        <v>727</v>
+        <v>694</v>
       </c>
       <c r="B563" s="2" t="s">
-        <v>728</v>
+        <v>695</v>
       </c>
     </row>
     <row r="564" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A564" s="1" t="s">
-        <v>729</v>
+        <v>696</v>
       </c>
       <c r="B564" s="2" t="s">
-        <v>730</v>
+        <v>697</v>
       </c>
     </row>
     <row r="565" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A565" s="1" t="s">
-        <v>731</v>
+        <v>698</v>
       </c>
       <c r="B565" s="2" t="s">
-        <v>732</v>
+        <v>699</v>
       </c>
     </row>
     <row r="566" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A566" s="1" t="s">
-        <v>733</v>
+        <v>700</v>
       </c>
       <c r="B566" s="2" t="s">
-        <v>734</v>
+        <v>701</v>
       </c>
     </row>
     <row r="567" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A567" s="1" t="s">
-        <v>735</v>
+        <v>702</v>
       </c>
       <c r="B567" s="2" t="s">
-        <v>736</v>
+        <v>703</v>
       </c>
     </row>
     <row r="568" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A568" s="1" t="s">
-        <v>737</v>
+        <v>704</v>
       </c>
       <c r="B568" s="2" t="s">
-        <v>738</v>
+        <v>705</v>
       </c>
     </row>
     <row r="569" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A569" s="1" t="s">
-        <v>739</v>
+        <v>706</v>
       </c>
       <c r="B569" s="2" t="s">
-        <v>740</v>
+        <v>707</v>
       </c>
     </row>
     <row r="570" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A570" s="1" t="s">
-        <v>741</v>
+        <v>708</v>
       </c>
       <c r="B570" s="2" t="s">
-        <v>742</v>
+        <v>709</v>
       </c>
     </row>
     <row r="571" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A571" s="1" t="s">
-        <v>743</v>
+        <v>710</v>
       </c>
       <c r="B571" s="2" t="s">
-        <v>744</v>
+        <v>711</v>
       </c>
     </row>
     <row r="572" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A572" s="1" t="s">
-        <v>745</v>
+        <v>712</v>
       </c>
       <c r="B572" s="2" t="s">
         <v>44</v>
@@ -8236,7 +8161,7 @@
     </row>
     <row r="573" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A573" s="1" t="s">
-        <v>746</v>
+        <v>713</v>
       </c>
       <c r="B573" s="2" t="s">
         <v>96</v>
@@ -8244,7 +8169,7 @@
     </row>
     <row r="574" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A574" s="1" t="s">
-        <v>747</v>
+        <v>714</v>
       </c>
       <c r="B574" s="2" t="s">
         <v>49</v>
@@ -8252,7 +8177,7 @@
     </row>
     <row r="575" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A575" s="1" t="s">
-        <v>748</v>
+        <v>715</v>
       </c>
       <c r="B575" s="2" t="s">
         <v>100</v>
@@ -8260,7 +8185,7 @@
     </row>
     <row r="576" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A576" s="1" t="s">
-        <v>749</v>
+        <v>716</v>
       </c>
       <c r="B576" s="2" t="s">
         <v>63</v>
@@ -8268,7 +8193,7 @@
     </row>
     <row r="577" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A577" s="1" t="s">
-        <v>750</v>
+        <v>717</v>
       </c>
       <c r="B577" s="2" t="s">
         <v>125</v>
@@ -8276,7 +8201,7 @@
     </row>
     <row r="578" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A578" s="1" t="s">
-        <v>751</v>
+        <v>718</v>
       </c>
       <c r="B578" s="2" t="s">
         <v>72</v>
@@ -8284,10 +8209,10 @@
     </row>
     <row r="579" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A579" s="1" t="s">
-        <v>752</v>
+        <v>719</v>
       </c>
       <c r="B579" s="2" t="s">
-        <v>753</v>
+        <v>720</v>
       </c>
     </row>
     <row r="580" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8303,7 +8228,7 @@
         <v>70012</v>
       </c>
       <c r="B581" s="2" t="s">
-        <v>193</v>
+        <v>160</v>
       </c>
     </row>
     <row r="582" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8319,7 +8244,7 @@
         <v>65016</v>
       </c>
       <c r="B583" s="2" t="s">
-        <v>754</v>
+        <v>721</v>
       </c>
     </row>
     <row r="584" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8335,15 +8260,15 @@
         <v>14175</v>
       </c>
       <c r="B585" s="2" t="s">
-        <v>755</v>
+        <v>722</v>
       </c>
     </row>
     <row r="586" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A586" s="1" t="s">
-        <v>756</v>
+        <v>723</v>
       </c>
       <c r="B586" s="2" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
     </row>
     <row r="587" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8351,7 +8276,7 @@
         <v>130024</v>
       </c>
       <c r="B587" s="2" t="s">
-        <v>378</v>
+        <v>345</v>
       </c>
     </row>
     <row r="588" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8359,15 +8284,15 @@
         <v>19524</v>
       </c>
       <c r="B588" s="2" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
     </row>
     <row r="589" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A589" s="1" t="s">
-        <v>757</v>
+        <v>724</v>
       </c>
       <c r="B589" s="2" t="s">
-        <v>758</v>
+        <v>725</v>
       </c>
     </row>
     <row r="590" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8375,87 +8300,87 @@
         <v>13188</v>
       </c>
       <c r="B590" s="2" t="s">
-        <v>759</v>
+        <v>726</v>
       </c>
     </row>
     <row r="591" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A591" s="1" t="s">
-        <v>760</v>
+        <v>727</v>
       </c>
       <c r="B591" s="2" t="s">
-        <v>473</v>
+        <v>440</v>
       </c>
     </row>
     <row r="592" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A592" s="1" t="s">
-        <v>761</v>
+        <v>728</v>
       </c>
       <c r="B592" s="2" t="s">
-        <v>762</v>
+        <v>729</v>
       </c>
     </row>
     <row r="593" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A593" s="1" t="s">
-        <v>763</v>
+        <v>730</v>
       </c>
       <c r="B593" s="2" t="s">
-        <v>764</v>
+        <v>731</v>
       </c>
     </row>
     <row r="594" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A594" s="1" t="s">
-        <v>765</v>
+        <v>732</v>
       </c>
       <c r="B594" s="2" t="s">
-        <v>766</v>
+        <v>733</v>
       </c>
     </row>
     <row r="595" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A595" s="1" t="s">
-        <v>767</v>
+        <v>734</v>
       </c>
       <c r="B595" s="2" t="s">
-        <v>768</v>
+        <v>735</v>
       </c>
     </row>
     <row r="596" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A596" s="1" t="s">
-        <v>769</v>
+        <v>736</v>
       </c>
       <c r="B596" s="2" t="s">
-        <v>770</v>
+        <v>737</v>
       </c>
     </row>
     <row r="597" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A597" s="1" t="s">
-        <v>771</v>
+        <v>738</v>
       </c>
       <c r="B597" s="2" t="s">
-        <v>772</v>
+        <v>739</v>
       </c>
     </row>
     <row r="598" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A598" s="1" t="s">
-        <v>773</v>
+        <v>740</v>
       </c>
       <c r="B598" s="2" t="s">
-        <v>774</v>
+        <v>741</v>
       </c>
     </row>
     <row r="599" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A599" s="1" t="s">
-        <v>775</v>
+        <v>742</v>
       </c>
       <c r="B599" s="2" t="s">
-        <v>776</v>
+        <v>743</v>
       </c>
     </row>
     <row r="600" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A600" s="1" t="s">
-        <v>777</v>
+        <v>744</v>
       </c>
       <c r="B600" s="2" t="s">
-        <v>778</v>
+        <v>745</v>
       </c>
     </row>
     <row r="601" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8463,7 +8388,7 @@
         <v>29525</v>
       </c>
       <c r="B601" s="2" t="s">
-        <v>779</v>
+        <v>746</v>
       </c>
     </row>
     <row r="602" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8471,7 +8396,7 @@
         <v>29529</v>
       </c>
       <c r="B602" s="4" t="s">
-        <v>780</v>
+        <v>747</v>
       </c>
     </row>
     <row r="603" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8495,7 +8420,7 @@
         <v>7500476</v>
       </c>
       <c r="B605" s="2" t="s">
-        <v>781</v>
+        <v>748</v>
       </c>
     </row>
     <row r="606" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8503,7 +8428,7 @@
         <v>8004516</v>
       </c>
       <c r="B606" s="2" t="s">
-        <v>782</v>
+        <v>749</v>
       </c>
     </row>
     <row r="607" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8511,7 +8436,7 @@
         <v>8004858</v>
       </c>
       <c r="B607" s="2" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="608" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8519,7 +8444,7 @@
         <v>7516056</v>
       </c>
       <c r="B608" s="2" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="609" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8533,7 +8458,7 @@
         <v>7516006</v>
       </c>
       <c r="B610" s="2" t="s">
-        <v>783</v>
+        <v>750</v>
       </c>
     </row>
     <row r="611" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8541,7 +8466,7 @@
         <v>7500178</v>
       </c>
       <c r="B611" s="2" t="s">
-        <v>784</v>
+        <v>751</v>
       </c>
     </row>
     <row r="612" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8573,7 +8498,7 @@
         <v>7500149</v>
       </c>
       <c r="B615" s="2" t="s">
-        <v>611</v>
+        <v>578</v>
       </c>
     </row>
     <row r="616" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8597,7 +8522,7 @@
         <v>8004903</v>
       </c>
       <c r="B618" s="4" t="s">
-        <v>785</v>
+        <v>752</v>
       </c>
     </row>
     <row r="619" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8613,7 +8538,7 @@
         <v>3205</v>
       </c>
       <c r="B620" s="2" t="s">
-        <v>786</v>
+        <v>753</v>
       </c>
     </row>
     <row r="621" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8621,7 +8546,7 @@
         <v>104058</v>
       </c>
       <c r="B621" s="2" t="s">
-        <v>787</v>
+        <v>754</v>
       </c>
     </row>
     <row r="622" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8637,7 +8562,7 @@
         <v>103269</v>
       </c>
       <c r="B623" s="2" t="s">
-        <v>788</v>
+        <v>755</v>
       </c>
     </row>
     <row r="624" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8645,7 +8570,7 @@
         <v>2802</v>
       </c>
       <c r="B624" s="2" t="s">
-        <v>789</v>
+        <v>756</v>
       </c>
     </row>
     <row r="625" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8653,20 +8578,20 @@
         <v>2800</v>
       </c>
       <c r="B625" s="2" t="s">
-        <v>790</v>
+        <v>757</v>
       </c>
     </row>
     <row r="626" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A626" s="1" t="s">
-        <v>791</v>
+        <v>758</v>
       </c>
       <c r="B626" s="2" t="s">
-        <v>792</v>
+        <v>759</v>
       </c>
     </row>
     <row r="627" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A627" s="1" t="s">
-        <v>793</v>
+        <v>760</v>
       </c>
       <c r="B627" s="2" t="s">
         <v>79</v>
@@ -8674,23 +8599,23 @@
     </row>
     <row r="628" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A628" s="1" t="s">
-        <v>794</v>
+        <v>761</v>
       </c>
       <c r="B628" s="2" t="s">
-        <v>790</v>
+        <v>757</v>
       </c>
     </row>
     <row r="629" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A629" s="6" t="s">
-        <v>795</v>
+        <v>762</v>
       </c>
       <c r="B629" s="7" t="s">
-        <v>796</v>
+        <v>763</v>
       </c>
     </row>
     <row r="630" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A630" s="6" t="s">
-        <v>797</v>
+        <v>764</v>
       </c>
       <c r="B630" s="7" t="s">
         <v>151</v>
@@ -8698,7 +8623,7 @@
     </row>
     <row r="631" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A631" s="1" t="s">
-        <v>798</v>
+        <v>765</v>
       </c>
       <c r="B631" s="2" t="s">
         <v>150</v>
@@ -8706,255 +8631,255 @@
     </row>
     <row r="632" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A632" s="1" t="s">
-        <v>799</v>
+        <v>766</v>
       </c>
       <c r="B632" s="2" t="s">
-        <v>211</v>
+        <v>178</v>
       </c>
     </row>
     <row r="633" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A633" s="1" t="s">
-        <v>800</v>
+        <v>767</v>
       </c>
       <c r="B633" s="2" t="s">
-        <v>801</v>
+        <v>768</v>
       </c>
     </row>
     <row r="634" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A634" s="1" t="s">
-        <v>802</v>
+        <v>769</v>
       </c>
       <c r="B634" s="2" t="s">
-        <v>801</v>
+        <v>768</v>
       </c>
     </row>
     <row r="635" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A635" s="1" t="s">
-        <v>803</v>
+        <v>770</v>
       </c>
       <c r="B635" s="2" t="s">
-        <v>804</v>
+        <v>771</v>
       </c>
     </row>
     <row r="636" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A636" s="1" t="s">
-        <v>805</v>
+        <v>772</v>
       </c>
       <c r="B636" s="2" t="s">
-        <v>806</v>
+        <v>773</v>
       </c>
     </row>
     <row r="637" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A637" s="1" t="s">
-        <v>807</v>
+        <v>774</v>
       </c>
       <c r="B637" s="2" t="s">
-        <v>804</v>
+        <v>771</v>
       </c>
     </row>
     <row r="638" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A638" s="1" t="s">
-        <v>808</v>
+        <v>775</v>
       </c>
       <c r="B638" s="2" t="s">
-        <v>809</v>
+        <v>776</v>
       </c>
     </row>
     <row r="639" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A639" s="1" t="s">
-        <v>810</v>
+        <v>777</v>
       </c>
       <c r="B639" s="2" t="s">
-        <v>811</v>
+        <v>778</v>
       </c>
     </row>
     <row r="640" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A640" s="1" t="s">
-        <v>812</v>
+        <v>779</v>
       </c>
       <c r="B640" s="2" t="s">
-        <v>809</v>
+        <v>776</v>
       </c>
     </row>
     <row r="641" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A641" s="1" t="s">
-        <v>813</v>
+        <v>780</v>
       </c>
       <c r="B641" s="2" t="s">
-        <v>811</v>
+        <v>778</v>
       </c>
     </row>
     <row r="642" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A642" s="1" t="s">
-        <v>814</v>
+        <v>781</v>
       </c>
       <c r="B642" s="2" t="s">
-        <v>815</v>
+        <v>782</v>
       </c>
     </row>
     <row r="643" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A643" s="1" t="s">
-        <v>816</v>
+        <v>783</v>
       </c>
       <c r="B643" s="2" t="s">
-        <v>817</v>
+        <v>784</v>
       </c>
     </row>
     <row r="644" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A644" s="1" t="s">
-        <v>818</v>
+        <v>785</v>
       </c>
       <c r="B644" s="2" t="s">
-        <v>819</v>
+        <v>786</v>
       </c>
     </row>
     <row r="645" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A645" s="1" t="s">
-        <v>820</v>
+        <v>787</v>
       </c>
       <c r="B645" s="2" t="s">
-        <v>821</v>
+        <v>788</v>
       </c>
     </row>
     <row r="646" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A646" s="1" t="s">
-        <v>822</v>
+        <v>789</v>
       </c>
       <c r="B646" s="2" t="s">
-        <v>823</v>
+        <v>790</v>
       </c>
     </row>
     <row r="647" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A647" s="1" t="s">
-        <v>824</v>
+        <v>791</v>
       </c>
       <c r="B647" s="2" t="s">
-        <v>804</v>
+        <v>771</v>
       </c>
     </row>
     <row r="648" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A648" s="1" t="s">
-        <v>825</v>
+        <v>792</v>
       </c>
       <c r="B648" s="2" t="s">
-        <v>826</v>
+        <v>793</v>
       </c>
     </row>
     <row r="649" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A649" s="1" t="s">
-        <v>827</v>
+        <v>794</v>
       </c>
       <c r="B649" s="2" t="s">
-        <v>826</v>
+        <v>793</v>
       </c>
     </row>
     <row r="650" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A650" s="1" t="s">
-        <v>828</v>
+        <v>795</v>
       </c>
       <c r="B650" s="2" t="s">
-        <v>829</v>
+        <v>796</v>
       </c>
     </row>
     <row r="651" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A651" s="1" t="s">
-        <v>830</v>
+        <v>797</v>
       </c>
       <c r="B651" s="2" t="s">
-        <v>831</v>
+        <v>798</v>
       </c>
     </row>
     <row r="652" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A652" s="1" t="s">
-        <v>832</v>
+        <v>799</v>
       </c>
       <c r="B652" s="2" t="s">
-        <v>809</v>
+        <v>776</v>
       </c>
     </row>
     <row r="653" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A653" s="1" t="s">
-        <v>833</v>
+        <v>800</v>
       </c>
       <c r="B653" s="2" t="s">
-        <v>821</v>
+        <v>788</v>
       </c>
     </row>
     <row r="654" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A654" s="1" t="s">
-        <v>834</v>
+        <v>801</v>
       </c>
       <c r="B654" s="2" t="s">
-        <v>809</v>
+        <v>776</v>
       </c>
     </row>
     <row r="655" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A655" s="1" t="s">
-        <v>835</v>
+        <v>802</v>
       </c>
       <c r="B655" s="2" t="s">
-        <v>811</v>
+        <v>778</v>
       </c>
     </row>
     <row r="656" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A656" s="1" t="s">
-        <v>836</v>
+        <v>803</v>
       </c>
       <c r="B656" s="2" t="s">
-        <v>809</v>
+        <v>776</v>
       </c>
     </row>
     <row r="657" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A657" s="1" t="s">
-        <v>837</v>
+        <v>804</v>
       </c>
       <c r="B657" s="2" t="s">
-        <v>811</v>
+        <v>778</v>
       </c>
     </row>
     <row r="658" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A658" s="1" t="s">
-        <v>838</v>
+        <v>805</v>
       </c>
       <c r="B658" s="2" t="s">
-        <v>819</v>
+        <v>786</v>
       </c>
     </row>
     <row r="659" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A659" s="1" t="s">
-        <v>839</v>
+        <v>806</v>
       </c>
       <c r="B659" s="2" t="s">
-        <v>840</v>
+        <v>807</v>
       </c>
     </row>
     <row r="660" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A660" s="1" t="s">
-        <v>841</v>
+        <v>808</v>
       </c>
       <c r="B660" s="2" t="s">
-        <v>821</v>
+        <v>788</v>
       </c>
     </row>
     <row r="661" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A661" s="1" t="s">
-        <v>842</v>
+        <v>809</v>
       </c>
       <c r="B661" s="2" t="s">
-        <v>821</v>
+        <v>788</v>
       </c>
     </row>
     <row r="662" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A662" s="1" t="s">
-        <v>843</v>
+        <v>810</v>
       </c>
       <c r="B662" s="2" t="s">
-        <v>823</v>
+        <v>790</v>
       </c>
     </row>
     <row r="663" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A663" s="1" t="s">
-        <v>844</v>
+        <v>811</v>
       </c>
       <c r="B663" s="2" t="s">
         <v>7</v>
@@ -8962,55 +8887,55 @@
     </row>
     <row r="664" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A664" s="1" t="s">
-        <v>845</v>
+        <v>812</v>
       </c>
       <c r="B664" s="2" t="s">
-        <v>821</v>
+        <v>788</v>
       </c>
     </row>
     <row r="665" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A665" s="1" t="s">
-        <v>846</v>
+        <v>813</v>
       </c>
       <c r="B665" s="8" t="s">
-        <v>847</v>
+        <v>814</v>
       </c>
     </row>
     <row r="666" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A666" s="1" t="s">
-        <v>848</v>
+        <v>815</v>
       </c>
       <c r="B666" s="8" t="s">
-        <v>849</v>
+        <v>816</v>
       </c>
     </row>
     <row r="667" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A667" s="1" t="s">
-        <v>850</v>
+        <v>817</v>
       </c>
       <c r="B667" s="2" t="s">
-        <v>851</v>
+        <v>818</v>
       </c>
     </row>
     <row r="668" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A668" s="1" t="s">
-        <v>852</v>
+        <v>819</v>
       </c>
       <c r="B668" s="2" t="s">
-        <v>853</v>
+        <v>820</v>
       </c>
     </row>
     <row r="669" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A669" s="1" t="s">
-        <v>854</v>
+        <v>821</v>
       </c>
       <c r="B669" s="8" t="s">
-        <v>855</v>
+        <v>822</v>
       </c>
     </row>
     <row r="670" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A670" s="1" t="s">
-        <v>856</v>
+        <v>823</v>
       </c>
       <c r="B670" s="8" t="s">
         <v>0</v>
@@ -9018,15 +8943,15 @@
     </row>
     <row r="671" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A671" s="1" t="s">
-        <v>857</v>
+        <v>824</v>
       </c>
       <c r="B671" s="2" t="s">
-        <v>858</v>
+        <v>825</v>
       </c>
     </row>
     <row r="672" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A672" s="1" t="s">
-        <v>859</v>
+        <v>826</v>
       </c>
       <c r="B672" s="8" t="s">
         <v>28</v>
@@ -9034,7 +8959,7 @@
     </row>
     <row r="673" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A673" s="1" t="s">
-        <v>860</v>
+        <v>827</v>
       </c>
       <c r="B673" s="8" t="s">
         <v>16</v>
@@ -9042,15 +8967,15 @@
     </row>
     <row r="674" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A674" s="1" t="s">
-        <v>861</v>
+        <v>828</v>
       </c>
       <c r="B674" s="8" t="s">
-        <v>858</v>
+        <v>825</v>
       </c>
     </row>
     <row r="675" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A675" s="1" t="s">
-        <v>862</v>
+        <v>829</v>
       </c>
       <c r="B675" s="8" t="s">
         <v>25</v>
@@ -9058,31 +8983,31 @@
     </row>
     <row r="676" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A676" s="1" t="s">
-        <v>863</v>
+        <v>830</v>
       </c>
       <c r="B676" s="2" t="s">
-        <v>719</v>
+        <v>686</v>
       </c>
     </row>
     <row r="677" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A677" s="1" t="s">
-        <v>864</v>
+        <v>831</v>
       </c>
       <c r="B677" s="8" t="s">
-        <v>855</v>
+        <v>822</v>
       </c>
     </row>
     <row r="678" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A678" s="1" t="s">
-        <v>865</v>
+        <v>832</v>
       </c>
       <c r="B678" s="8" t="s">
-        <v>849</v>
+        <v>816</v>
       </c>
     </row>
     <row r="679" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A679" s="1" t="s">
-        <v>866</v>
+        <v>833</v>
       </c>
       <c r="B679" s="8" t="s">
         <v>28</v>
@@ -9090,7 +9015,7 @@
     </row>
     <row r="680" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A680" s="1" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="B680" s="8" t="s">
         <v>28</v>
@@ -9098,7 +9023,7 @@
     </row>
     <row r="681" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A681" s="1" t="s">
-        <v>868</v>
+        <v>835</v>
       </c>
       <c r="B681" s="8" t="s">
         <v>46</v>
@@ -9106,15 +9031,15 @@
     </row>
     <row r="682" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A682" s="1" t="s">
-        <v>869</v>
+        <v>836</v>
       </c>
       <c r="B682" s="2" t="s">
-        <v>811</v>
+        <v>778</v>
       </c>
     </row>
     <row r="683" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A683" s="1" t="s">
-        <v>870</v>
+        <v>837</v>
       </c>
       <c r="B683" s="2" t="s">
         <v>5</v>
@@ -9122,7 +9047,7 @@
     </row>
     <row r="684" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A684" s="3" t="s">
-        <v>871</v>
+        <v>838</v>
       </c>
       <c r="B684" s="4" t="s">
         <v>21</v>
@@ -9133,7 +9058,7 @@
         <v>6053</v>
       </c>
       <c r="B685" s="2" t="s">
-        <v>806</v>
+        <v>773</v>
       </c>
     </row>
     <row r="686" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9141,7 +9066,7 @@
         <v>6056</v>
       </c>
       <c r="B686" s="2" t="s">
-        <v>804</v>
+        <v>771</v>
       </c>
     </row>
     <row r="687" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9149,7 +9074,7 @@
         <v>6059</v>
       </c>
       <c r="B687" s="2" t="s">
-        <v>829</v>
+        <v>796</v>
       </c>
     </row>
     <row r="688" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9157,7 +9082,7 @@
         <v>6062</v>
       </c>
       <c r="B688" s="2" t="s">
-        <v>809</v>
+        <v>776</v>
       </c>
     </row>
     <row r="689" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9165,7 +9090,7 @@
         <v>6065</v>
       </c>
       <c r="B689" s="2" t="s">
-        <v>811</v>
+        <v>778</v>
       </c>
     </row>
     <row r="690" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9173,7 +9098,7 @@
         <v>6071</v>
       </c>
       <c r="B690" s="2" t="s">
-        <v>809</v>
+        <v>776</v>
       </c>
     </row>
     <row r="691" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9181,7 +9106,7 @@
         <v>6074</v>
       </c>
       <c r="B691" s="2" t="s">
-        <v>811</v>
+        <v>778</v>
       </c>
     </row>
     <row r="692" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9189,7 +9114,7 @@
         <v>6077</v>
       </c>
       <c r="B692" s="2" t="s">
-        <v>815</v>
+        <v>782</v>
       </c>
     </row>
     <row r="693" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9197,7 +9122,7 @@
         <v>6080</v>
       </c>
       <c r="B693" s="2" t="s">
-        <v>819</v>
+        <v>786</v>
       </c>
     </row>
     <row r="694" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9205,7 +9130,7 @@
         <v>6083</v>
       </c>
       <c r="B694" s="2" t="s">
-        <v>821</v>
+        <v>788</v>
       </c>
     </row>
     <row r="695" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9213,7 +9138,7 @@
         <v>6086</v>
       </c>
       <c r="B695" s="2" t="s">
-        <v>821</v>
+        <v>788</v>
       </c>
     </row>
     <row r="696" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9221,7 +9146,7 @@
         <v>6089</v>
       </c>
       <c r="B696" s="2" t="s">
-        <v>823</v>
+        <v>790</v>
       </c>
     </row>
     <row r="697" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9229,7 +9154,7 @@
         <v>6098</v>
       </c>
       <c r="B697" s="2" t="s">
-        <v>817</v>
+        <v>784</v>
       </c>
     </row>
     <row r="698" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9237,7 +9162,7 @@
         <v>6101</v>
       </c>
       <c r="B698" s="2" t="s">
-        <v>847</v>
+        <v>814</v>
       </c>
     </row>
     <row r="699" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9245,7 +9170,7 @@
         <v>6107</v>
       </c>
       <c r="B699" s="2" t="s">
-        <v>847</v>
+        <v>814</v>
       </c>
     </row>
     <row r="700" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9253,7 +9178,7 @@
         <v>6535</v>
       </c>
       <c r="B700" s="2" t="s">
-        <v>804</v>
+        <v>771</v>
       </c>
     </row>
     <row r="701" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9261,7 +9186,7 @@
         <v>6555</v>
       </c>
       <c r="B701" s="2" t="s">
-        <v>826</v>
+        <v>793</v>
       </c>
     </row>
     <row r="702" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9269,7 +9194,7 @@
         <v>6567</v>
       </c>
       <c r="B702" s="2" t="s">
-        <v>831</v>
+        <v>798</v>
       </c>
     </row>
     <row r="703" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9277,7 +9202,7 @@
         <v>6569</v>
       </c>
       <c r="B703" s="2" t="s">
-        <v>809</v>
+        <v>776</v>
       </c>
     </row>
     <row r="704" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9285,7 +9210,7 @@
         <v>6571</v>
       </c>
       <c r="B704" s="2" t="s">
-        <v>821</v>
+        <v>788</v>
       </c>
     </row>
     <row r="705" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9293,7 +9218,7 @@
         <v>6607</v>
       </c>
       <c r="B705" s="2" t="s">
-        <v>872</v>
+        <v>839</v>
       </c>
     </row>
     <row r="706" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9301,7 +9226,7 @@
         <v>6623</v>
       </c>
       <c r="B706" s="2" t="s">
-        <v>840</v>
+        <v>807</v>
       </c>
     </row>
     <row r="707" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9309,7 +9234,7 @@
         <v>6627</v>
       </c>
       <c r="B707" s="2" t="s">
-        <v>817</v>
+        <v>784</v>
       </c>
     </row>
     <row r="708" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9317,7 +9242,7 @@
         <v>6635</v>
       </c>
       <c r="B708" s="2" t="s">
-        <v>817</v>
+        <v>784</v>
       </c>
     </row>
     <row r="709" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9325,7 +9250,7 @@
         <v>6731</v>
       </c>
       <c r="B709" s="2" t="s">
-        <v>754</v>
+        <v>721</v>
       </c>
     </row>
     <row r="710" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9333,7 +9258,7 @@
         <v>6747</v>
       </c>
       <c r="B710" s="2" t="s">
-        <v>873</v>
+        <v>840</v>
       </c>
     </row>
     <row r="711" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9349,7 +9274,7 @@
         <v>6795</v>
       </c>
       <c r="B712" s="2" t="s">
-        <v>192</v>
+        <v>159</v>
       </c>
     </row>
     <row r="713" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9373,7 +9298,7 @@
         <v>4892</v>
       </c>
       <c r="B715" s="2" t="s">
-        <v>819</v>
+        <v>786</v>
       </c>
     </row>
     <row r="716" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9389,7 +9314,7 @@
         <v>5050</v>
       </c>
       <c r="B717" s="2" t="s">
-        <v>874</v>
+        <v>841</v>
       </c>
     </row>
     <row r="718" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9397,7 +9322,7 @@
         <v>5030</v>
       </c>
       <c r="B718" s="2" t="s">
-        <v>873</v>
+        <v>840</v>
       </c>
     </row>
     <row r="719" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9413,7 +9338,7 @@
         <v>5035</v>
       </c>
       <c r="B720" s="2" t="s">
-        <v>847</v>
+        <v>814</v>
       </c>
     </row>
     <row r="721" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9437,7 +9362,7 @@
         <v>5045</v>
       </c>
       <c r="B723" s="2" t="s">
-        <v>875</v>
+        <v>842</v>
       </c>
     </row>
     <row r="724" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9461,7 +9386,7 @@
         <v>5042</v>
       </c>
       <c r="B726" s="2" t="s">
-        <v>875</v>
+        <v>842</v>
       </c>
     </row>
     <row r="727" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9477,7 +9402,7 @@
         <v>5049</v>
       </c>
       <c r="B728" s="2" t="s">
-        <v>875</v>
+        <v>842</v>
       </c>
     </row>
     <row r="729" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9493,7 +9418,7 @@
         <v>5015</v>
       </c>
       <c r="B730" s="2" t="s">
-        <v>876</v>
+        <v>843</v>
       </c>
     </row>
     <row r="731" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9501,7 +9426,7 @@
         <v>5007</v>
       </c>
       <c r="B731" s="2" t="s">
-        <v>877</v>
+        <v>844</v>
       </c>
     </row>
     <row r="732" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9509,7 +9434,7 @@
         <v>5008</v>
       </c>
       <c r="B732" s="2" t="s">
-        <v>878</v>
+        <v>845</v>
       </c>
     </row>
     <row r="733" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9557,7 +9482,7 @@
         <v>5567</v>
       </c>
       <c r="B738" s="2" t="s">
-        <v>878</v>
+        <v>845</v>
       </c>
     </row>
     <row r="739" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9573,7 +9498,7 @@
         <v>5563</v>
       </c>
       <c r="B740" s="2" t="s">
-        <v>879</v>
+        <v>846</v>
       </c>
     </row>
     <row r="741" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9613,7 +9538,7 @@
         <v>4362</v>
       </c>
       <c r="B745" s="2" t="s">
-        <v>851</v>
+        <v>818</v>
       </c>
     </row>
     <row r="746" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9621,7 +9546,7 @@
         <v>4358</v>
       </c>
       <c r="B746" s="2" t="s">
-        <v>192</v>
+        <v>159</v>
       </c>
     </row>
     <row r="747" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9629,7 +9554,7 @@
         <v>4453</v>
       </c>
       <c r="B747" s="2" t="s">
-        <v>876</v>
+        <v>843</v>
       </c>
     </row>
     <row r="748" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9637,7 +9562,7 @@
         <v>4449</v>
       </c>
       <c r="B748" s="2" t="s">
-        <v>880</v>
+        <v>847</v>
       </c>
     </row>
     <row r="749" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9653,7 +9578,7 @@
         <v>4364</v>
       </c>
       <c r="B750" s="2" t="s">
-        <v>881</v>
+        <v>848</v>
       </c>
     </row>
     <row r="751" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9661,7 +9586,7 @@
         <v>4610</v>
       </c>
       <c r="B751" s="2" t="s">
-        <v>853</v>
+        <v>820</v>
       </c>
     </row>
     <row r="752" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9701,7 +9626,7 @@
         <v>3392</v>
       </c>
       <c r="B756" s="2" t="s">
-        <v>853</v>
+        <v>820</v>
       </c>
     </row>
     <row r="757" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9709,7 +9634,7 @@
         <v>3445</v>
       </c>
       <c r="B757" s="2" t="s">
-        <v>882</v>
+        <v>849</v>
       </c>
     </row>
     <row r="758" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9717,7 +9642,7 @@
         <v>3355</v>
       </c>
       <c r="B758" s="2" t="s">
-        <v>883</v>
+        <v>850</v>
       </c>
     </row>
     <row r="759" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9725,7 +9650,7 @@
         <v>3453</v>
       </c>
       <c r="B759" s="2" t="s">
-        <v>884</v>
+        <v>851</v>
       </c>
     </row>
     <row r="760" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9741,7 +9666,7 @@
         <v>3450</v>
       </c>
       <c r="B761" s="2" t="s">
-        <v>858</v>
+        <v>825</v>
       </c>
     </row>
     <row r="762" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9773,7 +9698,7 @@
         <v>3421</v>
       </c>
       <c r="B765" s="2" t="s">
-        <v>853</v>
+        <v>820</v>
       </c>
     </row>
     <row r="766" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9781,7 +9706,7 @@
         <v>3426</v>
       </c>
       <c r="B766" s="2" t="s">
-        <v>885</v>
+        <v>852</v>
       </c>
     </row>
     <row r="767" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9789,7 +9714,7 @@
         <v>3446</v>
       </c>
       <c r="B767" s="2" t="s">
-        <v>886</v>
+        <v>853</v>
       </c>
     </row>
     <row r="768" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9797,7 +9722,7 @@
         <v>3458</v>
       </c>
       <c r="B768" s="2" t="s">
-        <v>855</v>
+        <v>822</v>
       </c>
     </row>
     <row r="769" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9821,7 +9746,7 @@
         <v>6662</v>
       </c>
       <c r="B771" s="2" t="s">
-        <v>849</v>
+        <v>816</v>
       </c>
     </row>
     <row r="772" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9853,7 +9778,7 @@
         <v>3176</v>
       </c>
       <c r="B775" s="2" t="s">
-        <v>817</v>
+        <v>784</v>
       </c>
     </row>
     <row r="776" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9861,7 +9786,7 @@
         <v>3206</v>
       </c>
       <c r="B776" s="2" t="s">
-        <v>874</v>
+        <v>841</v>
       </c>
     </row>
     <row r="777" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9877,7 +9802,7 @@
         <v>3208</v>
       </c>
       <c r="B778" s="2" t="s">
-        <v>887</v>
+        <v>854</v>
       </c>
     </row>
     <row r="779" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9917,7 +9842,7 @@
         <v>3352</v>
       </c>
       <c r="B783" s="2" t="s">
-        <v>851</v>
+        <v>818</v>
       </c>
     </row>
     <row r="784" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9933,36 +9858,36 @@
         <v>3347</v>
       </c>
       <c r="B785" s="2" t="s">
-        <v>878</v>
+        <v>845</v>
       </c>
     </row>
     <row r="786" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A786" s="1" t="s">
-        <v>888</v>
+        <v>855</v>
       </c>
       <c r="B786" s="2" t="s">
-        <v>889</v>
+        <v>856</v>
       </c>
     </row>
     <row r="787" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A787" s="1" t="s">
-        <v>890</v>
+        <v>857</v>
       </c>
       <c r="B787" s="2" t="s">
-        <v>891</v>
+        <v>858</v>
       </c>
     </row>
     <row r="788" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A788" s="1" t="s">
-        <v>892</v>
+        <v>859</v>
       </c>
       <c r="B788" s="2" t="s">
-        <v>872</v>
+        <v>839</v>
       </c>
     </row>
     <row r="789" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A789" s="1" t="s">
-        <v>893</v>
+        <v>860</v>
       </c>
       <c r="B789" s="2" t="s">
         <v>10</v>
@@ -9970,15 +9895,15 @@
     </row>
     <row r="790" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A790" s="1" t="s">
-        <v>894</v>
+        <v>861</v>
       </c>
       <c r="B790" s="2" t="s">
-        <v>874</v>
+        <v>841</v>
       </c>
     </row>
     <row r="791" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A791" s="1" t="s">
-        <v>895</v>
+        <v>862</v>
       </c>
       <c r="B791" s="2" t="s">
         <v>3</v>
@@ -9986,7 +9911,7 @@
     </row>
     <row r="792" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A792" s="1" t="s">
-        <v>896</v>
+        <v>863</v>
       </c>
       <c r="B792" s="2" t="s">
         <v>10</v>
@@ -9994,7 +9919,7 @@
     </row>
     <row r="793" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A793" s="1" t="s">
-        <v>897</v>
+        <v>864</v>
       </c>
       <c r="B793" s="2" t="s">
         <v>0</v>
@@ -10002,7 +9927,7 @@
     </row>
     <row r="794" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A794" s="1" t="s">
-        <v>898</v>
+        <v>865</v>
       </c>
       <c r="B794" s="2" t="s">
         <v>9</v>
@@ -10010,231 +9935,231 @@
     </row>
     <row r="795" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A795" s="1" t="s">
-        <v>899</v>
+        <v>866</v>
       </c>
       <c r="B795" s="2" t="s">
-        <v>900</v>
+        <v>867</v>
       </c>
     </row>
     <row r="796" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A796" s="1" t="s">
-        <v>901</v>
+        <v>868</v>
       </c>
       <c r="B796" s="2" t="s">
-        <v>902</v>
+        <v>869</v>
       </c>
     </row>
     <row r="797" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A797" s="1" t="s">
-        <v>903</v>
+        <v>870</v>
       </c>
       <c r="B797" s="2" t="s">
-        <v>904</v>
+        <v>871</v>
       </c>
     </row>
     <row r="798" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A798" s="1" t="s">
-        <v>905</v>
+        <v>872</v>
       </c>
       <c r="B798" s="2" t="s">
-        <v>906</v>
+        <v>873</v>
       </c>
     </row>
     <row r="799" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A799" s="1" t="s">
-        <v>907</v>
+        <v>874</v>
       </c>
       <c r="B799" s="2" t="s">
-        <v>908</v>
+        <v>875</v>
       </c>
     </row>
     <row r="800" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A800" s="1" t="s">
-        <v>909</v>
+        <v>876</v>
       </c>
       <c r="B800" s="2" t="s">
-        <v>910</v>
+        <v>877</v>
       </c>
     </row>
     <row r="801" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A801" s="1" t="s">
-        <v>911</v>
+        <v>878</v>
       </c>
       <c r="B801" s="2" t="s">
-        <v>912</v>
+        <v>879</v>
       </c>
     </row>
     <row r="802" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A802" s="1" t="s">
-        <v>913</v>
+        <v>880</v>
       </c>
       <c r="B802" s="2" t="s">
-        <v>914</v>
+        <v>881</v>
       </c>
     </row>
     <row r="803" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A803" s="1" t="s">
-        <v>915</v>
+        <v>882</v>
       </c>
       <c r="B803" s="2" t="s">
-        <v>916</v>
+        <v>883</v>
       </c>
     </row>
     <row r="804" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A804" s="1" t="s">
-        <v>917</v>
+        <v>884</v>
       </c>
       <c r="B804" s="2" t="s">
-        <v>918</v>
+        <v>885</v>
       </c>
     </row>
     <row r="805" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A805" s="1" t="s">
-        <v>919</v>
+        <v>886</v>
       </c>
       <c r="B805" s="2" t="s">
-        <v>920</v>
+        <v>887</v>
       </c>
     </row>
     <row r="806" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A806" s="1" t="s">
-        <v>921</v>
+        <v>888</v>
       </c>
       <c r="B806" s="2" t="s">
-        <v>922</v>
+        <v>889</v>
       </c>
     </row>
     <row r="807" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A807" s="1" t="s">
-        <v>923</v>
+        <v>890</v>
       </c>
       <c r="B807" s="2" t="s">
-        <v>924</v>
+        <v>891</v>
       </c>
     </row>
     <row r="808" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A808" s="1" t="s">
-        <v>925</v>
+        <v>892</v>
       </c>
       <c r="B808" s="2" t="s">
-        <v>926</v>
+        <v>893</v>
       </c>
     </row>
     <row r="809" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A809" s="1" t="s">
-        <v>927</v>
+        <v>894</v>
       </c>
       <c r="B809" s="2" t="s">
-        <v>928</v>
+        <v>895</v>
       </c>
     </row>
     <row r="810" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A810" s="1" t="s">
-        <v>929</v>
+        <v>896</v>
       </c>
       <c r="B810" s="2" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
     </row>
     <row r="811" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A811" s="1" t="s">
-        <v>930</v>
+        <v>897</v>
       </c>
       <c r="B811" s="2" t="s">
-        <v>931</v>
+        <v>898</v>
       </c>
     </row>
     <row r="812" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A812" s="1" t="s">
-        <v>932</v>
+        <v>899</v>
       </c>
       <c r="B812" s="2" t="s">
-        <v>933</v>
+        <v>900</v>
       </c>
     </row>
     <row r="813" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A813" s="1" t="s">
-        <v>934</v>
+        <v>901</v>
       </c>
       <c r="B813" s="2" t="s">
-        <v>768</v>
+        <v>735</v>
       </c>
     </row>
     <row r="814" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A814" s="1" t="s">
-        <v>935</v>
+        <v>902</v>
       </c>
       <c r="B814" s="2" t="s">
-        <v>936</v>
+        <v>903</v>
       </c>
     </row>
     <row r="815" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A815" s="1" t="s">
-        <v>937</v>
+        <v>904</v>
       </c>
       <c r="B815" s="2" t="s">
-        <v>938</v>
+        <v>905</v>
       </c>
     </row>
     <row r="816" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A816" s="1" t="s">
-        <v>939</v>
+        <v>906</v>
       </c>
       <c r="B816" s="2" t="s">
-        <v>940</v>
+        <v>907</v>
       </c>
     </row>
     <row r="817" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A817" s="1" t="s">
-        <v>941</v>
+        <v>908</v>
       </c>
       <c r="B817" s="2" t="s">
-        <v>928</v>
+        <v>895</v>
       </c>
     </row>
     <row r="818" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A818" s="1" t="s">
-        <v>942</v>
+        <v>909</v>
       </c>
       <c r="B818" s="2" t="s">
-        <v>943</v>
+        <v>910</v>
       </c>
     </row>
     <row r="819" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A819" s="1" t="s">
-        <v>944</v>
+        <v>911</v>
       </c>
       <c r="B819" s="2" t="s">
-        <v>945</v>
+        <v>912</v>
       </c>
     </row>
     <row r="820" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A820" s="3" t="s">
-        <v>946</v>
+        <v>913</v>
       </c>
       <c r="B820" s="4" t="s">
-        <v>947</v>
+        <v>914</v>
       </c>
     </row>
     <row r="821" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A821" s="1" t="s">
-        <v>948</v>
+        <v>915</v>
       </c>
       <c r="B821" s="2" t="s">
-        <v>236</v>
+        <v>203</v>
       </c>
     </row>
     <row r="822" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A822" s="1" t="s">
-        <v>949</v>
+        <v>916</v>
       </c>
       <c r="B822" s="2" t="s">
-        <v>950</v>
+        <v>917</v>
       </c>
     </row>
     <row r="823" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A823" s="1" t="s">
-        <v>951</v>
+        <v>918</v>
       </c>
       <c r="B823" s="2" t="s">
         <v>86</v>
@@ -10242,7 +10167,7 @@
     </row>
     <row r="824" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A824" s="1" t="s">
-        <v>952</v>
+        <v>919</v>
       </c>
       <c r="B824" s="2" t="s">
         <v>143</v>
@@ -10250,23 +10175,23 @@
     </row>
     <row r="825" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A825" s="1" t="s">
-        <v>953</v>
+        <v>920</v>
       </c>
       <c r="B825" s="2" t="s">
-        <v>262</v>
+        <v>229</v>
       </c>
     </row>
     <row r="826" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A826" s="1" t="s">
-        <v>954</v>
+        <v>921</v>
       </c>
       <c r="B826" s="2" t="s">
-        <v>217</v>
+        <v>184</v>
       </c>
     </row>
     <row r="827" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A827" s="1" t="s">
-        <v>955</v>
+        <v>922</v>
       </c>
       <c r="B827" s="2" t="s">
         <v>116</v>
@@ -10274,63 +10199,63 @@
     </row>
     <row r="828" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A828" s="1" t="s">
-        <v>956</v>
+        <v>923</v>
       </c>
       <c r="B828" s="2" t="s">
-        <v>957</v>
+        <v>924</v>
       </c>
     </row>
     <row r="829" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A829" s="1" t="s">
-        <v>958</v>
+        <v>925</v>
       </c>
       <c r="B829" s="2" t="s">
-        <v>959</v>
+        <v>926</v>
       </c>
     </row>
     <row r="830" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A830" s="1" t="s">
-        <v>960</v>
+        <v>927</v>
       </c>
       <c r="B830" s="2" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
     </row>
     <row r="831" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A831" s="1" t="s">
-        <v>961</v>
+        <v>928</v>
       </c>
       <c r="B831" s="2" t="s">
-        <v>962</v>
+        <v>929</v>
       </c>
     </row>
     <row r="832" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A832" s="1" t="s">
-        <v>963</v>
+        <v>930</v>
       </c>
       <c r="B832" s="2" t="s">
-        <v>964</v>
+        <v>931</v>
       </c>
     </row>
     <row r="833" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A833" s="1" t="s">
-        <v>965</v>
+        <v>932</v>
       </c>
       <c r="B833" s="2" t="s">
-        <v>966</v>
+        <v>933</v>
       </c>
     </row>
     <row r="834" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A834" s="1" t="s">
-        <v>967</v>
+        <v>934</v>
       </c>
       <c r="B834" s="2" t="s">
-        <v>968</v>
+        <v>935</v>
       </c>
     </row>
     <row r="835" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A835" s="1" t="s">
-        <v>969</v>
+        <v>936</v>
       </c>
       <c r="B835" s="2" t="s">
         <v>116</v>
@@ -10338,151 +10263,151 @@
     </row>
     <row r="836" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A836" s="1" t="s">
-        <v>970</v>
+        <v>937</v>
       </c>
       <c r="B836" s="2" t="s">
-        <v>971</v>
+        <v>938</v>
       </c>
     </row>
     <row r="837" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A837" s="1" t="s">
-        <v>972</v>
+        <v>939</v>
       </c>
       <c r="B837" s="2" t="s">
-        <v>973</v>
+        <v>940</v>
       </c>
     </row>
     <row r="838" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A838" s="1" t="s">
-        <v>974</v>
+        <v>941</v>
       </c>
       <c r="B838" s="2" t="s">
-        <v>975</v>
+        <v>942</v>
       </c>
     </row>
     <row r="839" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A839" s="1" t="s">
-        <v>976</v>
+        <v>943</v>
       </c>
       <c r="B839" s="2" t="s">
-        <v>401</v>
+        <v>368</v>
       </c>
     </row>
     <row r="840" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A840" s="1" t="s">
-        <v>977</v>
+        <v>944</v>
       </c>
       <c r="B840" s="2" t="s">
-        <v>978</v>
+        <v>945</v>
       </c>
     </row>
     <row r="841" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A841" s="1" t="s">
-        <v>979</v>
+        <v>946</v>
       </c>
       <c r="B841" s="2" t="s">
-        <v>980</v>
+        <v>947</v>
       </c>
     </row>
     <row r="842" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A842" s="1" t="s">
-        <v>981</v>
+        <v>948</v>
       </c>
       <c r="B842" s="9" t="s">
-        <v>982</v>
+        <v>949</v>
       </c>
     </row>
     <row r="843" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A843" s="1" t="s">
-        <v>983</v>
+        <v>950</v>
       </c>
       <c r="B843" s="2" t="s">
-        <v>984</v>
+        <v>951</v>
       </c>
     </row>
     <row r="844" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A844" s="1" t="s">
-        <v>985</v>
+        <v>952</v>
       </c>
       <c r="B844" s="2" t="s">
-        <v>986</v>
+        <v>953</v>
       </c>
     </row>
     <row r="845" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A845" s="1" t="s">
-        <v>987</v>
+        <v>954</v>
       </c>
       <c r="B845" s="2" t="s">
-        <v>988</v>
+        <v>955</v>
       </c>
     </row>
     <row r="846" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A846" s="1" t="s">
-        <v>989</v>
+        <v>956</v>
       </c>
       <c r="B846" s="2" t="s">
-        <v>650</v>
+        <v>617</v>
       </c>
     </row>
     <row r="847" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A847" s="1" t="s">
-        <v>990</v>
+        <v>957</v>
       </c>
       <c r="B847" s="2" t="s">
-        <v>781</v>
+        <v>748</v>
       </c>
     </row>
     <row r="848" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A848" s="1" t="s">
-        <v>991</v>
+        <v>958</v>
       </c>
       <c r="B848" s="2" t="s">
-        <v>992</v>
+        <v>959</v>
       </c>
     </row>
     <row r="849" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A849" s="1" t="s">
-        <v>993</v>
+        <v>960</v>
       </c>
       <c r="B849" s="2" t="s">
-        <v>994</v>
+        <v>961</v>
       </c>
     </row>
     <row r="850" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A850" s="1" t="s">
-        <v>995</v>
+        <v>962</v>
       </c>
       <c r="B850" s="2" t="s">
-        <v>996</v>
+        <v>963</v>
       </c>
     </row>
     <row r="851" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A851" s="1" t="s">
-        <v>997</v>
+        <v>964</v>
       </c>
       <c r="B851" s="2" t="s">
-        <v>998</v>
+        <v>965</v>
       </c>
     </row>
     <row r="852" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A852" s="1" t="s">
-        <v>999</v>
+        <v>966</v>
       </c>
       <c r="B852" s="2" t="s">
-        <v>1000</v>
+        <v>967</v>
       </c>
     </row>
     <row r="853" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A853" s="1" t="s">
-        <v>1001</v>
+        <v>968</v>
       </c>
       <c r="B853" s="2" t="s">
-        <v>452</v>
+        <v>419</v>
       </c>
     </row>
     <row r="854" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A854" s="1" t="s">
-        <v>1002</v>
+        <v>969</v>
       </c>
       <c r="B854" s="2" t="s">
         <v>99</v>
@@ -10490,15 +10415,15 @@
     </row>
     <row r="855" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A855" s="1" t="s">
-        <v>1003</v>
+        <v>970</v>
       </c>
       <c r="B855" s="2" t="s">
-        <v>192</v>
+        <v>159</v>
       </c>
     </row>
     <row r="856" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A856" s="1" t="s">
-        <v>1004</v>
+        <v>971</v>
       </c>
       <c r="B856" s="2" t="s">
         <v>18</v>
@@ -10506,7 +10431,7 @@
     </row>
     <row r="857" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A857" s="1" t="s">
-        <v>1005</v>
+        <v>972</v>
       </c>
       <c r="B857" s="2" t="s">
         <v>33</v>
@@ -10514,7 +10439,7 @@
     </row>
     <row r="858" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A858" s="1" t="s">
-        <v>1006</v>
+        <v>973</v>
       </c>
       <c r="B858" s="2" t="s">
         <v>53</v>
@@ -10522,31 +10447,31 @@
     </row>
     <row r="859" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A859" s="1" t="s">
-        <v>1007</v>
+        <v>974</v>
       </c>
       <c r="B859" s="2" t="s">
-        <v>661</v>
+        <v>628</v>
       </c>
     </row>
     <row r="860" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A860" s="1" t="s">
-        <v>1008</v>
+        <v>975</v>
       </c>
       <c r="B860" s="2" t="s">
-        <v>855</v>
+        <v>822</v>
       </c>
     </row>
     <row r="861" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A861" s="1" t="s">
-        <v>1009</v>
+        <v>976</v>
       </c>
       <c r="B861" s="2" t="s">
-        <v>1010</v>
+        <v>977</v>
       </c>
     </row>
     <row r="862" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A862" s="1" t="s">
-        <v>1011</v>
+        <v>978</v>
       </c>
       <c r="B862" s="2" t="s">
         <v>106</v>
@@ -10554,143 +10479,143 @@
     </row>
     <row r="863" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A863" s="1" t="s">
-        <v>1012</v>
+        <v>979</v>
       </c>
       <c r="B863" s="2" t="s">
-        <v>1013</v>
+        <v>980</v>
       </c>
     </row>
     <row r="864" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A864" s="1" t="s">
-        <v>1014</v>
+        <v>981</v>
       </c>
       <c r="B864" s="2" t="s">
-        <v>1015</v>
+        <v>982</v>
       </c>
     </row>
     <row r="865" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A865" s="1" t="s">
-        <v>1016</v>
+        <v>983</v>
       </c>
       <c r="B865" s="2" t="s">
-        <v>1017</v>
+        <v>984</v>
       </c>
     </row>
     <row r="866" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A866" s="1" t="s">
-        <v>1018</v>
+        <v>985</v>
       </c>
       <c r="B866" s="2" t="s">
-        <v>378</v>
+        <v>345</v>
       </c>
     </row>
     <row r="867" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A867" s="1" t="s">
-        <v>1019</v>
+        <v>986</v>
       </c>
       <c r="B867" s="2" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
     </row>
     <row r="868" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A868" s="1" t="s">
-        <v>1020</v>
+        <v>987</v>
       </c>
       <c r="B868" s="2" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
     </row>
     <row r="869" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A869" s="1" t="s">
-        <v>1021</v>
+        <v>988</v>
       </c>
       <c r="B869" s="2" t="s">
-        <v>1022</v>
+        <v>989</v>
       </c>
     </row>
     <row r="870" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A870" s="1" t="s">
-        <v>1023</v>
+        <v>990</v>
       </c>
       <c r="B870" s="2" t="s">
-        <v>1024</v>
+        <v>991</v>
       </c>
     </row>
     <row r="871" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A871" s="1" t="s">
-        <v>1025</v>
+        <v>992</v>
       </c>
       <c r="B871" s="2" t="s">
-        <v>758</v>
+        <v>725</v>
       </c>
     </row>
     <row r="872" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A872" s="1" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="B872" s="2" t="s">
-        <v>1027</v>
+        <v>994</v>
       </c>
     </row>
     <row r="873" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A873" s="1" t="s">
-        <v>1028</v>
+        <v>995</v>
       </c>
       <c r="B873" s="2" t="s">
-        <v>1029</v>
+        <v>996</v>
       </c>
     </row>
     <row r="874" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A874" s="1" t="s">
-        <v>1030</v>
+        <v>997</v>
       </c>
       <c r="B874" s="2" t="s">
-        <v>762</v>
+        <v>729</v>
       </c>
     </row>
     <row r="875" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A875" s="1" t="s">
-        <v>1031</v>
+        <v>998</v>
       </c>
       <c r="B875" s="2" t="s">
-        <v>473</v>
+        <v>440</v>
       </c>
     </row>
     <row r="876" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A876" s="1" t="s">
-        <v>1032</v>
+        <v>999</v>
       </c>
       <c r="B876" s="2" t="s">
-        <v>1033</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="877" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A877" s="1" t="s">
-        <v>1034</v>
+        <v>1001</v>
       </c>
       <c r="B877" s="2" t="s">
-        <v>766</v>
+        <v>733</v>
       </c>
     </row>
     <row r="878" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A878" s="1" t="s">
-        <v>1035</v>
+        <v>1002</v>
       </c>
       <c r="B878" s="2" t="s">
-        <v>772</v>
+        <v>739</v>
       </c>
     </row>
     <row r="879" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A879" s="1" t="s">
-        <v>1036</v>
+        <v>1003</v>
       </c>
       <c r="B879" s="2" t="s">
-        <v>887</v>
+        <v>854</v>
       </c>
     </row>
     <row r="880" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A880" s="1" t="s">
-        <v>1037</v>
+        <v>1004</v>
       </c>
       <c r="B880" s="2" t="s">
         <v>16</v>
@@ -10698,31 +10623,31 @@
     </row>
     <row r="881" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A881" s="1" t="s">
-        <v>1038</v>
+        <v>1005</v>
       </c>
       <c r="B881" s="2" t="s">
-        <v>1039</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="882" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A882" s="1" t="s">
-        <v>1040</v>
+        <v>1007</v>
       </c>
       <c r="B882" s="2" t="s">
-        <v>193</v>
+        <v>160</v>
       </c>
     </row>
     <row r="883" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A883" s="1" t="s">
-        <v>1041</v>
+        <v>1008</v>
       </c>
       <c r="B883" s="2" t="s">
-        <v>754</v>
+        <v>721</v>
       </c>
     </row>
     <row r="884" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A884" s="1" t="s">
-        <v>1042</v>
+        <v>1009</v>
       </c>
       <c r="B884" s="2" t="s">
         <v>34</v>
@@ -10730,7 +10655,7 @@
     </row>
     <row r="885" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A885" s="1" t="s">
-        <v>1043</v>
+        <v>1010</v>
       </c>
       <c r="B885" s="2" t="s">
         <v>34</v>
@@ -10738,7 +10663,7 @@
     </row>
     <row r="886" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A886" s="1" t="s">
-        <v>1044</v>
+        <v>1011</v>
       </c>
       <c r="B886" s="2" t="s">
         <v>46</v>
@@ -10746,7 +10671,7 @@
     </row>
     <row r="887" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A887" s="1" t="s">
-        <v>1045</v>
+        <v>1012</v>
       </c>
       <c r="B887" s="2" t="s">
         <v>46</v>
@@ -10754,55 +10679,55 @@
     </row>
     <row r="888" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A888" s="1" t="s">
-        <v>1046</v>
+        <v>1013</v>
       </c>
       <c r="B888" s="2" t="s">
-        <v>755</v>
+        <v>722</v>
       </c>
     </row>
     <row r="889" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A889" s="1" t="s">
-        <v>1047</v>
+        <v>1014</v>
       </c>
       <c r="B889" s="2" t="s">
-        <v>1048</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="890" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A890" s="1" t="s">
-        <v>1049</v>
+        <v>1016</v>
       </c>
       <c r="B890" s="2" t="s">
-        <v>1050</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="891" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A891" s="1" t="s">
-        <v>1051</v>
+        <v>1018</v>
       </c>
       <c r="B891" s="2" t="s">
-        <v>806</v>
+        <v>773</v>
       </c>
     </row>
     <row r="892" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A892" s="1" t="s">
-        <v>1052</v>
+        <v>1019</v>
       </c>
       <c r="B892" s="2" t="s">
-        <v>1053</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="893" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A893" s="1" t="s">
-        <v>1054</v>
+        <v>1021</v>
       </c>
       <c r="B893" s="2" t="s">
-        <v>1055</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="894" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A894" s="1" t="s">
-        <v>1056</v>
+        <v>1023</v>
       </c>
       <c r="B894" s="2" t="s">
         <v>3</v>
@@ -10810,23 +10735,23 @@
     </row>
     <row r="895" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A895" s="1" t="s">
-        <v>1057</v>
+        <v>1024</v>
       </c>
       <c r="B895" s="2" t="s">
-        <v>1055</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="896" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A896" s="1" t="s">
-        <v>1058</v>
+        <v>1025</v>
       </c>
       <c r="B896" s="2" t="s">
-        <v>880</v>
+        <v>847</v>
       </c>
     </row>
     <row r="897" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A897" s="10" t="s">
-        <v>1060</v>
+        <v>1027</v>
       </c>
       <c r="B897" s="10" t="s">
         <v>150</v>
@@ -10834,10 +10759,10 @@
     </row>
     <row r="898" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A898" s="1" t="s">
-        <v>1059</v>
+        <v>1026</v>
       </c>
       <c r="B898" s="2" t="s">
-        <v>754</v>
+        <v>721</v>
       </c>
     </row>
   </sheetData>
